--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37530136108398</t>
+    <t xml:space="preserve">8.37530040740967</t>
   </si>
   <si>
     <t xml:space="preserve">SCF.MI</t>
@@ -50,16 +50,16 @@
     <t xml:space="preserve">8.17905235290527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13650321960449</t>
+    <t xml:space="preserve">8.13650417327881</t>
   </si>
   <si>
     <t xml:space="preserve">8.16342163085938</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10176849365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11045265197754</t>
+    <t xml:space="preserve">8.10176944732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11045360565186</t>
   </si>
   <si>
     <t xml:space="preserve">8.11913585662842</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">8.2407054901123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2493896484375</t>
+    <t xml:space="preserve">8.24938869476318</t>
   </si>
   <si>
     <t xml:space="preserve">8.29280757904053</t>
@@ -80,19 +80,19 @@
     <t xml:space="preserve">8.50989723205566</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51163291931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48384666442871</t>
+    <t xml:space="preserve">8.51163387298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48384571075439</t>
   </si>
   <si>
     <t xml:space="preserve">8.38398456573486</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31017398834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42306137084961</t>
+    <t xml:space="preserve">8.3101749420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42306041717529</t>
   </si>
   <si>
     <t xml:space="preserve">8.51858043670654</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">8.89892101287842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84681987762451</t>
+    <t xml:space="preserve">8.8468189239502</t>
   </si>
   <si>
     <t xml:space="preserve">8.93886470794678</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">8.93539142608643</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00485992431641</t>
+    <t xml:space="preserve">9.00486087799072</t>
   </si>
   <si>
     <t xml:space="preserve">8.97707271575928</t>
@@ -128,25 +128,25 @@
     <t xml:space="preserve">9.03090953826904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98749256134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33483600616455</t>
+    <t xml:space="preserve">8.98749351501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33483505249023</t>
   </si>
   <si>
     <t xml:space="preserve">9.24799919128418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46508979797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5953426361084</t>
+    <t xml:space="preserve">9.465087890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59534168243408</t>
   </si>
   <si>
     <t xml:space="preserve">9.68217754364014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81243228912354</t>
+    <t xml:space="preserve">9.81243133544922</t>
   </si>
   <si>
     <t xml:space="preserve">9.72559642791748</t>
@@ -158,19 +158,19 @@
     <t xml:space="preserve">10.0295209884644</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76901531219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89926719665527</t>
+    <t xml:space="preserve">9.76901340484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89926624298096</t>
   </si>
   <si>
     <t xml:space="preserve">9.85585021972656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63876152038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55192565917969</t>
+    <t xml:space="preserve">9.63876056671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55192470550537</t>
   </si>
   <si>
     <t xml:space="preserve">9.16116428375244</t>
@@ -179,13 +179,13 @@
     <t xml:space="preserve">9.29141807556152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0743293762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57936573028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63146686553955</t>
+    <t xml:space="preserve">9.07432842254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57936668395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63146591186523</t>
   </si>
   <si>
     <t xml:space="preserve">8.85723876953125</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">8.68356800079346</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45779514312744</t>
+    <t xml:space="preserve">8.45779418945312</t>
   </si>
   <si>
     <t xml:space="preserve">8.40569400787354</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">7.51996994018555</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02361679077148</t>
+    <t xml:space="preserve">8.02361583709717</t>
   </si>
   <si>
     <t xml:space="preserve">7.72837543487549</t>
@@ -218,19 +218,19 @@
     <t xml:space="preserve">7.98888206481934</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8152117729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78047704696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09308433532715</t>
+    <t xml:space="preserve">7.81521081924438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78047752380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09308528900146</t>
   </si>
   <si>
     <t xml:space="preserve">8.38832664489746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90065765380859</t>
+    <t xml:space="preserve">8.90065670013428</t>
   </si>
   <si>
     <t xml:space="preserve">9.11774635314941</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">10.6072797775269</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5170049667358</t>
+    <t xml:space="preserve">10.5170040130615</t>
   </si>
   <si>
     <t xml:space="preserve">11.0135154724121</t>
@@ -290,37 +290,37 @@
     <t xml:space="preserve">11.1037902832031</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0586528778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9683780670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9232416152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8781023025513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6524171829224</t>
+    <t xml:space="preserve">11.0586519241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9683771133423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9232406616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8781032562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.652416229248</t>
   </si>
   <si>
     <t xml:space="preserve">10.7426910400391</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5621423721313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4267301559448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6975536346436</t>
+    <t xml:space="preserve">10.562141418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4267292022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6975545883179</t>
   </si>
   <si>
     <t xml:space="preserve">10.3364553451538</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2461814880371</t>
+    <t xml:space="preserve">10.2461805343628</t>
   </si>
   <si>
     <t xml:space="preserve">11.4197511672974</t>
@@ -344,25 +344,25 @@
     <t xml:space="preserve">11.2392024993896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4648895263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.600302696228</t>
+    <t xml:space="preserve">11.4648885726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6003007888794</t>
   </si>
   <si>
     <t xml:space="preserve">11.6905765533447</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7808513641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8259878158569</t>
+    <t xml:space="preserve">11.7808504104614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8259887695312</t>
   </si>
   <si>
     <t xml:space="preserve">11.8711252212524</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9162635803223</t>
+    <t xml:space="preserve">11.9162626266479</t>
   </si>
   <si>
     <t xml:space="preserve">11.9613990783691</t>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">12.1419496536255</t>
   </si>
   <si>
-    <t xml:space="preserve">12.457911491394</t>
+    <t xml:space="preserve">12.4579105377197</t>
   </si>
   <si>
     <t xml:space="preserve">12.5481853485107</t>
@@ -383,16 +383,16 @@
     <t xml:space="preserve">12.187087059021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2773628234863</t>
+    <t xml:space="preserve">12.277361869812</t>
   </si>
   <si>
     <t xml:space="preserve">12.5030488967896</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6384601593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2322235107422</t>
+    <t xml:space="preserve">12.6384592056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2322244644165</t>
   </si>
   <si>
     <t xml:space="preserve">12.3224992752075</t>
@@ -32017,7 +32017,7 @@
     </row>
     <row r="1163">
       <c r="A1163" s="1" t="n">
-        <v>45446.6495949074</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B1163" t="n">
         <v>68641</v>
@@ -32038,6 +32038,32 @@
         <v>483</v>
       </c>
       <c r="H1163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="1" t="n">
+        <v>45447.649375</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>22340</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G1164" t="s">
+        <v>482</v>
+      </c>
+      <c r="H1164" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37530040740967</t>
+    <t xml:space="preserve">8.37530136108398</t>
   </si>
   <si>
     <t xml:space="preserve">SCF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33448886871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17905235290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13650417327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16342163085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10176944732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11045360565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11913585662842</t>
+    <t xml:space="preserve">8.33448791503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17905330657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13650321960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16342353820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10176849365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11045265197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11913681030273</t>
   </si>
   <si>
     <t xml:space="preserve">8.16255283355713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2407054901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24938869476318</t>
+    <t xml:space="preserve">8.24070644378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2493896484375</t>
   </si>
   <si>
     <t xml:space="preserve">8.29280757904053</t>
@@ -80,13 +80,13 @@
     <t xml:space="preserve">8.50989723205566</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51163387298584</t>
+    <t xml:space="preserve">8.51163291931152</t>
   </si>
   <si>
     <t xml:space="preserve">8.48384571075439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38398456573486</t>
+    <t xml:space="preserve">8.38398551940918</t>
   </si>
   <si>
     <t xml:space="preserve">8.3101749420166</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">8.42306041717529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51858043670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02222633361816</t>
+    <t xml:space="preserve">8.51858139038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0222282409668</t>
   </si>
   <si>
     <t xml:space="preserve">8.89892101287842</t>
@@ -110,19 +110,19 @@
     <t xml:space="preserve">8.93886470794678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94407558441162</t>
+    <t xml:space="preserve">8.94407653808594</t>
   </si>
   <si>
     <t xml:space="preserve">8.93539142608643</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00486087799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97707271575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0291748046875</t>
+    <t xml:space="preserve">9.00485992431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97707176208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02917289733887</t>
   </si>
   <si>
     <t xml:space="preserve">9.03090953826904</t>
@@ -134,16 +134,16 @@
     <t xml:space="preserve">9.33483505249023</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24799919128418</t>
+    <t xml:space="preserve">9.2480001449585</t>
   </si>
   <si>
     <t xml:space="preserve">9.465087890625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59534168243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68217754364014</t>
+    <t xml:space="preserve">9.5953426361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68217849731445</t>
   </si>
   <si>
     <t xml:space="preserve">9.81243133544922</t>
@@ -155,13 +155,13 @@
     <t xml:space="preserve">9.98610305786133</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0295209884644</t>
+    <t xml:space="preserve">10.0295219421387</t>
   </si>
   <si>
     <t xml:space="preserve">9.76901340484619</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89926624298096</t>
+    <t xml:space="preserve">9.89926719665527</t>
   </si>
   <si>
     <t xml:space="preserve">9.85585021972656</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">9.16116428375244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29141807556152</t>
+    <t xml:space="preserve">9.29141712188721</t>
   </si>
   <si>
     <t xml:space="preserve">9.07432842254639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57936668395996</t>
+    <t xml:space="preserve">8.57936477661133</t>
   </si>
   <si>
     <t xml:space="preserve">8.63146591186523</t>
@@ -206,25 +206,25 @@
     <t xml:space="preserve">8.40569400787354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51996994018555</t>
+    <t xml:space="preserve">7.51997041702271</t>
   </si>
   <si>
     <t xml:space="preserve">8.02361583709717</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72837543487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98888206481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81521081924438</t>
+    <t xml:space="preserve">7.72837495803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98888254165649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81521129608154</t>
   </si>
   <si>
     <t xml:space="preserve">7.78047752380371</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09308528900146</t>
+    <t xml:space="preserve">8.09308624267578</t>
   </si>
   <si>
     <t xml:space="preserve">8.38832664489746</t>
@@ -236,22 +236,22 @@
     <t xml:space="preserve">9.11774635314941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81382083892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42167186737061</t>
+    <t xml:space="preserve">8.81382179260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42167282104492</t>
   </si>
   <si>
     <t xml:space="preserve">9.0274715423584</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07260990142822</t>
+    <t xml:space="preserve">9.07260894775391</t>
   </si>
   <si>
     <t xml:space="preserve">9.74966907501221</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1559057235718</t>
+    <t xml:space="preserve">10.1559066772461</t>
   </si>
   <si>
     <t xml:space="preserve">10.291316986084</t>
@@ -260,13 +260,13 @@
     <t xml:space="preserve">10.3815927505493</t>
   </si>
   <si>
-    <t xml:space="preserve">10.471866607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6072797775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5170040130615</t>
+    <t xml:space="preserve">10.4718685150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6072788238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5170049667358</t>
   </si>
   <si>
     <t xml:space="preserve">11.0135154724121</t>
@@ -278,7 +278,7 @@
     <t xml:space="preserve">11.1489276885986</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2843389511108</t>
+    <t xml:space="preserve">11.2843399047852</t>
   </si>
   <si>
     <t xml:space="preserve">10.8329658508301</t>
@@ -290,34 +290,34 @@
     <t xml:space="preserve">11.1037902832031</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0586519241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9683771133423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9232406616211</t>
+    <t xml:space="preserve">11.0586528778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9683780670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9232416152954</t>
   </si>
   <si>
     <t xml:space="preserve">10.8781032562256</t>
   </si>
   <si>
-    <t xml:space="preserve">10.652416229248</t>
+    <t xml:space="preserve">10.6524171829224</t>
   </si>
   <si>
     <t xml:space="preserve">10.7426910400391</t>
   </si>
   <si>
-    <t xml:space="preserve">10.562141418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4267292022705</t>
+    <t xml:space="preserve">10.5621423721313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4267301559448</t>
   </si>
   <si>
     <t xml:space="preserve">10.6975545883179</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3364553451538</t>
+    <t xml:space="preserve">10.3364543914795</t>
   </si>
   <si>
     <t xml:space="preserve">10.2461805343628</t>
@@ -326,34 +326,34 @@
     <t xml:space="preserve">11.4197511672974</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6454381942749</t>
+    <t xml:space="preserve">11.6454372406006</t>
   </si>
   <si>
     <t xml:space="preserve">11.7357130050659</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5551633834839</t>
+    <t xml:space="preserve">11.5551643371582</t>
   </si>
   <si>
     <t xml:space="preserve">11.3746147155762</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5100259780884</t>
+    <t xml:space="preserve">11.5100269317627</t>
   </si>
   <si>
     <t xml:space="preserve">11.2392024993896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4648885726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6003007888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6905765533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7808504104614</t>
+    <t xml:space="preserve">11.4648895263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6003017425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6905755996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7808513641357</t>
   </si>
   <si>
     <t xml:space="preserve">11.8259887695312</t>
@@ -365,46 +365,46 @@
     <t xml:space="preserve">11.9162626266479</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9613990783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1419496536255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4579105377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5481853485107</t>
+    <t xml:space="preserve">11.9614009857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1419486999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.457911491394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5481863021851</t>
   </si>
   <si>
     <t xml:space="preserve">12.3676357269287</t>
   </si>
   <si>
-    <t xml:space="preserve">12.187087059021</t>
+    <t xml:space="preserve">12.1870861053467</t>
   </si>
   <si>
     <t xml:space="preserve">12.277361869812</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5030488967896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6384592056274</t>
+    <t xml:space="preserve">12.5030498504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6384601593018</t>
   </si>
   <si>
     <t xml:space="preserve">12.2322244644165</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3224992752075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.620548248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7136898040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5274085998535</t>
+    <t xml:space="preserve">12.3224983215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6205492019653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7136888504028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5274076461792</t>
   </si>
   <si>
     <t xml:space="preserve">12.4808378219604</t>
@@ -413,34 +413,34 @@
     <t xml:space="preserve">12.6671199798584</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5739784240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2945575714111</t>
+    <t xml:space="preserve">12.5739774703979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2945566177368</t>
   </si>
   <si>
     <t xml:space="preserve">12.3876981735229</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4342679977417</t>
+    <t xml:space="preserve">12.434268951416</t>
   </si>
   <si>
     <t xml:space="preserve">12.9465408325195</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1328229904175</t>
+    <t xml:space="preserve">13.1328220367432</t>
   </si>
   <si>
     <t xml:space="preserve">13.1793918609619</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9931106567383</t>
+    <t xml:space="preserve">12.9931116104126</t>
   </si>
   <si>
     <t xml:space="preserve">13.2725324630737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4588136672974</t>
+    <t xml:space="preserve">13.4588146209717</t>
   </si>
   <si>
     <t xml:space="preserve">13.5519552230835</t>
@@ -458,7 +458,7 @@
     <t xml:space="preserve">13.9710874557495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8779468536377</t>
+    <t xml:space="preserve">13.8779458999634</t>
   </si>
   <si>
     <t xml:space="preserve">13.3656740188599</t>
@@ -470,19 +470,19 @@
     <t xml:space="preserve">13.6916656494141</t>
   </si>
   <si>
-    <t xml:space="preserve">13.645094871521</t>
+    <t xml:space="preserve">13.6450939178467</t>
   </si>
   <si>
     <t xml:space="preserve">13.8313770294189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0642280578613</t>
+    <t xml:space="preserve">14.0642290115356</t>
   </si>
   <si>
     <t xml:space="preserve">14.297080039978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7627830505371</t>
+    <t xml:space="preserve">14.7627820968628</t>
   </si>
   <si>
     <t xml:space="preserve">15.321626663208</t>
@@ -491,28 +491,28 @@
     <t xml:space="preserve">15.6010475158691</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9270401000977</t>
+    <t xml:space="preserve">15.9270391464233</t>
   </si>
   <si>
     <t xml:space="preserve">15.8804683685303</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8338994979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6941890716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9736089706421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4393119812012</t>
+    <t xml:space="preserve">15.8338985443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6941871643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9736099243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4393138885498</t>
   </si>
   <si>
     <t xml:space="preserve">16.6721630096436</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9981575012207</t>
+    <t xml:space="preserve">16.9981555938721</t>
   </si>
   <si>
     <t xml:space="preserve">17.2310085296631</t>
@@ -542,10 +542,10 @@
     <t xml:space="preserve">17.0447254180908</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3707180023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3241481781006</t>
+    <t xml:space="preserve">17.370719909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3241500854492</t>
   </si>
   <si>
     <t xml:space="preserve">16.7653045654297</t>
@@ -557,37 +557,37 @@
     <t xml:space="preserve">16.2996025085449</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1133193969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1598930358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1844367980957</t>
+    <t xml:space="preserve">16.1133213043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.15989112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1844387054443</t>
   </si>
   <si>
     <t xml:space="preserve">17.137866973877</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9050140380859</t>
+    <t xml:space="preserve">16.9050159454346</t>
   </si>
   <si>
     <t xml:space="preserve">17.976131439209</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1624126434326</t>
+    <t xml:space="preserve">18.1624145507812</t>
   </si>
   <si>
     <t xml:space="preserve">17.8829917907715</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8364219665527</t>
+    <t xml:space="preserve">17.8364200592041</t>
   </si>
   <si>
     <t xml:space="preserve">18.1158447265625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5349769592285</t>
+    <t xml:space="preserve">18.5349750518799</t>
   </si>
   <si>
     <t xml:space="preserve">18.628116607666</t>
@@ -596,7 +596,7 @@
     <t xml:space="preserve">18.3486957550049</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5815448760986</t>
+    <t xml:space="preserve">18.5815486907959</t>
   </si>
   <si>
     <t xml:space="preserve">18.9075374603271</t>
@@ -605,22 +605,22 @@
     <t xml:space="preserve">18.4884071350098</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0938205718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2800998687744</t>
+    <t xml:space="preserve">19.0938186645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.280101776123</t>
   </si>
   <si>
     <t xml:space="preserve">20.2115058898926</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1183643341064</t>
+    <t xml:space="preserve">20.1183662414551</t>
   </si>
   <si>
     <t xml:space="preserve">19.8389434814453</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7458038330078</t>
+    <t xml:space="preserve">19.7458019256592</t>
   </si>
   <si>
     <t xml:space="preserve">19.9320831298828</t>
@@ -629,28 +629,28 @@
     <t xml:space="preserve">20.677209854126</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0252265930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1869621276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6526622772217</t>
+    <t xml:space="preserve">20.0252246856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1869602203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6526641845703</t>
   </si>
   <si>
     <t xml:space="preserve">21.7017555236816</t>
   </si>
   <si>
-    <t xml:space="preserve">21.515474319458</t>
+    <t xml:space="preserve">21.5154762268066</t>
   </si>
   <si>
     <t xml:space="preserve">21.7948970794678</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4468784332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7263011932373</t>
+    <t xml:space="preserve">22.4468803405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7263031005859</t>
   </si>
   <si>
     <t xml:space="preserve">22.5400218963623</t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">23.1920051574707</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0057239532471</t>
+    <t xml:space="preserve">23.0057220458984</t>
   </si>
   <si>
     <t xml:space="preserve">23.0988636016846</t>
@@ -680,7 +680,7 @@
     <t xml:space="preserve">23.5645656585693</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8880367279053</t>
+    <t xml:space="preserve">21.8880348205566</t>
   </si>
   <si>
     <t xml:space="preserve">22.1674575805664</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">22.6331615447998</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0497703552246</t>
+    <t xml:space="preserve">21.0497722625732</t>
   </si>
   <si>
     <t xml:space="preserve">21.2360515594482</t>
@@ -707,7 +707,7 @@
     <t xml:space="preserve">21.4223346710205</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5840682983398</t>
+    <t xml:space="preserve">20.5840702056885</t>
   </si>
   <si>
     <t xml:space="preserve">20.3046455383301</t>
@@ -716,10 +716,10 @@
     <t xml:space="preserve">20.8634910583496</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0006790161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1429138183594</t>
+    <t xml:space="preserve">19.0006771087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1429119110107</t>
   </si>
   <si>
     <t xml:space="preserve">19.3732414245605</t>
@@ -743,22 +743,22 @@
     <t xml:space="preserve">17.6221981048584</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0692729949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6746864318848</t>
+    <t xml:space="preserve">18.0692710876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6746845245361</t>
   </si>
   <si>
     <t xml:space="preserve">18.0133895874023</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7525939941406</t>
+    <t xml:space="preserve">17.7525959014893</t>
   </si>
   <si>
     <t xml:space="preserve">17.5663146972656</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6594524383545</t>
+    <t xml:space="preserve">17.6594543457031</t>
   </si>
   <si>
     <t xml:space="preserve">17.7339668273926</t>
@@ -767,16 +767,16 @@
     <t xml:space="preserve">17.9202480316162</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5104274749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8211879730225</t>
+    <t xml:space="preserve">17.5104293823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8211860656738</t>
   </si>
   <si>
     <t xml:space="preserve">16.6349086761475</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8957004547119</t>
+    <t xml:space="preserve">16.8957023620605</t>
   </si>
   <si>
     <t xml:space="preserve">16.728048324585</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">16.54176902771</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3554840087891</t>
+    <t xml:space="preserve">16.3554859161377</t>
   </si>
   <si>
     <t xml:space="preserve">15.722128868103</t>
@@ -797,10 +797,10 @@
     <t xml:space="preserve">15.0515174865723</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770050048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4613370895386</t>
+    <t xml:space="preserve">14.9770059585571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4613380432129</t>
   </si>
   <si>
     <t xml:space="preserve">15.1446590423584</t>
@@ -809,13 +809,13 @@
     <t xml:space="preserve">16.5231380462646</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0968570709229</t>
+    <t xml:space="preserve">17.0968589782715</t>
   </si>
   <si>
     <t xml:space="preserve">17.5940837860107</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5367126464844</t>
+    <t xml:space="preserve">17.5367107391357</t>
   </si>
   <si>
     <t xml:space="preserve">17.364595413208</t>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">18.7224006652832</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3781661987305</t>
+    <t xml:space="preserve">18.3781681060791</t>
   </si>
   <si>
     <t xml:space="preserve">18.6459045410156</t>
@@ -884,31 +884,31 @@
     <t xml:space="preserve">16.274528503418</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8920488357544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7199325561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2171535491943</t>
+    <t xml:space="preserve">15.8920469284058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.719931602478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.217155456543</t>
   </si>
   <si>
     <t xml:space="preserve">16.0067901611328</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1215362548828</t>
+    <t xml:space="preserve">16.1215343475342</t>
   </si>
   <si>
     <t xml:space="preserve">15.9111700057983</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8729238510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8346738815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6051864624023</t>
+    <t xml:space="preserve">15.8729248046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8346748352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6051874160767</t>
   </si>
   <si>
     <t xml:space="preserve">15.2992029190063</t>
@@ -920,25 +920,25 @@
     <t xml:space="preserve">16.7335033416748</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1159820556641</t>
+    <t xml:space="preserve">17.1159839630127</t>
   </si>
   <si>
     <t xml:space="preserve">16.752628326416</t>
   </si>
   <si>
-    <t xml:space="preserve">17.00124168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0394878387451</t>
+    <t xml:space="preserve">17.0012397766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0394859313965</t>
   </si>
   <si>
     <t xml:space="preserve">18.1486797332764</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8235702514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6323337554932</t>
+    <t xml:space="preserve">17.8235721588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6323318481445</t>
   </si>
   <si>
     <t xml:space="preserve">17.7088279724121</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">16.9056205749512</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8291244506836</t>
+    <t xml:space="preserve">16.829122543335</t>
   </si>
   <si>
     <t xml:space="preserve">16.88649559021</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">15.5860624313354</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6872339248657</t>
+    <t xml:space="preserve">14.68723487854</t>
   </si>
   <si>
     <t xml:space="preserve">14.1900110244751</t>
@@ -1010,7 +1010,7 @@
     <t xml:space="preserve">13.6736631393433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6545391082764</t>
+    <t xml:space="preserve">13.6545381546021</t>
   </si>
   <si>
     <t xml:space="preserve">13.3485546112061</t>
@@ -1022,28 +1022,28 @@
     <t xml:space="preserve">13.0999422073364</t>
   </si>
   <si>
-    <t xml:space="preserve">12.564471244812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4250507354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4768714904785</t>
+    <t xml:space="preserve">12.5644702911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4250497817993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4768705368042</t>
   </si>
   <si>
     <t xml:space="preserve">14.4386234283447</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708860397339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9413986206055</t>
+    <t xml:space="preserve">14.1708869934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9413995742798</t>
   </si>
   <si>
     <t xml:space="preserve">13.9987716674805</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2473831176758</t>
+    <t xml:space="preserve">14.2473821640015</t>
   </si>
   <si>
     <t xml:space="preserve">14.2282590866089</t>
@@ -1052,16 +1052,16 @@
     <t xml:space="preserve">14.8593511581421</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0888385772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4713201522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3948240280151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4521951675415</t>
+    <t xml:space="preserve">15.0888395309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4713191986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3948230743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4521942138672</t>
   </si>
   <si>
     <t xml:space="preserve">15.3183279037476</t>
@@ -1088,28 +1088,28 @@
     <t xml:space="preserve">15.5669393539429</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0832862854004</t>
+    <t xml:space="preserve">16.083288192749</t>
   </si>
   <si>
     <t xml:space="preserve">16.1980323791504</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7908744812012</t>
+    <t xml:space="preserve">16.7908763885498</t>
   </si>
   <si>
     <t xml:space="preserve">16.5805110931396</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1351070404053</t>
+    <t xml:space="preserve">17.1351089477539</t>
   </si>
   <si>
     <t xml:space="preserve">17.0203628540039</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6187572479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5613861083984</t>
+    <t xml:space="preserve">16.6187591552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5613880157471</t>
   </si>
   <si>
     <t xml:space="preserve">16.6761322021484</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">16.9438667297363</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4657669067383</t>
+    <t xml:space="preserve">16.4657649993896</t>
   </si>
   <si>
     <t xml:space="preserve">16.159782409668</t>
@@ -1130,10 +1130,10 @@
     <t xml:space="preserve">16.3318996429443</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1024112701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9876661300659</t>
+    <t xml:space="preserve">16.1024131774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9876670837402</t>
   </si>
   <si>
     <t xml:space="preserve">16.4466457366943</t>
@@ -1148,13 +1148,13 @@
     <t xml:space="preserve">17.3072242736816</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5175876617432</t>
+    <t xml:space="preserve">17.5175857543945</t>
   </si>
   <si>
     <t xml:space="preserve">17.7661991119385</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0721836090088</t>
+    <t xml:space="preserve">18.0721817016602</t>
   </si>
   <si>
     <t xml:space="preserve">17.7853240966797</t>
@@ -1163,10 +1163,10 @@
     <t xml:space="preserve">17.8618202209473</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3837203979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8044471740723</t>
+    <t xml:space="preserve">17.3837184906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8044490814209</t>
   </si>
   <si>
     <t xml:space="preserve">17.498462677002</t>
@@ -1175,13 +1175,13 @@
     <t xml:space="preserve">17.6897029876709</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4793395996094</t>
+    <t xml:space="preserve">17.479341506958</t>
   </si>
   <si>
     <t xml:space="preserve">17.2307281494141</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0586128234863</t>
+    <t xml:space="preserve">17.0586109161377</t>
   </si>
   <si>
     <t xml:space="preserve">17.2116031646729</t>
@@ -1190,10 +1190,10 @@
     <t xml:space="preserve">17.4219665527344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3590431213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2251758575439</t>
+    <t xml:space="preserve">18.3590450286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2251739501953</t>
   </si>
   <si>
     <t xml:space="preserve">18.9327621459961</t>
@@ -1211,7 +1211,7 @@
     <t xml:space="preserve">20.1758232116699</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4148731231689</t>
+    <t xml:space="preserve">20.4148750305176</t>
   </si>
   <si>
     <t xml:space="preserve">20.5104942321777</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">20.2236347198486</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7933444976807</t>
+    <t xml:space="preserve">19.7933464050293</t>
   </si>
   <si>
     <t xml:space="preserve">19.6021041870117</t>
@@ -1244,16 +1244,16 @@
     <t xml:space="preserve">20.7495441436768</t>
   </si>
   <si>
-    <t xml:space="preserve">20.653923034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7973556518555</t>
+    <t xml:space="preserve">20.6539249420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7973537445068</t>
   </si>
   <si>
     <t xml:space="preserve">20.7017345428467</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0364055633545</t>
+    <t xml:space="preserve">21.0364036560059</t>
   </si>
   <si>
     <t xml:space="preserve">20.8451633453369</t>
@@ -32043,7 +32043,7 @@
     </row>
     <row r="1164">
       <c r="A1164" s="1" t="n">
-        <v>45447.649375</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B1164" t="n">
         <v>22340</v>
@@ -32064,6 +32064,32 @@
         <v>482</v>
       </c>
       <c r="H1164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="1" t="n">
+        <v>45448.6495833333</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>13519</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G1165" t="s">
+        <v>482</v>
+      </c>
+      <c r="H1165" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37530136108398</t>
+    <t xml:space="preserve">8.3753023147583</t>
   </si>
   <si>
     <t xml:space="preserve">SCF.MI</t>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">8.33448791503906</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17905330657959</t>
+    <t xml:space="preserve">8.17905139923096</t>
   </si>
   <si>
     <t xml:space="preserve">8.13650321960449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16342353820801</t>
+    <t xml:space="preserve">8.16342163085938</t>
   </si>
   <si>
     <t xml:space="preserve">8.10176849365234</t>
@@ -65,16 +65,16 @@
     <t xml:space="preserve">8.11913681030273</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16255283355713</t>
+    <t xml:space="preserve">8.16255378723145</t>
   </si>
   <si>
     <t xml:space="preserve">8.24070644378662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2493896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29280757904053</t>
+    <t xml:space="preserve">8.24939060211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29280853271484</t>
   </si>
   <si>
     <t xml:space="preserve">8.50989723205566</t>
@@ -92,13 +92,13 @@
     <t xml:space="preserve">8.3101749420166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42306041717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51858139038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0222282409668</t>
+    <t xml:space="preserve">8.42306137084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51858043670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02222728729248</t>
   </si>
   <si>
     <t xml:space="preserve">8.89892101287842</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">8.93886470794678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94407653808594</t>
+    <t xml:space="preserve">8.94407558441162</t>
   </si>
   <si>
     <t xml:space="preserve">8.93539142608643</t>
@@ -119,46 +119,46 @@
     <t xml:space="preserve">9.00485992431641</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97707176208496</t>
+    <t xml:space="preserve">8.97707271575928</t>
   </si>
   <si>
     <t xml:space="preserve">9.02917289733887</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03090953826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98749351501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33483505249023</t>
+    <t xml:space="preserve">9.03091049194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98749446868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33483600616455</t>
   </si>
   <si>
     <t xml:space="preserve">9.2480001449585</t>
   </si>
   <si>
-    <t xml:space="preserve">9.465087890625</t>
+    <t xml:space="preserve">9.46508884429932</t>
   </si>
   <si>
     <t xml:space="preserve">9.5953426361084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68217849731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81243133544922</t>
+    <t xml:space="preserve">9.68217754364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81243228912354</t>
   </si>
   <si>
     <t xml:space="preserve">9.72559642791748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98610305786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0295219421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76901340484619</t>
+    <t xml:space="preserve">9.98610401153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0295209884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76901435852051</t>
   </si>
   <si>
     <t xml:space="preserve">9.89926719665527</t>
@@ -170,25 +170,25 @@
     <t xml:space="preserve">9.63876056671143</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55192470550537</t>
+    <t xml:space="preserve">9.55192375183105</t>
   </si>
   <si>
     <t xml:space="preserve">9.16116428375244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29141712188721</t>
+    <t xml:space="preserve">9.29141807556152</t>
   </si>
   <si>
     <t xml:space="preserve">9.07432842254639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57936477661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63146591186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85723876953125</t>
+    <t xml:space="preserve">8.57936573028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63146686553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85723972320557</t>
   </si>
   <si>
     <t xml:space="preserve">8.77040386199951</t>
@@ -197,31 +197,31 @@
     <t xml:space="preserve">9.20458221435547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68356800079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45779418945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40569400787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51997041702271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02361583709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72837495803833</t>
+    <t xml:space="preserve">8.68356704711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45779514312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40569496154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51997089385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02361679077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72837591171265</t>
   </si>
   <si>
     <t xml:space="preserve">7.98888254165649</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81521129608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78047752380371</t>
+    <t xml:space="preserve">7.81521034240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78047704696655</t>
   </si>
   <si>
     <t xml:space="preserve">8.09308624267578</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">8.38832664489746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90065670013428</t>
+    <t xml:space="preserve">8.90065765380859</t>
   </si>
   <si>
     <t xml:space="preserve">9.11774635314941</t>
@@ -239,25 +239,28 @@
     <t xml:space="preserve">8.81382179260254</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42167282104492</t>
+    <t xml:space="preserve">9.42167186737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11774730682373</t>
   </si>
   <si>
     <t xml:space="preserve">9.0274715423584</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07260894775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74966907501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1559066772461</t>
+    <t xml:space="preserve">9.07260990142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74967002868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1559057235718</t>
   </si>
   <si>
     <t xml:space="preserve">10.291316986084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3815927505493</t>
+    <t xml:space="preserve">10.3815937042236</t>
   </si>
   <si>
     <t xml:space="preserve">10.4718685150146</t>
@@ -266,16 +269,16 @@
     <t xml:space="preserve">10.6072788238525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5170049667358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0135154724121</t>
+    <t xml:space="preserve">10.5170040130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0135145187378</t>
   </si>
   <si>
     <t xml:space="preserve">11.1940650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1489276885986</t>
+    <t xml:space="preserve">11.1489286422729</t>
   </si>
   <si>
     <t xml:space="preserve">11.2843399047852</t>
@@ -326,10 +329,10 @@
     <t xml:space="preserve">11.4197511672974</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6454372406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7357130050659</t>
+    <t xml:space="preserve">11.6454381942749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7357139587402</t>
   </si>
   <si>
     <t xml:space="preserve">11.5551643371582</t>
@@ -338,7 +341,7 @@
     <t xml:space="preserve">11.3746147155762</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5100269317627</t>
+    <t xml:space="preserve">11.5100259780884</t>
   </si>
   <si>
     <t xml:space="preserve">11.2392024993896</t>
@@ -347,13 +350,13 @@
     <t xml:space="preserve">11.4648895263672</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6003017425537</t>
+    <t xml:space="preserve">11.6003007888794</t>
   </si>
   <si>
     <t xml:space="preserve">11.6905755996704</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7808513641357</t>
+    <t xml:space="preserve">11.7808504104614</t>
   </si>
   <si>
     <t xml:space="preserve">11.8259887695312</t>
@@ -368,13 +371,13 @@
     <t xml:space="preserve">11.9614009857178</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1419486999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.457911491394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5481863021851</t>
+    <t xml:space="preserve">12.1419496536255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4579105377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5481853485107</t>
   </si>
   <si>
     <t xml:space="preserve">12.3676357269287</t>
@@ -386,28 +389,28 @@
     <t xml:space="preserve">12.277361869812</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5030498504639</t>
+    <t xml:space="preserve">12.5030488967896</t>
   </si>
   <si>
     <t xml:space="preserve">12.6384601593018</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2322244644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3224983215332</t>
+    <t xml:space="preserve">12.2322254180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3224992752075</t>
   </si>
   <si>
     <t xml:space="preserve">12.6205492019653</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7136888504028</t>
+    <t xml:space="preserve">12.7136898040771</t>
   </si>
   <si>
     <t xml:space="preserve">12.5274076461792</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4808378219604</t>
+    <t xml:space="preserve">12.4808368682861</t>
   </si>
   <si>
     <t xml:space="preserve">12.6671199798584</t>
@@ -419,10 +422,10 @@
     <t xml:space="preserve">12.2945566177368</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3876981735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.434268951416</t>
+    <t xml:space="preserve">12.3876972198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4342679977417</t>
   </si>
   <si>
     <t xml:space="preserve">12.9465408325195</t>
@@ -434,7 +437,7 @@
     <t xml:space="preserve">13.1793918609619</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9931116104126</t>
+    <t xml:space="preserve">12.9931106567383</t>
   </si>
   <si>
     <t xml:space="preserve">13.2725324630737</t>
@@ -452,7 +455,7 @@
     <t xml:space="preserve">13.5985250473022</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7382354736328</t>
+    <t xml:space="preserve">13.7382364273071</t>
   </si>
   <si>
     <t xml:space="preserve">13.9710874557495</t>
@@ -461,7 +464,7 @@
     <t xml:space="preserve">13.8779458999634</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3656740188599</t>
+    <t xml:space="preserve">13.3656730651855</t>
   </si>
   <si>
     <t xml:space="preserve">13.5053844451904</t>
@@ -470,13 +473,13 @@
     <t xml:space="preserve">13.6916656494141</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6450939178467</t>
+    <t xml:space="preserve">13.645094871521</t>
   </si>
   <si>
     <t xml:space="preserve">13.8313770294189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0642290115356</t>
+    <t xml:space="preserve">14.0642280578613</t>
   </si>
   <si>
     <t xml:space="preserve">14.297080039978</t>
@@ -494,34 +497,34 @@
     <t xml:space="preserve">15.9270391464233</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8804683685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8338985443115</t>
+    <t xml:space="preserve">15.8804693222046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8338994979858</t>
   </si>
   <si>
     <t xml:space="preserve">15.6941871643066</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9736099243164</t>
+    <t xml:space="preserve">15.9736089706421</t>
   </si>
   <si>
     <t xml:space="preserve">16.4393138885498</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6721630096436</t>
+    <t xml:space="preserve">16.6721649169922</t>
   </si>
   <si>
     <t xml:space="preserve">16.9981555938721</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2310085296631</t>
+    <t xml:space="preserve">17.2310066223145</t>
   </si>
   <si>
     <t xml:space="preserve">16.9515857696533</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4172897338867</t>
+    <t xml:space="preserve">17.4172878265381</t>
   </si>
   <si>
     <t xml:space="preserve">17.6501407623291</t>
@@ -542,10 +545,10 @@
     <t xml:space="preserve">17.0447254180908</t>
   </si>
   <si>
-    <t xml:space="preserve">17.370719909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3241500854492</t>
+    <t xml:space="preserve">17.3707180023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3241481781006</t>
   </si>
   <si>
     <t xml:space="preserve">16.7653045654297</t>
@@ -563,7 +566,7 @@
     <t xml:space="preserve">16.15989112854</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1844387054443</t>
+    <t xml:space="preserve">17.1844367980957</t>
   </si>
   <si>
     <t xml:space="preserve">17.137866973877</t>
@@ -578,7 +581,7 @@
     <t xml:space="preserve">18.1624145507812</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8829917907715</t>
+    <t xml:space="preserve">17.8829936981201</t>
   </si>
   <si>
     <t xml:space="preserve">17.8364200592041</t>
@@ -590,13 +593,13 @@
     <t xml:space="preserve">18.5349750518799</t>
   </si>
   <si>
-    <t xml:space="preserve">18.628116607666</t>
+    <t xml:space="preserve">18.6281147003174</t>
   </si>
   <si>
     <t xml:space="preserve">18.3486957550049</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5815486907959</t>
+    <t xml:space="preserve">18.5815467834473</t>
   </si>
   <si>
     <t xml:space="preserve">18.9075374603271</t>
@@ -608,7 +611,7 @@
     <t xml:space="preserve">19.0938186645508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.280101776123</t>
+    <t xml:space="preserve">19.2801036834717</t>
   </si>
   <si>
     <t xml:space="preserve">20.2115058898926</t>
@@ -620,13 +623,13 @@
     <t xml:space="preserve">19.8389434814453</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7458019256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9320831298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.677209854126</t>
+    <t xml:space="preserve">19.7458038330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9320850372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6772079467773</t>
   </si>
   <si>
     <t xml:space="preserve">20.0252246856689</t>
@@ -635,25 +638,25 @@
     <t xml:space="preserve">19.1869602203369</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6526641845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7017555236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5154762268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7948970794678</t>
+    <t xml:space="preserve">19.6526622772217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.701753616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.515474319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7948951721191</t>
   </si>
   <si>
     <t xml:space="preserve">22.4468803405762</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7263031005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5400218963623</t>
+    <t xml:space="preserve">22.7263011932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5400238037109</t>
   </si>
   <si>
     <t xml:space="preserve">23.2851448059082</t>
@@ -662,7 +665,7 @@
     <t xml:space="preserve">23.1920051574707</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0057220458984</t>
+    <t xml:space="preserve">23.0057239532471</t>
   </si>
   <si>
     <t xml:space="preserve">23.0988636016846</t>
@@ -686,7 +689,7 @@
     <t xml:space="preserve">22.1674575805664</t>
   </si>
   <si>
-    <t xml:space="preserve">22.35373878479</t>
+    <t xml:space="preserve">22.3537406921387</t>
   </si>
   <si>
     <t xml:space="preserve">22.2605991363525</t>
@@ -707,7 +710,7 @@
     <t xml:space="preserve">21.4223346710205</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5840702056885</t>
+    <t xml:space="preserve">20.5840682983398</t>
   </si>
   <si>
     <t xml:space="preserve">20.3046455383301</t>
@@ -719,7 +722,7 @@
     <t xml:space="preserve">19.0006771087646</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1429119110107</t>
+    <t xml:space="preserve">21.1429138183594</t>
   </si>
   <si>
     <t xml:space="preserve">19.3732414245605</t>
@@ -734,7 +737,7 @@
     <t xml:space="preserve">18.7212581634521</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5722312927246</t>
+    <t xml:space="preserve">18.5722332000732</t>
   </si>
   <si>
     <t xml:space="preserve">18.3673229217529</t>
@@ -743,16 +746,16 @@
     <t xml:space="preserve">17.6221981048584</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0692710876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6746845245361</t>
+    <t xml:space="preserve">18.0692729949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6746864318848</t>
   </si>
   <si>
     <t xml:space="preserve">18.0133895874023</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7525959014893</t>
+    <t xml:space="preserve">17.7525939941406</t>
   </si>
   <si>
     <t xml:space="preserve">17.5663146972656</t>
@@ -761,31 +764,31 @@
     <t xml:space="preserve">17.6594543457031</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7339668273926</t>
+    <t xml:space="preserve">17.7339687347412</t>
   </si>
   <si>
     <t xml:space="preserve">17.9202480316162</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5104293823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8211860656738</t>
+    <t xml:space="preserve">17.5104274749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8211879730225</t>
   </si>
   <si>
     <t xml:space="preserve">16.6349086761475</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8957023620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.728048324585</t>
+    <t xml:space="preserve">16.8957004547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7280464172363</t>
   </si>
   <si>
     <t xml:space="preserve">16.54176902771</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3554859161377</t>
+    <t xml:space="preserve">16.3554878234863</t>
   </si>
   <si>
     <t xml:space="preserve">15.722128868103</t>
@@ -806,7 +809,7 @@
     <t xml:space="preserve">15.1446590423584</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5231380462646</t>
+    <t xml:space="preserve">16.5231399536133</t>
   </si>
   <si>
     <t xml:space="preserve">17.0968589782715</t>
@@ -981,9 +984,6 @@
   </si>
   <si>
     <t xml:space="preserve">16.2554035186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5231399536133</t>
   </si>
   <si>
     <t xml:space="preserve">16.9247436523438</t>
@@ -5177,7 +5177,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G130" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H130" t="s">
         <v>9</v>
@@ -5203,7 +5203,7 @@
         <v>10</v>
       </c>
       <c r="G131" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -5229,7 +5229,7 @@
         <v>10</v>
       </c>
       <c r="G132" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -5255,7 +5255,7 @@
         <v>10</v>
       </c>
       <c r="G133" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -5281,7 +5281,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G134" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -5307,7 +5307,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G135" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -5333,7 +5333,7 @@
         <v>11.25</v>
       </c>
       <c r="G136" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -5359,7 +5359,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G137" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -5385,7 +5385,7 @@
         <v>11.5</v>
       </c>
       <c r="G138" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -5411,7 +5411,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G139" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -5437,7 +5437,7 @@
         <v>11.75</v>
       </c>
       <c r="G140" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -5463,7 +5463,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G141" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -5489,7 +5489,7 @@
         <v>11.5</v>
       </c>
       <c r="G142" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -5515,7 +5515,7 @@
         <v>11.75</v>
       </c>
       <c r="G143" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -5541,7 +5541,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G144" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -5567,7 +5567,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G145" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -5593,7 +5593,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G146" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -5619,7 +5619,7 @@
         <v>12.5</v>
       </c>
       <c r="G147" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -5645,7 +5645,7 @@
         <v>12</v>
       </c>
       <c r="G148" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -5671,7 +5671,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G149" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -5697,7 +5697,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G150" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -5723,7 +5723,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G151" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -5749,7 +5749,7 @@
         <v>12.5</v>
       </c>
       <c r="G152" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -5775,7 +5775,7 @@
         <v>12.25</v>
       </c>
       <c r="G153" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -5801,7 +5801,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G154" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -5827,7 +5827,7 @@
         <v>12.5</v>
       </c>
       <c r="G155" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -5853,7 +5853,7 @@
         <v>12.25</v>
       </c>
       <c r="G156" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -5879,7 +5879,7 @@
         <v>12</v>
       </c>
       <c r="G157" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -5905,7 +5905,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G158" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -5931,7 +5931,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G159" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -5957,7 +5957,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G160" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -5983,7 +5983,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G161" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -6009,7 +6009,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G162" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -6035,7 +6035,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G163" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -6061,7 +6061,7 @@
         <v>12</v>
       </c>
       <c r="G164" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -6087,7 +6087,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G165" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -6113,7 +6113,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G166" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -6139,7 +6139,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G167" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -6165,7 +6165,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G168" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -6191,7 +6191,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G169" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -6217,7 +6217,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G170" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -6243,7 +6243,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G171" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -6269,7 +6269,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G172" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -6295,7 +6295,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G173" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -6321,7 +6321,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G174" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -6347,7 +6347,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G175" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -6373,7 +6373,7 @@
         <v>12</v>
       </c>
       <c r="G176" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -6399,7 +6399,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G177" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -6425,7 +6425,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G178" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -6451,7 +6451,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G179" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -6477,7 +6477,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G180" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -6503,7 +6503,7 @@
         <v>11.75</v>
       </c>
       <c r="G181" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -6529,7 +6529,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G182" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -6555,7 +6555,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G183" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -6581,7 +6581,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G184" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -6607,7 +6607,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G185" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -6633,7 +6633,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G186" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -6659,7 +6659,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G187" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -6685,7 +6685,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G188" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -6711,7 +6711,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G189" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -6737,7 +6737,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G190" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -6763,7 +6763,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G191" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -6789,7 +6789,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G192" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -6815,7 +6815,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G193" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -6841,7 +6841,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G194" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -6867,7 +6867,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G195" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -6893,7 +6893,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G196" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -6919,7 +6919,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G197" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -6945,7 +6945,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G198" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -6971,7 +6971,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G199" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -6997,7 +6997,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G200" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -7023,7 +7023,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G201" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -7049,7 +7049,7 @@
         <v>11.75</v>
       </c>
       <c r="G202" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7075,7 +7075,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G203" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7101,7 +7101,7 @@
         <v>11.75</v>
       </c>
       <c r="G204" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -7127,7 +7127,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G205" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -7153,7 +7153,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G206" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -7179,7 +7179,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G207" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -7205,7 +7205,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G208" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -7231,7 +7231,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G209" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -7257,7 +7257,7 @@
         <v>12.25</v>
       </c>
       <c r="G210" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -7283,7 +7283,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G211" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -7309,7 +7309,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G212" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -7335,7 +7335,7 @@
         <v>12.25</v>
       </c>
       <c r="G213" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -7361,7 +7361,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G214" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -7387,7 +7387,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G215" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -7413,7 +7413,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G216" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -7439,7 +7439,7 @@
         <v>12.5</v>
       </c>
       <c r="G217" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -7465,7 +7465,7 @@
         <v>12.5</v>
       </c>
       <c r="G218" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -7491,7 +7491,7 @@
         <v>12.25</v>
       </c>
       <c r="G219" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -7517,7 +7517,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G220" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -7543,7 +7543,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G221" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -7569,7 +7569,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G222" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -7595,7 +7595,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G223" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -7621,7 +7621,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G224" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -7647,7 +7647,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G225" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -7673,7 +7673,7 @@
         <v>12.25</v>
       </c>
       <c r="G226" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -7699,7 +7699,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G227" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -7725,7 +7725,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G228" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -7751,7 +7751,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G229" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -7777,7 +7777,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G230" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -7803,7 +7803,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G231" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -7829,7 +7829,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G232" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -7855,7 +7855,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G233" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -7881,7 +7881,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G234" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -7907,7 +7907,7 @@
         <v>11.75</v>
       </c>
       <c r="G235" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -7933,7 +7933,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G236" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -7959,7 +7959,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G237" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -7985,7 +7985,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G238" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8011,7 +8011,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G239" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8037,7 +8037,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G240" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8063,7 +8063,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G241" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8089,7 +8089,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G242" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8115,7 +8115,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G243" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -8141,7 +8141,7 @@
         <v>11.75</v>
       </c>
       <c r="G244" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -8167,7 +8167,7 @@
         <v>11.75</v>
       </c>
       <c r="G245" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -8193,7 +8193,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G246" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -8219,7 +8219,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G247" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -8245,7 +8245,7 @@
         <v>11.25</v>
       </c>
       <c r="G248" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -8271,7 +8271,7 @@
         <v>11.75</v>
       </c>
       <c r="G249" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -8297,7 +8297,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G250" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -8323,7 +8323,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G251" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -8349,7 +8349,7 @@
         <v>11.5</v>
       </c>
       <c r="G252" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -8375,7 +8375,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G253" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -8401,7 +8401,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G254" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -8427,7 +8427,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G255" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -8453,7 +8453,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G256" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -8479,7 +8479,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G257" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -8505,7 +8505,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G258" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -8531,7 +8531,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G259" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -8557,7 +8557,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G260" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -8583,7 +8583,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G261" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -8609,7 +8609,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G262" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -8635,7 +8635,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G263" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -8661,7 +8661,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G264" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -8687,7 +8687,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G265" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -8713,7 +8713,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G266" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -8739,7 +8739,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G267" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -8765,7 +8765,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G268" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -8791,7 +8791,7 @@
         <v>12</v>
       </c>
       <c r="G269" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -8817,7 +8817,7 @@
         <v>12</v>
       </c>
       <c r="G270" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -8843,7 +8843,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G271" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -8869,7 +8869,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G272" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -8895,7 +8895,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G273" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -8921,7 +8921,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G274" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -8947,7 +8947,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G275" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -8973,7 +8973,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G276" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -8999,7 +8999,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G277" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9025,7 +9025,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G278" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9051,7 +9051,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G279" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9077,7 +9077,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G280" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9103,7 +9103,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G281" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -9129,7 +9129,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G282" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -9155,7 +9155,7 @@
         <v>11.5</v>
       </c>
       <c r="G283" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -9181,7 +9181,7 @@
         <v>11.5</v>
       </c>
       <c r="G284" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -9207,7 +9207,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G285" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -9233,7 +9233,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G286" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -9259,7 +9259,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G287" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -9285,7 +9285,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G288" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -9311,7 +9311,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G289" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -9337,7 +9337,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G290" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -9363,7 +9363,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G291" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -9389,7 +9389,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G292" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -9415,7 +9415,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G293" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -9441,7 +9441,7 @@
         <v>11.5</v>
       </c>
       <c r="G294" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -9467,7 +9467,7 @@
         <v>11.5</v>
       </c>
       <c r="G295" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -9493,7 +9493,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G296" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -9519,7 +9519,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G297" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -9545,7 +9545,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G298" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -9571,7 +9571,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G299" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -9597,7 +9597,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G300" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -9623,7 +9623,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G301" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -9649,7 +9649,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G302" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -9675,7 +9675,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G303" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -9701,7 +9701,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G304" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -9727,7 +9727,7 @@
         <v>12</v>
       </c>
       <c r="G305" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -9753,7 +9753,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G306" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -9779,7 +9779,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G307" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -9805,7 +9805,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G308" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -9831,7 +9831,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G309" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -9857,7 +9857,7 @@
         <v>12</v>
       </c>
       <c r="G310" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -9883,7 +9883,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G311" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -9909,7 +9909,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G312" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -9935,7 +9935,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G313" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -9961,7 +9961,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G314" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -9987,7 +9987,7 @@
         <v>12</v>
       </c>
       <c r="G315" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10013,7 +10013,7 @@
         <v>12</v>
       </c>
       <c r="G316" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10039,7 +10039,7 @@
         <v>12</v>
       </c>
       <c r="G317" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10065,7 +10065,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G318" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -10091,7 +10091,7 @@
         <v>12.25</v>
       </c>
       <c r="G319" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10117,7 +10117,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G320" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -10143,7 +10143,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G321" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -10169,7 +10169,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G322" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -10195,7 +10195,7 @@
         <v>13</v>
       </c>
       <c r="G323" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -10221,7 +10221,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G324" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -10247,7 +10247,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G325" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -10273,7 +10273,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G326" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -10299,7 +10299,7 @@
         <v>12.75</v>
       </c>
       <c r="G327" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -10325,7 +10325,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G328" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -10351,7 +10351,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G329" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -10377,7 +10377,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G330" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -10403,7 +10403,7 @@
         <v>12.75</v>
       </c>
       <c r="G331" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -10429,7 +10429,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G332" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -10455,7 +10455,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G333" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -10481,7 +10481,7 @@
         <v>12.5</v>
       </c>
       <c r="G334" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -10507,7 +10507,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G335" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -10533,7 +10533,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G336" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -10559,7 +10559,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G337" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -10585,7 +10585,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G338" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -10611,7 +10611,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G339" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -10637,7 +10637,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G340" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -10663,7 +10663,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G341" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -10689,7 +10689,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G342" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -10715,7 +10715,7 @@
         <v>12.75</v>
       </c>
       <c r="G343" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -10741,7 +10741,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G344" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -10767,7 +10767,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G345" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -10793,7 +10793,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G346" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -10819,7 +10819,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G347" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -10845,7 +10845,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G348" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -10871,7 +10871,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G349" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -10897,7 +10897,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G350" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -10923,7 +10923,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G351" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -10949,7 +10949,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G352" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -10975,7 +10975,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G353" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11001,7 +11001,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G354" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -11027,7 +11027,7 @@
         <v>13</v>
       </c>
       <c r="G355" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11053,7 +11053,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G356" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11079,7 +11079,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G357" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11105,7 +11105,7 @@
         <v>12.75</v>
       </c>
       <c r="G358" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11131,7 +11131,7 @@
         <v>13</v>
       </c>
       <c r="G359" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -11157,7 +11157,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G360" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -11183,7 +11183,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G361" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -11209,7 +11209,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G362" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -11235,7 +11235,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G363" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -11261,7 +11261,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G364" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -11287,7 +11287,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G365" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -11313,7 +11313,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G366" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -11339,7 +11339,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G367" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -11365,7 +11365,7 @@
         <v>13.25</v>
       </c>
       <c r="G368" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -11391,7 +11391,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G369" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -11417,7 +11417,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G370" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -11443,7 +11443,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G371" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -11469,7 +11469,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G372" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -11495,7 +11495,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G373" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -11521,7 +11521,7 @@
         <v>13.5</v>
       </c>
       <c r="G374" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -11547,7 +11547,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G375" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -11573,7 +11573,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G376" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -11599,7 +11599,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G377" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -11625,7 +11625,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G378" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -11651,7 +11651,7 @@
         <v>14</v>
       </c>
       <c r="G379" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -11677,7 +11677,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G380" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -11703,7 +11703,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G381" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -11729,7 +11729,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G382" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -11755,7 +11755,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G383" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -11781,7 +11781,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G384" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -11807,7 +11807,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G385" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -11833,7 +11833,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G386" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -11859,7 +11859,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G387" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -11885,7 +11885,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G388" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -11911,7 +11911,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G389" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -11937,7 +11937,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G390" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -11963,7 +11963,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G391" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -11989,7 +11989,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G392" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12015,7 +12015,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G393" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12041,7 +12041,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G394" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12067,7 +12067,7 @@
         <v>13.5</v>
       </c>
       <c r="G395" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12093,7 +12093,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G396" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12119,7 +12119,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G397" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12145,7 +12145,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G398" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12171,7 +12171,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G399" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -12197,7 +12197,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G400" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -12223,7 +12223,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G401" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -12249,7 +12249,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G402" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -12275,7 +12275,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G403" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -12301,7 +12301,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G404" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -12327,7 +12327,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G405" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -12353,7 +12353,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G406" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -12379,7 +12379,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G407" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -12405,7 +12405,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G408" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -12431,7 +12431,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G409" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -12457,7 +12457,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G410" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -12483,7 +12483,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G411" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -12509,7 +12509,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G412" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -12535,7 +12535,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G413" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -12561,7 +12561,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G414" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -12587,7 +12587,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G415" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -12613,7 +12613,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G416" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -12639,7 +12639,7 @@
         <v>14.25</v>
       </c>
       <c r="G417" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -12665,7 +12665,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G418" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -12691,7 +12691,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G419" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -12717,7 +12717,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G420" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -12743,7 +12743,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G421" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -12769,7 +12769,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G422" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -12795,7 +12795,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G423" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -12821,7 +12821,7 @@
         <v>14.75</v>
       </c>
       <c r="G424" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -12847,7 +12847,7 @@
         <v>15</v>
       </c>
       <c r="G425" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -12873,7 +12873,7 @@
         <v>15</v>
       </c>
       <c r="G426" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -12899,7 +12899,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G427" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -12925,7 +12925,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G428" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -12951,7 +12951,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G429" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -12977,7 +12977,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G430" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13003,7 +13003,7 @@
         <v>14.5</v>
       </c>
       <c r="G431" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13029,7 +13029,7 @@
         <v>14.5</v>
       </c>
       <c r="G432" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13055,7 +13055,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G433" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13081,7 +13081,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G434" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13107,7 +13107,7 @@
         <v>14.6499996185303</v>
       </c>
       <c r="G435" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13133,7 +13133,7 @@
         <v>14.75</v>
       </c>
       <c r="G436" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13159,7 +13159,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G437" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -13185,7 +13185,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G438" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -13211,7 +13211,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G439" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -13237,7 +13237,7 @@
         <v>14.75</v>
       </c>
       <c r="G440" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -13263,7 +13263,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G441" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -13289,7 +13289,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G442" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -13315,7 +13315,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G443" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -13341,7 +13341,7 @@
         <v>15.8500003814697</v>
       </c>
       <c r="G444" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -13367,7 +13367,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G445" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -13393,7 +13393,7 @@
         <v>16.75</v>
       </c>
       <c r="G446" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -13419,7 +13419,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G447" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -13445,7 +13445,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G448" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -13471,7 +13471,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G449" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -13497,7 +13497,7 @@
         <v>17</v>
       </c>
       <c r="G450" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -13523,7 +13523,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G451" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -13549,7 +13549,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G452" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -13575,7 +13575,7 @@
         <v>16.75</v>
       </c>
       <c r="G453" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -13601,7 +13601,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G454" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -13627,7 +13627,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G455" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -13653,7 +13653,7 @@
         <v>17.6499996185303</v>
       </c>
       <c r="G456" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -13679,7 +13679,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G457" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -13705,7 +13705,7 @@
         <v>18.25</v>
       </c>
       <c r="G458" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -13731,7 +13731,7 @@
         <v>18.5</v>
       </c>
       <c r="G459" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -13757,7 +13757,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G460" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -13783,7 +13783,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G461" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -13809,7 +13809,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G462" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -13835,7 +13835,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G463" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -13861,7 +13861,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G464" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -13887,7 +13887,7 @@
         <v>18.75</v>
       </c>
       <c r="G465" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -13913,7 +13913,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G466" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -13939,7 +13939,7 @@
         <v>18.25</v>
       </c>
       <c r="G467" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -13965,7 +13965,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G468" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -13991,7 +13991,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G469" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14017,7 +14017,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G470" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14043,7 +14043,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G471" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14069,7 +14069,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G472" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14095,7 +14095,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G473" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14121,7 +14121,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G474" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14147,7 +14147,7 @@
         <v>18</v>
       </c>
       <c r="G475" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -14173,7 +14173,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G476" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -14199,7 +14199,7 @@
         <v>18</v>
       </c>
       <c r="G477" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -14225,7 +14225,7 @@
         <v>18.25</v>
       </c>
       <c r="G478" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -14251,7 +14251,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G479" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -14277,7 +14277,7 @@
         <v>17.5</v>
       </c>
       <c r="G480" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -14303,7 +14303,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G481" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -14329,7 +14329,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G482" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -14355,7 +14355,7 @@
         <v>18.75</v>
       </c>
       <c r="G483" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -14381,7 +14381,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G484" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -14407,7 +14407,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G485" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -14433,7 +14433,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G486" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -14459,7 +14459,7 @@
         <v>18.75</v>
       </c>
       <c r="G487" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -14485,7 +14485,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G488" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -14511,7 +14511,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G489" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -14537,7 +14537,7 @@
         <v>18.5</v>
       </c>
       <c r="G490" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -14563,7 +14563,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G491" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -14589,7 +14589,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G492" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -14615,7 +14615,7 @@
         <v>19.5</v>
       </c>
       <c r="G493" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -14641,7 +14641,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G494" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -14667,7 +14667,7 @@
         <v>19.1499996185303</v>
       </c>
       <c r="G495" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -14693,7 +14693,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G496" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -14719,7 +14719,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G497" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -14745,7 +14745,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G498" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -14771,7 +14771,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G499" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -14797,7 +14797,7 @@
         <v>20</v>
       </c>
       <c r="G500" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -14823,7 +14823,7 @@
         <v>20</v>
       </c>
       <c r="G501" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -14849,7 +14849,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G502" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -14875,7 +14875,7 @@
         <v>20</v>
       </c>
       <c r="G503" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -14901,7 +14901,7 @@
         <v>19.9500007629395</v>
       </c>
       <c r="G504" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -14927,7 +14927,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G505" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -14953,7 +14953,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G506" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -14979,7 +14979,7 @@
         <v>20.5</v>
       </c>
       <c r="G507" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15005,7 +15005,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G508" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15031,7 +15031,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G509" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15057,7 +15057,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G510" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15083,7 +15083,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G511" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15109,7 +15109,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G512" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15135,7 +15135,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G513" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15161,7 +15161,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G514" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -15187,7 +15187,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G515" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -15213,7 +15213,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G516" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -15239,7 +15239,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G517" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -15265,7 +15265,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G518" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -15291,7 +15291,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G519" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -15317,7 +15317,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G520" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -15343,7 +15343,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G521" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -15369,7 +15369,7 @@
         <v>21.5</v>
       </c>
       <c r="G522" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -15395,7 +15395,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G523" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -15421,7 +15421,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -15447,7 +15447,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G525" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -15473,7 +15473,7 @@
         <v>21.5</v>
       </c>
       <c r="G526" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -15499,7 +15499,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G527" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -15525,7 +15525,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G528" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -15551,7 +15551,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G529" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -15577,7 +15577,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G530" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -15603,7 +15603,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G531" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -15629,7 +15629,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G532" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -15655,7 +15655,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G533" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -15681,7 +15681,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G534" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -15707,7 +15707,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G535" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -15733,7 +15733,7 @@
         <v>25</v>
       </c>
       <c r="G536" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -15759,7 +15759,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G537" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -15785,7 +15785,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G538" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -15811,7 +15811,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G539" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -15837,7 +15837,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G540" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -15863,7 +15863,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G541" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -15889,7 +15889,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G542" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -15915,7 +15915,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G543" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -15941,7 +15941,7 @@
         <v>24.5</v>
       </c>
       <c r="G544" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -15967,7 +15967,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G545" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -15993,7 +15993,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G546" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16019,7 +16019,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G547" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16045,7 +16045,7 @@
         <v>25</v>
       </c>
       <c r="G548" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16071,7 +16071,7 @@
         <v>24.5</v>
       </c>
       <c r="G549" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16097,7 +16097,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G550" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16123,7 +16123,7 @@
         <v>25</v>
       </c>
       <c r="G551" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16149,7 +16149,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G552" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16175,7 +16175,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G553" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -16201,7 +16201,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G554" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -16227,7 +16227,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G555" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -16253,7 +16253,7 @@
         <v>24.5</v>
       </c>
       <c r="G556" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -16279,7 +16279,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G557" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -16305,7 +16305,7 @@
         <v>24.5</v>
       </c>
       <c r="G558" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -16331,7 +16331,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G559" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -16357,7 +16357,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G560" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -16383,7 +16383,7 @@
         <v>25</v>
       </c>
       <c r="G561" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -16409,7 +16409,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G562" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -16435,7 +16435,7 @@
         <v>23.5</v>
       </c>
       <c r="G563" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -16461,7 +16461,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G564" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -16487,7 +16487,7 @@
         <v>24</v>
       </c>
       <c r="G565" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -16513,7 +16513,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G566" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -16539,7 +16539,7 @@
         <v>24</v>
       </c>
       <c r="G567" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -16565,7 +16565,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G568" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -16591,7 +16591,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G569" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -16617,7 +16617,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G570" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -16643,7 +16643,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G571" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -16669,7 +16669,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G572" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -16695,7 +16695,7 @@
         <v>23.5</v>
       </c>
       <c r="G573" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -16721,7 +16721,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G574" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -16747,7 +16747,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G575" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -16773,7 +16773,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G576" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -16799,7 +16799,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G577" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -16825,7 +16825,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G578" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -16851,7 +16851,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G579" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -16877,7 +16877,7 @@
         <v>23</v>
       </c>
       <c r="G580" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -16903,7 +16903,7 @@
         <v>23</v>
       </c>
       <c r="G581" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -16929,7 +16929,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G582" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -16955,7 +16955,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G583" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -16981,7 +16981,7 @@
         <v>21.5</v>
       </c>
       <c r="G584" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17007,7 +17007,7 @@
         <v>20.5</v>
       </c>
       <c r="G585" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17033,7 +17033,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G586" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17059,7 +17059,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G587" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17085,7 +17085,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G588" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17111,7 +17111,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G589" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17137,7 +17137,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G590" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17163,7 +17163,7 @@
         <v>19.5</v>
       </c>
       <c r="G591" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -17189,7 +17189,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G592" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -17215,7 +17215,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G593" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -17241,7 +17241,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G594" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -17267,7 +17267,7 @@
         <v>20</v>
       </c>
       <c r="G595" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -17293,7 +17293,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G596" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -17319,7 +17319,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G597" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -17345,7 +17345,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G598" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -17371,7 +17371,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G599" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -17397,7 +17397,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G600" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -17423,7 +17423,7 @@
         <v>20</v>
       </c>
       <c r="G601" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -17449,7 +17449,7 @@
         <v>21</v>
       </c>
       <c r="G602" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -17475,7 +17475,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G603" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -17501,7 +17501,7 @@
         <v>20.5</v>
       </c>
       <c r="G604" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -17527,7 +17527,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G605" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -17553,7 +17553,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G606" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -17579,7 +17579,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G607" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -17605,7 +17605,7 @@
         <v>20.5</v>
       </c>
       <c r="G608" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -17631,7 +17631,7 @@
         <v>20.5</v>
       </c>
       <c r="G609" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -17657,7 +17657,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G610" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -17683,7 +17683,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G611" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -17709,7 +17709,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G612" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -17735,7 +17735,7 @@
         <v>18.9200000762939</v>
       </c>
       <c r="G613" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -17761,7 +17761,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G614" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -17787,7 +17787,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G615" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -17813,7 +17813,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G616" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -17839,7 +17839,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G617" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -17865,7 +17865,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G618" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -17891,7 +17891,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G619" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -17917,7 +17917,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G620" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -17943,7 +17943,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G621" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -17969,7 +17969,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G622" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -17995,7 +17995,7 @@
         <v>19.2399997711182</v>
       </c>
       <c r="G623" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18021,7 +18021,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G624" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18047,7 +18047,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18073,7 +18073,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G626" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18099,7 +18099,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G627" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18125,7 +18125,7 @@
         <v>18</v>
       </c>
       <c r="G628" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18151,7 +18151,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G629" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18177,7 +18177,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G630" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -18203,7 +18203,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G631" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -18229,7 +18229,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G632" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -18255,7 +18255,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G633" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -18281,7 +18281,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G634" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -18307,7 +18307,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G635" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -18333,7 +18333,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G636" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -18359,7 +18359,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G637" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -18385,7 +18385,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G638" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -18411,7 +18411,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G639" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -18437,7 +18437,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G640" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -18463,7 +18463,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G641" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -18489,7 +18489,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G642" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -18515,7 +18515,7 @@
         <v>18.1599998474121</v>
       </c>
       <c r="G643" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -18541,7 +18541,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G644" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -18567,7 +18567,7 @@
         <v>19</v>
       </c>
       <c r="G645" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -18593,7 +18593,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G646" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -18619,7 +18619,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G647" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -18645,7 +18645,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G648" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -18671,7 +18671,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G649" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -18697,7 +18697,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G650" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -18723,7 +18723,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G651" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -18749,7 +18749,7 @@
         <v>19.2199993133545</v>
       </c>
       <c r="G652" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -18775,7 +18775,7 @@
         <v>19.5</v>
       </c>
       <c r="G653" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -18801,7 +18801,7 @@
         <v>19</v>
       </c>
       <c r="G654" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -18827,7 +18827,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G655" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -18853,7 +18853,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G656" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -18879,7 +18879,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G657" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -18905,7 +18905,7 @@
         <v>18.2600002288818</v>
       </c>
       <c r="G658" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -18931,7 +18931,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G659" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -18957,7 +18957,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G660" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -18983,7 +18983,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G661" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19009,7 +19009,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G662" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19035,7 +19035,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G663" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19061,7 +19061,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G664" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19087,7 +19087,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G665" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19113,7 +19113,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G666" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19139,7 +19139,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G667" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19165,7 +19165,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G668" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -19191,7 +19191,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G669" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19217,7 +19217,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G670" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -19243,7 +19243,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G671" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -19269,7 +19269,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G672" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -19295,7 +19295,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G673" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -19321,7 +19321,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G674" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -19347,7 +19347,7 @@
         <v>16.3199996948242</v>
       </c>
       <c r="G675" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -19373,7 +19373,7 @@
         <v>16</v>
       </c>
       <c r="G676" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -19399,7 +19399,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G677" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -19425,7 +19425,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G678" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -19451,7 +19451,7 @@
         <v>17.5</v>
       </c>
       <c r="G679" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -19477,7 +19477,7 @@
         <v>17.5</v>
       </c>
       <c r="G680" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -19503,7 +19503,7 @@
         <v>17.5</v>
       </c>
       <c r="G681" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -19529,7 +19529,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G682" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -19555,7 +19555,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G683" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -19581,7 +19581,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G684" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -19607,7 +19607,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G685" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -19633,7 +19633,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G686" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -19659,7 +19659,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G687" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -19685,7 +19685,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G688" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -19711,7 +19711,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G689" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -19737,7 +19737,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G690" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -19763,7 +19763,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G691" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -19789,7 +19789,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G692" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -19815,7 +19815,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G693" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -19841,7 +19841,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G694" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -19867,7 +19867,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G695" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -19893,7 +19893,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G696" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -19919,7 +19919,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G697" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -19945,7 +19945,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -19971,7 +19971,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G699" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -19997,7 +19997,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G700" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20023,7 +20023,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G701" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20049,7 +20049,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G702" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20075,7 +20075,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G703" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20101,7 +20101,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G704" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20127,7 +20127,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G705" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20153,7 +20153,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G706" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -20179,7 +20179,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G707" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -20205,7 +20205,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G708" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20231,7 +20231,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G709" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20257,7 +20257,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G710" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -20283,7 +20283,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G711" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -20309,7 +20309,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G712" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -20335,7 +20335,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G713" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -20361,7 +20361,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -20387,7 +20387,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G715" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -20413,7 +20413,7 @@
         <v>17.5</v>
       </c>
       <c r="G716" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -20439,7 +20439,7 @@
         <v>17</v>
       </c>
       <c r="G717" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -20465,7 +20465,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G718" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -20491,7 +20491,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G719" t="s">
-        <v>323</v>
+        <v>265</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -20543,7 +20543,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G721" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -20569,7 +20569,7 @@
         <v>17.5</v>
       </c>
       <c r="G722" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -20673,7 +20673,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G726" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -20725,7 +20725,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G728" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21297,7 +21297,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G750" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -21453,7 +21453,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G756" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -21661,7 +21661,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G764" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -21765,7 +21765,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G768" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -21791,7 +21791,7 @@
         <v>17.5</v>
       </c>
       <c r="G769" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -21817,7 +21817,7 @@
         <v>17.5</v>
       </c>
       <c r="G770" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -21869,7 +21869,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G772" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -21921,7 +21921,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G774" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22051,7 +22051,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G779" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22155,7 +22155,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G783" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22337,7 +22337,7 @@
         <v>17</v>
       </c>
       <c r="G790" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -22415,7 +22415,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G793" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -22519,7 +22519,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G797" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -22545,7 +22545,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G798" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -22571,7 +22571,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G799" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -22623,7 +22623,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G801" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -22701,7 +22701,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G804" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -22779,7 +22779,7 @@
         <v>18.1599998474121</v>
       </c>
       <c r="G807" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -22805,7 +22805,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G808" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -22831,7 +22831,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G809" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -22857,7 +22857,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G810" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -22909,7 +22909,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G812" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -22935,7 +22935,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G813" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23013,7 +23013,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G816" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23039,7 +23039,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G817" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23065,7 +23065,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G818" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23117,7 +23117,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G820" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23273,7 +23273,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G826" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -23299,7 +23299,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G827" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -23429,7 +23429,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G832" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -23533,7 +23533,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G836" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -23585,7 +23585,7 @@
         <v>17.5</v>
       </c>
       <c r="G838" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -23611,7 +23611,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G839" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -23637,7 +23637,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G840" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -23689,7 +23689,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G842" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -23767,7 +23767,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G845" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -23845,7 +23845,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G848" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24027,7 +24027,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G855" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -47,13 +47,13 @@
     <t xml:space="preserve">8.33448791503906</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17905139923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13650321960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16342163085938</t>
+    <t xml:space="preserve">8.17905235290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13650226593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16342258453369</t>
   </si>
   <si>
     <t xml:space="preserve">8.10176849365234</t>
@@ -65,19 +65,19 @@
     <t xml:space="preserve">8.11913681030273</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16255378723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24070644378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24939060211182</t>
+    <t xml:space="preserve">8.16255474090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2407054901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2493896484375</t>
   </si>
   <si>
     <t xml:space="preserve">8.29280853271484</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50989723205566</t>
+    <t xml:space="preserve">8.50989627838135</t>
   </si>
   <si>
     <t xml:space="preserve">8.51163291931152</t>
@@ -86,10 +86,10 @@
     <t xml:space="preserve">8.48384571075439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38398551940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3101749420166</t>
+    <t xml:space="preserve">8.38398456573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31017398834229</t>
   </si>
   <si>
     <t xml:space="preserve">8.42306137084961</t>
@@ -98,13 +98,13 @@
     <t xml:space="preserve">8.51858043670654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02222728729248</t>
+    <t xml:space="preserve">9.02222633361816</t>
   </si>
   <si>
     <t xml:space="preserve">8.89892101287842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8468189239502</t>
+    <t xml:space="preserve">8.84681797027588</t>
   </si>
   <si>
     <t xml:space="preserve">8.93886470794678</t>
@@ -116,19 +116,19 @@
     <t xml:space="preserve">8.93539142608643</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00485992431641</t>
+    <t xml:space="preserve">9.00486087799072</t>
   </si>
   <si>
     <t xml:space="preserve">8.97707271575928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02917289733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03091049194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98749446868896</t>
+    <t xml:space="preserve">9.02917385101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03091144561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98749351501465</t>
   </si>
   <si>
     <t xml:space="preserve">9.33483600616455</t>
@@ -137,22 +137,22 @@
     <t xml:space="preserve">9.2480001449585</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46508884429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5953426361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68217754364014</t>
+    <t xml:space="preserve">9.46508979797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59534358978271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68217849731445</t>
   </si>
   <si>
     <t xml:space="preserve">9.81243228912354</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72559642791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98610401153564</t>
+    <t xml:space="preserve">9.7255973815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98610210418701</t>
   </si>
   <si>
     <t xml:space="preserve">10.0295209884644</t>
@@ -161,25 +161,25 @@
     <t xml:space="preserve">9.76901435852051</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89926719665527</t>
+    <t xml:space="preserve">9.89926815032959</t>
   </si>
   <si>
     <t xml:space="preserve">9.85585021972656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63876056671143</t>
+    <t xml:space="preserve">9.63876152038574</t>
   </si>
   <si>
     <t xml:space="preserve">9.55192375183105</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16116428375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29141807556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07432842254639</t>
+    <t xml:space="preserve">9.16116523742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29141902923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0743293762207</t>
   </si>
   <si>
     <t xml:space="preserve">8.57936573028564</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">8.77040386199951</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20458221435547</t>
+    <t xml:space="preserve">9.20458316802979</t>
   </si>
   <si>
     <t xml:space="preserve">8.68356704711914</t>
@@ -206,16 +206,16 @@
     <t xml:space="preserve">8.40569496154785</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51997089385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02361679077148</t>
+    <t xml:space="preserve">7.51996994018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0236177444458</t>
   </si>
   <si>
     <t xml:space="preserve">7.72837591171265</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98888254165649</t>
+    <t xml:space="preserve">7.98888158798218</t>
   </si>
   <si>
     <t xml:space="preserve">7.81521034240723</t>
@@ -257,13 +257,13 @@
     <t xml:space="preserve">10.1559057235718</t>
   </si>
   <si>
-    <t xml:space="preserve">10.291316986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3815937042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4718685150146</t>
+    <t xml:space="preserve">10.2913179397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.381591796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4718675613403</t>
   </si>
   <si>
     <t xml:space="preserve">10.6072788238525</t>
@@ -272,13 +272,13 @@
     <t xml:space="preserve">10.5170040130615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0135145187378</t>
+    <t xml:space="preserve">11.0135154724121</t>
   </si>
   <si>
     <t xml:space="preserve">11.1940650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1489286422729</t>
+    <t xml:space="preserve">11.1489276885986</t>
   </si>
   <si>
     <t xml:space="preserve">11.2843399047852</t>
@@ -296,16 +296,16 @@
     <t xml:space="preserve">11.0586528778076</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9683780670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9232416152954</t>
+    <t xml:space="preserve">10.9683771133423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9232406616211</t>
   </si>
   <si>
     <t xml:space="preserve">10.8781032562256</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6524171829224</t>
+    <t xml:space="preserve">10.652416229248</t>
   </si>
   <si>
     <t xml:space="preserve">10.7426910400391</t>
@@ -317,7 +317,7 @@
     <t xml:space="preserve">10.4267301559448</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6975545883179</t>
+    <t xml:space="preserve">10.6975536346436</t>
   </si>
   <si>
     <t xml:space="preserve">10.3364543914795</t>
@@ -332,16 +332,16 @@
     <t xml:space="preserve">11.6454381942749</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7357139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5551643371582</t>
+    <t xml:space="preserve">11.7357130050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5551633834839</t>
   </si>
   <si>
     <t xml:space="preserve">11.3746147155762</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5100259780884</t>
+    <t xml:space="preserve">11.5100269317627</t>
   </si>
   <si>
     <t xml:space="preserve">11.2392024993896</t>
@@ -359,13 +359,13 @@
     <t xml:space="preserve">11.7808504104614</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8259887695312</t>
+    <t xml:space="preserve">11.8259878158569</t>
   </si>
   <si>
     <t xml:space="preserve">11.8711252212524</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9162626266479</t>
+    <t xml:space="preserve">11.9162635803223</t>
   </si>
   <si>
     <t xml:space="preserve">11.9614009857178</t>
@@ -374,16 +374,16 @@
     <t xml:space="preserve">12.1419496536255</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4579105377197</t>
+    <t xml:space="preserve">12.457911491394</t>
   </si>
   <si>
     <t xml:space="preserve">12.5481853485107</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3676357269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1870861053467</t>
+    <t xml:space="preserve">12.367636680603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.187087059021</t>
   </si>
   <si>
     <t xml:space="preserve">12.277361869812</t>
@@ -395,22 +395,22 @@
     <t xml:space="preserve">12.6384601593018</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2322254180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3224992752075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6205492019653</t>
+    <t xml:space="preserve">12.2322244644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3224983215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.620548248291</t>
   </si>
   <si>
     <t xml:space="preserve">12.7136898040771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5274076461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4808368682861</t>
+    <t xml:space="preserve">12.5274085998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4808378219604</t>
   </si>
   <si>
     <t xml:space="preserve">12.6671199798584</t>
@@ -443,7 +443,7 @@
     <t xml:space="preserve">13.2725324630737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4588146209717</t>
+    <t xml:space="preserve">13.4588136672974</t>
   </si>
   <si>
     <t xml:space="preserve">13.5519552230835</t>
@@ -452,28 +452,28 @@
     <t xml:space="preserve">13.7848062515259</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5985250473022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7382364273071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9710874557495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8779458999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3656730651855</t>
+    <t xml:space="preserve">13.5985260009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7382354736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9710865020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8779468536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3656740188599</t>
   </si>
   <si>
     <t xml:space="preserve">13.5053844451904</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6916656494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.645094871521</t>
+    <t xml:space="preserve">13.6916646957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6450958251953</t>
   </si>
   <si>
     <t xml:space="preserve">13.8313770294189</t>
@@ -485,34 +485,34 @@
     <t xml:space="preserve">14.297080039978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7627820968628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.321626663208</t>
+    <t xml:space="preserve">14.7627830505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3216276168823</t>
   </si>
   <si>
     <t xml:space="preserve">15.6010475158691</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9270391464233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8804693222046</t>
+    <t xml:space="preserve">15.927041053772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.880467414856</t>
   </si>
   <si>
     <t xml:space="preserve">15.8338994979858</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6941871643066</t>
+    <t xml:space="preserve">15.6941890716553</t>
   </si>
   <si>
     <t xml:space="preserve">15.9736089706421</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4393138885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6721649169922</t>
+    <t xml:space="preserve">16.4393119812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6721630096436</t>
   </si>
   <si>
     <t xml:space="preserve">16.9981555938721</t>
@@ -560,10 +560,10 @@
     <t xml:space="preserve">16.2996025085449</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1133213043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.15989112854</t>
+    <t xml:space="preserve">16.1133193969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1598930358887</t>
   </si>
   <si>
     <t xml:space="preserve">17.1844367980957</t>
@@ -581,28 +581,28 @@
     <t xml:space="preserve">18.1624145507812</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8829936981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8364200592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1158447265625</t>
+    <t xml:space="preserve">17.8829917907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8364219665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1158428192139</t>
   </si>
   <si>
     <t xml:space="preserve">18.5349750518799</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6281147003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3486957550049</t>
+    <t xml:space="preserve">18.628116607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3486938476562</t>
   </si>
   <si>
     <t xml:space="preserve">18.5815467834473</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9075374603271</t>
+    <t xml:space="preserve">18.9075355529785</t>
   </si>
   <si>
     <t xml:space="preserve">18.4884071350098</t>
@@ -611,13 +611,13 @@
     <t xml:space="preserve">19.0938186645508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2801036834717</t>
+    <t xml:space="preserve">19.280101776123</t>
   </si>
   <si>
     <t xml:space="preserve">20.2115058898926</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1183662414551</t>
+    <t xml:space="preserve">20.1183643341064</t>
   </si>
   <si>
     <t xml:space="preserve">19.8389434814453</t>
@@ -635,13 +635,13 @@
     <t xml:space="preserve">20.0252246856689</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1869602203369</t>
+    <t xml:space="preserve">19.1869621276855</t>
   </si>
   <si>
     <t xml:space="preserve">19.6526622772217</t>
   </si>
   <si>
-    <t xml:space="preserve">21.701753616333</t>
+    <t xml:space="preserve">21.7017555236816</t>
   </si>
   <si>
     <t xml:space="preserve">21.515474319458</t>
@@ -653,10 +653,10 @@
     <t xml:space="preserve">22.4468803405762</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7263011932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5400238037109</t>
+    <t xml:space="preserve">22.7263031005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5400218963623</t>
   </si>
   <si>
     <t xml:space="preserve">23.2851448059082</t>
@@ -683,16 +683,16 @@
     <t xml:space="preserve">23.5645656585693</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8880348205566</t>
+    <t xml:space="preserve">21.8880367279053</t>
   </si>
   <si>
     <t xml:space="preserve">22.1674575805664</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3537406921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2605991363525</t>
+    <t xml:space="preserve">22.35373878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2606010437012</t>
   </si>
   <si>
     <t xml:space="preserve">22.6331615447998</t>
@@ -737,10 +737,10 @@
     <t xml:space="preserve">18.7212581634521</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5722332000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3673229217529</t>
+    <t xml:space="preserve">18.5722312927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3673210144043</t>
   </si>
   <si>
     <t xml:space="preserve">17.6221981048584</t>
@@ -749,16 +749,16 @@
     <t xml:space="preserve">18.0692729949951</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6746864318848</t>
+    <t xml:space="preserve">18.6746845245361</t>
   </si>
   <si>
     <t xml:space="preserve">18.0133895874023</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7525939941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5663146972656</t>
+    <t xml:space="preserve">17.7525959014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.566312789917</t>
   </si>
   <si>
     <t xml:space="preserve">17.6594543457031</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">16.54176902771</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3554878234863</t>
+    <t xml:space="preserve">16.3554859161377</t>
   </si>
   <si>
     <t xml:space="preserve">15.722128868103</t>
@@ -797,13 +797,13 @@
     <t xml:space="preserve">15.5544786453247</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0515174865723</t>
+    <t xml:space="preserve">15.0515184402466</t>
   </si>
   <si>
     <t xml:space="preserve">14.9770059585571</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4613380432129</t>
+    <t xml:space="preserve">15.4613370895386</t>
   </si>
   <si>
     <t xml:space="preserve">15.1446590423584</t>
@@ -812,13 +812,13 @@
     <t xml:space="preserve">16.5231399536133</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0968589782715</t>
+    <t xml:space="preserve">17.0968570709229</t>
   </si>
   <si>
     <t xml:space="preserve">17.5940837860107</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5367107391357</t>
+    <t xml:space="preserve">17.5367126464844</t>
   </si>
   <si>
     <t xml:space="preserve">17.364595413208</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">18.7224006652832</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3781681060791</t>
+    <t xml:space="preserve">18.3781661987305</t>
   </si>
   <si>
     <t xml:space="preserve">18.6459045410156</t>
@@ -887,31 +887,31 @@
     <t xml:space="preserve">16.274528503418</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8920469284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.719931602478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.217155456543</t>
+    <t xml:space="preserve">15.8920488357544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7199325561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2171535491943</t>
   </si>
   <si>
     <t xml:space="preserve">16.0067901611328</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1215343475342</t>
+    <t xml:space="preserve">16.1215362548828</t>
   </si>
   <si>
     <t xml:space="preserve">15.9111700057983</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8729248046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8346748352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6051874160767</t>
+    <t xml:space="preserve">15.8729238510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8346738815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6051864624023</t>
   </si>
   <si>
     <t xml:space="preserve">15.2992029190063</t>
@@ -923,25 +923,25 @@
     <t xml:space="preserve">16.7335033416748</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1159839630127</t>
+    <t xml:space="preserve">17.1159820556641</t>
   </si>
   <si>
     <t xml:space="preserve">16.752628326416</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0012397766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0394859313965</t>
+    <t xml:space="preserve">17.00124168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0394878387451</t>
   </si>
   <si>
     <t xml:space="preserve">18.1486797332764</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8235721588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6323318481445</t>
+    <t xml:space="preserve">17.8235702514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6323337554932</t>
   </si>
   <si>
     <t xml:space="preserve">17.7088279724121</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">16.9056205749512</t>
   </si>
   <si>
-    <t xml:space="preserve">16.829122543335</t>
+    <t xml:space="preserve">16.8291244506836</t>
   </si>
   <si>
     <t xml:space="preserve">16.88649559021</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">15.5860624313354</t>
   </si>
   <si>
-    <t xml:space="preserve">14.68723487854</t>
+    <t xml:space="preserve">14.6872339248657</t>
   </si>
   <si>
     <t xml:space="preserve">14.1900110244751</t>
@@ -1010,7 +1010,7 @@
     <t xml:space="preserve">13.6736631393433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6545381546021</t>
+    <t xml:space="preserve">13.6545391082764</t>
   </si>
   <si>
     <t xml:space="preserve">13.3485546112061</t>
@@ -1022,28 +1022,28 @@
     <t xml:space="preserve">13.0999422073364</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5644702911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4250497817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4768705368042</t>
+    <t xml:space="preserve">12.564471244812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4250507354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4768714904785</t>
   </si>
   <si>
     <t xml:space="preserve">14.4386234283447</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708869934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9413995742798</t>
+    <t xml:space="preserve">14.1708860397339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9413986206055</t>
   </si>
   <si>
     <t xml:space="preserve">13.9987716674805</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2473821640015</t>
+    <t xml:space="preserve">14.2473831176758</t>
   </si>
   <si>
     <t xml:space="preserve">14.2282590866089</t>
@@ -1052,16 +1052,16 @@
     <t xml:space="preserve">14.8593511581421</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0888395309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4713191986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3948230743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4521942138672</t>
+    <t xml:space="preserve">15.0888385772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4713201522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3948240280151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4521951675415</t>
   </si>
   <si>
     <t xml:space="preserve">15.3183279037476</t>
@@ -1088,28 +1088,28 @@
     <t xml:space="preserve">15.5669393539429</t>
   </si>
   <si>
-    <t xml:space="preserve">16.083288192749</t>
+    <t xml:space="preserve">16.0832862854004</t>
   </si>
   <si>
     <t xml:space="preserve">16.1980323791504</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7908763885498</t>
+    <t xml:space="preserve">16.7908744812012</t>
   </si>
   <si>
     <t xml:space="preserve">16.5805110931396</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1351089477539</t>
+    <t xml:space="preserve">17.1351070404053</t>
   </si>
   <si>
     <t xml:space="preserve">17.0203628540039</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6187591552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5613880157471</t>
+    <t xml:space="preserve">16.6187572479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5613861083984</t>
   </si>
   <si>
     <t xml:space="preserve">16.6761322021484</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">16.9438667297363</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4657649993896</t>
+    <t xml:space="preserve">16.4657669067383</t>
   </si>
   <si>
     <t xml:space="preserve">16.159782409668</t>
@@ -1130,10 +1130,10 @@
     <t xml:space="preserve">16.3318996429443</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1024131774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9876670837402</t>
+    <t xml:space="preserve">16.1024112701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9876661300659</t>
   </si>
   <si>
     <t xml:space="preserve">16.4466457366943</t>
@@ -1148,13 +1148,13 @@
     <t xml:space="preserve">17.3072242736816</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5175857543945</t>
+    <t xml:space="preserve">17.5175876617432</t>
   </si>
   <si>
     <t xml:space="preserve">17.7661991119385</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0721817016602</t>
+    <t xml:space="preserve">18.0721836090088</t>
   </si>
   <si>
     <t xml:space="preserve">17.7853240966797</t>
@@ -1163,10 +1163,10 @@
     <t xml:space="preserve">17.8618202209473</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3837184906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8044490814209</t>
+    <t xml:space="preserve">17.3837203979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8044471740723</t>
   </si>
   <si>
     <t xml:space="preserve">17.498462677002</t>
@@ -1175,13 +1175,13 @@
     <t xml:space="preserve">17.6897029876709</t>
   </si>
   <si>
-    <t xml:space="preserve">17.479341506958</t>
+    <t xml:space="preserve">17.4793395996094</t>
   </si>
   <si>
     <t xml:space="preserve">17.2307281494141</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0586109161377</t>
+    <t xml:space="preserve">17.0586128234863</t>
   </si>
   <si>
     <t xml:space="preserve">17.2116031646729</t>
@@ -1190,10 +1190,10 @@
     <t xml:space="preserve">17.4219665527344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3590450286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2251739501953</t>
+    <t xml:space="preserve">18.3590431213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2251758575439</t>
   </si>
   <si>
     <t xml:space="preserve">18.9327621459961</t>
@@ -1211,7 +1211,7 @@
     <t xml:space="preserve">20.1758232116699</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4148750305176</t>
+    <t xml:space="preserve">20.4148731231689</t>
   </si>
   <si>
     <t xml:space="preserve">20.5104942321777</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">20.2236347198486</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7933464050293</t>
+    <t xml:space="preserve">19.7933444976807</t>
   </si>
   <si>
     <t xml:space="preserve">19.6021041870117</t>
@@ -1244,16 +1244,16 @@
     <t xml:space="preserve">20.7495441436768</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6539249420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7973537445068</t>
+    <t xml:space="preserve">20.653923034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7973556518555</t>
   </si>
   <si>
     <t xml:space="preserve">20.7017345428467</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0364036560059</t>
+    <t xml:space="preserve">21.0364055633545</t>
   </si>
   <si>
     <t xml:space="preserve">20.8451633453369</t>
@@ -32069,7 +32069,7 @@
     </row>
     <row r="1165">
       <c r="A1165" s="1" t="n">
-        <v>45448.6495833333</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B1165" t="n">
         <v>13519</v>
@@ -32090,6 +32090,32 @@
         <v>482</v>
       </c>
       <c r="H1165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="1" t="n">
+        <v>45449.6496064815</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>15225</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G1166" t="s">
+        <v>482</v>
+      </c>
+      <c r="H1166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="486">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3753023147583</t>
+    <t xml:space="preserve">8.37530136108398</t>
   </si>
   <si>
     <t xml:space="preserve">SCF.MI</t>
@@ -47,16 +47,16 @@
     <t xml:space="preserve">8.33448791503906</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17905235290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13650226593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16342258453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10176849365234</t>
+    <t xml:space="preserve">8.17905330657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13650321960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16342163085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10176944732666</t>
   </si>
   <si>
     <t xml:space="preserve">8.11045265197754</t>
@@ -65,46 +65,46 @@
     <t xml:space="preserve">8.11913681030273</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16255474090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2407054901123</t>
+    <t xml:space="preserve">8.16255378723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24070644378662</t>
   </si>
   <si>
     <t xml:space="preserve">8.2493896484375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29280853271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50989627838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51163291931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48384571075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38398456573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31017398834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42306137084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51858043670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02222633361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89892101287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84681797027588</t>
+    <t xml:space="preserve">8.29280757904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50989723205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51163482666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48384666442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38398551940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31017589569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42306041717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51857948303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02222728729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8989200592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8468189239502</t>
   </si>
   <si>
     <t xml:space="preserve">8.93886470794678</t>
@@ -116,16 +116,16 @@
     <t xml:space="preserve">8.93539142608643</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00486087799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97707271575928</t>
+    <t xml:space="preserve">9.00485992431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97707366943359</t>
   </si>
   <si>
     <t xml:space="preserve">9.02917385101318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03091144561768</t>
+    <t xml:space="preserve">9.03090953826904</t>
   </si>
   <si>
     <t xml:space="preserve">8.98749351501465</t>
@@ -137,13 +137,13 @@
     <t xml:space="preserve">9.2480001449585</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46508979797363</t>
+    <t xml:space="preserve">9.46508884429932</t>
   </si>
   <si>
     <t xml:space="preserve">9.59534358978271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68217849731445</t>
+    <t xml:space="preserve">9.68217754364014</t>
   </si>
   <si>
     <t xml:space="preserve">9.81243228912354</t>
@@ -152,31 +152,31 @@
     <t xml:space="preserve">9.7255973815918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98610210418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0295209884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76901435852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89926815032959</t>
+    <t xml:space="preserve">9.98610401153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0295219421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76901340484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89926719665527</t>
   </si>
   <si>
     <t xml:space="preserve">9.85585021972656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63876152038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55192375183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16116523742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29141902923584</t>
+    <t xml:space="preserve">9.63875961303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55192470550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16116333007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29141712188721</t>
   </si>
   <si>
     <t xml:space="preserve">9.0743293762207</t>
@@ -188,19 +188,19 @@
     <t xml:space="preserve">8.63146686553955</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85723972320557</t>
+    <t xml:space="preserve">8.85723876953125</t>
   </si>
   <si>
     <t xml:space="preserve">8.77040386199951</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20458316802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68356704711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45779514312744</t>
+    <t xml:space="preserve">9.20458221435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68356800079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45779418945312</t>
   </si>
   <si>
     <t xml:space="preserve">8.40569496154785</t>
@@ -209,28 +209,28 @@
     <t xml:space="preserve">7.51996994018555</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0236177444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72837591171265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98888158798218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81521034240723</t>
+    <t xml:space="preserve">8.02361679077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72837495803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98888301849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8152117729187</t>
   </si>
   <si>
     <t xml:space="preserve">7.78047704696655</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09308624267578</t>
+    <t xml:space="preserve">8.09308528900146</t>
   </si>
   <si>
     <t xml:space="preserve">8.38832664489746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90065765380859</t>
+    <t xml:space="preserve">8.90065670013428</t>
   </si>
   <si>
     <t xml:space="preserve">9.11774635314941</t>
@@ -245,13 +245,13 @@
     <t xml:space="preserve">9.11774730682373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0274715423584</t>
+    <t xml:space="preserve">9.02747058868408</t>
   </si>
   <si>
     <t xml:space="preserve">9.07260990142822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74967002868652</t>
+    <t xml:space="preserve">9.74966907501221</t>
   </si>
   <si>
     <t xml:space="preserve">10.1559057235718</t>
@@ -260,19 +260,19 @@
     <t xml:space="preserve">10.2913179397583</t>
   </si>
   <si>
-    <t xml:space="preserve">10.381591796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4718675613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6072788238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5170040130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0135154724121</t>
+    <t xml:space="preserve">10.3815927505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4718685150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6072797775269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5170030593872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0135145187378</t>
   </si>
   <si>
     <t xml:space="preserve">11.1940650939941</t>
@@ -284,7 +284,7 @@
     <t xml:space="preserve">11.2843399047852</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8329658508301</t>
+    <t xml:space="preserve">10.8329668045044</t>
   </si>
   <si>
     <t xml:space="preserve">10.7878284454346</t>
@@ -293,34 +293,34 @@
     <t xml:space="preserve">11.1037902832031</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0586528778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9683771133423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9232406616211</t>
+    <t xml:space="preserve">11.0586519241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9683780670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9232416152954</t>
   </si>
   <si>
     <t xml:space="preserve">10.8781032562256</t>
   </si>
   <si>
-    <t xml:space="preserve">10.652416229248</t>
+    <t xml:space="preserve">10.6524171829224</t>
   </si>
   <si>
     <t xml:space="preserve">10.7426910400391</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5621423721313</t>
+    <t xml:space="preserve">10.562141418457</t>
   </si>
   <si>
     <t xml:space="preserve">10.4267301559448</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6975536346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3364543914795</t>
+    <t xml:space="preserve">10.6975545883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3364553451538</t>
   </si>
   <si>
     <t xml:space="preserve">10.2461805343628</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">11.6454381942749</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7357130050659</t>
+    <t xml:space="preserve">11.7357139587402</t>
   </si>
   <si>
     <t xml:space="preserve">11.5551633834839</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">11.3746147155762</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5100269317627</t>
+    <t xml:space="preserve">11.5100259780884</t>
   </si>
   <si>
     <t xml:space="preserve">11.2392024993896</t>
@@ -350,22 +350,22 @@
     <t xml:space="preserve">11.4648895263672</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6003007888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6905755996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7808504104614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8259878158569</t>
+    <t xml:space="preserve">11.6003017425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6905765533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7808513641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8259887695312</t>
   </si>
   <si>
     <t xml:space="preserve">11.8711252212524</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9162635803223</t>
+    <t xml:space="preserve">11.9162626266479</t>
   </si>
   <si>
     <t xml:space="preserve">11.9614009857178</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">12.5481853485107</t>
   </si>
   <si>
-    <t xml:space="preserve">12.367636680603</t>
+    <t xml:space="preserve">12.3676357269287</t>
   </si>
   <si>
     <t xml:space="preserve">12.187087059021</t>
@@ -392,43 +392,43 @@
     <t xml:space="preserve">12.5030488967896</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6384601593018</t>
+    <t xml:space="preserve">12.6384592056274</t>
   </si>
   <si>
     <t xml:space="preserve">12.2322244644165</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3224983215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.620548248291</t>
+    <t xml:space="preserve">12.3224992752075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6205492019653</t>
   </si>
   <si>
     <t xml:space="preserve">12.7136898040771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5274085998535</t>
+    <t xml:space="preserve">12.5274076461792</t>
   </si>
   <si>
     <t xml:space="preserve">12.4808378219604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6671199798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5739774703979</t>
+    <t xml:space="preserve">12.6671190261841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5739784240723</t>
   </si>
   <si>
     <t xml:space="preserve">12.2945566177368</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3876972198486</t>
+    <t xml:space="preserve">12.3876981735229</t>
   </si>
   <si>
     <t xml:space="preserve">12.4342679977417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9465408325195</t>
+    <t xml:space="preserve">12.9465398788452</t>
   </si>
   <si>
     <t xml:space="preserve">13.1328220367432</t>
@@ -443,22 +443,22 @@
     <t xml:space="preserve">13.2725324630737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4588136672974</t>
+    <t xml:space="preserve">13.4588146209717</t>
   </si>
   <si>
     <t xml:space="preserve">13.5519552230835</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7848062515259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5985260009766</t>
+    <t xml:space="preserve">13.7848072052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5985250473022</t>
   </si>
   <si>
     <t xml:space="preserve">13.7382354736328</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9710865020752</t>
+    <t xml:space="preserve">13.9710874557495</t>
   </si>
   <si>
     <t xml:space="preserve">13.8779468536377</t>
@@ -470,34 +470,34 @@
     <t xml:space="preserve">13.5053844451904</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6916646957397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6450958251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8313770294189</t>
+    <t xml:space="preserve">13.6916656494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.645094871521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8313760757446</t>
   </si>
   <si>
     <t xml:space="preserve">14.0642280578613</t>
   </si>
   <si>
-    <t xml:space="preserve">14.297080039978</t>
+    <t xml:space="preserve">14.2970790863037</t>
   </si>
   <si>
     <t xml:space="preserve">14.7627830505371</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3216276168823</t>
+    <t xml:space="preserve">15.321626663208</t>
   </si>
   <si>
     <t xml:space="preserve">15.6010475158691</t>
   </si>
   <si>
-    <t xml:space="preserve">15.927041053772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.880467414856</t>
+    <t xml:space="preserve">15.9270401000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8804683685303</t>
   </si>
   <si>
     <t xml:space="preserve">15.8338994979858</t>
@@ -521,16 +521,16 @@
     <t xml:space="preserve">17.2310066223145</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9515857696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4172878265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6501407623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.789852142334</t>
+    <t xml:space="preserve">16.951587677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4172897338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6501426696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7898502349854</t>
   </si>
   <si>
     <t xml:space="preserve">17.4638595581055</t>
@@ -539,7 +539,7 @@
     <t xml:space="preserve">16.8584461212158</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7187347412109</t>
+    <t xml:space="preserve">16.7187366485596</t>
   </si>
   <si>
     <t xml:space="preserve">17.0447254180908</t>
@@ -557,16 +557,16 @@
     <t xml:space="preserve">16.8118743896484</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2996025085449</t>
+    <t xml:space="preserve">16.2996006011963</t>
   </si>
   <si>
     <t xml:space="preserve">16.1133193969727</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1598930358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1844367980957</t>
+    <t xml:space="preserve">16.15989112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1844387054443</t>
   </si>
   <si>
     <t xml:space="preserve">17.137866973877</t>
@@ -578,43 +578,43 @@
     <t xml:space="preserve">17.976131439209</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1624145507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8829917907715</t>
+    <t xml:space="preserve">18.1624126434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8829936981201</t>
   </si>
   <si>
     <t xml:space="preserve">17.8364219665527</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1158428192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5349750518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.628116607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3486938476562</t>
+    <t xml:space="preserve">18.1158447265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5349769592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6281147003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3486976623535</t>
   </si>
   <si>
     <t xml:space="preserve">18.5815467834473</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9075355529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4884071350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0938186645508</t>
+    <t xml:space="preserve">18.9075374603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4884052276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0938205718994</t>
   </si>
   <si>
     <t xml:space="preserve">19.280101776123</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2115058898926</t>
+    <t xml:space="preserve">20.2115077972412</t>
   </si>
   <si>
     <t xml:space="preserve">20.1183643341064</t>
@@ -626,16 +626,16 @@
     <t xml:space="preserve">19.7458038330078</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9320850372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6772079467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0252246856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1869621276855</t>
+    <t xml:space="preserve">19.9320831298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.677209854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0252265930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1869602203369</t>
   </si>
   <si>
     <t xml:space="preserve">19.6526622772217</t>
@@ -647,22 +647,22 @@
     <t xml:space="preserve">21.515474319458</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7948951721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4468803405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7263031005859</t>
+    <t xml:space="preserve">21.7948970794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4468784332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7263011932373</t>
   </si>
   <si>
     <t xml:space="preserve">22.5400218963623</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2851448059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1920051574707</t>
+    <t xml:space="preserve">23.2851467132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1920032501221</t>
   </si>
   <si>
     <t xml:space="preserve">23.0057239532471</t>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">22.8194427490234</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3782863616943</t>
+    <t xml:space="preserve">23.3782844543457</t>
   </si>
   <si>
     <t xml:space="preserve">23.5645656585693</t>
@@ -686,13 +686,13 @@
     <t xml:space="preserve">21.8880367279053</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1674575805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.35373878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2606010437012</t>
+    <t xml:space="preserve">22.167459487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3537406921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2605972290039</t>
   </si>
   <si>
     <t xml:space="preserve">22.6331615447998</t>
@@ -713,19 +713,19 @@
     <t xml:space="preserve">20.5840682983398</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3046455383301</t>
+    <t xml:space="preserve">20.3046436309814</t>
   </si>
   <si>
     <t xml:space="preserve">20.8634910583496</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0006771087646</t>
+    <t xml:space="preserve">19.0006790161133</t>
   </si>
   <si>
     <t xml:space="preserve">21.1429138183594</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3732414245605</t>
+    <t xml:space="preserve">19.3732395172119</t>
   </si>
   <si>
     <t xml:space="preserve">19.5595226287842</t>
@@ -737,10 +737,10 @@
     <t xml:space="preserve">18.7212581634521</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5722312927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3673210144043</t>
+    <t xml:space="preserve">18.5722332000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3673229217529</t>
   </si>
   <si>
     <t xml:space="preserve">17.6221981048584</t>
@@ -755,16 +755,16 @@
     <t xml:space="preserve">18.0133895874023</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7525959014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.566312789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6594543457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7339687347412</t>
+    <t xml:space="preserve">17.7525939941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5663146972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6594524383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7339668273926</t>
   </si>
   <si>
     <t xml:space="preserve">17.9202480316162</t>
@@ -779,10 +779,10 @@
     <t xml:space="preserve">16.6349086761475</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8957004547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7280464172363</t>
+    <t xml:space="preserve">16.8957023620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.728048324585</t>
   </si>
   <si>
     <t xml:space="preserve">16.54176902771</t>
@@ -794,7 +794,7 @@
     <t xml:space="preserve">15.722128868103</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5544786453247</t>
+    <t xml:space="preserve">15.5544776916504</t>
   </si>
   <si>
     <t xml:space="preserve">15.0515184402466</t>
@@ -803,189 +803,192 @@
     <t xml:space="preserve">14.9770059585571</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4613370895386</t>
+    <t xml:space="preserve">15.4613380432129</t>
   </si>
   <si>
     <t xml:space="preserve">15.1446590423584</t>
   </si>
   <si>
+    <t xml:space="preserve">16.5231380462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0968570709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5940837860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5367126464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.364595413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1542320251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1678047180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9574394226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5502834320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1295547485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.454662322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7224006652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3781661987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6459045410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8426952362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7470741271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4410915374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4602165222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5040149688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0450401306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7964277267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.025915145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6816825866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2362785339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3892707824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.274528503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8920488357544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7199325561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2171535491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0067901611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1215362548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9111700057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8729238510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8346738815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6051864624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2992029190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5095663070679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7335033416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1159820556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.752628326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.00124168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0394878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1486797332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8235702514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6323337554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7088279724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7279510498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8809432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4028434753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7143783569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9629917144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8099994659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9056205749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8291244506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.88649559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1733531951904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9821166992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.637882232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2554035186768</t>
+  </si>
+  <si>
     <t xml:space="preserve">16.5231399536133</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0968570709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5940837860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5367126464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.364595413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1542320251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1678047180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9574394226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5502834320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1295547485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.454662322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7224006652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3781661987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6459045410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8426952362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7470741271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4410915374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4602165222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5040149688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0450401306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7964277267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.025915145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6816825866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2362785339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3892707824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.274528503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8920488357544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7199325561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2171535491943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0067901611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1215362548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9111700057983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8729238510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8346738815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6051864624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2992029190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5095663070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7335033416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1159820556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.752628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.00124168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0394878387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1486797332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8235702514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6323337554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7088279724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7279510498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8809432983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4028434753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7143783569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9629917144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8099994659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9056205749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8291244506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.88649559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1733531951904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9821166992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.637882232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2554035186768</t>
-  </si>
-  <si>
     <t xml:space="preserve">16.9247436523438</t>
   </si>
   <si>
@@ -1464,6 +1467,9 @@
   </si>
   <si>
     <t xml:space="preserve">25.5499992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6000003814697</t>
   </si>
 </sst>
 </file>
@@ -20491,7 +20497,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G719" t="s">
-        <v>265</v>
+        <v>324</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -20517,7 +20523,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G720" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -20595,7 +20601,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G723" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -20621,7 +20627,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G724" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -20647,7 +20653,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G725" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -20699,7 +20705,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G727" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -20751,7 +20757,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G729" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -20777,7 +20783,7 @@
         <v>15.3599996566772</v>
       </c>
       <c r="G730" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -20803,7 +20809,7 @@
         <v>14.8400001525879</v>
       </c>
       <c r="G731" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -20829,7 +20835,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G732" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -20855,7 +20861,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G733" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -20881,7 +20887,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G734" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -20907,7 +20913,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G735" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -20933,7 +20939,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G736" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -20959,7 +20965,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G737" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -20985,7 +20991,7 @@
         <v>14.039999961853</v>
       </c>
       <c r="G738" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21011,7 +21017,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G739" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21037,7 +21043,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G740" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21063,7 +21069,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G741" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21089,7 +21095,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G742" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21115,7 +21121,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G743" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21141,7 +21147,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G744" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21167,7 +21173,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G745" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21193,7 +21199,7 @@
         <v>14.8800001144409</v>
       </c>
       <c r="G746" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21219,7 +21225,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G747" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21245,7 +21251,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G748" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21271,7 +21277,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G749" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21323,7 +21329,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -21349,7 +21355,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G752" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -21375,7 +21381,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G753" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -21401,7 +21407,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G754" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -21427,7 +21433,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G755" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -21479,7 +21485,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G757" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -21505,7 +21511,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G758" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -21531,7 +21537,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G759" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -21557,7 +21563,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G760" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -21583,7 +21589,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G761" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -21609,7 +21615,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G762" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -21635,7 +21641,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G763" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -21687,7 +21693,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G765" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -21713,7 +21719,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G766" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -21739,7 +21745,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G767" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -21843,7 +21849,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G771" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -21895,7 +21901,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G773" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -21947,7 +21953,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G775" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -21973,7 +21979,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G776" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -21999,7 +22005,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G777" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22025,7 +22031,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G778" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22077,7 +22083,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G780" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22103,7 +22109,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G781" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22129,7 +22135,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G782" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22181,7 +22187,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G784" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22207,7 +22213,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G785" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22233,7 +22239,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G786" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22259,7 +22265,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G787" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22285,7 +22291,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G788" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22311,7 +22317,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G789" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -22363,7 +22369,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G791" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -22389,7 +22395,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G792" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -22441,7 +22447,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G794" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -22467,7 +22473,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G795" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -22493,7 +22499,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G796" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -22597,7 +22603,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G800" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -22649,7 +22655,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G802" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -22675,7 +22681,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G803" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -22727,7 +22733,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G805" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -22753,7 +22759,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G806" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -22883,7 +22889,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G811" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -22961,7 +22967,7 @@
         <v>18.5799999237061</v>
       </c>
       <c r="G814" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -22987,7 +22993,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G815" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23091,7 +23097,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G819" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23143,7 +23149,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G821" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23169,7 +23175,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G822" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23195,7 +23201,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G823" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23221,7 +23227,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G824" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23247,7 +23253,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G825" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23325,7 +23331,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G828" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -23351,7 +23357,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G829" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -23377,7 +23383,7 @@
         <v>18.5</v>
       </c>
       <c r="G830" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -23403,7 +23409,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G831" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -23455,7 +23461,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G833" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -23481,7 +23487,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G834" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -23507,7 +23513,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G835" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -23559,7 +23565,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G837" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -23663,7 +23669,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G841" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -23715,7 +23721,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G843" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -23741,7 +23747,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G844" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -23793,7 +23799,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G846" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -23819,7 +23825,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G847" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -23871,7 +23877,7 @@
         <v>18</v>
       </c>
       <c r="G849" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -23897,7 +23903,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G850" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -23923,7 +23929,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G851" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -23949,7 +23955,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G852" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -23975,7 +23981,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G853" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24001,7 +24007,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G854" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24053,7 +24059,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G856" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24079,7 +24085,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G857" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24105,7 +24111,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G858" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24131,7 +24137,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G859" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24157,7 +24163,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G860" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24183,7 +24189,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G861" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24209,7 +24215,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G862" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24235,7 +24241,7 @@
         <v>20.75</v>
       </c>
       <c r="G863" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24261,7 +24267,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -24287,7 +24293,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G865" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -24313,7 +24319,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G866" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -24339,7 +24345,7 @@
         <v>21.5</v>
       </c>
       <c r="G867" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -24365,7 +24371,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G868" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -24391,7 +24397,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G869" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -24417,7 +24423,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G870" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -24443,7 +24449,7 @@
         <v>21.5</v>
       </c>
       <c r="G871" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -24469,7 +24475,7 @@
         <v>21</v>
       </c>
       <c r="G872" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -24495,7 +24501,7 @@
         <v>20.75</v>
       </c>
       <c r="G873" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -24521,7 +24527,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G874" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -24547,7 +24553,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G875" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -24573,7 +24579,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G876" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -24599,7 +24605,7 @@
         <v>20.5</v>
       </c>
       <c r="G877" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -24625,7 +24631,7 @@
         <v>21</v>
       </c>
       <c r="G878" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -24651,7 +24657,7 @@
         <v>21</v>
       </c>
       <c r="G879" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -24677,7 +24683,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G880" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -24703,7 +24709,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G881" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -24729,7 +24735,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G882" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -24755,7 +24761,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G883" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -24781,7 +24787,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G884" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -24807,7 +24813,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G885" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -24833,7 +24839,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G886" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -24859,7 +24865,7 @@
         <v>21.75</v>
       </c>
       <c r="G887" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -24885,7 +24891,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G888" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -24911,7 +24917,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G889" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -24937,7 +24943,7 @@
         <v>22</v>
       </c>
       <c r="G890" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -24963,7 +24969,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G891" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -24989,7 +24995,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G892" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25015,7 +25021,7 @@
         <v>21.75</v>
       </c>
       <c r="G893" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25041,7 +25047,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G894" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25067,7 +25073,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25093,7 +25099,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G896" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25119,7 +25125,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G897" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25145,7 +25151,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G898" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25171,7 +25177,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G899" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25197,7 +25203,7 @@
         <v>22.5</v>
       </c>
       <c r="G900" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25223,7 +25229,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G901" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25249,7 +25255,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G902" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -25275,7 +25281,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G903" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -25301,7 +25307,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G904" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -25327,7 +25333,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -25353,7 +25359,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G906" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -25379,7 +25385,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G907" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -25405,7 +25411,7 @@
         <v>22.5</v>
       </c>
       <c r="G908" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -25431,7 +25437,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G909" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -25457,7 +25463,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G910" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -25483,7 +25489,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G911" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -25509,7 +25515,7 @@
         <v>22.75</v>
       </c>
       <c r="G912" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -25535,7 +25541,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G913" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -25561,7 +25567,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G914" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -25587,7 +25593,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G915" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -25613,7 +25619,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G916" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -25639,7 +25645,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G917" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -25665,7 +25671,7 @@
         <v>23</v>
       </c>
       <c r="G918" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -25691,7 +25697,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G919" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -25717,7 +25723,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G920" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -25743,7 +25749,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G921" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -25769,7 +25775,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G922" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -25795,7 +25801,7 @@
         <v>23.25</v>
       </c>
       <c r="G923" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -25821,7 +25827,7 @@
         <v>23.25</v>
       </c>
       <c r="G924" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -25847,7 +25853,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G925" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -25873,7 +25879,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G926" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -25899,7 +25905,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G927" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -25925,7 +25931,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G928" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -25951,7 +25957,7 @@
         <v>23</v>
       </c>
       <c r="G929" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -25977,7 +25983,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G930" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26003,7 +26009,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G931" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26029,7 +26035,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G932" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26055,7 +26061,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G933" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26081,7 +26087,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G934" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26107,7 +26113,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G935" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26133,7 +26139,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G936" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26159,7 +26165,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G937" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26185,7 +26191,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G938" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26211,7 +26217,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G939" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26237,7 +26243,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G940" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26263,7 +26269,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G941" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26289,7 +26295,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G942" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -26315,7 +26321,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G943" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26341,7 +26347,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G944" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26367,7 +26373,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G945" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26393,7 +26399,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G946" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26419,7 +26425,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G947" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26445,7 +26451,7 @@
         <v>23</v>
       </c>
       <c r="G948" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26471,7 +26477,7 @@
         <v>23.25</v>
       </c>
       <c r="G949" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26497,7 +26503,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G950" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26523,7 +26529,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G951" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26549,7 +26555,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G952" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26575,7 +26581,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G953" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26601,7 +26607,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G954" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26627,7 +26633,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G955" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -26653,7 +26659,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G956" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -26679,7 +26685,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -26705,7 +26711,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G958" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -26731,7 +26737,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G959" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -26757,7 +26763,7 @@
         <v>24.5</v>
       </c>
       <c r="G960" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -26783,7 +26789,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G961" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -26809,7 +26815,7 @@
         <v>24.5</v>
       </c>
       <c r="G962" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -26835,7 +26841,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G963" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -26861,7 +26867,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G964" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -26887,7 +26893,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G965" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -26913,7 +26919,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G966" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -26939,7 +26945,7 @@
         <v>24</v>
       </c>
       <c r="G967" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -26965,7 +26971,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G968" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -26991,7 +26997,7 @@
         <v>24.25</v>
       </c>
       <c r="G969" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -27017,7 +27023,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G970" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27043,7 +27049,7 @@
         <v>24.5</v>
       </c>
       <c r="G971" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27069,7 +27075,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G972" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27095,7 +27101,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G973" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27121,7 +27127,7 @@
         <v>24.5</v>
       </c>
       <c r="G974" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -27147,7 +27153,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G975" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -27173,7 +27179,7 @@
         <v>23.75</v>
       </c>
       <c r="G976" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -27199,7 +27205,7 @@
         <v>23.5</v>
       </c>
       <c r="G977" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -27225,7 +27231,7 @@
         <v>23.25</v>
       </c>
       <c r="G978" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -27251,7 +27257,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G979" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27277,7 +27283,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G980" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27303,7 +27309,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G981" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27329,7 +27335,7 @@
         <v>23</v>
       </c>
       <c r="G982" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -27355,7 +27361,7 @@
         <v>22.75</v>
       </c>
       <c r="G983" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -27381,7 +27387,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G984" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27407,7 +27413,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G985" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27433,7 +27439,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G986" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -27459,7 +27465,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G987" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -27485,7 +27491,7 @@
         <v>22.5</v>
       </c>
       <c r="G988" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -27511,7 +27517,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G989" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -27537,7 +27543,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G990" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -27563,7 +27569,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G991" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -27589,7 +27595,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G992" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -27615,7 +27621,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G993" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -27641,7 +27647,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G994" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -27667,7 +27673,7 @@
         <v>22</v>
       </c>
       <c r="G995" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -27693,7 +27699,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G996" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -27719,7 +27725,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G997" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -27745,7 +27751,7 @@
         <v>22.75</v>
       </c>
       <c r="G998" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -27771,7 +27777,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G999" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -27797,7 +27803,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1000" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -27823,7 +27829,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1001" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -27849,7 +27855,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1002" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -27875,7 +27881,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1003" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -27901,7 +27907,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1004" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -27927,7 +27933,7 @@
         <v>22.25</v>
       </c>
       <c r="G1005" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -27953,7 +27959,7 @@
         <v>22.25</v>
       </c>
       <c r="G1006" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -27979,7 +27985,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1007" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28005,7 +28011,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1008" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28031,7 +28037,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1009" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28057,7 +28063,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1010" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -28083,7 +28089,7 @@
         <v>23</v>
       </c>
       <c r="G1011" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28109,7 +28115,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1012" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28135,7 +28141,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1013" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28161,7 +28167,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1014" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28187,7 +28193,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1015" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28213,7 +28219,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1016" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28239,7 +28245,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1017" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28265,7 +28271,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1018" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28291,7 +28297,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1019" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28317,7 +28323,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1020" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28343,7 +28349,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1021" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28369,7 +28375,7 @@
         <v>23.25</v>
       </c>
       <c r="G1022" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -28395,7 +28401,7 @@
         <v>23</v>
       </c>
       <c r="G1023" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -28421,7 +28427,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1024" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28447,7 +28453,7 @@
         <v>23.25</v>
       </c>
       <c r="G1025" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28473,7 +28479,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1026" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28499,7 +28505,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1027" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28525,7 +28531,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1028" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28551,7 +28557,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G1029" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28577,7 +28583,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1030" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -28603,7 +28609,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1031" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -28629,7 +28635,7 @@
         <v>23.25</v>
       </c>
       <c r="G1032" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28655,7 +28661,7 @@
         <v>24</v>
       </c>
       <c r="G1033" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -28681,7 +28687,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G1034" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -28707,7 +28713,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1035" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -28733,7 +28739,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1036" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -28759,7 +28765,7 @@
         <v>23.5</v>
       </c>
       <c r="G1037" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28785,7 +28791,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1038" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -28811,7 +28817,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1039" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -28837,7 +28843,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1040" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -28863,7 +28869,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1041" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -28889,7 +28895,7 @@
         <v>23.75</v>
       </c>
       <c r="G1042" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -28915,7 +28921,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1043" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -28941,7 +28947,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1044" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -28967,7 +28973,7 @@
         <v>23.5</v>
       </c>
       <c r="G1045" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -28993,7 +28999,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1046" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29019,7 +29025,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1047" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -29045,7 +29051,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1048" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29071,7 +29077,7 @@
         <v>24.25</v>
       </c>
       <c r="G1049" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -29097,7 +29103,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1050" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29123,7 +29129,7 @@
         <v>24.5</v>
       </c>
       <c r="G1051" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29149,7 +29155,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1052" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -29175,7 +29181,7 @@
         <v>24.25</v>
       </c>
       <c r="G1053" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29201,7 +29207,7 @@
         <v>24.25</v>
       </c>
       <c r="G1054" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29227,7 +29233,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1055" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29253,7 +29259,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1056" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29279,7 +29285,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1057" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29305,7 +29311,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1058" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29331,7 +29337,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1059" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29357,7 +29363,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1060" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29383,7 +29389,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1061" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29409,7 +29415,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1062" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29435,7 +29441,7 @@
         <v>24.25</v>
       </c>
       <c r="G1063" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29461,7 +29467,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29487,7 +29493,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1065" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29513,7 +29519,7 @@
         <v>24.5</v>
       </c>
       <c r="G1066" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29539,7 +29545,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G1067" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29565,7 +29571,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1068" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29591,7 +29597,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1069" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29617,7 +29623,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1070" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29643,7 +29649,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1071" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29669,7 +29675,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1072" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -29695,7 +29701,7 @@
         <v>23.75</v>
       </c>
       <c r="G1073" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -29721,7 +29727,7 @@
         <v>23.75</v>
       </c>
       <c r="G1074" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -29747,7 +29753,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1075" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -29773,7 +29779,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1076" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -29799,7 +29805,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1077" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -29825,7 +29831,7 @@
         <v>23.5</v>
       </c>
       <c r="G1078" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -29851,7 +29857,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1079" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -29877,7 +29883,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1080" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -29903,7 +29909,7 @@
         <v>23.5</v>
       </c>
       <c r="G1081" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -29929,7 +29935,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1082" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -29955,7 +29961,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1083" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -29981,7 +29987,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1084" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30007,7 +30013,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1085" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30033,7 +30039,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1086" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -30059,7 +30065,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1087" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30085,7 +30091,7 @@
         <v>23.25</v>
       </c>
       <c r="G1088" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30111,7 +30117,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1089" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -30137,7 +30143,7 @@
         <v>23</v>
       </c>
       <c r="G1090" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30163,7 +30169,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1091" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30189,7 +30195,7 @@
         <v>23.25</v>
       </c>
       <c r="G1092" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30215,7 +30221,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1093" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30241,7 +30247,7 @@
         <v>23.25</v>
       </c>
       <c r="G1094" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30267,7 +30273,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1095" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30293,7 +30299,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1096" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30319,7 +30325,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1097" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30345,7 +30351,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1098" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30371,7 +30377,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1099" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30397,7 +30403,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1100" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30423,7 +30429,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1101" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30449,7 +30455,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1102" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30475,7 +30481,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1103" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30501,7 +30507,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1104" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -30527,7 +30533,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1105" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30553,7 +30559,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1106" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30579,7 +30585,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1107" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30605,7 +30611,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1108" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30631,7 +30637,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1109" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30657,7 +30663,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1110" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -30683,7 +30689,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1111" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30709,7 +30715,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1112" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -30735,7 +30741,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1113" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30761,7 +30767,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1114" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30787,7 +30793,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1115" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30813,7 +30819,7 @@
         <v>22.75</v>
       </c>
       <c r="G1116" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -30839,7 +30845,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1117" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -30865,7 +30871,7 @@
         <v>23</v>
       </c>
       <c r="G1118" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -30891,7 +30897,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -30917,7 +30923,7 @@
         <v>22.5</v>
       </c>
       <c r="G1120" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -30943,7 +30949,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1121" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -30969,7 +30975,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1122" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -30995,7 +31001,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1123" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31021,7 +31027,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1124" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31047,7 +31053,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1125" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31073,7 +31079,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1126" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31099,7 +31105,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1127" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31125,7 +31131,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31151,7 +31157,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1129" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31177,7 +31183,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1130" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31203,7 +31209,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1131" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31229,7 +31235,7 @@
         <v>22.25</v>
       </c>
       <c r="G1132" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31255,7 +31261,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1133" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31281,7 +31287,7 @@
         <v>21.75</v>
       </c>
       <c r="G1134" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31307,7 +31313,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1135" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31333,7 +31339,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1136" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31359,7 +31365,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1137" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31385,7 +31391,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1138" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31411,7 +31417,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1139" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31437,7 +31443,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1140" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31463,7 +31469,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1141" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31489,7 +31495,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1142" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31515,7 +31521,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1143" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31541,7 +31547,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31567,7 +31573,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1145" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31593,7 +31599,7 @@
         <v>26</v>
       </c>
       <c r="G1146" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31619,7 +31625,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G1147" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31645,7 +31651,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1148" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31671,7 +31677,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1149" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31697,7 +31703,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1150" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -31723,7 +31729,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1151" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31749,7 +31755,7 @@
         <v>25.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31775,7 +31781,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1153" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31801,7 +31807,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1154" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -31827,7 +31833,7 @@
         <v>25.5</v>
       </c>
       <c r="G1155" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -31853,7 +31859,7 @@
         <v>25.5</v>
       </c>
       <c r="G1156" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -31879,7 +31885,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1157" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -31905,7 +31911,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1158" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -31931,7 +31937,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1159" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -31957,7 +31963,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1160" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -31983,7 +31989,7 @@
         <v>25.5</v>
       </c>
       <c r="G1161" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32009,7 +32015,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1162" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32035,7 +32041,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1163" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32061,7 +32067,7 @@
         <v>25.5</v>
       </c>
       <c r="G1164" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32087,7 +32093,7 @@
         <v>25.5</v>
       </c>
       <c r="G1165" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32095,7 +32101,7 @@
     </row>
     <row r="1166">
       <c r="A1166" s="1" t="n">
-        <v>45449.6496064815</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B1166" t="n">
         <v>15225</v>
@@ -32113,9 +32119,35 @@
         <v>25.5</v>
       </c>
       <c r="G1166" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="1" t="n">
+        <v>45450.6495601852</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>28152</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="G1167" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1167" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,25 +44,25 @@
     <t xml:space="preserve">SCF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33448791503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17905330657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13650321960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16342163085938</t>
+    <t xml:space="preserve">8.33448886871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17905139923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13650226593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16342258453369</t>
   </si>
   <si>
     <t xml:space="preserve">8.10176944732666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11045265197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11913681030273</t>
+    <t xml:space="preserve">8.11045360565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11913585662842</t>
   </si>
   <si>
     <t xml:space="preserve">8.16255378723145</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">8.2493896484375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29280757904053</t>
+    <t xml:space="preserve">8.29280853271484</t>
   </si>
   <si>
     <t xml:space="preserve">8.50989723205566</t>
@@ -83,34 +83,34 @@
     <t xml:space="preserve">8.51163482666016</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48384666442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38398551940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31017589569092</t>
+    <t xml:space="preserve">8.48384571075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38398456573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3101749420166</t>
   </si>
   <si>
     <t xml:space="preserve">8.42306041717529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51857948303223</t>
+    <t xml:space="preserve">8.51858043670654</t>
   </si>
   <si>
     <t xml:space="preserve">9.02222728729248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8989200592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8468189239502</t>
+    <t xml:space="preserve">8.89892101287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84681987762451</t>
   </si>
   <si>
     <t xml:space="preserve">8.93886470794678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94407558441162</t>
+    <t xml:space="preserve">8.94407653808594</t>
   </si>
   <si>
     <t xml:space="preserve">8.93539142608643</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">9.00485992431641</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97707366943359</t>
+    <t xml:space="preserve">8.97707271575928</t>
   </si>
   <si>
     <t xml:space="preserve">9.02917385101318</t>
@@ -137,19 +137,19 @@
     <t xml:space="preserve">9.2480001449585</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46508884429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59534358978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68217754364014</t>
+    <t xml:space="preserve">9.465087890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5953426361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68217849731445</t>
   </si>
   <si>
     <t xml:space="preserve">9.81243228912354</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7255973815918</t>
+    <t xml:space="preserve">9.72559642791748</t>
   </si>
   <si>
     <t xml:space="preserve">9.98610401153564</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">9.85585021972656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63875961303711</t>
+    <t xml:space="preserve">9.63876056671143</t>
   </si>
   <si>
     <t xml:space="preserve">9.55192470550537</t>
@@ -176,46 +176,46 @@
     <t xml:space="preserve">9.16116333007812</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29141712188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0743293762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57936573028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63146686553955</t>
+    <t xml:space="preserve">9.29141807556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07432842254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57936477661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63146495819092</t>
   </si>
   <si>
     <t xml:space="preserve">8.85723876953125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77040386199951</t>
+    <t xml:space="preserve">8.77040481567383</t>
   </si>
   <si>
     <t xml:space="preserve">9.20458221435547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68356800079346</t>
+    <t xml:space="preserve">8.68356704711914</t>
   </si>
   <si>
     <t xml:space="preserve">8.45779418945312</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40569496154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51996994018555</t>
+    <t xml:space="preserve">8.40569400787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51997041702271</t>
   </si>
   <si>
     <t xml:space="preserve">8.02361679077148</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72837495803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98888301849365</t>
+    <t xml:space="preserve">7.7283763885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98888206481934</t>
   </si>
   <si>
     <t xml:space="preserve">7.8152117729187</t>
@@ -227,22 +227,19 @@
     <t xml:space="preserve">8.09308528900146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38832664489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90065670013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11774635314941</t>
+    <t xml:space="preserve">8.38832569122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90065765380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11774730682373</t>
   </si>
   <si>
     <t xml:space="preserve">8.81382179260254</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42167186737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11774730682373</t>
+    <t xml:space="preserve">9.42167282104492</t>
   </si>
   <si>
     <t xml:space="preserve">9.02747058868408</t>
@@ -251,7 +248,7 @@
     <t xml:space="preserve">9.07260990142822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74966907501221</t>
+    <t xml:space="preserve">9.74967002868652</t>
   </si>
   <si>
     <t xml:space="preserve">10.1559057235718</t>
@@ -263,13 +260,13 @@
     <t xml:space="preserve">10.3815927505493</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4718685150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6072797775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5170030593872</t>
+    <t xml:space="preserve">10.4718675613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6072788238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5170040130615</t>
   </si>
   <si>
     <t xml:space="preserve">11.0135145187378</t>
@@ -287,13 +284,13 @@
     <t xml:space="preserve">10.8329668045044</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7878284454346</t>
+    <t xml:space="preserve">10.7878293991089</t>
   </si>
   <si>
     <t xml:space="preserve">11.1037902832031</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0586519241333</t>
+    <t xml:space="preserve">11.0586528778076</t>
   </si>
   <si>
     <t xml:space="preserve">10.9683780670166</t>
@@ -323,10 +320,10 @@
     <t xml:space="preserve">10.3364553451538</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2461805343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4197511672974</t>
+    <t xml:space="preserve">10.2461814880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4197521209717</t>
   </si>
   <si>
     <t xml:space="preserve">11.6454381942749</t>
@@ -341,7 +338,7 @@
     <t xml:space="preserve">11.3746147155762</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5100259780884</t>
+    <t xml:space="preserve">11.5100269317627</t>
   </si>
   <si>
     <t xml:space="preserve">11.2392024993896</t>
@@ -350,13 +347,13 @@
     <t xml:space="preserve">11.4648895263672</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6003017425537</t>
+    <t xml:space="preserve">11.6003007888794</t>
   </si>
   <si>
     <t xml:space="preserve">11.6905765533447</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7808513641357</t>
+    <t xml:space="preserve">11.7808504104614</t>
   </si>
   <si>
     <t xml:space="preserve">11.8259887695312</t>
@@ -380,7 +377,7 @@
     <t xml:space="preserve">12.5481853485107</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3676357269287</t>
+    <t xml:space="preserve">12.367636680603</t>
   </si>
   <si>
     <t xml:space="preserve">12.187087059021</t>
@@ -392,13 +389,13 @@
     <t xml:space="preserve">12.5030488967896</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6384592056274</t>
+    <t xml:space="preserve">12.6384601593018</t>
   </si>
   <si>
     <t xml:space="preserve">12.2322244644165</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3224992752075</t>
+    <t xml:space="preserve">12.3224983215332</t>
   </si>
   <si>
     <t xml:space="preserve">12.6205492019653</t>
@@ -5183,7 +5180,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G130" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H130" t="s">
         <v>9</v>
@@ -5209,7 +5206,7 @@
         <v>10</v>
       </c>
       <c r="G131" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -5235,7 +5232,7 @@
         <v>10</v>
       </c>
       <c r="G132" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -5261,7 +5258,7 @@
         <v>10</v>
       </c>
       <c r="G133" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -5287,7 +5284,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G134" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -5313,7 +5310,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G135" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -5339,7 +5336,7 @@
         <v>11.25</v>
       </c>
       <c r="G136" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -5365,7 +5362,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G137" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -5391,7 +5388,7 @@
         <v>11.5</v>
       </c>
       <c r="G138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -5417,7 +5414,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G139" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -5443,7 +5440,7 @@
         <v>11.75</v>
       </c>
       <c r="G140" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -5469,7 +5466,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G141" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -5495,7 +5492,7 @@
         <v>11.5</v>
       </c>
       <c r="G142" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -5521,7 +5518,7 @@
         <v>11.75</v>
       </c>
       <c r="G143" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -5547,7 +5544,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G144" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -5573,7 +5570,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G145" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -5599,7 +5596,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G146" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -5625,7 +5622,7 @@
         <v>12.5</v>
       </c>
       <c r="G147" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -5651,7 +5648,7 @@
         <v>12</v>
       </c>
       <c r="G148" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -5677,7 +5674,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G149" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -5703,7 +5700,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G150" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -5729,7 +5726,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G151" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -5755,7 +5752,7 @@
         <v>12.5</v>
       </c>
       <c r="G152" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -5781,7 +5778,7 @@
         <v>12.25</v>
       </c>
       <c r="G153" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -5807,7 +5804,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G154" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -5833,7 +5830,7 @@
         <v>12.5</v>
       </c>
       <c r="G155" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -5859,7 +5856,7 @@
         <v>12.25</v>
       </c>
       <c r="G156" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -5885,7 +5882,7 @@
         <v>12</v>
       </c>
       <c r="G157" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -5911,7 +5908,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G158" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -5937,7 +5934,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G159" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -5963,7 +5960,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G160" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -5989,7 +5986,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G161" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -6015,7 +6012,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G162" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -6041,7 +6038,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G163" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -6067,7 +6064,7 @@
         <v>12</v>
       </c>
       <c r="G164" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -6093,7 +6090,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G165" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -6119,7 +6116,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G166" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -6145,7 +6142,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G167" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -6171,7 +6168,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G168" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -6197,7 +6194,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G169" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -6223,7 +6220,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G170" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -6249,7 +6246,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G171" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -6275,7 +6272,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G172" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -6301,7 +6298,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G173" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -6327,7 +6324,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G174" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -6353,7 +6350,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G175" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -6379,7 +6376,7 @@
         <v>12</v>
       </c>
       <c r="G176" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -6405,7 +6402,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G177" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -6431,7 +6428,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G178" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -6457,7 +6454,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G179" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -6483,7 +6480,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G180" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -6509,7 +6506,7 @@
         <v>11.75</v>
       </c>
       <c r="G181" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -6535,7 +6532,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G182" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -6561,7 +6558,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G183" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -6587,7 +6584,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G184" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -6613,7 +6610,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G185" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -6639,7 +6636,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G186" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -6665,7 +6662,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G187" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -6691,7 +6688,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G188" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -6717,7 +6714,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G189" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -6743,7 +6740,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G190" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -6769,7 +6766,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G191" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -6795,7 +6792,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G192" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -6821,7 +6818,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G193" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -6847,7 +6844,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G194" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -6873,7 +6870,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G195" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -6899,7 +6896,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G196" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -6925,7 +6922,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G197" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -6951,7 +6948,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G198" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -6977,7 +6974,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G199" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -7003,7 +7000,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G200" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -7029,7 +7026,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G201" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -7055,7 +7052,7 @@
         <v>11.75</v>
       </c>
       <c r="G202" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7081,7 +7078,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G203" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7107,7 +7104,7 @@
         <v>11.75</v>
       </c>
       <c r="G204" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -7133,7 +7130,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G205" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -7159,7 +7156,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G206" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -7185,7 +7182,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G207" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -7211,7 +7208,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G208" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -7237,7 +7234,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G209" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -7263,7 +7260,7 @@
         <v>12.25</v>
       </c>
       <c r="G210" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -7289,7 +7286,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G211" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -7315,7 +7312,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G212" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -7341,7 +7338,7 @@
         <v>12.25</v>
       </c>
       <c r="G213" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -7367,7 +7364,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G214" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -7393,7 +7390,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G215" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -7419,7 +7416,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G216" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -7445,7 +7442,7 @@
         <v>12.5</v>
       </c>
       <c r="G217" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -7471,7 +7468,7 @@
         <v>12.5</v>
       </c>
       <c r="G218" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -7497,7 +7494,7 @@
         <v>12.25</v>
       </c>
       <c r="G219" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -7523,7 +7520,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G220" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -7549,7 +7546,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G221" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -7575,7 +7572,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G222" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -7601,7 +7598,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G223" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -7627,7 +7624,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G224" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -7653,7 +7650,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G225" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -7679,7 +7676,7 @@
         <v>12.25</v>
       </c>
       <c r="G226" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -7705,7 +7702,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G227" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -7731,7 +7728,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G228" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -7757,7 +7754,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G229" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -7783,7 +7780,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G230" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -7809,7 +7806,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G231" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -7835,7 +7832,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G232" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -7861,7 +7858,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G233" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -7887,7 +7884,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G234" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -7913,7 +7910,7 @@
         <v>11.75</v>
       </c>
       <c r="G235" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -7939,7 +7936,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G236" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -7965,7 +7962,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G237" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -7991,7 +7988,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G238" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8017,7 +8014,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G239" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8043,7 +8040,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G240" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8069,7 +8066,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G241" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8095,7 +8092,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G242" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8121,7 +8118,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G243" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -8147,7 +8144,7 @@
         <v>11.75</v>
       </c>
       <c r="G244" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -8173,7 +8170,7 @@
         <v>11.75</v>
       </c>
       <c r="G245" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -8199,7 +8196,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G246" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -8225,7 +8222,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G247" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -8251,7 +8248,7 @@
         <v>11.25</v>
       </c>
       <c r="G248" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -8277,7 +8274,7 @@
         <v>11.75</v>
       </c>
       <c r="G249" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -8303,7 +8300,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G250" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -8329,7 +8326,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G251" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -8355,7 +8352,7 @@
         <v>11.5</v>
       </c>
       <c r="G252" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -8381,7 +8378,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G253" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -8407,7 +8404,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G254" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -8433,7 +8430,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G255" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -8459,7 +8456,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G256" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -8485,7 +8482,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G257" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -8511,7 +8508,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G258" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -8537,7 +8534,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G259" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -8563,7 +8560,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G260" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -8589,7 +8586,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G261" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -8615,7 +8612,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G262" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -8641,7 +8638,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G263" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -8667,7 +8664,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G264" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -8693,7 +8690,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G265" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -8719,7 +8716,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G266" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -8745,7 +8742,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G267" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -8771,7 +8768,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G268" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -8797,7 +8794,7 @@
         <v>12</v>
       </c>
       <c r="G269" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -8823,7 +8820,7 @@
         <v>12</v>
       </c>
       <c r="G270" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -8849,7 +8846,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G271" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -8875,7 +8872,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G272" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -8901,7 +8898,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G273" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -8927,7 +8924,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G274" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -8953,7 +8950,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G275" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -8979,7 +8976,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G276" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9005,7 +9002,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G277" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9031,7 +9028,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G278" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9057,7 +9054,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G279" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9083,7 +9080,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G280" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9109,7 +9106,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G281" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -9135,7 +9132,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G282" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -9161,7 +9158,7 @@
         <v>11.5</v>
       </c>
       <c r="G283" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -9187,7 +9184,7 @@
         <v>11.5</v>
       </c>
       <c r="G284" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -9213,7 +9210,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -9239,7 +9236,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G286" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -9265,7 +9262,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G287" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -9291,7 +9288,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G288" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -9317,7 +9314,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G289" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -9343,7 +9340,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G290" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -9369,7 +9366,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G291" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -9395,7 +9392,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G292" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -9421,7 +9418,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G293" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -9447,7 +9444,7 @@
         <v>11.5</v>
       </c>
       <c r="G294" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -9473,7 +9470,7 @@
         <v>11.5</v>
       </c>
       <c r="G295" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -9499,7 +9496,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G296" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -9525,7 +9522,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G297" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -9551,7 +9548,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G298" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -9577,7 +9574,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G299" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -9603,7 +9600,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G300" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -9629,7 +9626,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G301" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -9655,7 +9652,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G302" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -9681,7 +9678,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G303" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -9707,7 +9704,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G304" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -9733,7 +9730,7 @@
         <v>12</v>
       </c>
       <c r="G305" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -9759,7 +9756,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G306" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -9785,7 +9782,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G307" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -9811,7 +9808,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G308" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -9837,7 +9834,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G309" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -9863,7 +9860,7 @@
         <v>12</v>
       </c>
       <c r="G310" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -9889,7 +9886,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G311" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -9915,7 +9912,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G312" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -9941,7 +9938,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G313" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -9967,7 +9964,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G314" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -9993,7 +9990,7 @@
         <v>12</v>
       </c>
       <c r="G315" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10019,7 +10016,7 @@
         <v>12</v>
       </c>
       <c r="G316" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10045,7 +10042,7 @@
         <v>12</v>
       </c>
       <c r="G317" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10071,7 +10068,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G318" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -10097,7 +10094,7 @@
         <v>12.25</v>
       </c>
       <c r="G319" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10123,7 +10120,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G320" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -10149,7 +10146,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G321" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -10175,7 +10172,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G322" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -10201,7 +10198,7 @@
         <v>13</v>
       </c>
       <c r="G323" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -10227,7 +10224,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G324" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -10253,7 +10250,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G325" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -10279,7 +10276,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G326" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -10305,7 +10302,7 @@
         <v>12.75</v>
       </c>
       <c r="G327" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -10331,7 +10328,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G328" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -10357,7 +10354,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G329" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -10383,7 +10380,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G330" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -10409,7 +10406,7 @@
         <v>12.75</v>
       </c>
       <c r="G331" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -10435,7 +10432,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G332" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -10461,7 +10458,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G333" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -10487,7 +10484,7 @@
         <v>12.5</v>
       </c>
       <c r="G334" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -10513,7 +10510,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G335" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -10539,7 +10536,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G336" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -10565,7 +10562,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G337" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -10591,7 +10588,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G338" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -10617,7 +10614,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G339" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -10643,7 +10640,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G340" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -10669,7 +10666,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G341" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -10695,7 +10692,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G342" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -10721,7 +10718,7 @@
         <v>12.75</v>
       </c>
       <c r="G343" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -10747,7 +10744,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G344" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -10773,7 +10770,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G345" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -10799,7 +10796,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G346" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -10825,7 +10822,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G347" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -10851,7 +10848,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G348" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -10877,7 +10874,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G349" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -10903,7 +10900,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G350" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -10929,7 +10926,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G351" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -10955,7 +10952,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G352" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -10981,7 +10978,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G353" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11007,7 +11004,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G354" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -11033,7 +11030,7 @@
         <v>13</v>
       </c>
       <c r="G355" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11059,7 +11056,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G356" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11085,7 +11082,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G357" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11111,7 +11108,7 @@
         <v>12.75</v>
       </c>
       <c r="G358" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11137,7 +11134,7 @@
         <v>13</v>
       </c>
       <c r="G359" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -11163,7 +11160,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G360" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -11189,7 +11186,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G361" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -11215,7 +11212,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G362" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -11241,7 +11238,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G363" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -11267,7 +11264,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G364" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -11293,7 +11290,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G365" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -11319,7 +11316,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G366" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -11345,7 +11342,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G367" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -11371,7 +11368,7 @@
         <v>13.25</v>
       </c>
       <c r="G368" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -11397,7 +11394,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G369" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -11423,7 +11420,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G370" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -11449,7 +11446,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G371" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -11475,7 +11472,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G372" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -11501,7 +11498,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G373" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -11527,7 +11524,7 @@
         <v>13.5</v>
       </c>
       <c r="G374" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -11553,7 +11550,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G375" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -11579,7 +11576,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G376" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -11605,7 +11602,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G377" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -11631,7 +11628,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G378" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -11657,7 +11654,7 @@
         <v>14</v>
       </c>
       <c r="G379" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -11683,7 +11680,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G380" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -11709,7 +11706,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G381" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -11735,7 +11732,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G382" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -11761,7 +11758,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G383" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -11787,7 +11784,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G384" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -11813,7 +11810,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G385" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -11839,7 +11836,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G386" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -11865,7 +11862,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G387" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -11891,7 +11888,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G388" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -11917,7 +11914,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G389" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -11943,7 +11940,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G390" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -11969,7 +11966,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G391" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -11995,7 +11992,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G392" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12021,7 +12018,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G393" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12047,7 +12044,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G394" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12073,7 +12070,7 @@
         <v>13.5</v>
       </c>
       <c r="G395" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12099,7 +12096,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G396" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12125,7 +12122,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G397" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12151,7 +12148,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G398" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12177,7 +12174,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G399" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -12203,7 +12200,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G400" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -12229,7 +12226,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G401" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -12255,7 +12252,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G402" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -12281,7 +12278,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G403" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -12307,7 +12304,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G404" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -12333,7 +12330,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G405" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -12359,7 +12356,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G406" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -12385,7 +12382,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G407" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -12411,7 +12408,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G408" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -12437,7 +12434,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G409" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -12463,7 +12460,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G410" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -12489,7 +12486,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G411" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -12515,7 +12512,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G412" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -12541,7 +12538,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G413" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -12567,7 +12564,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G414" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -12593,7 +12590,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G415" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -12619,7 +12616,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G416" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -12645,7 +12642,7 @@
         <v>14.25</v>
       </c>
       <c r="G417" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -12671,7 +12668,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G418" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -12697,7 +12694,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G419" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -12723,7 +12720,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G420" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -12749,7 +12746,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G421" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -12775,7 +12772,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G422" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -12801,7 +12798,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G423" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -12827,7 +12824,7 @@
         <v>14.75</v>
       </c>
       <c r="G424" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -12853,7 +12850,7 @@
         <v>15</v>
       </c>
       <c r="G425" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -12879,7 +12876,7 @@
         <v>15</v>
       </c>
       <c r="G426" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -12905,7 +12902,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G427" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -12931,7 +12928,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G428" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -12957,7 +12954,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G429" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -12983,7 +12980,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G430" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13009,7 +13006,7 @@
         <v>14.5</v>
       </c>
       <c r="G431" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13035,7 +13032,7 @@
         <v>14.5</v>
       </c>
       <c r="G432" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13061,7 +13058,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G433" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13087,7 +13084,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G434" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13113,7 +13110,7 @@
         <v>14.6499996185303</v>
       </c>
       <c r="G435" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13139,7 +13136,7 @@
         <v>14.75</v>
       </c>
       <c r="G436" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13165,7 +13162,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G437" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -13191,7 +13188,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G438" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -13217,7 +13214,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G439" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -13243,7 +13240,7 @@
         <v>14.75</v>
       </c>
       <c r="G440" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -13269,7 +13266,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G441" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -13295,7 +13292,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G442" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -13321,7 +13318,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G443" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -13347,7 +13344,7 @@
         <v>15.8500003814697</v>
       </c>
       <c r="G444" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -13373,7 +13370,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G445" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -13399,7 +13396,7 @@
         <v>16.75</v>
       </c>
       <c r="G446" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -13425,7 +13422,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G447" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -13451,7 +13448,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G448" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -13477,7 +13474,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G449" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -13503,7 +13500,7 @@
         <v>17</v>
       </c>
       <c r="G450" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -13529,7 +13526,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G451" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -13555,7 +13552,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G452" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -13581,7 +13578,7 @@
         <v>16.75</v>
       </c>
       <c r="G453" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -13607,7 +13604,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G454" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -13633,7 +13630,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G455" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -13659,7 +13656,7 @@
         <v>17.6499996185303</v>
       </c>
       <c r="G456" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -13685,7 +13682,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G457" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -13711,7 +13708,7 @@
         <v>18.25</v>
       </c>
       <c r="G458" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -13737,7 +13734,7 @@
         <v>18.5</v>
       </c>
       <c r="G459" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -13763,7 +13760,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G460" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -13789,7 +13786,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G461" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -13815,7 +13812,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G462" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -13841,7 +13838,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G463" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -13867,7 +13864,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G464" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -13893,7 +13890,7 @@
         <v>18.75</v>
       </c>
       <c r="G465" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -13919,7 +13916,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G466" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -13945,7 +13942,7 @@
         <v>18.25</v>
       </c>
       <c r="G467" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -13971,7 +13968,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G468" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -13997,7 +13994,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G469" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14023,7 +14020,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G470" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14049,7 +14046,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G471" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14075,7 +14072,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G472" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14101,7 +14098,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G473" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14127,7 +14124,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G474" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14153,7 +14150,7 @@
         <v>18</v>
       </c>
       <c r="G475" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -14179,7 +14176,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G476" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -14205,7 +14202,7 @@
         <v>18</v>
       </c>
       <c r="G477" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -14231,7 +14228,7 @@
         <v>18.25</v>
       </c>
       <c r="G478" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -14257,7 +14254,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G479" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -14283,7 +14280,7 @@
         <v>17.5</v>
       </c>
       <c r="G480" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -14309,7 +14306,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G481" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -14335,7 +14332,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G482" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -14361,7 +14358,7 @@
         <v>18.75</v>
       </c>
       <c r="G483" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -14387,7 +14384,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G484" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -14413,7 +14410,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G485" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -14439,7 +14436,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G486" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -14465,7 +14462,7 @@
         <v>18.75</v>
       </c>
       <c r="G487" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -14491,7 +14488,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G488" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -14517,7 +14514,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G489" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -14543,7 +14540,7 @@
         <v>18.5</v>
       </c>
       <c r="G490" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -14569,7 +14566,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G491" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -14595,7 +14592,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G492" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -14621,7 +14618,7 @@
         <v>19.5</v>
       </c>
       <c r="G493" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -14647,7 +14644,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G494" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -14673,7 +14670,7 @@
         <v>19.1499996185303</v>
       </c>
       <c r="G495" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -14699,7 +14696,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G496" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -14725,7 +14722,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G497" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -14751,7 +14748,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G498" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -14777,7 +14774,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G499" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -14803,7 +14800,7 @@
         <v>20</v>
       </c>
       <c r="G500" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -14829,7 +14826,7 @@
         <v>20</v>
       </c>
       <c r="G501" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -14855,7 +14852,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G502" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -14881,7 +14878,7 @@
         <v>20</v>
       </c>
       <c r="G503" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -14907,7 +14904,7 @@
         <v>19.9500007629395</v>
       </c>
       <c r="G504" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -14933,7 +14930,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G505" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -14959,7 +14956,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G506" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -14985,7 +14982,7 @@
         <v>20.5</v>
       </c>
       <c r="G507" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15011,7 +15008,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G508" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15037,7 +15034,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G509" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15063,7 +15060,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G510" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15089,7 +15086,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G511" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15115,7 +15112,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G512" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15141,7 +15138,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G513" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15167,7 +15164,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G514" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -15193,7 +15190,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G515" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -15219,7 +15216,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G516" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -15245,7 +15242,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G517" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -15271,7 +15268,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G518" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -15297,7 +15294,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G519" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -15323,7 +15320,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G520" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -15349,7 +15346,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G521" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -15375,7 +15372,7 @@
         <v>21.5</v>
       </c>
       <c r="G522" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -15401,7 +15398,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G523" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -15427,7 +15424,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -15453,7 +15450,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G525" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -15479,7 +15476,7 @@
         <v>21.5</v>
       </c>
       <c r="G526" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -15505,7 +15502,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G527" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -15531,7 +15528,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G528" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -15557,7 +15554,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G529" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -15583,7 +15580,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G530" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -15609,7 +15606,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G531" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -15635,7 +15632,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G532" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -15661,7 +15658,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G533" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -15687,7 +15684,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G534" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -15713,7 +15710,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G535" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -15739,7 +15736,7 @@
         <v>25</v>
       </c>
       <c r="G536" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -15765,7 +15762,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G537" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -15791,7 +15788,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G538" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -15817,7 +15814,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G539" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -15843,7 +15840,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G540" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -15869,7 +15866,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G541" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -15895,7 +15892,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G542" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -15921,7 +15918,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G543" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -15947,7 +15944,7 @@
         <v>24.5</v>
       </c>
       <c r="G544" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -15973,7 +15970,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G545" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -15999,7 +15996,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G546" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16025,7 +16022,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G547" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16051,7 +16048,7 @@
         <v>25</v>
       </c>
       <c r="G548" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16077,7 +16074,7 @@
         <v>24.5</v>
       </c>
       <c r="G549" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16103,7 +16100,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G550" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16129,7 +16126,7 @@
         <v>25</v>
       </c>
       <c r="G551" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16155,7 +16152,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G552" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16181,7 +16178,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G553" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -16207,7 +16204,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G554" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -16233,7 +16230,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G555" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -16259,7 +16256,7 @@
         <v>24.5</v>
       </c>
       <c r="G556" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -16285,7 +16282,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G557" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -16311,7 +16308,7 @@
         <v>24.5</v>
       </c>
       <c r="G558" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -16337,7 +16334,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G559" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -16363,7 +16360,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G560" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -16389,7 +16386,7 @@
         <v>25</v>
       </c>
       <c r="G561" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -16415,7 +16412,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G562" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -16441,7 +16438,7 @@
         <v>23.5</v>
       </c>
       <c r="G563" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -16467,7 +16464,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G564" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -16493,7 +16490,7 @@
         <v>24</v>
       </c>
       <c r="G565" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -16519,7 +16516,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G566" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -16545,7 +16542,7 @@
         <v>24</v>
       </c>
       <c r="G567" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -16571,7 +16568,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G568" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -16597,7 +16594,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G569" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -16623,7 +16620,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G570" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -16649,7 +16646,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G571" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -16675,7 +16672,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G572" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -16701,7 +16698,7 @@
         <v>23.5</v>
       </c>
       <c r="G573" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -16727,7 +16724,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G574" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -16753,7 +16750,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G575" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -16779,7 +16776,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G576" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -16805,7 +16802,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G577" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -16831,7 +16828,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G578" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -16857,7 +16854,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G579" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -16883,7 +16880,7 @@
         <v>23</v>
       </c>
       <c r="G580" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -16909,7 +16906,7 @@
         <v>23</v>
       </c>
       <c r="G581" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -16935,7 +16932,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G582" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -16961,7 +16958,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G583" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -16987,7 +16984,7 @@
         <v>21.5</v>
       </c>
       <c r="G584" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17013,7 +17010,7 @@
         <v>20.5</v>
       </c>
       <c r="G585" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17039,7 +17036,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G586" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17065,7 +17062,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G587" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17091,7 +17088,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G588" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17117,7 +17114,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G589" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17143,7 +17140,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G590" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17169,7 +17166,7 @@
         <v>19.5</v>
       </c>
       <c r="G591" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -17195,7 +17192,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G592" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -17221,7 +17218,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G593" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -17247,7 +17244,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G594" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -17273,7 +17270,7 @@
         <v>20</v>
       </c>
       <c r="G595" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -17299,7 +17296,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G596" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -17325,7 +17322,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G597" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -17351,7 +17348,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G598" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -17377,7 +17374,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G599" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -17403,7 +17400,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G600" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -17429,7 +17426,7 @@
         <v>20</v>
       </c>
       <c r="G601" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -17455,7 +17452,7 @@
         <v>21</v>
       </c>
       <c r="G602" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -17481,7 +17478,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G603" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -17507,7 +17504,7 @@
         <v>20.5</v>
       </c>
       <c r="G604" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -17533,7 +17530,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G605" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -17559,7 +17556,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G606" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -17585,7 +17582,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G607" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -17611,7 +17608,7 @@
         <v>20.5</v>
       </c>
       <c r="G608" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -17637,7 +17634,7 @@
         <v>20.5</v>
       </c>
       <c r="G609" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -17663,7 +17660,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G610" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -17689,7 +17686,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G611" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -17715,7 +17712,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G612" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -17741,7 +17738,7 @@
         <v>18.9200000762939</v>
       </c>
       <c r="G613" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -17767,7 +17764,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G614" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -17793,7 +17790,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G615" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -17819,7 +17816,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G616" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -17845,7 +17842,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G617" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -17871,7 +17868,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G618" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -17897,7 +17894,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G619" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -17923,7 +17920,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G620" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -17949,7 +17946,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G621" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -17975,7 +17972,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G622" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18001,7 +17998,7 @@
         <v>19.2399997711182</v>
       </c>
       <c r="G623" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18027,7 +18024,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G624" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18053,7 +18050,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18079,7 +18076,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G626" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18105,7 +18102,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G627" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18131,7 +18128,7 @@
         <v>18</v>
       </c>
       <c r="G628" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18157,7 +18154,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G629" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18183,7 +18180,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G630" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -18209,7 +18206,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G631" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -18235,7 +18232,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G632" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -18261,7 +18258,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G633" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -18287,7 +18284,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G634" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -18313,7 +18310,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G635" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -18339,7 +18336,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G636" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -18365,7 +18362,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G637" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -18391,7 +18388,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G638" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -18417,7 +18414,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G639" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -18443,7 +18440,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G640" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -18469,7 +18466,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G641" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -18495,7 +18492,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G642" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -18521,7 +18518,7 @@
         <v>18.1599998474121</v>
       </c>
       <c r="G643" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -18547,7 +18544,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G644" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -18573,7 +18570,7 @@
         <v>19</v>
       </c>
       <c r="G645" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -18599,7 +18596,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G646" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -18625,7 +18622,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G647" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -18651,7 +18648,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G648" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -18677,7 +18674,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G649" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -18703,7 +18700,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G650" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -18729,7 +18726,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G651" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -18755,7 +18752,7 @@
         <v>19.2199993133545</v>
       </c>
       <c r="G652" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -18781,7 +18778,7 @@
         <v>19.5</v>
       </c>
       <c r="G653" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -18807,7 +18804,7 @@
         <v>19</v>
       </c>
       <c r="G654" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -18833,7 +18830,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G655" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -18859,7 +18856,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G656" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -18885,7 +18882,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G657" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -18911,7 +18908,7 @@
         <v>18.2600002288818</v>
       </c>
       <c r="G658" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -18937,7 +18934,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G659" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -18963,7 +18960,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G660" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -18989,7 +18986,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G661" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19015,7 +19012,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G662" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19041,7 +19038,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G663" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19067,7 +19064,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G664" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19093,7 +19090,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G665" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19119,7 +19116,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G666" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19145,7 +19142,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G667" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19171,7 +19168,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G668" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -19197,7 +19194,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G669" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19223,7 +19220,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G670" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -19249,7 +19246,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G671" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -19275,7 +19272,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G672" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -19301,7 +19298,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G673" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -19327,7 +19324,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G674" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -19353,7 +19350,7 @@
         <v>16.3199996948242</v>
       </c>
       <c r="G675" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -19379,7 +19376,7 @@
         <v>16</v>
       </c>
       <c r="G676" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -19405,7 +19402,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G677" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -19431,7 +19428,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G678" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -19457,7 +19454,7 @@
         <v>17.5</v>
       </c>
       <c r="G679" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -19483,7 +19480,7 @@
         <v>17.5</v>
       </c>
       <c r="G680" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -19509,7 +19506,7 @@
         <v>17.5</v>
       </c>
       <c r="G681" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -19535,7 +19532,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G682" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -19561,7 +19558,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G683" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -19587,7 +19584,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G684" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -19613,7 +19610,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G685" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -19639,7 +19636,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G686" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -19665,7 +19662,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G687" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -19691,7 +19688,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G688" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -19717,7 +19714,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G689" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -19743,7 +19740,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G690" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -19769,7 +19766,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G691" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -19795,7 +19792,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G692" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -19821,7 +19818,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G693" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -19847,7 +19844,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G694" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -19873,7 +19870,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G695" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -19899,7 +19896,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G696" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -19925,7 +19922,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G697" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -19951,7 +19948,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -19977,7 +19974,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G699" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20003,7 +20000,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G700" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20029,7 +20026,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G701" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20055,7 +20052,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G702" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20081,7 +20078,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G703" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20107,7 +20104,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G704" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20133,7 +20130,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G705" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20159,7 +20156,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G706" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -20185,7 +20182,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G707" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -20211,7 +20208,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G708" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20237,7 +20234,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G709" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20263,7 +20260,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G710" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -20289,7 +20286,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G711" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -20315,7 +20312,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G712" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -20341,7 +20338,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G713" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -20367,7 +20364,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -20393,7 +20390,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G715" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -20419,7 +20416,7 @@
         <v>17.5</v>
       </c>
       <c r="G716" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -20445,7 +20442,7 @@
         <v>17</v>
       </c>
       <c r="G717" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -20471,7 +20468,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G718" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -20497,7 +20494,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G719" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -20523,7 +20520,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G720" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -20549,7 +20546,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G721" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -20575,7 +20572,7 @@
         <v>17.5</v>
       </c>
       <c r="G722" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -20601,7 +20598,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G723" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -20627,7 +20624,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G724" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -20653,7 +20650,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G725" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -20679,7 +20676,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G726" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -20705,7 +20702,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G727" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -20731,7 +20728,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G728" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -20757,7 +20754,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G729" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -20783,7 +20780,7 @@
         <v>15.3599996566772</v>
       </c>
       <c r="G730" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -20809,7 +20806,7 @@
         <v>14.8400001525879</v>
       </c>
       <c r="G731" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -20835,7 +20832,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G732" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -20861,7 +20858,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G733" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -20887,7 +20884,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G734" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -20913,7 +20910,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G735" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -20939,7 +20936,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G736" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -20965,7 +20962,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G737" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -20991,7 +20988,7 @@
         <v>14.039999961853</v>
       </c>
       <c r="G738" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21017,7 +21014,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G739" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21043,7 +21040,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G740" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21069,7 +21066,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G741" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21095,7 +21092,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G742" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21121,7 +21118,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G743" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21147,7 +21144,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G744" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21173,7 +21170,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G745" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21199,7 +21196,7 @@
         <v>14.8800001144409</v>
       </c>
       <c r="G746" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21225,7 +21222,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G747" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21251,7 +21248,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G748" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21277,7 +21274,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G749" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21303,7 +21300,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G750" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -21329,7 +21326,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -21355,7 +21352,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G752" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -21381,7 +21378,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G753" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -21407,7 +21404,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G754" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -21433,7 +21430,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G755" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -21459,7 +21456,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G756" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -21485,7 +21482,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G757" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -21511,7 +21508,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G758" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -21537,7 +21534,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G759" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -21563,7 +21560,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G760" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -21589,7 +21586,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G761" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -21615,7 +21612,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G762" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -21641,7 +21638,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G763" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -21667,7 +21664,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G764" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -21693,7 +21690,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G765" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -21719,7 +21716,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G766" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -21745,7 +21742,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G767" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -21771,7 +21768,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G768" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -21797,7 +21794,7 @@
         <v>17.5</v>
       </c>
       <c r="G769" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -21823,7 +21820,7 @@
         <v>17.5</v>
       </c>
       <c r="G770" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -21849,7 +21846,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G771" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -21875,7 +21872,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G772" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -21901,7 +21898,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G773" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -21927,7 +21924,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G774" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -21953,7 +21950,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G775" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -21979,7 +21976,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G776" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22005,7 +22002,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G777" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22031,7 +22028,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G778" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22057,7 +22054,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G779" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22083,7 +22080,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G780" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22109,7 +22106,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G781" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22135,7 +22132,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G782" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22161,7 +22158,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G783" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22187,7 +22184,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G784" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22213,7 +22210,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G785" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22239,7 +22236,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G786" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22265,7 +22262,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G787" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22291,7 +22288,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G788" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22317,7 +22314,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G789" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -22343,7 +22340,7 @@
         <v>17</v>
       </c>
       <c r="G790" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -22369,7 +22366,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G791" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -22395,7 +22392,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G792" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -22421,7 +22418,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G793" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -22447,7 +22444,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G794" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -22473,7 +22470,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G795" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -22499,7 +22496,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G796" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -22525,7 +22522,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G797" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -22551,7 +22548,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G798" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -22577,7 +22574,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G799" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -22603,7 +22600,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G800" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -22629,7 +22626,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G801" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -22655,7 +22652,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G802" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -22681,7 +22678,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G803" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -22707,7 +22704,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G804" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -22733,7 +22730,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G805" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -22759,7 +22756,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G806" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -22785,7 +22782,7 @@
         <v>18.1599998474121</v>
       </c>
       <c r="G807" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -22811,7 +22808,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G808" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -22837,7 +22834,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G809" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -22863,7 +22860,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G810" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -22889,7 +22886,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G811" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -22915,7 +22912,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G812" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -22941,7 +22938,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G813" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -22967,7 +22964,7 @@
         <v>18.5799999237061</v>
       </c>
       <c r="G814" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -22993,7 +22990,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G815" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23019,7 +23016,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G816" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23045,7 +23042,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G817" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23071,7 +23068,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G818" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23097,7 +23094,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G819" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23123,7 +23120,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G820" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23149,7 +23146,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G821" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23175,7 +23172,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G822" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23201,7 +23198,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G823" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23227,7 +23224,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G824" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23253,7 +23250,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G825" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23279,7 +23276,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G826" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -23305,7 +23302,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G827" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -23331,7 +23328,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G828" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -23357,7 +23354,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G829" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -23383,7 +23380,7 @@
         <v>18.5</v>
       </c>
       <c r="G830" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -23409,7 +23406,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G831" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -23435,7 +23432,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G832" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -23461,7 +23458,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G833" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -23487,7 +23484,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G834" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -23513,7 +23510,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G835" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -23539,7 +23536,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G836" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -23565,7 +23562,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G837" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -23591,7 +23588,7 @@
         <v>17.5</v>
       </c>
       <c r="G838" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -23617,7 +23614,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G839" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -23643,7 +23640,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G840" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -23669,7 +23666,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G841" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -23695,7 +23692,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G842" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -23721,7 +23718,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G843" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -23747,7 +23744,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G844" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -23773,7 +23770,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G845" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -23799,7 +23796,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G846" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -23825,7 +23822,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G847" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -23851,7 +23848,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G848" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -23877,7 +23874,7 @@
         <v>18</v>
       </c>
       <c r="G849" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -23903,7 +23900,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G850" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -23929,7 +23926,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G851" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -23955,7 +23952,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G852" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -23981,7 +23978,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G853" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24007,7 +24004,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G854" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24033,7 +24030,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G855" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24059,7 +24056,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G856" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24085,7 +24082,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G857" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24111,7 +24108,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G858" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24137,7 +24134,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G859" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24163,7 +24160,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G860" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24189,7 +24186,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G861" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24215,7 +24212,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G862" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24241,7 +24238,7 @@
         <v>20.75</v>
       </c>
       <c r="G863" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24267,7 +24264,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -24293,7 +24290,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G865" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -24319,7 +24316,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G866" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -24345,7 +24342,7 @@
         <v>21.5</v>
       </c>
       <c r="G867" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -24371,7 +24368,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G868" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -24397,7 +24394,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G869" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -24423,7 +24420,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G870" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -24449,7 +24446,7 @@
         <v>21.5</v>
       </c>
       <c r="G871" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -24475,7 +24472,7 @@
         <v>21</v>
       </c>
       <c r="G872" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -24501,7 +24498,7 @@
         <v>20.75</v>
       </c>
       <c r="G873" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -24527,7 +24524,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G874" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -24553,7 +24550,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G875" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -24579,7 +24576,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G876" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -24605,7 +24602,7 @@
         <v>20.5</v>
       </c>
       <c r="G877" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -24631,7 +24628,7 @@
         <v>21</v>
       </c>
       <c r="G878" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -24657,7 +24654,7 @@
         <v>21</v>
       </c>
       <c r="G879" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -24683,7 +24680,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G880" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -24709,7 +24706,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G881" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -24735,7 +24732,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G882" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -24761,7 +24758,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G883" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -24787,7 +24784,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G884" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -24813,7 +24810,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G885" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -24839,7 +24836,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G886" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -24865,7 +24862,7 @@
         <v>21.75</v>
       </c>
       <c r="G887" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -24891,7 +24888,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G888" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -24917,7 +24914,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G889" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -24943,7 +24940,7 @@
         <v>22</v>
       </c>
       <c r="G890" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -24969,7 +24966,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G891" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -24995,7 +24992,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G892" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25021,7 +25018,7 @@
         <v>21.75</v>
       </c>
       <c r="G893" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25047,7 +25044,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G894" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25073,7 +25070,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25099,7 +25096,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G896" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25125,7 +25122,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G897" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25151,7 +25148,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G898" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25177,7 +25174,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G899" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25203,7 +25200,7 @@
         <v>22.5</v>
       </c>
       <c r="G900" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25229,7 +25226,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G901" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25255,7 +25252,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G902" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -25281,7 +25278,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G903" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -25307,7 +25304,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G904" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -25333,7 +25330,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -25359,7 +25356,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G906" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -25385,7 +25382,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G907" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -25411,7 +25408,7 @@
         <v>22.5</v>
       </c>
       <c r="G908" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -25437,7 +25434,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G909" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -25463,7 +25460,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G910" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -25489,7 +25486,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G911" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -25515,7 +25512,7 @@
         <v>22.75</v>
       </c>
       <c r="G912" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -25541,7 +25538,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G913" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -25567,7 +25564,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G914" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -25593,7 +25590,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G915" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -25619,7 +25616,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G916" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -25645,7 +25642,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G917" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -25671,7 +25668,7 @@
         <v>23</v>
       </c>
       <c r="G918" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -25697,7 +25694,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G919" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -25723,7 +25720,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G920" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -25749,7 +25746,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G921" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -25775,7 +25772,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G922" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -25801,7 +25798,7 @@
         <v>23.25</v>
       </c>
       <c r="G923" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -25827,7 +25824,7 @@
         <v>23.25</v>
       </c>
       <c r="G924" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -25853,7 +25850,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G925" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -25879,7 +25876,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G926" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -25905,7 +25902,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G927" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -25931,7 +25928,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G928" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -25957,7 +25954,7 @@
         <v>23</v>
       </c>
       <c r="G929" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -25983,7 +25980,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G930" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26009,7 +26006,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G931" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26035,7 +26032,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G932" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26061,7 +26058,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G933" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26087,7 +26084,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G934" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26113,7 +26110,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G935" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26139,7 +26136,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G936" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26165,7 +26162,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G937" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26191,7 +26188,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G938" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26217,7 +26214,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G939" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26243,7 +26240,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G940" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26269,7 +26266,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G941" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26295,7 +26292,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G942" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -26321,7 +26318,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G943" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26347,7 +26344,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G944" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26373,7 +26370,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G945" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26399,7 +26396,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G946" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26425,7 +26422,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G947" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26451,7 +26448,7 @@
         <v>23</v>
       </c>
       <c r="G948" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26477,7 +26474,7 @@
         <v>23.25</v>
       </c>
       <c r="G949" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26503,7 +26500,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G950" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26529,7 +26526,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G951" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26555,7 +26552,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G952" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26581,7 +26578,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G953" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26607,7 +26604,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G954" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26633,7 +26630,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G955" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -26659,7 +26656,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G956" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -26685,7 +26682,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -26711,7 +26708,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G958" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -26737,7 +26734,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G959" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -26763,7 +26760,7 @@
         <v>24.5</v>
       </c>
       <c r="G960" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -26789,7 +26786,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G961" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -26815,7 +26812,7 @@
         <v>24.5</v>
       </c>
       <c r="G962" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -26841,7 +26838,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G963" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -26867,7 +26864,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G964" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -26893,7 +26890,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G965" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -26919,7 +26916,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G966" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -26945,7 +26942,7 @@
         <v>24</v>
       </c>
       <c r="G967" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -26971,7 +26968,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G968" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -26997,7 +26994,7 @@
         <v>24.25</v>
       </c>
       <c r="G969" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -27023,7 +27020,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G970" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27049,7 +27046,7 @@
         <v>24.5</v>
       </c>
       <c r="G971" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27075,7 +27072,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G972" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27101,7 +27098,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G973" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27127,7 +27124,7 @@
         <v>24.5</v>
       </c>
       <c r="G974" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -27153,7 +27150,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G975" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -27179,7 +27176,7 @@
         <v>23.75</v>
       </c>
       <c r="G976" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -27205,7 +27202,7 @@
         <v>23.5</v>
       </c>
       <c r="G977" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -27231,7 +27228,7 @@
         <v>23.25</v>
       </c>
       <c r="G978" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -27257,7 +27254,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G979" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27283,7 +27280,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G980" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27309,7 +27306,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G981" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27335,7 +27332,7 @@
         <v>23</v>
       </c>
       <c r="G982" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -27361,7 +27358,7 @@
         <v>22.75</v>
       </c>
       <c r="G983" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -27387,7 +27384,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G984" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27413,7 +27410,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G985" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27439,7 +27436,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G986" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -27465,7 +27462,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G987" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -27491,7 +27488,7 @@
         <v>22.5</v>
       </c>
       <c r="G988" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -27517,7 +27514,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G989" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -27543,7 +27540,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G990" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -27569,7 +27566,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G991" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -27595,7 +27592,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G992" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -27621,7 +27618,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G993" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -27647,7 +27644,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G994" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -27673,7 +27670,7 @@
         <v>22</v>
       </c>
       <c r="G995" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -27699,7 +27696,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G996" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -27725,7 +27722,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G997" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -27751,7 +27748,7 @@
         <v>22.75</v>
       </c>
       <c r="G998" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -27777,7 +27774,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G999" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -27803,7 +27800,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1000" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -27829,7 +27826,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1001" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -27855,7 +27852,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1002" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -27881,7 +27878,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1003" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -27907,7 +27904,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1004" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -27933,7 +27930,7 @@
         <v>22.25</v>
       </c>
       <c r="G1005" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -27959,7 +27956,7 @@
         <v>22.25</v>
       </c>
       <c r="G1006" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -27985,7 +27982,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1007" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28011,7 +28008,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1008" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28037,7 +28034,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1009" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28063,7 +28060,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1010" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -28089,7 +28086,7 @@
         <v>23</v>
       </c>
       <c r="G1011" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28115,7 +28112,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1012" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28141,7 +28138,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1013" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28167,7 +28164,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1014" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28193,7 +28190,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1015" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28219,7 +28216,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1016" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28245,7 +28242,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1017" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28271,7 +28268,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1018" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28297,7 +28294,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1019" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28323,7 +28320,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1020" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28349,7 +28346,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1021" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28375,7 +28372,7 @@
         <v>23.25</v>
       </c>
       <c r="G1022" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -28401,7 +28398,7 @@
         <v>23</v>
       </c>
       <c r="G1023" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -28427,7 +28424,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1024" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28453,7 +28450,7 @@
         <v>23.25</v>
       </c>
       <c r="G1025" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28479,7 +28476,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1026" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28505,7 +28502,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1027" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28531,7 +28528,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1028" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28557,7 +28554,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G1029" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28583,7 +28580,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1030" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -28609,7 +28606,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1031" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -28635,7 +28632,7 @@
         <v>23.25</v>
       </c>
       <c r="G1032" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28661,7 +28658,7 @@
         <v>24</v>
       </c>
       <c r="G1033" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -28687,7 +28684,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G1034" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -28713,7 +28710,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1035" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -28739,7 +28736,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1036" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -28765,7 +28762,7 @@
         <v>23.5</v>
       </c>
       <c r="G1037" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28791,7 +28788,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1038" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -28817,7 +28814,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1039" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -28843,7 +28840,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1040" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -28869,7 +28866,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1041" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -28895,7 +28892,7 @@
         <v>23.75</v>
       </c>
       <c r="G1042" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -28921,7 +28918,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1043" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -28947,7 +28944,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1044" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -28973,7 +28970,7 @@
         <v>23.5</v>
       </c>
       <c r="G1045" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -28999,7 +28996,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1046" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29025,7 +29022,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1047" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -29051,7 +29048,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1048" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29077,7 +29074,7 @@
         <v>24.25</v>
       </c>
       <c r="G1049" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -29103,7 +29100,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1050" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29129,7 +29126,7 @@
         <v>24.5</v>
       </c>
       <c r="G1051" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29155,7 +29152,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1052" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -29181,7 +29178,7 @@
         <v>24.25</v>
       </c>
       <c r="G1053" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29207,7 +29204,7 @@
         <v>24.25</v>
       </c>
       <c r="G1054" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29233,7 +29230,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1055" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29259,7 +29256,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1056" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29285,7 +29282,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1057" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29311,7 +29308,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1058" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29337,7 +29334,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1059" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29363,7 +29360,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1060" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29389,7 +29386,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1061" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29415,7 +29412,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1062" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29441,7 +29438,7 @@
         <v>24.25</v>
       </c>
       <c r="G1063" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29467,7 +29464,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29493,7 +29490,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1065" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29519,7 +29516,7 @@
         <v>24.5</v>
       </c>
       <c r="G1066" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29545,7 +29542,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G1067" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29571,7 +29568,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1068" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29597,7 +29594,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1069" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29623,7 +29620,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1070" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29649,7 +29646,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1071" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29675,7 +29672,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1072" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -29701,7 +29698,7 @@
         <v>23.75</v>
       </c>
       <c r="G1073" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -29727,7 +29724,7 @@
         <v>23.75</v>
       </c>
       <c r="G1074" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -29753,7 +29750,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1075" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -29779,7 +29776,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1076" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -29805,7 +29802,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1077" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -29831,7 +29828,7 @@
         <v>23.5</v>
       </c>
       <c r="G1078" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -29857,7 +29854,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1079" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -29883,7 +29880,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1080" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -29909,7 +29906,7 @@
         <v>23.5</v>
       </c>
       <c r="G1081" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -29935,7 +29932,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1082" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -29961,7 +29958,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1083" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -29987,7 +29984,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1084" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30013,7 +30010,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1085" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30039,7 +30036,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1086" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -30065,7 +30062,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1087" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30091,7 +30088,7 @@
         <v>23.25</v>
       </c>
       <c r="G1088" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30117,7 +30114,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1089" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -30143,7 +30140,7 @@
         <v>23</v>
       </c>
       <c r="G1090" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30169,7 +30166,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1091" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30195,7 +30192,7 @@
         <v>23.25</v>
       </c>
       <c r="G1092" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30221,7 +30218,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1093" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30247,7 +30244,7 @@
         <v>23.25</v>
       </c>
       <c r="G1094" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30273,7 +30270,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1095" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30299,7 +30296,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1096" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30325,7 +30322,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1097" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30351,7 +30348,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1098" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30377,7 +30374,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1099" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30403,7 +30400,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1100" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30429,7 +30426,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1101" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30455,7 +30452,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1102" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30481,7 +30478,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1103" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30507,7 +30504,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1104" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -30533,7 +30530,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1105" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30559,7 +30556,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1106" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30585,7 +30582,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1107" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30611,7 +30608,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1108" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30637,7 +30634,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1109" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30663,7 +30660,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1110" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -30689,7 +30686,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1111" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30715,7 +30712,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1112" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -30741,7 +30738,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1113" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30767,7 +30764,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1114" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30793,7 +30790,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1115" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30819,7 +30816,7 @@
         <v>22.75</v>
       </c>
       <c r="G1116" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -30845,7 +30842,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1117" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -30871,7 +30868,7 @@
         <v>23</v>
       </c>
       <c r="G1118" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -30897,7 +30894,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -30923,7 +30920,7 @@
         <v>22.5</v>
       </c>
       <c r="G1120" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -30949,7 +30946,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1121" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -30975,7 +30972,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1122" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -31001,7 +30998,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1123" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31027,7 +31024,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1124" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31053,7 +31050,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1125" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31079,7 +31076,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1126" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31105,7 +31102,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1127" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31131,7 +31128,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1128" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31157,7 +31154,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1129" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31183,7 +31180,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1130" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31209,7 +31206,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1131" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31235,7 +31232,7 @@
         <v>22.25</v>
       </c>
       <c r="G1132" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31261,7 +31258,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1133" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31287,7 +31284,7 @@
         <v>21.75</v>
       </c>
       <c r="G1134" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31313,7 +31310,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1135" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31339,7 +31336,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1136" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31365,7 +31362,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1137" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31391,7 +31388,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1138" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31417,7 +31414,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1139" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31443,7 +31440,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1140" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31469,7 +31466,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1141" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31495,7 +31492,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1142" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31521,7 +31518,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1143" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31547,7 +31544,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31573,7 +31570,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1145" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31599,7 +31596,7 @@
         <v>26</v>
       </c>
       <c r="G1146" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31625,7 +31622,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G1147" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31651,7 +31648,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1148" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31677,7 +31674,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1149" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31703,7 +31700,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1150" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -31729,7 +31726,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1151" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31755,7 +31752,7 @@
         <v>25.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31781,7 +31778,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1153" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31807,7 +31804,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1154" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -31833,7 +31830,7 @@
         <v>25.5</v>
       </c>
       <c r="G1155" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -31859,7 +31856,7 @@
         <v>25.5</v>
       </c>
       <c r="G1156" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -31885,7 +31882,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1157" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -31911,7 +31908,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1158" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -31937,7 +31934,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1159" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -31963,7 +31960,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1160" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -31989,7 +31986,7 @@
         <v>25.5</v>
       </c>
       <c r="G1161" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32015,7 +32012,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1162" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32041,7 +32038,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1163" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32067,7 +32064,7 @@
         <v>25.5</v>
       </c>
       <c r="G1164" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32093,7 +32090,7 @@
         <v>25.5</v>
       </c>
       <c r="G1165" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32119,7 +32116,7 @@
         <v>25.5</v>
       </c>
       <c r="G1166" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32127,7 +32124,7 @@
     </row>
     <row r="1167">
       <c r="A1167" s="1" t="n">
-        <v>45450.6495601852</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B1167" t="n">
         <v>28152</v>
@@ -32145,9 +32142,35 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1167" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="1" t="n">
+        <v>45453.6495601852</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>42479</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="G1168" t="s">
+        <v>484</v>
+      </c>
+      <c r="H1168" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -47,13 +47,13 @@
     <t xml:space="preserve">8.33448886871338</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17905139923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13650226593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16342258453369</t>
+    <t xml:space="preserve">8.17905235290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13650321960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16342163085938</t>
   </si>
   <si>
     <t xml:space="preserve">8.10176944732666</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">8.2493896484375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29280853271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50989723205566</t>
+    <t xml:space="preserve">8.29280757904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50989818572998</t>
   </si>
   <si>
     <t xml:space="preserve">8.51163482666016</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">8.42306041717529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51858043670654</t>
+    <t xml:space="preserve">8.51857948303223</t>
   </si>
   <si>
     <t xml:space="preserve">9.02222728729248</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">8.89892101287842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84681987762451</t>
+    <t xml:space="preserve">8.8468189239502</t>
   </si>
   <si>
     <t xml:space="preserve">8.93886470794678</t>
@@ -119,13 +119,13 @@
     <t xml:space="preserve">9.00485992431641</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97707271575928</t>
+    <t xml:space="preserve">8.97707366943359</t>
   </si>
   <si>
     <t xml:space="preserve">9.02917385101318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03090953826904</t>
+    <t xml:space="preserve">9.03091049194336</t>
   </si>
   <si>
     <t xml:space="preserve">8.98749351501465</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">9.2480001449585</t>
   </si>
   <si>
-    <t xml:space="preserve">9.465087890625</t>
+    <t xml:space="preserve">9.46508884429932</t>
   </si>
   <si>
     <t xml:space="preserve">9.5953426361084</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">9.98610401153564</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0295219421387</t>
+    <t xml:space="preserve">10.029522895813</t>
   </si>
   <si>
     <t xml:space="preserve">9.76901340484619</t>
@@ -167,10 +167,10 @@
     <t xml:space="preserve">9.85585021972656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63876056671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55192470550537</t>
+    <t xml:space="preserve">9.63876152038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55192565917969</t>
   </si>
   <si>
     <t xml:space="preserve">9.16116333007812</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">9.07432842254639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57936477661133</t>
+    <t xml:space="preserve">8.57936573028564</t>
   </si>
   <si>
     <t xml:space="preserve">8.63146495819092</t>
@@ -194,10 +194,10 @@
     <t xml:space="preserve">8.77040481567383</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20458221435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68356704711914</t>
+    <t xml:space="preserve">9.20458316802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68356800079346</t>
   </si>
   <si>
     <t xml:space="preserve">8.45779418945312</t>
@@ -206,13 +206,13 @@
     <t xml:space="preserve">8.40569400787354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51997041702271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02361679077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7283763885498</t>
+    <t xml:space="preserve">7.51996994018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02361583709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72837543487549</t>
   </si>
   <si>
     <t xml:space="preserve">7.98888206481934</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">8.81382179260254</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42167282104492</t>
+    <t xml:space="preserve">9.42167186737061</t>
   </si>
   <si>
     <t xml:space="preserve">9.02747058868408</t>
@@ -248,7 +248,7 @@
     <t xml:space="preserve">9.07260990142822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74967002868652</t>
+    <t xml:space="preserve">9.74966907501221</t>
   </si>
   <si>
     <t xml:space="preserve">10.1559057235718</t>
@@ -260,13 +260,13 @@
     <t xml:space="preserve">10.3815927505493</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4718675613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6072788238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5170040130615</t>
+    <t xml:space="preserve">10.4718685150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6072797775269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5170030593872</t>
   </si>
   <si>
     <t xml:space="preserve">11.0135145187378</t>
@@ -284,13 +284,13 @@
     <t xml:space="preserve">10.8329668045044</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7878293991089</t>
+    <t xml:space="preserve">10.7878284454346</t>
   </si>
   <si>
     <t xml:space="preserve">11.1037902832031</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0586528778076</t>
+    <t xml:space="preserve">11.0586519241333</t>
   </si>
   <si>
     <t xml:space="preserve">10.9683780670166</t>
@@ -320,10 +320,10 @@
     <t xml:space="preserve">10.3364553451538</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2461814880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4197521209717</t>
+    <t xml:space="preserve">10.2461805343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4197511672974</t>
   </si>
   <si>
     <t xml:space="preserve">11.6454381942749</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">11.3746147155762</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5100269317627</t>
+    <t xml:space="preserve">11.5100259780884</t>
   </si>
   <si>
     <t xml:space="preserve">11.2392024993896</t>
@@ -347,13 +347,13 @@
     <t xml:space="preserve">11.4648895263672</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6003007888794</t>
+    <t xml:space="preserve">11.6003017425537</t>
   </si>
   <si>
     <t xml:space="preserve">11.6905765533447</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7808504104614</t>
+    <t xml:space="preserve">11.7808513641357</t>
   </si>
   <si>
     <t xml:space="preserve">11.8259887695312</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">12.5481853485107</t>
   </si>
   <si>
-    <t xml:space="preserve">12.367636680603</t>
+    <t xml:space="preserve">12.3676357269287</t>
   </si>
   <si>
     <t xml:space="preserve">12.187087059021</t>
@@ -389,13 +389,13 @@
     <t xml:space="preserve">12.5030488967896</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6384601593018</t>
+    <t xml:space="preserve">12.6384592056274</t>
   </si>
   <si>
     <t xml:space="preserve">12.2322244644165</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3224983215332</t>
+    <t xml:space="preserve">12.3224992752075</t>
   </si>
   <si>
     <t xml:space="preserve">12.6205492019653</t>
@@ -32150,7 +32150,7 @@
     </row>
     <row r="1168">
       <c r="A1168" s="1" t="n">
-        <v>45453.6495601852</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B1168" t="n">
         <v>42479</v>
@@ -32171,6 +32171,32 @@
         <v>484</v>
       </c>
       <c r="H1168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="1" t="n">
+        <v>45455.6494212963</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>51519</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G1169" t="s">
+        <v>482</v>
+      </c>
+      <c r="H1169" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="484">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">SCF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33448886871338</t>
+    <t xml:space="preserve">8.33448791503906</t>
   </si>
   <si>
     <t xml:space="preserve">8.17905235290527</t>
@@ -56,16 +56,16 @@
     <t xml:space="preserve">8.16342163085938</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10176944732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11045360565186</t>
+    <t xml:space="preserve">8.10176849365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11045265197754</t>
   </si>
   <si>
     <t xml:space="preserve">8.11913585662842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16255378723145</t>
+    <t xml:space="preserve">8.16255474090576</t>
   </si>
   <si>
     <t xml:space="preserve">8.24070644378662</t>
@@ -74,46 +74,46 @@
     <t xml:space="preserve">8.2493896484375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29280757904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50989818572998</t>
+    <t xml:space="preserve">8.29280853271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50989723205566</t>
   </si>
   <si>
     <t xml:space="preserve">8.51163482666016</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48384571075439</t>
+    <t xml:space="preserve">8.48384666442871</t>
   </si>
   <si>
     <t xml:space="preserve">8.38398456573486</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3101749420166</t>
+    <t xml:space="preserve">8.31017398834229</t>
   </si>
   <si>
     <t xml:space="preserve">8.42306041717529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51857948303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02222728729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89892101287842</t>
+    <t xml:space="preserve">8.51858139038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0222282409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8989200592041</t>
   </si>
   <si>
     <t xml:space="preserve">8.8468189239502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93886470794678</t>
+    <t xml:space="preserve">8.93886375427246</t>
   </si>
   <si>
     <t xml:space="preserve">8.94407653808594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93539142608643</t>
+    <t xml:space="preserve">8.93539237976074</t>
   </si>
   <si>
     <t xml:space="preserve">9.00485992431641</t>
@@ -131,16 +131,16 @@
     <t xml:space="preserve">8.98749351501465</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33483600616455</t>
+    <t xml:space="preserve">9.33483505249023</t>
   </si>
   <si>
     <t xml:space="preserve">9.2480001449585</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46508884429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5953426361084</t>
+    <t xml:space="preserve">9.465087890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59534358978271</t>
   </si>
   <si>
     <t xml:space="preserve">9.68217849731445</t>
@@ -149,16 +149,16 @@
     <t xml:space="preserve">9.81243228912354</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72559642791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98610401153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.029522895813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76901340484619</t>
+    <t xml:space="preserve">9.7255973815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98610305786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0295219421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76901435852051</t>
   </si>
   <si>
     <t xml:space="preserve">9.89926719665527</t>
@@ -170,40 +170,40 @@
     <t xml:space="preserve">9.63876152038574</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55192565917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16116333007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29141807556152</t>
+    <t xml:space="preserve">9.55192470550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16116428375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29141712188721</t>
   </si>
   <si>
     <t xml:space="preserve">9.07432842254639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57936573028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63146495819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85723876953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77040481567383</t>
+    <t xml:space="preserve">8.57936477661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63146686553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85724067687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7704029083252</t>
   </si>
   <si>
     <t xml:space="preserve">9.20458316802979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68356800079346</t>
+    <t xml:space="preserve">8.68356704711914</t>
   </si>
   <si>
     <t xml:space="preserve">8.45779418945312</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40569400787354</t>
+    <t xml:space="preserve">8.40569496154785</t>
   </si>
   <si>
     <t xml:space="preserve">7.51996994018555</t>
@@ -215,10 +215,10 @@
     <t xml:space="preserve">7.72837543487549</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98888206481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8152117729187</t>
+    <t xml:space="preserve">7.98888254165649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81521129608154</t>
   </si>
   <si>
     <t xml:space="preserve">7.78047704696655</t>
@@ -227,22 +227,22 @@
     <t xml:space="preserve">8.09308528900146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38832569122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90065765380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11774730682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81382179260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42167186737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02747058868408</t>
+    <t xml:space="preserve">8.38832664489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90065860748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11774635314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81382083892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42167091369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0274715423584</t>
   </si>
   <si>
     <t xml:space="preserve">9.07260990142822</t>
@@ -254,22 +254,22 @@
     <t xml:space="preserve">10.1559057235718</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2913179397583</t>
+    <t xml:space="preserve">10.291316986084</t>
   </si>
   <si>
     <t xml:space="preserve">10.3815927505493</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4718685150146</t>
+    <t xml:space="preserve">10.4718675613403</t>
   </si>
   <si>
     <t xml:space="preserve">10.6072797775269</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5170030593872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0135145187378</t>
+    <t xml:space="preserve">10.5170040130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0135154724121</t>
   </si>
   <si>
     <t xml:space="preserve">11.1940650939941</t>
@@ -278,10 +278,10 @@
     <t xml:space="preserve">11.1489276885986</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2843399047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8329668045044</t>
+    <t xml:space="preserve">11.2843389511108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8329648971558</t>
   </si>
   <si>
     <t xml:space="preserve">10.7878284454346</t>
@@ -293,34 +293,34 @@
     <t xml:space="preserve">11.0586519241333</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9683780670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9232416152954</t>
+    <t xml:space="preserve">10.9683771133423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9232406616211</t>
   </si>
   <si>
     <t xml:space="preserve">10.8781032562256</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6524171829224</t>
+    <t xml:space="preserve">10.652416229248</t>
   </si>
   <si>
     <t xml:space="preserve">10.7426910400391</t>
   </si>
   <si>
-    <t xml:space="preserve">10.562141418457</t>
+    <t xml:space="preserve">10.5621423721313</t>
   </si>
   <si>
     <t xml:space="preserve">10.4267301559448</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6975545883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3364553451538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2461805343628</t>
+    <t xml:space="preserve">10.6975536346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3364543914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2461795806885</t>
   </si>
   <si>
     <t xml:space="preserve">11.4197511672974</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">11.6454381942749</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7357139587402</t>
+    <t xml:space="preserve">11.7357120513916</t>
   </si>
   <si>
     <t xml:space="preserve">11.5551633834839</t>
@@ -347,31 +347,31 @@
     <t xml:space="preserve">11.4648895263672</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6003017425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6905765533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7808513641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8259887695312</t>
+    <t xml:space="preserve">11.6003007888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6905755996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7808504104614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8259878158569</t>
   </si>
   <si>
     <t xml:space="preserve">11.8711252212524</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9162626266479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9614009857178</t>
+    <t xml:space="preserve">11.9162635803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9614000320435</t>
   </si>
   <si>
     <t xml:space="preserve">12.1419496536255</t>
   </si>
   <si>
-    <t xml:space="preserve">12.457911491394</t>
+    <t xml:space="preserve">12.4579105377197</t>
   </si>
   <si>
     <t xml:space="preserve">12.5481853485107</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">12.3676357269287</t>
   </si>
   <si>
-    <t xml:space="preserve">12.187087059021</t>
+    <t xml:space="preserve">12.1870861053467</t>
   </si>
   <si>
     <t xml:space="preserve">12.277361869812</t>
@@ -389,43 +389,43 @@
     <t xml:space="preserve">12.5030488967896</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6384592056274</t>
+    <t xml:space="preserve">12.6384601593018</t>
   </si>
   <si>
     <t xml:space="preserve">12.2322244644165</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3224992752075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6205492019653</t>
+    <t xml:space="preserve">12.3224983215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.620548248291</t>
   </si>
   <si>
     <t xml:space="preserve">12.7136898040771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5274076461792</t>
+    <t xml:space="preserve">12.5274085998535</t>
   </si>
   <si>
     <t xml:space="preserve">12.4808378219604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6671190261841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5739784240723</t>
+    <t xml:space="preserve">12.6671199798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5739774703979</t>
   </si>
   <si>
     <t xml:space="preserve">12.2945566177368</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3876981735229</t>
+    <t xml:space="preserve">12.3876972198486</t>
   </si>
   <si>
     <t xml:space="preserve">12.4342679977417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9465398788452</t>
+    <t xml:space="preserve">12.9465408325195</t>
   </si>
   <si>
     <t xml:space="preserve">13.1328220367432</t>
@@ -440,22 +440,22 @@
     <t xml:space="preserve">13.2725324630737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4588146209717</t>
+    <t xml:space="preserve">13.4588136672974</t>
   </si>
   <si>
     <t xml:space="preserve">13.5519552230835</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7848072052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5985250473022</t>
+    <t xml:space="preserve">13.7848062515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5985260009766</t>
   </si>
   <si>
     <t xml:space="preserve">13.7382354736328</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9710874557495</t>
+    <t xml:space="preserve">13.9710865020752</t>
   </si>
   <si>
     <t xml:space="preserve">13.8779468536377</t>
@@ -467,34 +467,34 @@
     <t xml:space="preserve">13.5053844451904</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6916656494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.645094871521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8313760757446</t>
+    <t xml:space="preserve">13.6916646957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6450958251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8313770294189</t>
   </si>
   <si>
     <t xml:space="preserve">14.0642280578613</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2970790863037</t>
+    <t xml:space="preserve">14.297080039978</t>
   </si>
   <si>
     <t xml:space="preserve">14.7627830505371</t>
   </si>
   <si>
-    <t xml:space="preserve">15.321626663208</t>
+    <t xml:space="preserve">15.3216276168823</t>
   </si>
   <si>
     <t xml:space="preserve">15.6010475158691</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9270401000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8804683685303</t>
+    <t xml:space="preserve">15.927041053772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.880467414856</t>
   </si>
   <si>
     <t xml:space="preserve">15.8338994979858</t>
@@ -518,16 +518,16 @@
     <t xml:space="preserve">17.2310066223145</t>
   </si>
   <si>
-    <t xml:space="preserve">16.951587677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4172897338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6501426696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7898502349854</t>
+    <t xml:space="preserve">16.9515857696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4172878265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6501407623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.789852142334</t>
   </si>
   <si>
     <t xml:space="preserve">17.4638595581055</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">16.8584461212158</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7187366485596</t>
+    <t xml:space="preserve">16.7187347412109</t>
   </si>
   <si>
     <t xml:space="preserve">17.0447254180908</t>
@@ -554,16 +554,16 @@
     <t xml:space="preserve">16.8118743896484</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2996006011963</t>
+    <t xml:space="preserve">16.2996025085449</t>
   </si>
   <si>
     <t xml:space="preserve">16.1133193969727</t>
   </si>
   <si>
-    <t xml:space="preserve">16.15989112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1844387054443</t>
+    <t xml:space="preserve">16.1598930358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1844367980957</t>
   </si>
   <si>
     <t xml:space="preserve">17.137866973877</t>
@@ -575,43 +575,43 @@
     <t xml:space="preserve">17.976131439209</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1624126434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8829936981201</t>
+    <t xml:space="preserve">18.1624145507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8829917907715</t>
   </si>
   <si>
     <t xml:space="preserve">17.8364219665527</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1158447265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5349769592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6281147003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3486976623535</t>
+    <t xml:space="preserve">18.1158428192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5349750518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.628116607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3486938476562</t>
   </si>
   <si>
     <t xml:space="preserve">18.5815467834473</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9075374603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4884052276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0938205718994</t>
+    <t xml:space="preserve">18.9075355529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4884071350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0938186645508</t>
   </si>
   <si>
     <t xml:space="preserve">19.280101776123</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2115077972412</t>
+    <t xml:space="preserve">20.2115058898926</t>
   </si>
   <si>
     <t xml:space="preserve">20.1183643341064</t>
@@ -623,16 +623,16 @@
     <t xml:space="preserve">19.7458038330078</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9320831298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.677209854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0252265930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1869602203369</t>
+    <t xml:space="preserve">19.9320850372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6772079467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0252246856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1869621276855</t>
   </si>
   <si>
     <t xml:space="preserve">19.6526622772217</t>
@@ -644,22 +644,22 @@
     <t xml:space="preserve">21.515474319458</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7948970794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4468784332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7263011932373</t>
+    <t xml:space="preserve">21.7948951721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4468803405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7263031005859</t>
   </si>
   <si>
     <t xml:space="preserve">22.5400218963623</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2851467132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1920032501221</t>
+    <t xml:space="preserve">23.2851448059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1920051574707</t>
   </si>
   <si>
     <t xml:space="preserve">23.0057239532471</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">22.8194427490234</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3782844543457</t>
+    <t xml:space="preserve">23.3782863616943</t>
   </si>
   <si>
     <t xml:space="preserve">23.5645656585693</t>
@@ -683,13 +683,13 @@
     <t xml:space="preserve">21.8880367279053</t>
   </si>
   <si>
-    <t xml:space="preserve">22.167459487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3537406921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2605972290039</t>
+    <t xml:space="preserve">22.1674575805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.35373878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2606010437012</t>
   </si>
   <si>
     <t xml:space="preserve">22.6331615447998</t>
@@ -710,19 +710,19 @@
     <t xml:space="preserve">20.5840682983398</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3046436309814</t>
+    <t xml:space="preserve">20.3046455383301</t>
   </si>
   <si>
     <t xml:space="preserve">20.8634910583496</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0006790161133</t>
+    <t xml:space="preserve">19.0006771087646</t>
   </si>
   <si>
     <t xml:space="preserve">21.1429138183594</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3732395172119</t>
+    <t xml:space="preserve">19.3732414245605</t>
   </si>
   <si>
     <t xml:space="preserve">19.5595226287842</t>
@@ -734,10 +734,10 @@
     <t xml:space="preserve">18.7212581634521</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5722332000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3673229217529</t>
+    <t xml:space="preserve">18.5722312927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3673210144043</t>
   </si>
   <si>
     <t xml:space="preserve">17.6221981048584</t>
@@ -752,16 +752,16 @@
     <t xml:space="preserve">18.0133895874023</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7525939941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5663146972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6594524383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7339668273926</t>
+    <t xml:space="preserve">17.7525959014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.566312789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6594543457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7339687347412</t>
   </si>
   <si>
     <t xml:space="preserve">17.9202480316162</t>
@@ -776,10 +776,10 @@
     <t xml:space="preserve">16.6349086761475</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8957023620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.728048324585</t>
+    <t xml:space="preserve">16.8957004547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7280464172363</t>
   </si>
   <si>
     <t xml:space="preserve">16.54176902771</t>
@@ -791,7 +791,7 @@
     <t xml:space="preserve">15.722128868103</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5544776916504</t>
+    <t xml:space="preserve">15.5544786453247</t>
   </si>
   <si>
     <t xml:space="preserve">15.0515184402466</t>
@@ -800,13 +800,13 @@
     <t xml:space="preserve">14.9770059585571</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4613380432129</t>
+    <t xml:space="preserve">15.4613370895386</t>
   </si>
   <si>
     <t xml:space="preserve">15.1446590423584</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5231380462646</t>
+    <t xml:space="preserve">16.5231399536133</t>
   </si>
   <si>
     <t xml:space="preserve">17.0968570709229</t>
@@ -981,9 +981,6 @@
   </si>
   <si>
     <t xml:space="preserve">16.2554035186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5231399536133</t>
   </si>
   <si>
     <t xml:space="preserve">16.9247436523438</t>
@@ -20494,7 +20491,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G719" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -20520,7 +20517,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G720" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -20598,7 +20595,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G723" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -20624,7 +20621,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G724" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -20650,7 +20647,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G725" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -20702,7 +20699,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G727" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -20754,7 +20751,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G729" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -20780,7 +20777,7 @@
         <v>15.3599996566772</v>
       </c>
       <c r="G730" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -20806,7 +20803,7 @@
         <v>14.8400001525879</v>
       </c>
       <c r="G731" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -20832,7 +20829,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G732" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -20858,7 +20855,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G733" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -20884,7 +20881,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G734" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -20910,7 +20907,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G735" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -20936,7 +20933,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G736" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -20962,7 +20959,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G737" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -20988,7 +20985,7 @@
         <v>14.039999961853</v>
       </c>
       <c r="G738" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21014,7 +21011,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G739" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21040,7 +21037,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G740" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21066,7 +21063,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G741" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21092,7 +21089,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G742" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21118,7 +21115,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G743" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21144,7 +21141,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G744" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21170,7 +21167,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G745" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21196,7 +21193,7 @@
         <v>14.8800001144409</v>
       </c>
       <c r="G746" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21222,7 +21219,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G747" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21248,7 +21245,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G748" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21274,7 +21271,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G749" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21326,7 +21323,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -21352,7 +21349,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G752" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -21378,7 +21375,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G753" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -21404,7 +21401,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G754" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -21430,7 +21427,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G755" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -21482,7 +21479,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G757" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -21508,7 +21505,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G758" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -21534,7 +21531,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G759" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -21560,7 +21557,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G760" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -21586,7 +21583,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G761" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -21612,7 +21609,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G762" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -21638,7 +21635,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G763" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -21690,7 +21687,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G765" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -21716,7 +21713,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G766" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -21742,7 +21739,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G767" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -21846,7 +21843,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G771" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -21898,7 +21895,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G773" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -21950,7 +21947,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G775" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -21976,7 +21973,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G776" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22002,7 +21999,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G777" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22028,7 +22025,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G778" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22080,7 +22077,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G780" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22106,7 +22103,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G781" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22132,7 +22129,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G782" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22184,7 +22181,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G784" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22210,7 +22207,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G785" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22236,7 +22233,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G786" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22262,7 +22259,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G787" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22288,7 +22285,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G788" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22314,7 +22311,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G789" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -22366,7 +22363,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G791" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -22392,7 +22389,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G792" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -22444,7 +22441,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G794" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -22470,7 +22467,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G795" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -22496,7 +22493,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G796" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -22600,7 +22597,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G800" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -22652,7 +22649,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G802" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -22678,7 +22675,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G803" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -22730,7 +22727,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G805" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -22756,7 +22753,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G806" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -22886,7 +22883,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G811" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -22964,7 +22961,7 @@
         <v>18.5799999237061</v>
       </c>
       <c r="G814" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -22990,7 +22987,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G815" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23094,7 +23091,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G819" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23146,7 +23143,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G821" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23172,7 +23169,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G822" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23198,7 +23195,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G823" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23224,7 +23221,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G824" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23250,7 +23247,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G825" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23328,7 +23325,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G828" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -23354,7 +23351,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G829" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -23380,7 +23377,7 @@
         <v>18.5</v>
       </c>
       <c r="G830" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -23406,7 +23403,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G831" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -23458,7 +23455,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G833" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -23484,7 +23481,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G834" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -23510,7 +23507,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G835" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -23562,7 +23559,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G837" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -23666,7 +23663,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G841" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -23718,7 +23715,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G843" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -23744,7 +23741,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G844" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -23796,7 +23793,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G846" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -23822,7 +23819,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G847" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -23874,7 +23871,7 @@
         <v>18</v>
       </c>
       <c r="G849" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -23900,7 +23897,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G850" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -23926,7 +23923,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G851" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -23952,7 +23949,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G852" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -23978,7 +23975,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G853" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24004,7 +24001,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G854" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24056,7 +24053,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G856" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24082,7 +24079,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G857" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24108,7 +24105,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G858" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24134,7 +24131,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G859" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24160,7 +24157,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G860" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24186,7 +24183,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G861" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24212,7 +24209,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G862" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24238,7 +24235,7 @@
         <v>20.75</v>
       </c>
       <c r="G863" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24264,7 +24261,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -24290,7 +24287,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G865" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -24316,7 +24313,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G866" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -24342,7 +24339,7 @@
         <v>21.5</v>
       </c>
       <c r="G867" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -24368,7 +24365,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G868" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -24394,7 +24391,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G869" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -24420,7 +24417,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G870" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -24446,7 +24443,7 @@
         <v>21.5</v>
       </c>
       <c r="G871" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -24472,7 +24469,7 @@
         <v>21</v>
       </c>
       <c r="G872" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -24498,7 +24495,7 @@
         <v>20.75</v>
       </c>
       <c r="G873" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -24524,7 +24521,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G874" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -24550,7 +24547,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G875" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -24576,7 +24573,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G876" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -24602,7 +24599,7 @@
         <v>20.5</v>
       </c>
       <c r="G877" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -24628,7 +24625,7 @@
         <v>21</v>
       </c>
       <c r="G878" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -24654,7 +24651,7 @@
         <v>21</v>
       </c>
       <c r="G879" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -24680,7 +24677,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G880" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -24706,7 +24703,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G881" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -24732,7 +24729,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G882" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -24758,7 +24755,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G883" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -24784,7 +24781,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G884" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -24810,7 +24807,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G885" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -24836,7 +24833,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G886" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -24862,7 +24859,7 @@
         <v>21.75</v>
       </c>
       <c r="G887" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -24888,7 +24885,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G888" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -24914,7 +24911,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G889" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -24940,7 +24937,7 @@
         <v>22</v>
       </c>
       <c r="G890" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -24966,7 +24963,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G891" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -24992,7 +24989,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G892" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25018,7 +25015,7 @@
         <v>21.75</v>
       </c>
       <c r="G893" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25044,7 +25041,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G894" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25070,7 +25067,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25096,7 +25093,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G896" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25122,7 +25119,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G897" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25148,7 +25145,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G898" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25174,7 +25171,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G899" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25200,7 +25197,7 @@
         <v>22.5</v>
       </c>
       <c r="G900" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25226,7 +25223,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G901" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25252,7 +25249,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G902" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -25278,7 +25275,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G903" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -25304,7 +25301,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G904" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -25330,7 +25327,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -25356,7 +25353,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G906" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -25382,7 +25379,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G907" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -25408,7 +25405,7 @@
         <v>22.5</v>
       </c>
       <c r="G908" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -25434,7 +25431,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G909" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -25460,7 +25457,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G910" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -25486,7 +25483,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G911" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -25512,7 +25509,7 @@
         <v>22.75</v>
       </c>
       <c r="G912" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -25538,7 +25535,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G913" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -25564,7 +25561,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G914" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -25590,7 +25587,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G915" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -25616,7 +25613,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G916" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -25642,7 +25639,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G917" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -25668,7 +25665,7 @@
         <v>23</v>
       </c>
       <c r="G918" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -25694,7 +25691,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G919" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -25720,7 +25717,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G920" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -25746,7 +25743,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G921" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -25772,7 +25769,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G922" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -25798,7 +25795,7 @@
         <v>23.25</v>
       </c>
       <c r="G923" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -25824,7 +25821,7 @@
         <v>23.25</v>
       </c>
       <c r="G924" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -25850,7 +25847,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G925" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -25876,7 +25873,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G926" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -25902,7 +25899,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G927" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -25928,7 +25925,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G928" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -25954,7 +25951,7 @@
         <v>23</v>
       </c>
       <c r="G929" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -25980,7 +25977,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G930" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26006,7 +26003,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G931" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26032,7 +26029,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G932" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26058,7 +26055,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G933" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26084,7 +26081,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G934" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26110,7 +26107,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G935" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26136,7 +26133,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G936" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26162,7 +26159,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G937" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26188,7 +26185,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G938" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26214,7 +26211,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G939" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26240,7 +26237,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G940" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26266,7 +26263,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G941" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26292,7 +26289,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G942" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -26318,7 +26315,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G943" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26344,7 +26341,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G944" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26370,7 +26367,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G945" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26396,7 +26393,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G946" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26422,7 +26419,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G947" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26448,7 +26445,7 @@
         <v>23</v>
       </c>
       <c r="G948" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26474,7 +26471,7 @@
         <v>23.25</v>
       </c>
       <c r="G949" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26500,7 +26497,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G950" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26526,7 +26523,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G951" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26552,7 +26549,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G952" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26578,7 +26575,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G953" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26604,7 +26601,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G954" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26630,7 +26627,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G955" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -26656,7 +26653,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G956" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -26682,7 +26679,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -26708,7 +26705,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G958" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -26734,7 +26731,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G959" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -26760,7 +26757,7 @@
         <v>24.5</v>
       </c>
       <c r="G960" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -26786,7 +26783,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G961" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -26812,7 +26809,7 @@
         <v>24.5</v>
       </c>
       <c r="G962" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -26838,7 +26835,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G963" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -26864,7 +26861,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G964" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -26890,7 +26887,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G965" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -26916,7 +26913,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G966" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -26942,7 +26939,7 @@
         <v>24</v>
       </c>
       <c r="G967" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -26968,7 +26965,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G968" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -26994,7 +26991,7 @@
         <v>24.25</v>
       </c>
       <c r="G969" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -27020,7 +27017,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G970" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27046,7 +27043,7 @@
         <v>24.5</v>
       </c>
       <c r="G971" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27072,7 +27069,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G972" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27098,7 +27095,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G973" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27124,7 +27121,7 @@
         <v>24.5</v>
       </c>
       <c r="G974" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -27150,7 +27147,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G975" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -27176,7 +27173,7 @@
         <v>23.75</v>
       </c>
       <c r="G976" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -27202,7 +27199,7 @@
         <v>23.5</v>
       </c>
       <c r="G977" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -27228,7 +27225,7 @@
         <v>23.25</v>
       </c>
       <c r="G978" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -27254,7 +27251,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G979" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27280,7 +27277,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G980" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27306,7 +27303,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G981" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27332,7 +27329,7 @@
         <v>23</v>
       </c>
       <c r="G982" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -27358,7 +27355,7 @@
         <v>22.75</v>
       </c>
       <c r="G983" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -27384,7 +27381,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G984" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27410,7 +27407,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G985" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27436,7 +27433,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G986" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -27462,7 +27459,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G987" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -27488,7 +27485,7 @@
         <v>22.5</v>
       </c>
       <c r="G988" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -27514,7 +27511,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G989" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -27540,7 +27537,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G990" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -27566,7 +27563,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G991" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -27592,7 +27589,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G992" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -27618,7 +27615,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G993" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -27644,7 +27641,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G994" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -27670,7 +27667,7 @@
         <v>22</v>
       </c>
       <c r="G995" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -27696,7 +27693,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G996" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -27722,7 +27719,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G997" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -27748,7 +27745,7 @@
         <v>22.75</v>
       </c>
       <c r="G998" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -27774,7 +27771,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G999" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -27800,7 +27797,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1000" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -27826,7 +27823,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1001" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -27852,7 +27849,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1002" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -27878,7 +27875,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1003" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -27904,7 +27901,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1004" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -27930,7 +27927,7 @@
         <v>22.25</v>
       </c>
       <c r="G1005" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -27956,7 +27953,7 @@
         <v>22.25</v>
       </c>
       <c r="G1006" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -27982,7 +27979,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1007" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28008,7 +28005,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1008" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28034,7 +28031,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1009" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28060,7 +28057,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1010" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -28086,7 +28083,7 @@
         <v>23</v>
       </c>
       <c r="G1011" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28112,7 +28109,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1012" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28138,7 +28135,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1013" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28164,7 +28161,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1014" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28190,7 +28187,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1015" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28216,7 +28213,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1016" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28242,7 +28239,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1017" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28268,7 +28265,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1018" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28294,7 +28291,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1019" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28320,7 +28317,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1020" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28346,7 +28343,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1021" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28372,7 +28369,7 @@
         <v>23.25</v>
       </c>
       <c r="G1022" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -28398,7 +28395,7 @@
         <v>23</v>
       </c>
       <c r="G1023" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -28424,7 +28421,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1024" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28450,7 +28447,7 @@
         <v>23.25</v>
       </c>
       <c r="G1025" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28476,7 +28473,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1026" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28502,7 +28499,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1027" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28528,7 +28525,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1028" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28554,7 +28551,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G1029" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28580,7 +28577,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1030" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -28606,7 +28603,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1031" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -28632,7 +28629,7 @@
         <v>23.25</v>
       </c>
       <c r="G1032" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28658,7 +28655,7 @@
         <v>24</v>
       </c>
       <c r="G1033" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -28684,7 +28681,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G1034" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -28710,7 +28707,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1035" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -28736,7 +28733,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1036" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -28762,7 +28759,7 @@
         <v>23.5</v>
       </c>
       <c r="G1037" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28788,7 +28785,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1038" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -28814,7 +28811,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1039" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -28840,7 +28837,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1040" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -28866,7 +28863,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1041" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -28892,7 +28889,7 @@
         <v>23.75</v>
       </c>
       <c r="G1042" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -28918,7 +28915,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1043" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -28944,7 +28941,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1044" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -28970,7 +28967,7 @@
         <v>23.5</v>
       </c>
       <c r="G1045" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -28996,7 +28993,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1046" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29022,7 +29019,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1047" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -29048,7 +29045,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1048" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29074,7 +29071,7 @@
         <v>24.25</v>
       </c>
       <c r="G1049" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -29100,7 +29097,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1050" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29126,7 +29123,7 @@
         <v>24.5</v>
       </c>
       <c r="G1051" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29152,7 +29149,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1052" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -29178,7 +29175,7 @@
         <v>24.25</v>
       </c>
       <c r="G1053" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29204,7 +29201,7 @@
         <v>24.25</v>
       </c>
       <c r="G1054" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29230,7 +29227,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1055" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29256,7 +29253,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1056" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29282,7 +29279,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1057" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29308,7 +29305,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1058" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29334,7 +29331,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1059" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29360,7 +29357,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1060" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29386,7 +29383,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1061" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29412,7 +29409,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1062" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29438,7 +29435,7 @@
         <v>24.25</v>
       </c>
       <c r="G1063" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29464,7 +29461,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29490,7 +29487,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1065" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29516,7 +29513,7 @@
         <v>24.5</v>
       </c>
       <c r="G1066" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29542,7 +29539,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G1067" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29568,7 +29565,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1068" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29594,7 +29591,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1069" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29620,7 +29617,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1070" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29646,7 +29643,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1071" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29672,7 +29669,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1072" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -29698,7 +29695,7 @@
         <v>23.75</v>
       </c>
       <c r="G1073" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -29724,7 +29721,7 @@
         <v>23.75</v>
       </c>
       <c r="G1074" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -29750,7 +29747,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1075" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -29776,7 +29773,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1076" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -29802,7 +29799,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1077" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -29828,7 +29825,7 @@
         <v>23.5</v>
       </c>
       <c r="G1078" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -29854,7 +29851,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1079" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -29880,7 +29877,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1080" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -29906,7 +29903,7 @@
         <v>23.5</v>
       </c>
       <c r="G1081" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -29932,7 +29929,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1082" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -29958,7 +29955,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1083" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -29984,7 +29981,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1084" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30010,7 +30007,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1085" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30036,7 +30033,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1086" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -30062,7 +30059,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1087" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30088,7 +30085,7 @@
         <v>23.25</v>
       </c>
       <c r="G1088" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30114,7 +30111,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1089" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -30140,7 +30137,7 @@
         <v>23</v>
       </c>
       <c r="G1090" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30166,7 +30163,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1091" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30192,7 +30189,7 @@
         <v>23.25</v>
       </c>
       <c r="G1092" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30218,7 +30215,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1093" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30244,7 +30241,7 @@
         <v>23.25</v>
       </c>
       <c r="G1094" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30270,7 +30267,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1095" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30296,7 +30293,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1096" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30322,7 +30319,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1097" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30348,7 +30345,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1098" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30374,7 +30371,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1099" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30400,7 +30397,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30426,7 +30423,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1101" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30452,7 +30449,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1102" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30478,7 +30475,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1103" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30504,7 +30501,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1104" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -30530,7 +30527,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1105" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30556,7 +30553,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1106" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30582,7 +30579,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1107" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30608,7 +30605,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1108" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30634,7 +30631,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1109" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30660,7 +30657,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1110" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -30686,7 +30683,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1111" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30712,7 +30709,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1112" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -30738,7 +30735,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1113" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30764,7 +30761,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1114" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30790,7 +30787,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1115" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30816,7 +30813,7 @@
         <v>22.75</v>
       </c>
       <c r="G1116" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -30842,7 +30839,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -30868,7 +30865,7 @@
         <v>23</v>
       </c>
       <c r="G1118" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -30894,7 +30891,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -30920,7 +30917,7 @@
         <v>22.5</v>
       </c>
       <c r="G1120" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -30946,7 +30943,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1121" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -30972,7 +30969,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1122" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -30998,7 +30995,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1123" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31024,7 +31021,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1124" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31050,7 +31047,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1125" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31076,7 +31073,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1126" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31102,7 +31099,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1127" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31128,7 +31125,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1128" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31154,7 +31151,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1129" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31180,7 +31177,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1130" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31206,7 +31203,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1131" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31232,7 +31229,7 @@
         <v>22.25</v>
       </c>
       <c r="G1132" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31258,7 +31255,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1133" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31284,7 +31281,7 @@
         <v>21.75</v>
       </c>
       <c r="G1134" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31310,7 +31307,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1135" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31336,7 +31333,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1136" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31362,7 +31359,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1137" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31388,7 +31385,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1138" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31414,7 +31411,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1139" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31440,7 +31437,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1140" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31466,7 +31463,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1141" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31492,7 +31489,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1142" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31518,7 +31515,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1143" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31544,7 +31541,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31570,7 +31567,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1145" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31596,7 +31593,7 @@
         <v>26</v>
       </c>
       <c r="G1146" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31622,7 +31619,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G1147" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31648,7 +31645,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1148" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31674,7 +31671,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31700,7 +31697,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1150" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -31726,7 +31723,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1151" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31752,7 +31749,7 @@
         <v>25.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31778,7 +31775,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1153" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31804,7 +31801,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1154" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -31830,7 +31827,7 @@
         <v>25.5</v>
       </c>
       <c r="G1155" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -31856,7 +31853,7 @@
         <v>25.5</v>
       </c>
       <c r="G1156" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -31882,7 +31879,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1157" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -31908,7 +31905,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1158" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -31934,7 +31931,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1159" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -31960,7 +31957,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1160" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -31986,7 +31983,7 @@
         <v>25.5</v>
       </c>
       <c r="G1161" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32012,7 +32009,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1162" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32038,7 +32035,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1163" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32064,7 +32061,7 @@
         <v>25.5</v>
       </c>
       <c r="G1164" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32090,7 +32087,7 @@
         <v>25.5</v>
       </c>
       <c r="G1165" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32116,7 +32113,7 @@
         <v>25.5</v>
       </c>
       <c r="G1166" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32142,7 +32139,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1167" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32168,7 +32165,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1168" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32194,7 +32191,7 @@
         <v>25.5</v>
       </c>
       <c r="G1169" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3753023147583</t>
+    <t xml:space="preserve">8.37530136108398</t>
   </si>
   <si>
     <t xml:space="preserve">SCF.MI</t>
@@ -47,67 +47,67 @@
     <t xml:space="preserve">8.33448791503906</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17905330657959</t>
+    <t xml:space="preserve">8.17905235290527</t>
   </si>
   <si>
     <t xml:space="preserve">8.13650321960449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16342163085938</t>
+    <t xml:space="preserve">8.16342258453369</t>
   </si>
   <si>
     <t xml:space="preserve">8.10176944732666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11045169830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11913681030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16255474090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24070644378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24939060211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29280757904053</t>
+    <t xml:space="preserve">8.11045265197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11913585662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16255283355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2407054901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2493896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29280662536621</t>
   </si>
   <si>
     <t xml:space="preserve">8.50989723205566</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51163291931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48384571075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38398456573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3101749420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42306041717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51858139038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02222728729248</t>
+    <t xml:space="preserve">8.51163387298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48384666442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38398551940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31017398834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42306137084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51858043670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0222282409668</t>
   </si>
   <si>
     <t xml:space="preserve">8.89892101287842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84681987762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93886470794678</t>
+    <t xml:space="preserve">8.8468189239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93886375427246</t>
   </si>
   <si>
     <t xml:space="preserve">8.94407558441162</t>
@@ -116,34 +116,34 @@
     <t xml:space="preserve">8.93539237976074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00486087799072</t>
+    <t xml:space="preserve">9.00485992431641</t>
   </si>
   <si>
     <t xml:space="preserve">8.97707271575928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02917289733887</t>
+    <t xml:space="preserve">9.0291748046875</t>
   </si>
   <si>
     <t xml:space="preserve">9.03091049194336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98749351501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33483505249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2480001449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46508979797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59534358978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68217849731445</t>
+    <t xml:space="preserve">8.98749446868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33483600616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24799919128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.465087890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5953426361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68217754364014</t>
   </si>
   <si>
     <t xml:space="preserve">9.81243228912354</t>
@@ -164,19 +164,19 @@
     <t xml:space="preserve">9.89926719665527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85585021972656</t>
+    <t xml:space="preserve">9.85585117340088</t>
   </si>
   <si>
     <t xml:space="preserve">9.63876152038574</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55192470550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16116428375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29141807556152</t>
+    <t xml:space="preserve">9.55192565917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16116333007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29141712188721</t>
   </si>
   <si>
     <t xml:space="preserve">9.07432842254639</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">9.20458221435547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68356800079346</t>
+    <t xml:space="preserve">8.68356704711914</t>
   </si>
   <si>
     <t xml:space="preserve">8.45779514312744</t>
@@ -212,55 +212,52 @@
     <t xml:space="preserve">8.02361679077148</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72837591171265</t>
+    <t xml:space="preserve">7.72837543487549</t>
   </si>
   <si>
     <t xml:space="preserve">7.98888254165649</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81521034240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78047704696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09308624267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38832664489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90065765380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1177453994751</t>
+    <t xml:space="preserve">7.81521129608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78047609329224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09308528900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38832759857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90065860748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11774635314941</t>
   </si>
   <si>
     <t xml:space="preserve">8.81382179260254</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42167091369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11774635314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02747249603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07260894775391</t>
+    <t xml:space="preserve">9.42167186737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02747058868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07260990142822</t>
   </si>
   <si>
     <t xml:space="preserve">9.74966907501221</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1559047698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2913179397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.381591796875</t>
+    <t xml:space="preserve">10.1559057235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.291316986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3815927505493</t>
   </si>
   <si>
     <t xml:space="preserve">10.4718675613403</t>
@@ -272,22 +269,22 @@
     <t xml:space="preserve">10.5170049667358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0135145187378</t>
+    <t xml:space="preserve">11.0135154724121</t>
   </si>
   <si>
     <t xml:space="preserve">11.1940650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1489286422729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2843408584595</t>
+    <t xml:space="preserve">11.1489276885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2843399047852</t>
   </si>
   <si>
     <t xml:space="preserve">10.8329668045044</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7878284454346</t>
+    <t xml:space="preserve">10.7878274917603</t>
   </si>
   <si>
     <t xml:space="preserve">11.1037902832031</t>
@@ -302,13 +299,13 @@
     <t xml:space="preserve">10.9232416152954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8781032562256</t>
+    <t xml:space="preserve">10.8781023025513</t>
   </si>
   <si>
     <t xml:space="preserve">10.6524171829224</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7426910400391</t>
+    <t xml:space="preserve">10.7426919937134</t>
   </si>
   <si>
     <t xml:space="preserve">10.5621423721313</t>
@@ -320,16 +317,16 @@
     <t xml:space="preserve">10.6975536346436</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3364543914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2461805343628</t>
+    <t xml:space="preserve">10.3364553451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2461814880371</t>
   </si>
   <si>
     <t xml:space="preserve">11.4197511672974</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6454372406006</t>
+    <t xml:space="preserve">11.6454381942749</t>
   </si>
   <si>
     <t xml:space="preserve">11.7357130050659</t>
@@ -341,22 +338,22 @@
     <t xml:space="preserve">11.3746147155762</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5100269317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.239203453064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4648895263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6003017425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6905755996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7808504104614</t>
+    <t xml:space="preserve">11.5100259780884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2392015457153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4648885726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.600302696228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6905765533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7808523178101</t>
   </si>
   <si>
     <t xml:space="preserve">11.8259878158569</t>
@@ -365,28 +362,28 @@
     <t xml:space="preserve">11.8711252212524</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9162635803223</t>
+    <t xml:space="preserve">11.9162626266479</t>
   </si>
   <si>
     <t xml:space="preserve">11.9614000320435</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1419496536255</t>
+    <t xml:space="preserve">12.1419486999512</t>
   </si>
   <si>
     <t xml:space="preserve">12.457911491394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5481853485107</t>
+    <t xml:space="preserve">12.5481843948364</t>
   </si>
   <si>
     <t xml:space="preserve">12.3676357269287</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1870880126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2773609161377</t>
+    <t xml:space="preserve">12.187087059021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.277361869812</t>
   </si>
   <si>
     <t xml:space="preserve">12.5030488967896</t>
@@ -398,7 +395,7 @@
     <t xml:space="preserve">12.2322244644165</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3224983215332</t>
+    <t xml:space="preserve">12.3224992752075</t>
   </si>
   <si>
     <t xml:space="preserve">12.6205492019653</t>
@@ -410,25 +407,25 @@
     <t xml:space="preserve">12.5274076461792</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4808368682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6671199798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5739774703979</t>
+    <t xml:space="preserve">12.4808378219604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6671190261841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5739784240723</t>
   </si>
   <si>
     <t xml:space="preserve">12.2945566177368</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3876972198486</t>
+    <t xml:space="preserve">12.3876981735229</t>
   </si>
   <si>
     <t xml:space="preserve">12.4342679977417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9465408325195</t>
+    <t xml:space="preserve">12.9465398788452</t>
   </si>
   <si>
     <t xml:space="preserve">13.1328220367432</t>
@@ -449,22 +446,22 @@
     <t xml:space="preserve">13.5519552230835</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7848062515259</t>
+    <t xml:space="preserve">13.7848072052002</t>
   </si>
   <si>
     <t xml:space="preserve">13.5985250473022</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7382364273071</t>
+    <t xml:space="preserve">13.7382354736328</t>
   </si>
   <si>
     <t xml:space="preserve">13.9710874557495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8779458999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3656730651855</t>
+    <t xml:space="preserve">13.8779468536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3656740188599</t>
   </si>
   <si>
     <t xml:space="preserve">13.5053844451904</t>
@@ -476,16 +473,16 @@
     <t xml:space="preserve">13.645094871521</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8313770294189</t>
+    <t xml:space="preserve">13.8313760757446</t>
   </si>
   <si>
     <t xml:space="preserve">14.0642280578613</t>
   </si>
   <si>
-    <t xml:space="preserve">14.297080039978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7627820968628</t>
+    <t xml:space="preserve">14.2970790863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7627830505371</t>
   </si>
   <si>
     <t xml:space="preserve">15.321626663208</t>
@@ -494,25 +491,25 @@
     <t xml:space="preserve">15.6010475158691</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9270391464233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8804693222046</t>
+    <t xml:space="preserve">15.9270401000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8804683685303</t>
   </si>
   <si>
     <t xml:space="preserve">15.8338994979858</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6941871643066</t>
+    <t xml:space="preserve">15.6941890716553</t>
   </si>
   <si>
     <t xml:space="preserve">15.9736089706421</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4393138885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6721649169922</t>
+    <t xml:space="preserve">16.4393119812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6721630096436</t>
   </si>
   <si>
     <t xml:space="preserve">16.9981555938721</t>
@@ -521,16 +518,16 @@
     <t xml:space="preserve">17.2310066223145</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9515857696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4172878265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6501407623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.789852142334</t>
+    <t xml:space="preserve">16.951587677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4172897338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6501426696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7898502349854</t>
   </si>
   <si>
     <t xml:space="preserve">17.4638595581055</t>
@@ -539,7 +536,7 @@
     <t xml:space="preserve">16.8584461212158</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7187347412109</t>
+    <t xml:space="preserve">16.7187366485596</t>
   </si>
   <si>
     <t xml:space="preserve">17.0447254180908</t>
@@ -557,16 +554,16 @@
     <t xml:space="preserve">16.8118743896484</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2996025085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1133213043213</t>
+    <t xml:space="preserve">16.2996006011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1133193969727</t>
   </si>
   <si>
     <t xml:space="preserve">16.15989112854</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1844367980957</t>
+    <t xml:space="preserve">17.1844387054443</t>
   </si>
   <si>
     <t xml:space="preserve">17.137866973877</t>
@@ -578,25 +575,25 @@
     <t xml:space="preserve">17.976131439209</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1624145507812</t>
+    <t xml:space="preserve">18.1624126434326</t>
   </si>
   <si>
     <t xml:space="preserve">17.8829936981201</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8364200592041</t>
+    <t xml:space="preserve">17.8364219665527</t>
   </si>
   <si>
     <t xml:space="preserve">18.1158447265625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5349750518799</t>
+    <t xml:space="preserve">18.5349769592285</t>
   </si>
   <si>
     <t xml:space="preserve">18.6281147003174</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3486957550049</t>
+    <t xml:space="preserve">18.3486976623535</t>
   </si>
   <si>
     <t xml:space="preserve">18.5815467834473</t>
@@ -605,19 +602,19 @@
     <t xml:space="preserve">18.9075374603271</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4884071350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0938186645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2801036834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2115058898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1183662414551</t>
+    <t xml:space="preserve">18.4884052276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0938205718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.280101776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2115077972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1183643341064</t>
   </si>
   <si>
     <t xml:space="preserve">19.8389434814453</t>
@@ -626,13 +623,13 @@
     <t xml:space="preserve">19.7458038330078</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9320850372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6772079467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0252246856689</t>
+    <t xml:space="preserve">19.9320831298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.677209854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0252265930176</t>
   </si>
   <si>
     <t xml:space="preserve">19.1869602203369</t>
@@ -641,28 +638,28 @@
     <t xml:space="preserve">19.6526622772217</t>
   </si>
   <si>
-    <t xml:space="preserve">21.701753616333</t>
+    <t xml:space="preserve">21.7017555236816</t>
   </si>
   <si>
     <t xml:space="preserve">21.515474319458</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7948951721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4468803405762</t>
+    <t xml:space="preserve">21.7948970794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4468784332275</t>
   </si>
   <si>
     <t xml:space="preserve">22.7263011932373</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5400238037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2851448059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1920051574707</t>
+    <t xml:space="preserve">22.5400218963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2851467132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1920032501221</t>
   </si>
   <si>
     <t xml:space="preserve">23.0057239532471</t>
@@ -677,22 +674,22 @@
     <t xml:space="preserve">22.8194427490234</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3782863616943</t>
+    <t xml:space="preserve">23.3782844543457</t>
   </si>
   <si>
     <t xml:space="preserve">23.5645656585693</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8880348205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1674575805664</t>
+    <t xml:space="preserve">21.8880367279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.167459487915</t>
   </si>
   <si>
     <t xml:space="preserve">22.3537406921387</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2605991363525</t>
+    <t xml:space="preserve">22.2605972290039</t>
   </si>
   <si>
     <t xml:space="preserve">22.6331615447998</t>
@@ -713,19 +710,19 @@
     <t xml:space="preserve">20.5840682983398</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3046455383301</t>
+    <t xml:space="preserve">20.3046436309814</t>
   </si>
   <si>
     <t xml:space="preserve">20.8634910583496</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0006771087646</t>
+    <t xml:space="preserve">19.0006790161133</t>
   </si>
   <si>
     <t xml:space="preserve">21.1429138183594</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3732414245605</t>
+    <t xml:space="preserve">19.3732395172119</t>
   </si>
   <si>
     <t xml:space="preserve">19.5595226287842</t>
@@ -749,7 +746,7 @@
     <t xml:space="preserve">18.0692729949951</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6746864318848</t>
+    <t xml:space="preserve">18.6746845245361</t>
   </si>
   <si>
     <t xml:space="preserve">18.0133895874023</t>
@@ -761,10 +758,10 @@
     <t xml:space="preserve">17.5663146972656</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6594543457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7339687347412</t>
+    <t xml:space="preserve">17.6594524383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7339668273926</t>
   </si>
   <si>
     <t xml:space="preserve">17.9202480316162</t>
@@ -779,25 +776,25 @@
     <t xml:space="preserve">16.6349086761475</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8957004547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7280464172363</t>
+    <t xml:space="preserve">16.8957023620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.728048324585</t>
   </si>
   <si>
     <t xml:space="preserve">16.54176902771</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3554878234863</t>
+    <t xml:space="preserve">16.3554859161377</t>
   </si>
   <si>
     <t xml:space="preserve">15.722128868103</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5544786453247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0515174865723</t>
+    <t xml:space="preserve">15.5544776916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0515184402466</t>
   </si>
   <si>
     <t xml:space="preserve">14.9770059585571</t>
@@ -809,183 +806,186 @@
     <t xml:space="preserve">15.1446590423584</t>
   </si>
   <si>
+    <t xml:space="preserve">16.5231380462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0968570709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5940837860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5367126464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.364595413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1542320251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1678047180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9574394226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5502834320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1295547485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.454662322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7224006652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3781661987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6459045410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8426952362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7470741271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4410915374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4602165222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5040149688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0450401306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7964277267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.025915145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6816825866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2362785339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3892707824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.274528503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8920488357544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7199325561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2171535491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0067901611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1215362548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9111700057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8729238510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8346738815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6051864624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2992029190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5095663070679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7335033416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1159820556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.752628326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.00124168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0394878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1486797332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8235702514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6323337554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7088279724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7279510498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8809432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4028434753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7143783569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9629917144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8099994659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9056205749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8291244506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.88649559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1733531951904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9821166992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.637882232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2554035186768</t>
+  </si>
+  <si>
     <t xml:space="preserve">16.5231399536133</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0968589782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5940837860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5367107391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.364595413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1542320251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1678047180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9574394226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5502834320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1295547485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.454662322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7224006652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3781681060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6459045410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8426952362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7470741271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4410915374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4602165222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5040149688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0450401306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7964277267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.025915145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6816825866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2362785339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3892707824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.274528503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8920469284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.719931602478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.217155456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0067901611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1215343475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9111700057983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8729248046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8346748352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6051874160767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2992029190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5095663070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7335033416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1159839630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.752628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0012397766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0394859313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1486797332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8235721588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6323318481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7088279724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7279510498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8809432983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4028434753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7143783569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9629917144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8099994659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9056205749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.829122543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.88649559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1733531951904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9821166992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.637882232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2554035186768</t>
-  </si>
-  <si>
     <t xml:space="preserve">16.9247436523438</t>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">15.5860624313354</t>
   </si>
   <si>
-    <t xml:space="preserve">14.68723487854</t>
+    <t xml:space="preserve">14.6872339248657</t>
   </si>
   <si>
     <t xml:space="preserve">14.1900110244751</t>
@@ -1010,7 +1010,7 @@
     <t xml:space="preserve">13.6736631393433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6545381546021</t>
+    <t xml:space="preserve">13.6545391082764</t>
   </si>
   <si>
     <t xml:space="preserve">13.3485546112061</t>
@@ -1022,28 +1022,28 @@
     <t xml:space="preserve">13.0999422073364</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5644702911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4250497817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4768705368042</t>
+    <t xml:space="preserve">12.564471244812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4250507354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4768714904785</t>
   </si>
   <si>
     <t xml:space="preserve">14.4386234283447</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708869934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9413995742798</t>
+    <t xml:space="preserve">14.1708860397339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9413986206055</t>
   </si>
   <si>
     <t xml:space="preserve">13.9987716674805</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2473821640015</t>
+    <t xml:space="preserve">14.2473831176758</t>
   </si>
   <si>
     <t xml:space="preserve">14.2282590866089</t>
@@ -1052,16 +1052,16 @@
     <t xml:space="preserve">14.8593511581421</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0888395309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4713191986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3948230743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4521942138672</t>
+    <t xml:space="preserve">15.0888385772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4713201522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3948240280151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4521951675415</t>
   </si>
   <si>
     <t xml:space="preserve">15.3183279037476</t>
@@ -1088,28 +1088,28 @@
     <t xml:space="preserve">15.5669393539429</t>
   </si>
   <si>
-    <t xml:space="preserve">16.083288192749</t>
+    <t xml:space="preserve">16.0832862854004</t>
   </si>
   <si>
     <t xml:space="preserve">16.1980323791504</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7908763885498</t>
+    <t xml:space="preserve">16.7908744812012</t>
   </si>
   <si>
     <t xml:space="preserve">16.5805110931396</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1351089477539</t>
+    <t xml:space="preserve">17.1351070404053</t>
   </si>
   <si>
     <t xml:space="preserve">17.0203628540039</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6187591552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5613880157471</t>
+    <t xml:space="preserve">16.6187572479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5613861083984</t>
   </si>
   <si>
     <t xml:space="preserve">16.6761322021484</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">16.9438667297363</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4657649993896</t>
+    <t xml:space="preserve">16.4657669067383</t>
   </si>
   <si>
     <t xml:space="preserve">16.159782409668</t>
@@ -1130,10 +1130,10 @@
     <t xml:space="preserve">16.3318996429443</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1024131774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9876670837402</t>
+    <t xml:space="preserve">16.1024112701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9876661300659</t>
   </si>
   <si>
     <t xml:space="preserve">16.4466457366943</t>
@@ -1148,13 +1148,13 @@
     <t xml:space="preserve">17.3072242736816</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5175857543945</t>
+    <t xml:space="preserve">17.5175876617432</t>
   </si>
   <si>
     <t xml:space="preserve">17.7661991119385</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0721817016602</t>
+    <t xml:space="preserve">18.0721836090088</t>
   </si>
   <si>
     <t xml:space="preserve">17.7853240966797</t>
@@ -1163,10 +1163,10 @@
     <t xml:space="preserve">17.8618202209473</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3837184906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8044490814209</t>
+    <t xml:space="preserve">17.3837203979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8044471740723</t>
   </si>
   <si>
     <t xml:space="preserve">17.498462677002</t>
@@ -1175,13 +1175,13 @@
     <t xml:space="preserve">17.6897029876709</t>
   </si>
   <si>
-    <t xml:space="preserve">17.479341506958</t>
+    <t xml:space="preserve">17.4793395996094</t>
   </si>
   <si>
     <t xml:space="preserve">17.2307281494141</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0586109161377</t>
+    <t xml:space="preserve">17.0586128234863</t>
   </si>
   <si>
     <t xml:space="preserve">17.2116031646729</t>
@@ -1190,10 +1190,10 @@
     <t xml:space="preserve">17.4219665527344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3590450286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2251739501953</t>
+    <t xml:space="preserve">18.3590431213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2251758575439</t>
   </si>
   <si>
     <t xml:space="preserve">18.9327621459961</t>
@@ -1211,7 +1211,7 @@
     <t xml:space="preserve">20.1758232116699</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4148750305176</t>
+    <t xml:space="preserve">20.4148731231689</t>
   </si>
   <si>
     <t xml:space="preserve">20.5104942321777</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">20.2236347198486</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7933464050293</t>
+    <t xml:space="preserve">19.7933444976807</t>
   </si>
   <si>
     <t xml:space="preserve">19.6021041870117</t>
@@ -1244,16 +1244,16 @@
     <t xml:space="preserve">20.7495441436768</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6539249420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7973537445068</t>
+    <t xml:space="preserve">20.653923034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7973556518555</t>
   </si>
   <si>
     <t xml:space="preserve">20.7017345428467</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0364036560059</t>
+    <t xml:space="preserve">21.0364055633545</t>
   </si>
   <si>
     <t xml:space="preserve">20.8451633453369</t>
@@ -5180,7 +5180,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G130" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H130" t="s">
         <v>9</v>
@@ -5206,7 +5206,7 @@
         <v>10</v>
       </c>
       <c r="G131" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -5232,7 +5232,7 @@
         <v>10</v>
       </c>
       <c r="G132" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -5258,7 +5258,7 @@
         <v>10</v>
       </c>
       <c r="G133" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -5284,7 +5284,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G134" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -5310,7 +5310,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G135" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -5336,7 +5336,7 @@
         <v>11.25</v>
       </c>
       <c r="G136" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -5362,7 +5362,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G137" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -5388,7 +5388,7 @@
         <v>11.5</v>
       </c>
       <c r="G138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -5414,7 +5414,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G139" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -5440,7 +5440,7 @@
         <v>11.75</v>
       </c>
       <c r="G140" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -5466,7 +5466,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G141" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -5492,7 +5492,7 @@
         <v>11.5</v>
       </c>
       <c r="G142" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -5518,7 +5518,7 @@
         <v>11.75</v>
       </c>
       <c r="G143" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -5544,7 +5544,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G144" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -5570,7 +5570,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G145" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -5596,7 +5596,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G146" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -5622,7 +5622,7 @@
         <v>12.5</v>
       </c>
       <c r="G147" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -5648,7 +5648,7 @@
         <v>12</v>
       </c>
       <c r="G148" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -5674,7 +5674,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G149" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -5700,7 +5700,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G150" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -5726,7 +5726,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G151" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -5752,7 +5752,7 @@
         <v>12.5</v>
       </c>
       <c r="G152" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -5778,7 +5778,7 @@
         <v>12.25</v>
       </c>
       <c r="G153" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -5804,7 +5804,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G154" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -5830,7 +5830,7 @@
         <v>12.5</v>
       </c>
       <c r="G155" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -5856,7 +5856,7 @@
         <v>12.25</v>
       </c>
       <c r="G156" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -5882,7 +5882,7 @@
         <v>12</v>
       </c>
       <c r="G157" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -5908,7 +5908,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G158" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -5934,7 +5934,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G159" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -5960,7 +5960,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G160" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -5986,7 +5986,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G161" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -6012,7 +6012,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G162" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -6038,7 +6038,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G163" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -6064,7 +6064,7 @@
         <v>12</v>
       </c>
       <c r="G164" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -6090,7 +6090,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G165" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -6116,7 +6116,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G166" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -6142,7 +6142,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G167" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -6168,7 +6168,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G168" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -6194,7 +6194,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G169" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -6220,7 +6220,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G170" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -6246,7 +6246,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G171" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -6272,7 +6272,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G172" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -6298,7 +6298,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G173" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -6324,7 +6324,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G174" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -6350,7 +6350,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G175" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -6376,7 +6376,7 @@
         <v>12</v>
       </c>
       <c r="G176" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -6402,7 +6402,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G177" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -6428,7 +6428,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G178" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -6454,7 +6454,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G179" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -6480,7 +6480,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G180" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -6506,7 +6506,7 @@
         <v>11.75</v>
       </c>
       <c r="G181" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -6532,7 +6532,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G182" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -6558,7 +6558,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G183" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -6584,7 +6584,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G184" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -6610,7 +6610,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G185" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -6636,7 +6636,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G186" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -6662,7 +6662,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G187" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -6688,7 +6688,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G188" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -6714,7 +6714,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G189" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -6740,7 +6740,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G190" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -6766,7 +6766,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G191" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -6792,7 +6792,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G192" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -6818,7 +6818,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G193" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -6844,7 +6844,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G194" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -6870,7 +6870,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G195" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -6896,7 +6896,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G196" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -6922,7 +6922,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G197" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -6948,7 +6948,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G198" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -6974,7 +6974,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G199" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -7000,7 +7000,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G200" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -7026,7 +7026,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G201" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -7052,7 +7052,7 @@
         <v>11.75</v>
       </c>
       <c r="G202" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7078,7 +7078,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G203" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7104,7 +7104,7 @@
         <v>11.75</v>
       </c>
       <c r="G204" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -7130,7 +7130,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G205" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -7156,7 +7156,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G206" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -7182,7 +7182,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G207" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -7208,7 +7208,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G208" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -7234,7 +7234,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G209" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -7260,7 +7260,7 @@
         <v>12.25</v>
       </c>
       <c r="G210" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -7286,7 +7286,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G211" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -7312,7 +7312,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G212" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -7338,7 +7338,7 @@
         <v>12.25</v>
       </c>
       <c r="G213" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -7364,7 +7364,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G214" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -7390,7 +7390,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G215" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -7416,7 +7416,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G216" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -7442,7 +7442,7 @@
         <v>12.5</v>
       </c>
       <c r="G217" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -7468,7 +7468,7 @@
         <v>12.5</v>
       </c>
       <c r="G218" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -7494,7 +7494,7 @@
         <v>12.25</v>
       </c>
       <c r="G219" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -7520,7 +7520,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G220" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -7546,7 +7546,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G221" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -7572,7 +7572,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G222" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -7598,7 +7598,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G223" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -7624,7 +7624,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G224" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -7650,7 +7650,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G225" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -7676,7 +7676,7 @@
         <v>12.25</v>
       </c>
       <c r="G226" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -7702,7 +7702,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G227" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -7728,7 +7728,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G228" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -7754,7 +7754,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G229" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -7780,7 +7780,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G230" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -7806,7 +7806,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G231" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -7832,7 +7832,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G232" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -7858,7 +7858,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G233" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -7884,7 +7884,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G234" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -7910,7 +7910,7 @@
         <v>11.75</v>
       </c>
       <c r="G235" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -7936,7 +7936,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G236" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -7962,7 +7962,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G237" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -7988,7 +7988,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G238" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8014,7 +8014,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G239" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8040,7 +8040,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G240" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8066,7 +8066,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G241" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8092,7 +8092,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G242" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8118,7 +8118,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G243" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -8144,7 +8144,7 @@
         <v>11.75</v>
       </c>
       <c r="G244" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -8170,7 +8170,7 @@
         <v>11.75</v>
       </c>
       <c r="G245" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -8196,7 +8196,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G246" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -8222,7 +8222,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G247" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -8248,7 +8248,7 @@
         <v>11.25</v>
       </c>
       <c r="G248" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -8274,7 +8274,7 @@
         <v>11.75</v>
       </c>
       <c r="G249" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -8300,7 +8300,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G250" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -8326,7 +8326,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G251" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -8352,7 +8352,7 @@
         <v>11.5</v>
       </c>
       <c r="G252" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -8378,7 +8378,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G253" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -8404,7 +8404,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G254" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -8430,7 +8430,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G255" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -8456,7 +8456,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G256" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -8482,7 +8482,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G257" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -8508,7 +8508,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G258" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -8534,7 +8534,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G259" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -8560,7 +8560,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G260" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -8586,7 +8586,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G261" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -8612,7 +8612,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G262" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -8638,7 +8638,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G263" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -8664,7 +8664,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G264" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -8690,7 +8690,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G265" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -8716,7 +8716,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G266" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -8742,7 +8742,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G267" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -8768,7 +8768,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G268" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -8794,7 +8794,7 @@
         <v>12</v>
       </c>
       <c r="G269" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -8820,7 +8820,7 @@
         <v>12</v>
       </c>
       <c r="G270" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -8846,7 +8846,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G271" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -8872,7 +8872,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G272" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -8898,7 +8898,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G273" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -8924,7 +8924,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G274" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -8950,7 +8950,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G275" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -8976,7 +8976,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G276" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9002,7 +9002,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G277" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9028,7 +9028,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G278" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9054,7 +9054,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G279" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9080,7 +9080,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G280" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9106,7 +9106,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G281" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -9132,7 +9132,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G282" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -9158,7 +9158,7 @@
         <v>11.5</v>
       </c>
       <c r="G283" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -9184,7 +9184,7 @@
         <v>11.5</v>
       </c>
       <c r="G284" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -9210,7 +9210,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -9236,7 +9236,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G286" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -9262,7 +9262,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G287" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -9288,7 +9288,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G288" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -9314,7 +9314,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G289" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -9340,7 +9340,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G290" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -9366,7 +9366,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G291" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -9392,7 +9392,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G292" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -9418,7 +9418,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G293" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -9444,7 +9444,7 @@
         <v>11.5</v>
       </c>
       <c r="G294" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -9470,7 +9470,7 @@
         <v>11.5</v>
       </c>
       <c r="G295" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -9496,7 +9496,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G296" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -9522,7 +9522,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G297" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -9548,7 +9548,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G298" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -9574,7 +9574,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G299" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -9600,7 +9600,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G300" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -9626,7 +9626,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G301" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -9652,7 +9652,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G302" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -9678,7 +9678,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G303" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -9704,7 +9704,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G304" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -9730,7 +9730,7 @@
         <v>12</v>
       </c>
       <c r="G305" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -9756,7 +9756,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G306" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -9782,7 +9782,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G307" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -9808,7 +9808,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G308" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -9834,7 +9834,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G309" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -9860,7 +9860,7 @@
         <v>12</v>
       </c>
       <c r="G310" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -9886,7 +9886,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G311" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -9912,7 +9912,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G312" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -9938,7 +9938,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G313" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -9964,7 +9964,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G314" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -9990,7 +9990,7 @@
         <v>12</v>
       </c>
       <c r="G315" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10016,7 +10016,7 @@
         <v>12</v>
       </c>
       <c r="G316" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10042,7 +10042,7 @@
         <v>12</v>
       </c>
       <c r="G317" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10068,7 +10068,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G318" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -10094,7 +10094,7 @@
         <v>12.25</v>
       </c>
       <c r="G319" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10120,7 +10120,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G320" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -10146,7 +10146,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G321" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -10172,7 +10172,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G322" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -10198,7 +10198,7 @@
         <v>13</v>
       </c>
       <c r="G323" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -10224,7 +10224,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G324" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -10250,7 +10250,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G325" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -10276,7 +10276,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G326" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -10302,7 +10302,7 @@
         <v>12.75</v>
       </c>
       <c r="G327" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -10328,7 +10328,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G328" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -10354,7 +10354,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G329" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -10380,7 +10380,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G330" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -10406,7 +10406,7 @@
         <v>12.75</v>
       </c>
       <c r="G331" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -10432,7 +10432,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G332" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -10458,7 +10458,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G333" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -10484,7 +10484,7 @@
         <v>12.5</v>
       </c>
       <c r="G334" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -10510,7 +10510,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G335" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -10536,7 +10536,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G336" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -10562,7 +10562,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G337" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -10588,7 +10588,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G338" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -10614,7 +10614,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G339" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -10640,7 +10640,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G340" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -10666,7 +10666,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G341" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -10692,7 +10692,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G342" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -10718,7 +10718,7 @@
         <v>12.75</v>
       </c>
       <c r="G343" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -10744,7 +10744,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G344" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -10770,7 +10770,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G345" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -10796,7 +10796,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G346" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -10822,7 +10822,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G347" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -10848,7 +10848,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G348" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -10874,7 +10874,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G349" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -10900,7 +10900,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G350" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -10926,7 +10926,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G351" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -10952,7 +10952,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G352" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -10978,7 +10978,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G353" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11004,7 +11004,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G354" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -11030,7 +11030,7 @@
         <v>13</v>
       </c>
       <c r="G355" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11056,7 +11056,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G356" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11082,7 +11082,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G357" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11108,7 +11108,7 @@
         <v>12.75</v>
       </c>
       <c r="G358" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11134,7 +11134,7 @@
         <v>13</v>
       </c>
       <c r="G359" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -11160,7 +11160,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G360" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -11186,7 +11186,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G361" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -11212,7 +11212,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G362" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -11238,7 +11238,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G363" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -11264,7 +11264,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G364" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -11290,7 +11290,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G365" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -11316,7 +11316,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G366" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -11342,7 +11342,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G367" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -11368,7 +11368,7 @@
         <v>13.25</v>
       </c>
       <c r="G368" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -11394,7 +11394,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G369" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -11420,7 +11420,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G370" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -11446,7 +11446,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G371" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -11472,7 +11472,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G372" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -11498,7 +11498,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G373" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -11524,7 +11524,7 @@
         <v>13.5</v>
       </c>
       <c r="G374" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -11550,7 +11550,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G375" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -11576,7 +11576,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G376" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -11602,7 +11602,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G377" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -11628,7 +11628,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G378" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -11654,7 +11654,7 @@
         <v>14</v>
       </c>
       <c r="G379" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -11680,7 +11680,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G380" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -11706,7 +11706,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G381" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -11732,7 +11732,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G382" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -11758,7 +11758,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G383" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -11784,7 +11784,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G384" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -11810,7 +11810,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G385" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -11836,7 +11836,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G386" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -11862,7 +11862,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G387" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -11888,7 +11888,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G388" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -11914,7 +11914,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G389" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -11940,7 +11940,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G390" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -11966,7 +11966,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G391" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -11992,7 +11992,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G392" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12018,7 +12018,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G393" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12044,7 +12044,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G394" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12070,7 +12070,7 @@
         <v>13.5</v>
       </c>
       <c r="G395" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12096,7 +12096,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G396" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12122,7 +12122,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G397" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12148,7 +12148,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G398" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12174,7 +12174,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G399" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -12200,7 +12200,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G400" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -12226,7 +12226,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G401" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -12252,7 +12252,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G402" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -12278,7 +12278,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G403" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -12304,7 +12304,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G404" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -12330,7 +12330,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G405" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -12356,7 +12356,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G406" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -12382,7 +12382,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G407" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -12408,7 +12408,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G408" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -12434,7 +12434,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G409" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -12460,7 +12460,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G410" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -12486,7 +12486,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G411" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -12512,7 +12512,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G412" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -12538,7 +12538,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G413" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -12564,7 +12564,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G414" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -12590,7 +12590,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G415" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -12616,7 +12616,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G416" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -12642,7 +12642,7 @@
         <v>14.25</v>
       </c>
       <c r="G417" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -12668,7 +12668,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G418" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -12694,7 +12694,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G419" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -12720,7 +12720,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G420" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -12746,7 +12746,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G421" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -12772,7 +12772,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G422" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -12798,7 +12798,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G423" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -12824,7 +12824,7 @@
         <v>14.75</v>
       </c>
       <c r="G424" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -12850,7 +12850,7 @@
         <v>15</v>
       </c>
       <c r="G425" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -12876,7 +12876,7 @@
         <v>15</v>
       </c>
       <c r="G426" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -12902,7 +12902,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G427" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -12928,7 +12928,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G428" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -12954,7 +12954,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G429" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -12980,7 +12980,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G430" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13006,7 +13006,7 @@
         <v>14.5</v>
       </c>
       <c r="G431" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13032,7 +13032,7 @@
         <v>14.5</v>
       </c>
       <c r="G432" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13058,7 +13058,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G433" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13084,7 +13084,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G434" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13110,7 +13110,7 @@
         <v>14.6499996185303</v>
       </c>
       <c r="G435" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13136,7 +13136,7 @@
         <v>14.75</v>
       </c>
       <c r="G436" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13162,7 +13162,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G437" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -13188,7 +13188,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G438" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -13214,7 +13214,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G439" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -13240,7 +13240,7 @@
         <v>14.75</v>
       </c>
       <c r="G440" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -13266,7 +13266,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G441" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -13292,7 +13292,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G442" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -13318,7 +13318,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G443" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -13344,7 +13344,7 @@
         <v>15.8500003814697</v>
       </c>
       <c r="G444" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -13370,7 +13370,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G445" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -13396,7 +13396,7 @@
         <v>16.75</v>
       </c>
       <c r="G446" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -13422,7 +13422,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G447" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -13448,7 +13448,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G448" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -13474,7 +13474,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G449" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -13500,7 +13500,7 @@
         <v>17</v>
       </c>
       <c r="G450" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -13526,7 +13526,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G451" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -13552,7 +13552,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G452" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -13578,7 +13578,7 @@
         <v>16.75</v>
       </c>
       <c r="G453" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -13604,7 +13604,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G454" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -13630,7 +13630,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G455" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -13656,7 +13656,7 @@
         <v>17.6499996185303</v>
       </c>
       <c r="G456" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -13682,7 +13682,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G457" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -13708,7 +13708,7 @@
         <v>18.25</v>
       </c>
       <c r="G458" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -13734,7 +13734,7 @@
         <v>18.5</v>
       </c>
       <c r="G459" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -13760,7 +13760,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G460" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -13786,7 +13786,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G461" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -13812,7 +13812,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G462" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -13838,7 +13838,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G463" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -13864,7 +13864,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G464" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -13890,7 +13890,7 @@
         <v>18.75</v>
       </c>
       <c r="G465" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -13916,7 +13916,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G466" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -13942,7 +13942,7 @@
         <v>18.25</v>
       </c>
       <c r="G467" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -13968,7 +13968,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G468" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -13994,7 +13994,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G469" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14020,7 +14020,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G470" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14046,7 +14046,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G471" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14072,7 +14072,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G472" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14098,7 +14098,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G473" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14124,7 +14124,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G474" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14150,7 +14150,7 @@
         <v>18</v>
       </c>
       <c r="G475" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -14176,7 +14176,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G476" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -14202,7 +14202,7 @@
         <v>18</v>
       </c>
       <c r="G477" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -14228,7 +14228,7 @@
         <v>18.25</v>
       </c>
       <c r="G478" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -14254,7 +14254,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G479" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -14280,7 +14280,7 @@
         <v>17.5</v>
       </c>
       <c r="G480" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -14306,7 +14306,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G481" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -14332,7 +14332,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G482" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -14358,7 +14358,7 @@
         <v>18.75</v>
       </c>
       <c r="G483" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -14384,7 +14384,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G484" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -14410,7 +14410,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G485" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -14436,7 +14436,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G486" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -14462,7 +14462,7 @@
         <v>18.75</v>
       </c>
       <c r="G487" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -14488,7 +14488,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G488" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -14514,7 +14514,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G489" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -14540,7 +14540,7 @@
         <v>18.5</v>
       </c>
       <c r="G490" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -14566,7 +14566,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G491" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -14592,7 +14592,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G492" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -14618,7 +14618,7 @@
         <v>19.5</v>
       </c>
       <c r="G493" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -14644,7 +14644,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G494" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -14670,7 +14670,7 @@
         <v>19.1499996185303</v>
       </c>
       <c r="G495" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -14696,7 +14696,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G496" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -14722,7 +14722,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G497" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -14748,7 +14748,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G498" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -14774,7 +14774,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G499" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -14800,7 +14800,7 @@
         <v>20</v>
       </c>
       <c r="G500" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -14826,7 +14826,7 @@
         <v>20</v>
       </c>
       <c r="G501" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -14852,7 +14852,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G502" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -14878,7 +14878,7 @@
         <v>20</v>
       </c>
       <c r="G503" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -14904,7 +14904,7 @@
         <v>19.9500007629395</v>
       </c>
       <c r="G504" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -14930,7 +14930,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G505" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -14956,7 +14956,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G506" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -14982,7 +14982,7 @@
         <v>20.5</v>
       </c>
       <c r="G507" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15008,7 +15008,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G508" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15034,7 +15034,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G509" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15060,7 +15060,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G510" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15086,7 +15086,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G511" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15112,7 +15112,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G512" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15138,7 +15138,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G513" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15164,7 +15164,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G514" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -15190,7 +15190,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G515" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -15216,7 +15216,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G516" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -15242,7 +15242,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G517" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -15268,7 +15268,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G518" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -15294,7 +15294,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G519" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -15320,7 +15320,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G520" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -15346,7 +15346,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G521" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -15372,7 +15372,7 @@
         <v>21.5</v>
       </c>
       <c r="G522" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -15398,7 +15398,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G523" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -15424,7 +15424,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -15450,7 +15450,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G525" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -15476,7 +15476,7 @@
         <v>21.5</v>
       </c>
       <c r="G526" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -15502,7 +15502,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G527" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -15528,7 +15528,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G528" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -15554,7 +15554,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G529" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -15580,7 +15580,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G530" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -15606,7 +15606,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G531" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -15632,7 +15632,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G532" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -15658,7 +15658,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G533" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -15684,7 +15684,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G534" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -15710,7 +15710,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G535" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -15736,7 +15736,7 @@
         <v>25</v>
       </c>
       <c r="G536" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -15762,7 +15762,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G537" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -15788,7 +15788,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G538" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -15814,7 +15814,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G539" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -15840,7 +15840,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G540" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -15866,7 +15866,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G541" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -15892,7 +15892,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G542" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -15918,7 +15918,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G543" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -15944,7 +15944,7 @@
         <v>24.5</v>
       </c>
       <c r="G544" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -15970,7 +15970,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G545" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -15996,7 +15996,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G546" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16022,7 +16022,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G547" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16048,7 +16048,7 @@
         <v>25</v>
       </c>
       <c r="G548" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16074,7 +16074,7 @@
         <v>24.5</v>
       </c>
       <c r="G549" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16100,7 +16100,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G550" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16126,7 +16126,7 @@
         <v>25</v>
       </c>
       <c r="G551" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16152,7 +16152,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G552" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16178,7 +16178,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G553" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -16204,7 +16204,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G554" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -16230,7 +16230,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G555" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -16256,7 +16256,7 @@
         <v>24.5</v>
       </c>
       <c r="G556" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -16282,7 +16282,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G557" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -16308,7 +16308,7 @@
         <v>24.5</v>
       </c>
       <c r="G558" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -16334,7 +16334,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G559" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -16360,7 +16360,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G560" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -16386,7 +16386,7 @@
         <v>25</v>
       </c>
       <c r="G561" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -16412,7 +16412,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G562" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -16438,7 +16438,7 @@
         <v>23.5</v>
       </c>
       <c r="G563" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -16464,7 +16464,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G564" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -16490,7 +16490,7 @@
         <v>24</v>
       </c>
       <c r="G565" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -16516,7 +16516,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G566" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -16542,7 +16542,7 @@
         <v>24</v>
       </c>
       <c r="G567" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -16568,7 +16568,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G568" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -16594,7 +16594,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G569" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -16620,7 +16620,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G570" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -16646,7 +16646,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G571" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -16672,7 +16672,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G572" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -16698,7 +16698,7 @@
         <v>23.5</v>
       </c>
       <c r="G573" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -16724,7 +16724,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G574" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -16750,7 +16750,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G575" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -16776,7 +16776,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G576" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -16802,7 +16802,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G577" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -16828,7 +16828,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G578" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -16854,7 +16854,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G579" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -16880,7 +16880,7 @@
         <v>23</v>
       </c>
       <c r="G580" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -16906,7 +16906,7 @@
         <v>23</v>
       </c>
       <c r="G581" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -16932,7 +16932,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G582" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -16958,7 +16958,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G583" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -16984,7 +16984,7 @@
         <v>21.5</v>
       </c>
       <c r="G584" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17010,7 +17010,7 @@
         <v>20.5</v>
       </c>
       <c r="G585" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17036,7 +17036,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G586" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17062,7 +17062,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G587" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17088,7 +17088,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G588" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17114,7 +17114,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G589" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17140,7 +17140,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G590" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17166,7 +17166,7 @@
         <v>19.5</v>
       </c>
       <c r="G591" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -17192,7 +17192,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G592" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -17218,7 +17218,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G593" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -17244,7 +17244,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G594" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -17270,7 +17270,7 @@
         <v>20</v>
       </c>
       <c r="G595" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -17296,7 +17296,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G596" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -17322,7 +17322,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G597" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -17348,7 +17348,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G598" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -17374,7 +17374,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G599" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -17400,7 +17400,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G600" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -17426,7 +17426,7 @@
         <v>20</v>
       </c>
       <c r="G601" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -17452,7 +17452,7 @@
         <v>21</v>
       </c>
       <c r="G602" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -17478,7 +17478,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G603" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -17504,7 +17504,7 @@
         <v>20.5</v>
       </c>
       <c r="G604" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -17530,7 +17530,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G605" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -17556,7 +17556,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G606" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -17582,7 +17582,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G607" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -17608,7 +17608,7 @@
         <v>20.5</v>
       </c>
       <c r="G608" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -17634,7 +17634,7 @@
         <v>20.5</v>
       </c>
       <c r="G609" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -17660,7 +17660,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G610" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -17686,7 +17686,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G611" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -17712,7 +17712,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G612" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -17738,7 +17738,7 @@
         <v>18.9200000762939</v>
       </c>
       <c r="G613" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -17764,7 +17764,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G614" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -17790,7 +17790,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G615" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -17816,7 +17816,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G616" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -17842,7 +17842,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G617" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -17868,7 +17868,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G618" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -17894,7 +17894,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G619" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -17920,7 +17920,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G620" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -17946,7 +17946,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G621" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -17972,7 +17972,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G622" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -17998,7 +17998,7 @@
         <v>19.2399997711182</v>
       </c>
       <c r="G623" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18024,7 +18024,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G624" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18050,7 +18050,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18076,7 +18076,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G626" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18102,7 +18102,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G627" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18128,7 +18128,7 @@
         <v>18</v>
       </c>
       <c r="G628" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18154,7 +18154,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G629" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18180,7 +18180,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G630" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -18206,7 +18206,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G631" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -18232,7 +18232,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G632" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -18258,7 +18258,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G633" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -18284,7 +18284,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G634" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -18310,7 +18310,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G635" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -18336,7 +18336,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G636" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -18362,7 +18362,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G637" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -18388,7 +18388,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G638" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -18414,7 +18414,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G639" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -18440,7 +18440,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G640" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -18466,7 +18466,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G641" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -18492,7 +18492,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G642" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -18518,7 +18518,7 @@
         <v>18.1599998474121</v>
       </c>
       <c r="G643" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -18544,7 +18544,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G644" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -18570,7 +18570,7 @@
         <v>19</v>
       </c>
       <c r="G645" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -18596,7 +18596,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G646" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -18622,7 +18622,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G647" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -18648,7 +18648,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G648" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -18674,7 +18674,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G649" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -18700,7 +18700,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G650" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -18726,7 +18726,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G651" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -18752,7 +18752,7 @@
         <v>19.2199993133545</v>
       </c>
       <c r="G652" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -18778,7 +18778,7 @@
         <v>19.5</v>
       </c>
       <c r="G653" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -18804,7 +18804,7 @@
         <v>19</v>
       </c>
       <c r="G654" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -18830,7 +18830,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G655" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -18856,7 +18856,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G656" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -18882,7 +18882,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G657" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -18908,7 +18908,7 @@
         <v>18.2600002288818</v>
       </c>
       <c r="G658" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -18934,7 +18934,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G659" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -18960,7 +18960,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G660" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -18986,7 +18986,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G661" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19012,7 +19012,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G662" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19038,7 +19038,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G663" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19064,7 +19064,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G664" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19090,7 +19090,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G665" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19116,7 +19116,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G666" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19142,7 +19142,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G667" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19168,7 +19168,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G668" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -19194,7 +19194,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G669" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19220,7 +19220,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G670" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -19246,7 +19246,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G671" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -19272,7 +19272,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G672" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -19298,7 +19298,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G673" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -19324,7 +19324,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G674" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -19350,7 +19350,7 @@
         <v>16.3199996948242</v>
       </c>
       <c r="G675" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -19376,7 +19376,7 @@
         <v>16</v>
       </c>
       <c r="G676" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -19402,7 +19402,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G677" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -19428,7 +19428,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G678" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -19454,7 +19454,7 @@
         <v>17.5</v>
       </c>
       <c r="G679" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -19480,7 +19480,7 @@
         <v>17.5</v>
       </c>
       <c r="G680" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -19506,7 +19506,7 @@
         <v>17.5</v>
       </c>
       <c r="G681" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -19532,7 +19532,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G682" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -19558,7 +19558,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G683" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -19584,7 +19584,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G684" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -19610,7 +19610,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G685" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -19636,7 +19636,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G686" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -19662,7 +19662,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G687" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -19688,7 +19688,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G688" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -19714,7 +19714,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G689" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -19740,7 +19740,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G690" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -19766,7 +19766,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G691" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -19792,7 +19792,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G692" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -19818,7 +19818,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G693" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -19844,7 +19844,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G694" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -19870,7 +19870,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G695" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -19896,7 +19896,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G696" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -19922,7 +19922,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G697" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -19948,7 +19948,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -19974,7 +19974,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G699" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20000,7 +20000,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G700" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20026,7 +20026,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G701" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20052,7 +20052,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G702" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20078,7 +20078,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G703" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20104,7 +20104,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G704" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20130,7 +20130,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G705" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20156,7 +20156,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G706" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -20182,7 +20182,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G707" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -20208,7 +20208,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G708" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20234,7 +20234,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G709" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20260,7 +20260,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G710" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -20286,7 +20286,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G711" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -20312,7 +20312,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G712" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -20338,7 +20338,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G713" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -20364,7 +20364,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -20390,7 +20390,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G715" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -20416,7 +20416,7 @@
         <v>17.5</v>
       </c>
       <c r="G716" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -20442,7 +20442,7 @@
         <v>17</v>
       </c>
       <c r="G717" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -20468,7 +20468,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G718" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -20494,7 +20494,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G719" t="s">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -20546,7 +20546,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G721" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -20572,7 +20572,7 @@
         <v>17.5</v>
       </c>
       <c r="G722" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -20676,7 +20676,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G726" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -20728,7 +20728,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G728" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21300,7 +21300,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G750" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -21456,7 +21456,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G756" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -21664,7 +21664,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G764" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -21768,7 +21768,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G768" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -21794,7 +21794,7 @@
         <v>17.5</v>
       </c>
       <c r="G769" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -21820,7 +21820,7 @@
         <v>17.5</v>
       </c>
       <c r="G770" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -21872,7 +21872,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G772" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -21924,7 +21924,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G774" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22054,7 +22054,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G779" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22158,7 +22158,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G783" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22340,7 +22340,7 @@
         <v>17</v>
       </c>
       <c r="G790" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -22418,7 +22418,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G793" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -22522,7 +22522,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G797" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -22548,7 +22548,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G798" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -22574,7 +22574,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G799" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -22626,7 +22626,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G801" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -22704,7 +22704,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G804" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -22782,7 +22782,7 @@
         <v>18.1599998474121</v>
       </c>
       <c r="G807" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -22808,7 +22808,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G808" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -22834,7 +22834,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G809" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -22860,7 +22860,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G810" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -22912,7 +22912,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G812" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -22938,7 +22938,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G813" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23016,7 +23016,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G816" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23042,7 +23042,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G817" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23068,7 +23068,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G818" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23120,7 +23120,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G820" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23276,7 +23276,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G826" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -23302,7 +23302,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G827" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -23432,7 +23432,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G832" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -23536,7 +23536,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G836" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -23588,7 +23588,7 @@
         <v>17.5</v>
       </c>
       <c r="G838" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -23614,7 +23614,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G839" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -23640,7 +23640,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G840" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -23692,7 +23692,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G842" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -23770,7 +23770,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G845" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -23848,7 +23848,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G848" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24030,7 +24030,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G855" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -32228,7 +32228,7 @@
     </row>
     <row r="1171">
       <c r="A1171" s="1" t="n">
-        <v>45456.6493518519</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B1171" t="n">
         <v>40761</v>
@@ -32249,6 +32249,32 @@
         <v>482</v>
       </c>
       <c r="H1171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="1" t="n">
+        <v>45457.6493981481</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>45421</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G1172" t="s">
+        <v>482</v>
+      </c>
+      <c r="H1172" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="486">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">8.33448791503906</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17905235290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13650321960449</t>
+    <t xml:space="preserve">8.17905139923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13650417327881</t>
   </si>
   <si>
     <t xml:space="preserve">8.16342258453369</t>
@@ -74,16 +74,16 @@
     <t xml:space="preserve">8.2493896484375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29280662536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50989723205566</t>
+    <t xml:space="preserve">8.29280757904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50989627838135</t>
   </si>
   <si>
     <t xml:space="preserve">8.51163387298584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48384666442871</t>
+    <t xml:space="preserve">8.48384571075439</t>
   </si>
   <si>
     <t xml:space="preserve">8.38398551940918</t>
@@ -98,13 +98,13 @@
     <t xml:space="preserve">8.51858043670654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0222282409668</t>
+    <t xml:space="preserve">9.02222728729248</t>
   </si>
   <si>
     <t xml:space="preserve">8.89892101287842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8468189239502</t>
+    <t xml:space="preserve">8.84681797027588</t>
   </si>
   <si>
     <t xml:space="preserve">8.93886375427246</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">8.94407558441162</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93539237976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00485992431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97707271575928</t>
+    <t xml:space="preserve">8.93539142608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00486087799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97707366943359</t>
   </si>
   <si>
     <t xml:space="preserve">9.0291748046875</t>
@@ -146,34 +146,34 @@
     <t xml:space="preserve">9.68217754364014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81243228912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72559642791748</t>
+    <t xml:space="preserve">9.81243324279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7255973815918</t>
   </si>
   <si>
     <t xml:space="preserve">9.98610305786133</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0295209884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76901435852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89926719665527</t>
+    <t xml:space="preserve">10.02952003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76901531219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89926815032959</t>
   </si>
   <si>
     <t xml:space="preserve">9.85585117340088</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63876152038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55192565917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16116333007812</t>
+    <t xml:space="preserve">9.63876056671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55192470550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16116428375244</t>
   </si>
   <si>
     <t xml:space="preserve">9.29141712188721</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">9.07432842254639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57936477661133</t>
+    <t xml:space="preserve">8.57936573028564</t>
   </si>
   <si>
     <t xml:space="preserve">8.63146686553955</t>
@@ -191,7 +191,7 @@
     <t xml:space="preserve">8.85723972320557</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77040386199951</t>
+    <t xml:space="preserve">8.77040481567383</t>
   </si>
   <si>
     <t xml:space="preserve">9.20458221435547</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">8.45779514312744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40569496154785</t>
+    <t xml:space="preserve">8.40569400787354</t>
   </si>
   <si>
     <t xml:space="preserve">7.51996994018555</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">7.81521129608154</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78047609329224</t>
+    <t xml:space="preserve">7.78047657012939</t>
   </si>
   <si>
     <t xml:space="preserve">8.09308528900146</t>
@@ -242,6 +242,9 @@
     <t xml:space="preserve">9.42167186737061</t>
   </si>
   <si>
+    <t xml:space="preserve">9.11774730682373</t>
+  </si>
+  <si>
     <t xml:space="preserve">9.02747058868408</t>
   </si>
   <si>
@@ -251,10 +254,10 @@
     <t xml:space="preserve">9.74966907501221</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1559057235718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.291316986084</t>
+    <t xml:space="preserve">10.1559066772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2913179397583</t>
   </si>
   <si>
     <t xml:space="preserve">10.3815927505493</t>
@@ -266,7 +269,7 @@
     <t xml:space="preserve">10.6072797775269</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5170049667358</t>
+    <t xml:space="preserve">10.5170040130615</t>
   </si>
   <si>
     <t xml:space="preserve">11.0135154724121</t>
@@ -284,7 +287,7 @@
     <t xml:space="preserve">10.8329668045044</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7878274917603</t>
+    <t xml:space="preserve">10.7878284454346</t>
   </si>
   <si>
     <t xml:space="preserve">11.1037902832031</t>
@@ -299,7 +302,7 @@
     <t xml:space="preserve">10.9232416152954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8781023025513</t>
+    <t xml:space="preserve">10.8781032562256</t>
   </si>
   <si>
     <t xml:space="preserve">10.6524171829224</t>
@@ -308,16 +311,16 @@
     <t xml:space="preserve">10.7426919937134</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5621423721313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4267301559448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6975536346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3364553451538</t>
+    <t xml:space="preserve">10.562141418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4267292022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6975545883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3364543914795</t>
   </si>
   <si>
     <t xml:space="preserve">10.2461814880371</t>
@@ -326,10 +329,10 @@
     <t xml:space="preserve">11.4197511672974</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6454381942749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7357130050659</t>
+    <t xml:space="preserve">11.6454391479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7357139587402</t>
   </si>
   <si>
     <t xml:space="preserve">11.5551643371582</t>
@@ -347,7 +350,7 @@
     <t xml:space="preserve">11.4648885726929</t>
   </si>
   <si>
-    <t xml:space="preserve">11.600302696228</t>
+    <t xml:space="preserve">11.6003017425537</t>
   </si>
   <si>
     <t xml:space="preserve">11.6905765533447</t>
@@ -356,25 +359,25 @@
     <t xml:space="preserve">11.7808523178101</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8259878158569</t>
+    <t xml:space="preserve">11.8259887695312</t>
   </si>
   <si>
     <t xml:space="preserve">11.8711252212524</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9162626266479</t>
+    <t xml:space="preserve">11.9162616729736</t>
   </si>
   <si>
     <t xml:space="preserve">11.9614000320435</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1419486999512</t>
+    <t xml:space="preserve">12.1419496536255</t>
   </si>
   <si>
     <t xml:space="preserve">12.457911491394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5481843948364</t>
+    <t xml:space="preserve">12.5481853485107</t>
   </si>
   <si>
     <t xml:space="preserve">12.3676357269287</t>
@@ -389,10 +392,10 @@
     <t xml:space="preserve">12.5030488967896</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6384601593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2322244644165</t>
+    <t xml:space="preserve">12.6384592056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2322254180908</t>
   </si>
   <si>
     <t xml:space="preserve">12.3224992752075</t>
@@ -5180,7 +5183,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G130" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H130" t="s">
         <v>9</v>
@@ -5206,7 +5209,7 @@
         <v>10</v>
       </c>
       <c r="G131" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -5232,7 +5235,7 @@
         <v>10</v>
       </c>
       <c r="G132" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -5258,7 +5261,7 @@
         <v>10</v>
       </c>
       <c r="G133" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -5284,7 +5287,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G134" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -5310,7 +5313,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G135" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -5336,7 +5339,7 @@
         <v>11.25</v>
       </c>
       <c r="G136" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -5362,7 +5365,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G137" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -5388,7 +5391,7 @@
         <v>11.5</v>
       </c>
       <c r="G138" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -5414,7 +5417,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G139" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -5440,7 +5443,7 @@
         <v>11.75</v>
       </c>
       <c r="G140" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -5466,7 +5469,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G141" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -5492,7 +5495,7 @@
         <v>11.5</v>
       </c>
       <c r="G142" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -5518,7 +5521,7 @@
         <v>11.75</v>
       </c>
       <c r="G143" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -5544,7 +5547,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G144" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -5570,7 +5573,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G145" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -5596,7 +5599,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G146" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -5622,7 +5625,7 @@
         <v>12.5</v>
       </c>
       <c r="G147" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -5648,7 +5651,7 @@
         <v>12</v>
       </c>
       <c r="G148" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -5674,7 +5677,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G149" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -5700,7 +5703,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G150" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -5726,7 +5729,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G151" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -5752,7 +5755,7 @@
         <v>12.5</v>
       </c>
       <c r="G152" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -5778,7 +5781,7 @@
         <v>12.25</v>
       </c>
       <c r="G153" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -5804,7 +5807,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G154" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -5830,7 +5833,7 @@
         <v>12.5</v>
       </c>
       <c r="G155" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -5856,7 +5859,7 @@
         <v>12.25</v>
       </c>
       <c r="G156" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -5882,7 +5885,7 @@
         <v>12</v>
       </c>
       <c r="G157" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -5908,7 +5911,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G158" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -5934,7 +5937,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G159" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -5960,7 +5963,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G160" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -5986,7 +5989,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G161" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -6012,7 +6015,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G162" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -6038,7 +6041,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G163" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -6064,7 +6067,7 @@
         <v>12</v>
       </c>
       <c r="G164" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -6090,7 +6093,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G165" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -6116,7 +6119,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G166" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -6142,7 +6145,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G167" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -6168,7 +6171,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G168" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -6194,7 +6197,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G169" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -6220,7 +6223,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G170" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -6246,7 +6249,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G171" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -6272,7 +6275,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G172" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -6298,7 +6301,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G173" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -6324,7 +6327,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G174" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -6350,7 +6353,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G175" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -6376,7 +6379,7 @@
         <v>12</v>
       </c>
       <c r="G176" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -6402,7 +6405,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G177" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -6428,7 +6431,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G178" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -6454,7 +6457,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G179" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -6480,7 +6483,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G180" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -6506,7 +6509,7 @@
         <v>11.75</v>
       </c>
       <c r="G181" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -6532,7 +6535,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G182" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -6558,7 +6561,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G183" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -6584,7 +6587,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G184" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -6610,7 +6613,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G185" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -6636,7 +6639,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G186" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -6662,7 +6665,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G187" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -6688,7 +6691,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G188" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -6714,7 +6717,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G189" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -6740,7 +6743,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G190" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -6766,7 +6769,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G191" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -6792,7 +6795,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G192" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -6818,7 +6821,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G193" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -6844,7 +6847,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G194" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -6870,7 +6873,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G195" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -6896,7 +6899,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G196" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -6922,7 +6925,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G197" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -6948,7 +6951,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G198" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -6974,7 +6977,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G199" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -7000,7 +7003,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G200" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -7026,7 +7029,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G201" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -7052,7 +7055,7 @@
         <v>11.75</v>
       </c>
       <c r="G202" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7078,7 +7081,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G203" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7104,7 +7107,7 @@
         <v>11.75</v>
       </c>
       <c r="G204" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -7130,7 +7133,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G205" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -7156,7 +7159,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G206" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -7182,7 +7185,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G207" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -7208,7 +7211,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G208" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -7234,7 +7237,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G209" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -7260,7 +7263,7 @@
         <v>12.25</v>
       </c>
       <c r="G210" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -7286,7 +7289,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G211" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -7312,7 +7315,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G212" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -7338,7 +7341,7 @@
         <v>12.25</v>
       </c>
       <c r="G213" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -7364,7 +7367,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G214" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -7390,7 +7393,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G215" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -7416,7 +7419,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G216" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -7442,7 +7445,7 @@
         <v>12.5</v>
       </c>
       <c r="G217" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -7468,7 +7471,7 @@
         <v>12.5</v>
       </c>
       <c r="G218" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -7494,7 +7497,7 @@
         <v>12.25</v>
       </c>
       <c r="G219" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -7520,7 +7523,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G220" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -7546,7 +7549,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G221" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -7572,7 +7575,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G222" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -7598,7 +7601,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G223" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -7624,7 +7627,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G224" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -7650,7 +7653,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G225" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -7676,7 +7679,7 @@
         <v>12.25</v>
       </c>
       <c r="G226" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -7702,7 +7705,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G227" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -7728,7 +7731,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G228" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -7754,7 +7757,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G229" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -7780,7 +7783,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G230" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -7806,7 +7809,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G231" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -7832,7 +7835,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G232" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -7858,7 +7861,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G233" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -7884,7 +7887,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G234" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -7910,7 +7913,7 @@
         <v>11.75</v>
       </c>
       <c r="G235" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -7936,7 +7939,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G236" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -7962,7 +7965,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G237" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -7988,7 +7991,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G238" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8014,7 +8017,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G239" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8040,7 +8043,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G240" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8066,7 +8069,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G241" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8092,7 +8095,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G242" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8118,7 +8121,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G243" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -8144,7 +8147,7 @@
         <v>11.75</v>
       </c>
       <c r="G244" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -8170,7 +8173,7 @@
         <v>11.75</v>
       </c>
       <c r="G245" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -8196,7 +8199,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G246" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -8222,7 +8225,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G247" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -8248,7 +8251,7 @@
         <v>11.25</v>
       </c>
       <c r="G248" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -8274,7 +8277,7 @@
         <v>11.75</v>
       </c>
       <c r="G249" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -8300,7 +8303,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G250" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -8326,7 +8329,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G251" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -8352,7 +8355,7 @@
         <v>11.5</v>
       </c>
       <c r="G252" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -8378,7 +8381,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G253" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -8404,7 +8407,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G254" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -8430,7 +8433,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G255" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -8456,7 +8459,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G256" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -8482,7 +8485,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G257" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -8508,7 +8511,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G258" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -8534,7 +8537,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G259" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -8560,7 +8563,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G260" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -8586,7 +8589,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G261" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -8612,7 +8615,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G262" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -8638,7 +8641,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G263" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -8664,7 +8667,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G264" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -8690,7 +8693,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G265" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -8716,7 +8719,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G266" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -8742,7 +8745,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G267" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -8768,7 +8771,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G268" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -8794,7 +8797,7 @@
         <v>12</v>
       </c>
       <c r="G269" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -8820,7 +8823,7 @@
         <v>12</v>
       </c>
       <c r="G270" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -8846,7 +8849,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G271" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -8872,7 +8875,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G272" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -8898,7 +8901,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G273" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -8924,7 +8927,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G274" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -8950,7 +8953,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G275" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -8976,7 +8979,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G276" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9002,7 +9005,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G277" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9028,7 +9031,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G278" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9054,7 +9057,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G279" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9080,7 +9083,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G280" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9106,7 +9109,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G281" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -9132,7 +9135,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G282" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -9158,7 +9161,7 @@
         <v>11.5</v>
       </c>
       <c r="G283" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -9184,7 +9187,7 @@
         <v>11.5</v>
       </c>
       <c r="G284" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -9210,7 +9213,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G285" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -9236,7 +9239,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G286" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -9262,7 +9265,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G287" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -9288,7 +9291,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G288" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -9314,7 +9317,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G289" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -9340,7 +9343,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G290" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -9366,7 +9369,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G291" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -9392,7 +9395,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G292" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -9418,7 +9421,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G293" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -9444,7 +9447,7 @@
         <v>11.5</v>
       </c>
       <c r="G294" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -9470,7 +9473,7 @@
         <v>11.5</v>
       </c>
       <c r="G295" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -9496,7 +9499,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G296" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -9522,7 +9525,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G297" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -9548,7 +9551,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G298" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -9574,7 +9577,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G299" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -9600,7 +9603,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G300" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -9626,7 +9629,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G301" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -9652,7 +9655,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G302" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -9678,7 +9681,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G303" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -9704,7 +9707,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G304" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -9730,7 +9733,7 @@
         <v>12</v>
       </c>
       <c r="G305" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -9756,7 +9759,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G306" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -9782,7 +9785,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G307" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -9808,7 +9811,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G308" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -9834,7 +9837,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G309" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -9860,7 +9863,7 @@
         <v>12</v>
       </c>
       <c r="G310" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -9886,7 +9889,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G311" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -9912,7 +9915,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G312" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -9938,7 +9941,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G313" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -9964,7 +9967,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G314" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -9990,7 +9993,7 @@
         <v>12</v>
       </c>
       <c r="G315" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10016,7 +10019,7 @@
         <v>12</v>
       </c>
       <c r="G316" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10042,7 +10045,7 @@
         <v>12</v>
       </c>
       <c r="G317" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10068,7 +10071,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G318" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -10094,7 +10097,7 @@
         <v>12.25</v>
       </c>
       <c r="G319" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10120,7 +10123,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G320" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -10146,7 +10149,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G321" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -10172,7 +10175,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G322" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -10198,7 +10201,7 @@
         <v>13</v>
       </c>
       <c r="G323" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -10224,7 +10227,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G324" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -10250,7 +10253,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G325" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -10276,7 +10279,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G326" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -10302,7 +10305,7 @@
         <v>12.75</v>
       </c>
       <c r="G327" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -10328,7 +10331,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G328" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -10354,7 +10357,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G329" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -10380,7 +10383,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G330" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -10406,7 +10409,7 @@
         <v>12.75</v>
       </c>
       <c r="G331" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -10432,7 +10435,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G332" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -10458,7 +10461,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G333" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -10484,7 +10487,7 @@
         <v>12.5</v>
       </c>
       <c r="G334" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -10510,7 +10513,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G335" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -10536,7 +10539,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G336" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -10562,7 +10565,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G337" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -10588,7 +10591,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G338" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -10614,7 +10617,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G339" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -10640,7 +10643,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G340" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -10666,7 +10669,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G341" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -10692,7 +10695,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G342" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -10718,7 +10721,7 @@
         <v>12.75</v>
       </c>
       <c r="G343" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -10744,7 +10747,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G344" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -10770,7 +10773,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G345" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -10796,7 +10799,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G346" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -10822,7 +10825,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G347" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -10848,7 +10851,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G348" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -10874,7 +10877,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G349" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -10900,7 +10903,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G350" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -10926,7 +10929,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G351" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -10952,7 +10955,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G352" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -10978,7 +10981,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G353" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11004,7 +11007,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G354" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -11030,7 +11033,7 @@
         <v>13</v>
       </c>
       <c r="G355" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11056,7 +11059,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G356" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11082,7 +11085,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G357" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11108,7 +11111,7 @@
         <v>12.75</v>
       </c>
       <c r="G358" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11134,7 +11137,7 @@
         <v>13</v>
       </c>
       <c r="G359" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -11160,7 +11163,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G360" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -11186,7 +11189,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G361" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -11212,7 +11215,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G362" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -11238,7 +11241,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G363" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -11264,7 +11267,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G364" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -11290,7 +11293,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G365" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -11316,7 +11319,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G366" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -11342,7 +11345,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G367" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -11368,7 +11371,7 @@
         <v>13.25</v>
       </c>
       <c r="G368" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -11394,7 +11397,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G369" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -11420,7 +11423,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G370" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -11446,7 +11449,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G371" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -11472,7 +11475,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G372" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -11498,7 +11501,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G373" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -11524,7 +11527,7 @@
         <v>13.5</v>
       </c>
       <c r="G374" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -11550,7 +11553,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G375" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -11576,7 +11579,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G376" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -11602,7 +11605,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G377" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -11628,7 +11631,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G378" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -11654,7 +11657,7 @@
         <v>14</v>
       </c>
       <c r="G379" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -11680,7 +11683,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G380" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -11706,7 +11709,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G381" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -11732,7 +11735,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G382" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -11758,7 +11761,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G383" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -11784,7 +11787,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G384" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -11810,7 +11813,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G385" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -11836,7 +11839,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G386" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -11862,7 +11865,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G387" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -11888,7 +11891,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G388" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -11914,7 +11917,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G389" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -11940,7 +11943,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G390" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -11966,7 +11969,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G391" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -11992,7 +11995,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G392" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12018,7 +12021,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G393" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12044,7 +12047,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G394" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12070,7 +12073,7 @@
         <v>13.5</v>
       </c>
       <c r="G395" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12096,7 +12099,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G396" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12122,7 +12125,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G397" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12148,7 +12151,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G398" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12174,7 +12177,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G399" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -12200,7 +12203,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G400" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -12226,7 +12229,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G401" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -12252,7 +12255,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G402" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -12278,7 +12281,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G403" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -12304,7 +12307,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G404" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -12330,7 +12333,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G405" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -12356,7 +12359,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G406" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -12382,7 +12385,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G407" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -12408,7 +12411,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G408" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -12434,7 +12437,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G409" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -12460,7 +12463,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G410" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -12486,7 +12489,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G411" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -12512,7 +12515,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G412" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -12538,7 +12541,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G413" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -12564,7 +12567,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G414" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -12590,7 +12593,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G415" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -12616,7 +12619,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G416" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -12642,7 +12645,7 @@
         <v>14.25</v>
       </c>
       <c r="G417" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -12668,7 +12671,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G418" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -12694,7 +12697,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G419" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -12720,7 +12723,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G420" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -12746,7 +12749,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G421" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -12772,7 +12775,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G422" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -12798,7 +12801,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G423" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -12824,7 +12827,7 @@
         <v>14.75</v>
       </c>
       <c r="G424" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -12850,7 +12853,7 @@
         <v>15</v>
       </c>
       <c r="G425" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -12876,7 +12879,7 @@
         <v>15</v>
       </c>
       <c r="G426" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -12902,7 +12905,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G427" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -12928,7 +12931,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G428" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -12954,7 +12957,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G429" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -12980,7 +12983,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G430" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13006,7 +13009,7 @@
         <v>14.5</v>
       </c>
       <c r="G431" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13032,7 +13035,7 @@
         <v>14.5</v>
       </c>
       <c r="G432" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13058,7 +13061,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G433" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13084,7 +13087,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G434" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13110,7 +13113,7 @@
         <v>14.6499996185303</v>
       </c>
       <c r="G435" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13136,7 +13139,7 @@
         <v>14.75</v>
       </c>
       <c r="G436" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13162,7 +13165,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G437" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -13188,7 +13191,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G438" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -13214,7 +13217,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G439" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -13240,7 +13243,7 @@
         <v>14.75</v>
       </c>
       <c r="G440" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -13266,7 +13269,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G441" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -13292,7 +13295,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G442" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -13318,7 +13321,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G443" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -13344,7 +13347,7 @@
         <v>15.8500003814697</v>
       </c>
       <c r="G444" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -13370,7 +13373,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G445" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -13396,7 +13399,7 @@
         <v>16.75</v>
       </c>
       <c r="G446" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -13422,7 +13425,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G447" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -13448,7 +13451,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G448" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -13474,7 +13477,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G449" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -13500,7 +13503,7 @@
         <v>17</v>
       </c>
       <c r="G450" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -13526,7 +13529,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G451" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -13552,7 +13555,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G452" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -13578,7 +13581,7 @@
         <v>16.75</v>
       </c>
       <c r="G453" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -13604,7 +13607,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G454" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -13630,7 +13633,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G455" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -13656,7 +13659,7 @@
         <v>17.6499996185303</v>
       </c>
       <c r="G456" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -13682,7 +13685,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G457" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -13708,7 +13711,7 @@
         <v>18.25</v>
       </c>
       <c r="G458" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -13734,7 +13737,7 @@
         <v>18.5</v>
       </c>
       <c r="G459" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -13760,7 +13763,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G460" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -13786,7 +13789,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G461" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -13812,7 +13815,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G462" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -13838,7 +13841,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G463" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -13864,7 +13867,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G464" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -13890,7 +13893,7 @@
         <v>18.75</v>
       </c>
       <c r="G465" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -13916,7 +13919,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G466" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -13942,7 +13945,7 @@
         <v>18.25</v>
       </c>
       <c r="G467" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -13968,7 +13971,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G468" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -13994,7 +13997,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G469" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14020,7 +14023,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G470" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14046,7 +14049,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G471" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14072,7 +14075,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G472" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14098,7 +14101,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G473" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14124,7 +14127,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G474" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14150,7 +14153,7 @@
         <v>18</v>
       </c>
       <c r="G475" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -14176,7 +14179,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G476" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -14202,7 +14205,7 @@
         <v>18</v>
       </c>
       <c r="G477" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -14228,7 +14231,7 @@
         <v>18.25</v>
       </c>
       <c r="G478" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -14254,7 +14257,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G479" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -14280,7 +14283,7 @@
         <v>17.5</v>
       </c>
       <c r="G480" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -14306,7 +14309,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G481" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -14332,7 +14335,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G482" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -14358,7 +14361,7 @@
         <v>18.75</v>
       </c>
       <c r="G483" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -14384,7 +14387,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G484" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -14410,7 +14413,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G485" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -14436,7 +14439,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G486" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -14462,7 +14465,7 @@
         <v>18.75</v>
       </c>
       <c r="G487" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -14488,7 +14491,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G488" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -14514,7 +14517,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G489" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -14540,7 +14543,7 @@
         <v>18.5</v>
       </c>
       <c r="G490" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -14566,7 +14569,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G491" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -14592,7 +14595,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G492" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -14618,7 +14621,7 @@
         <v>19.5</v>
       </c>
       <c r="G493" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -14644,7 +14647,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G494" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -14670,7 +14673,7 @@
         <v>19.1499996185303</v>
       </c>
       <c r="G495" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -14696,7 +14699,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G496" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -14722,7 +14725,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G497" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -14748,7 +14751,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G498" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -14774,7 +14777,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G499" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -14800,7 +14803,7 @@
         <v>20</v>
       </c>
       <c r="G500" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -14826,7 +14829,7 @@
         <v>20</v>
       </c>
       <c r="G501" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -14852,7 +14855,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G502" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -14878,7 +14881,7 @@
         <v>20</v>
       </c>
       <c r="G503" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -14904,7 +14907,7 @@
         <v>19.9500007629395</v>
       </c>
       <c r="G504" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -14930,7 +14933,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G505" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -14956,7 +14959,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G506" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -14982,7 +14985,7 @@
         <v>20.5</v>
       </c>
       <c r="G507" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15008,7 +15011,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G508" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15034,7 +15037,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G509" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15060,7 +15063,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G510" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15086,7 +15089,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G511" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15112,7 +15115,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G512" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15138,7 +15141,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G513" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15164,7 +15167,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G514" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -15190,7 +15193,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G515" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -15216,7 +15219,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G516" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -15242,7 +15245,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G517" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -15268,7 +15271,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G518" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -15294,7 +15297,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G519" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -15320,7 +15323,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G520" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -15346,7 +15349,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G521" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -15372,7 +15375,7 @@
         <v>21.5</v>
       </c>
       <c r="G522" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -15398,7 +15401,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G523" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -15424,7 +15427,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -15450,7 +15453,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G525" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -15476,7 +15479,7 @@
         <v>21.5</v>
       </c>
       <c r="G526" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -15502,7 +15505,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G527" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -15528,7 +15531,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G528" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -15554,7 +15557,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G529" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -15580,7 +15583,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G530" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -15606,7 +15609,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G531" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -15632,7 +15635,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G532" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -15658,7 +15661,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G533" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -15684,7 +15687,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G534" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -15710,7 +15713,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G535" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -15736,7 +15739,7 @@
         <v>25</v>
       </c>
       <c r="G536" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -15762,7 +15765,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G537" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -15788,7 +15791,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G538" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -15814,7 +15817,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G539" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -15840,7 +15843,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G540" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -15866,7 +15869,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G541" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -15892,7 +15895,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G542" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -15918,7 +15921,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G543" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -15944,7 +15947,7 @@
         <v>24.5</v>
       </c>
       <c r="G544" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -15970,7 +15973,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G545" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -15996,7 +15999,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G546" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16022,7 +16025,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G547" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16048,7 +16051,7 @@
         <v>25</v>
       </c>
       <c r="G548" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16074,7 +16077,7 @@
         <v>24.5</v>
       </c>
       <c r="G549" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16100,7 +16103,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G550" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16126,7 +16129,7 @@
         <v>25</v>
       </c>
       <c r="G551" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16152,7 +16155,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G552" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16178,7 +16181,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G553" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -16204,7 +16207,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G554" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -16230,7 +16233,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G555" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -16256,7 +16259,7 @@
         <v>24.5</v>
       </c>
       <c r="G556" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -16282,7 +16285,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G557" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -16308,7 +16311,7 @@
         <v>24.5</v>
       </c>
       <c r="G558" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -16334,7 +16337,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G559" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -16360,7 +16363,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G560" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -16386,7 +16389,7 @@
         <v>25</v>
       </c>
       <c r="G561" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -16412,7 +16415,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G562" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -16438,7 +16441,7 @@
         <v>23.5</v>
       </c>
       <c r="G563" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -16464,7 +16467,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G564" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -16490,7 +16493,7 @@
         <v>24</v>
       </c>
       <c r="G565" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -16516,7 +16519,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G566" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -16542,7 +16545,7 @@
         <v>24</v>
       </c>
       <c r="G567" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -16568,7 +16571,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G568" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -16594,7 +16597,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G569" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -16620,7 +16623,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G570" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -16646,7 +16649,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G571" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -16672,7 +16675,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G572" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -16698,7 +16701,7 @@
         <v>23.5</v>
       </c>
       <c r="G573" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -16724,7 +16727,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G574" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -16750,7 +16753,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G575" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -16776,7 +16779,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G576" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -16802,7 +16805,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G577" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -16828,7 +16831,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G578" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -16854,7 +16857,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G579" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -16880,7 +16883,7 @@
         <v>23</v>
       </c>
       <c r="G580" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -16906,7 +16909,7 @@
         <v>23</v>
       </c>
       <c r="G581" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -16932,7 +16935,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G582" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -16958,7 +16961,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G583" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -16984,7 +16987,7 @@
         <v>21.5</v>
       </c>
       <c r="G584" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17010,7 +17013,7 @@
         <v>20.5</v>
       </c>
       <c r="G585" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17036,7 +17039,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G586" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17062,7 +17065,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G587" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17088,7 +17091,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G588" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17114,7 +17117,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G589" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17140,7 +17143,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G590" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17166,7 +17169,7 @@
         <v>19.5</v>
       </c>
       <c r="G591" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -17192,7 +17195,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G592" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -17218,7 +17221,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G593" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -17244,7 +17247,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G594" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -17270,7 +17273,7 @@
         <v>20</v>
       </c>
       <c r="G595" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -17296,7 +17299,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G596" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -17322,7 +17325,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G597" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -17348,7 +17351,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G598" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -17374,7 +17377,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G599" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -17400,7 +17403,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G600" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -17426,7 +17429,7 @@
         <v>20</v>
       </c>
       <c r="G601" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -17452,7 +17455,7 @@
         <v>21</v>
       </c>
       <c r="G602" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -17478,7 +17481,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G603" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -17504,7 +17507,7 @@
         <v>20.5</v>
       </c>
       <c r="G604" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -17530,7 +17533,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G605" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -17556,7 +17559,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G606" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -17582,7 +17585,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G607" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -17608,7 +17611,7 @@
         <v>20.5</v>
       </c>
       <c r="G608" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -17634,7 +17637,7 @@
         <v>20.5</v>
       </c>
       <c r="G609" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -17660,7 +17663,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G610" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -17686,7 +17689,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G611" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -17712,7 +17715,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G612" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -17738,7 +17741,7 @@
         <v>18.9200000762939</v>
       </c>
       <c r="G613" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -17764,7 +17767,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G614" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -17790,7 +17793,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G615" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -17816,7 +17819,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G616" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -17842,7 +17845,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G617" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -17868,7 +17871,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G618" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -17894,7 +17897,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G619" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -17920,7 +17923,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G620" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -17946,7 +17949,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G621" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -17972,7 +17975,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G622" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -17998,7 +18001,7 @@
         <v>19.2399997711182</v>
       </c>
       <c r="G623" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18024,7 +18027,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G624" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18050,7 +18053,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18076,7 +18079,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G626" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18102,7 +18105,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G627" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18128,7 +18131,7 @@
         <v>18</v>
       </c>
       <c r="G628" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18154,7 +18157,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G629" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18180,7 +18183,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G630" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -18206,7 +18209,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G631" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -18232,7 +18235,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G632" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -18258,7 +18261,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G633" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -18284,7 +18287,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G634" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -18310,7 +18313,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G635" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -18336,7 +18339,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G636" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -18362,7 +18365,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G637" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -18388,7 +18391,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G638" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -18414,7 +18417,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G639" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -18440,7 +18443,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G640" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -18466,7 +18469,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G641" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -18492,7 +18495,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G642" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -18518,7 +18521,7 @@
         <v>18.1599998474121</v>
       </c>
       <c r="G643" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -18544,7 +18547,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G644" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -18570,7 +18573,7 @@
         <v>19</v>
       </c>
       <c r="G645" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -18596,7 +18599,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G646" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -18622,7 +18625,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G647" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -18648,7 +18651,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G648" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -18674,7 +18677,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G649" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -18700,7 +18703,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G650" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -18726,7 +18729,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G651" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -18752,7 +18755,7 @@
         <v>19.2199993133545</v>
       </c>
       <c r="G652" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -18778,7 +18781,7 @@
         <v>19.5</v>
       </c>
       <c r="G653" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -18804,7 +18807,7 @@
         <v>19</v>
       </c>
       <c r="G654" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -18830,7 +18833,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G655" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -18856,7 +18859,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G656" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -18882,7 +18885,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G657" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -18908,7 +18911,7 @@
         <v>18.2600002288818</v>
       </c>
       <c r="G658" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -18934,7 +18937,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G659" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -18960,7 +18963,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G660" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -18986,7 +18989,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G661" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19012,7 +19015,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G662" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19038,7 +19041,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G663" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19064,7 +19067,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G664" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19090,7 +19093,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G665" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19116,7 +19119,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G666" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19142,7 +19145,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G667" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19168,7 +19171,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G668" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -19194,7 +19197,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G669" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19220,7 +19223,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G670" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -19246,7 +19249,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G671" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -19272,7 +19275,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G672" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -19298,7 +19301,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G673" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -19324,7 +19327,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G674" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -19350,7 +19353,7 @@
         <v>16.3199996948242</v>
       </c>
       <c r="G675" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -19376,7 +19379,7 @@
         <v>16</v>
       </c>
       <c r="G676" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -19402,7 +19405,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G677" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -19428,7 +19431,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G678" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -19454,7 +19457,7 @@
         <v>17.5</v>
       </c>
       <c r="G679" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -19480,7 +19483,7 @@
         <v>17.5</v>
       </c>
       <c r="G680" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -19506,7 +19509,7 @@
         <v>17.5</v>
       </c>
       <c r="G681" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -19532,7 +19535,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G682" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -19558,7 +19561,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G683" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -19584,7 +19587,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G684" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -19610,7 +19613,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G685" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -19636,7 +19639,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G686" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -19662,7 +19665,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G687" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -19688,7 +19691,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G688" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -19714,7 +19717,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G689" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -19740,7 +19743,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G690" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -19766,7 +19769,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G691" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -19792,7 +19795,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G692" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -19818,7 +19821,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G693" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -19844,7 +19847,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G694" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -19870,7 +19873,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G695" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -19896,7 +19899,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G696" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -19922,7 +19925,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G697" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -19948,7 +19951,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -19974,7 +19977,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G699" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20000,7 +20003,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G700" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20026,7 +20029,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G701" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20052,7 +20055,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G702" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20078,7 +20081,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G703" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20104,7 +20107,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G704" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20130,7 +20133,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G705" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20156,7 +20159,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G706" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -20182,7 +20185,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G707" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -20208,7 +20211,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G708" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20234,7 +20237,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G709" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20260,7 +20263,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G710" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -20286,7 +20289,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G711" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -20312,7 +20315,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G712" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -20338,7 +20341,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G713" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -20364,7 +20367,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -20390,7 +20393,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G715" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -20416,7 +20419,7 @@
         <v>17.5</v>
       </c>
       <c r="G716" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -20442,7 +20445,7 @@
         <v>17</v>
       </c>
       <c r="G717" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -20468,7 +20471,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G718" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -20494,7 +20497,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G719" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -20520,7 +20523,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G720" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -20546,7 +20549,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G721" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -20572,7 +20575,7 @@
         <v>17.5</v>
       </c>
       <c r="G722" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -20598,7 +20601,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G723" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -20624,7 +20627,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G724" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -20650,7 +20653,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G725" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -20676,7 +20679,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G726" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -20702,7 +20705,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G727" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -20728,7 +20731,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G728" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -20754,7 +20757,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G729" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -20780,7 +20783,7 @@
         <v>15.3599996566772</v>
       </c>
       <c r="G730" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -20806,7 +20809,7 @@
         <v>14.8400001525879</v>
       </c>
       <c r="G731" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -20832,7 +20835,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G732" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -20858,7 +20861,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G733" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -20884,7 +20887,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G734" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -20910,7 +20913,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G735" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -20936,7 +20939,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G736" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -20962,7 +20965,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G737" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -20988,7 +20991,7 @@
         <v>14.039999961853</v>
       </c>
       <c r="G738" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21014,7 +21017,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G739" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21040,7 +21043,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G740" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21066,7 +21069,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G741" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21092,7 +21095,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G742" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21118,7 +21121,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G743" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21144,7 +21147,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G744" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21170,7 +21173,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G745" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21196,7 +21199,7 @@
         <v>14.8800001144409</v>
       </c>
       <c r="G746" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21222,7 +21225,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G747" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21248,7 +21251,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G748" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21274,7 +21277,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G749" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21300,7 +21303,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G750" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -21326,7 +21329,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -21352,7 +21355,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G752" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -21378,7 +21381,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G753" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -21404,7 +21407,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G754" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -21430,7 +21433,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G755" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -21456,7 +21459,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G756" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -21482,7 +21485,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G757" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -21508,7 +21511,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G758" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -21534,7 +21537,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G759" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -21560,7 +21563,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G760" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -21586,7 +21589,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G761" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -21612,7 +21615,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G762" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -21638,7 +21641,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G763" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -21664,7 +21667,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G764" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -21690,7 +21693,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G765" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -21716,7 +21719,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G766" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -21742,7 +21745,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G767" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -21768,7 +21771,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G768" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -21794,7 +21797,7 @@
         <v>17.5</v>
       </c>
       <c r="G769" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -21820,7 +21823,7 @@
         <v>17.5</v>
       </c>
       <c r="G770" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -21846,7 +21849,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G771" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -21872,7 +21875,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G772" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -21898,7 +21901,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G773" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -21924,7 +21927,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G774" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -21950,7 +21953,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G775" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -21976,7 +21979,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G776" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22002,7 +22005,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G777" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22028,7 +22031,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G778" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22054,7 +22057,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G779" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22080,7 +22083,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G780" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22106,7 +22109,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G781" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22132,7 +22135,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G782" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22158,7 +22161,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G783" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22184,7 +22187,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G784" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22210,7 +22213,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G785" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22236,7 +22239,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G786" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22262,7 +22265,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G787" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22288,7 +22291,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G788" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22314,7 +22317,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G789" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -22340,7 +22343,7 @@
         <v>17</v>
       </c>
       <c r="G790" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -22366,7 +22369,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G791" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -22392,7 +22395,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G792" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -22418,7 +22421,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G793" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -22444,7 +22447,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G794" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -22470,7 +22473,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G795" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -22496,7 +22499,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G796" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -22522,7 +22525,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G797" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -22548,7 +22551,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G798" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -22574,7 +22577,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G799" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -22600,7 +22603,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G800" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -22626,7 +22629,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G801" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -22652,7 +22655,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G802" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -22678,7 +22681,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G803" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -22704,7 +22707,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G804" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -22730,7 +22733,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G805" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -22756,7 +22759,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G806" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -22782,7 +22785,7 @@
         <v>18.1599998474121</v>
       </c>
       <c r="G807" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -22808,7 +22811,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G808" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -22834,7 +22837,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G809" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -22860,7 +22863,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G810" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -22886,7 +22889,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G811" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -22912,7 +22915,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G812" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -22938,7 +22941,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G813" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -22964,7 +22967,7 @@
         <v>18.5799999237061</v>
       </c>
       <c r="G814" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -22990,7 +22993,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G815" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23016,7 +23019,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G816" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23042,7 +23045,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G817" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23068,7 +23071,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G818" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23094,7 +23097,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G819" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23120,7 +23123,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G820" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23146,7 +23149,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G821" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23172,7 +23175,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G822" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23198,7 +23201,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G823" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23224,7 +23227,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G824" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23250,7 +23253,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G825" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23276,7 +23279,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G826" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -23302,7 +23305,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G827" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -23328,7 +23331,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G828" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -23354,7 +23357,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G829" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -23380,7 +23383,7 @@
         <v>18.5</v>
       </c>
       <c r="G830" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -23406,7 +23409,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G831" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -23432,7 +23435,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G832" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -23458,7 +23461,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G833" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -23484,7 +23487,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G834" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -23510,7 +23513,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G835" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -23536,7 +23539,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G836" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -23562,7 +23565,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G837" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -23588,7 +23591,7 @@
         <v>17.5</v>
       </c>
       <c r="G838" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -23614,7 +23617,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G839" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -23640,7 +23643,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G840" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -23666,7 +23669,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G841" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -23692,7 +23695,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G842" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -23718,7 +23721,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G843" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -23744,7 +23747,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G844" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -23770,7 +23773,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G845" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -23796,7 +23799,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G846" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -23822,7 +23825,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G847" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -23848,7 +23851,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G848" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -23874,7 +23877,7 @@
         <v>18</v>
       </c>
       <c r="G849" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -23900,7 +23903,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G850" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -23926,7 +23929,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G851" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -23952,7 +23955,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G852" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -23978,7 +23981,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G853" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24004,7 +24007,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G854" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24030,7 +24033,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G855" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24056,7 +24059,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G856" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24082,7 +24085,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G857" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24108,7 +24111,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G858" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24134,7 +24137,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G859" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24160,7 +24163,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G860" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24186,7 +24189,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G861" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24212,7 +24215,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G862" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24238,7 +24241,7 @@
         <v>20.75</v>
       </c>
       <c r="G863" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24264,7 +24267,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -24290,7 +24293,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G865" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -24316,7 +24319,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G866" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -24342,7 +24345,7 @@
         <v>21.5</v>
       </c>
       <c r="G867" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -24368,7 +24371,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G868" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -24394,7 +24397,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G869" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -24420,7 +24423,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G870" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -24446,7 +24449,7 @@
         <v>21.5</v>
       </c>
       <c r="G871" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -24472,7 +24475,7 @@
         <v>21</v>
       </c>
       <c r="G872" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -24498,7 +24501,7 @@
         <v>20.75</v>
       </c>
       <c r="G873" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -24524,7 +24527,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G874" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -24550,7 +24553,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G875" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -24576,7 +24579,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G876" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -24602,7 +24605,7 @@
         <v>20.5</v>
       </c>
       <c r="G877" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -24628,7 +24631,7 @@
         <v>21</v>
       </c>
       <c r="G878" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -24654,7 +24657,7 @@
         <v>21</v>
       </c>
       <c r="G879" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -24680,7 +24683,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G880" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -24706,7 +24709,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G881" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -24732,7 +24735,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G882" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -24758,7 +24761,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G883" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -24784,7 +24787,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G884" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -24810,7 +24813,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G885" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -24836,7 +24839,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G886" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -24862,7 +24865,7 @@
         <v>21.75</v>
       </c>
       <c r="G887" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -24888,7 +24891,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G888" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -24914,7 +24917,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G889" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -24940,7 +24943,7 @@
         <v>22</v>
       </c>
       <c r="G890" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -24966,7 +24969,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G891" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -24992,7 +24995,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G892" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25018,7 +25021,7 @@
         <v>21.75</v>
       </c>
       <c r="G893" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25044,7 +25047,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G894" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25070,7 +25073,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25096,7 +25099,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G896" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25122,7 +25125,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G897" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25148,7 +25151,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G898" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25174,7 +25177,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G899" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25200,7 +25203,7 @@
         <v>22.5</v>
       </c>
       <c r="G900" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25226,7 +25229,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G901" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25252,7 +25255,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G902" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -25278,7 +25281,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G903" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -25304,7 +25307,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G904" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -25330,7 +25333,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -25356,7 +25359,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G906" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -25382,7 +25385,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G907" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -25408,7 +25411,7 @@
         <v>22.5</v>
       </c>
       <c r="G908" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -25434,7 +25437,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G909" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -25460,7 +25463,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G910" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -25486,7 +25489,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G911" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -25512,7 +25515,7 @@
         <v>22.75</v>
       </c>
       <c r="G912" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -25538,7 +25541,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G913" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -25564,7 +25567,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G914" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -25590,7 +25593,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G915" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -25616,7 +25619,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G916" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -25642,7 +25645,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G917" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -25668,7 +25671,7 @@
         <v>23</v>
       </c>
       <c r="G918" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -25694,7 +25697,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G919" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -25720,7 +25723,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G920" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -25746,7 +25749,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G921" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -25772,7 +25775,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G922" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -25798,7 +25801,7 @@
         <v>23.25</v>
       </c>
       <c r="G923" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -25824,7 +25827,7 @@
         <v>23.25</v>
       </c>
       <c r="G924" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -25850,7 +25853,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G925" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -25876,7 +25879,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G926" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -25902,7 +25905,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G927" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -25928,7 +25931,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G928" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -25954,7 +25957,7 @@
         <v>23</v>
       </c>
       <c r="G929" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -25980,7 +25983,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G930" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26006,7 +26009,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G931" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26032,7 +26035,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G932" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26058,7 +26061,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G933" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26084,7 +26087,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G934" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26110,7 +26113,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G935" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26136,7 +26139,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G936" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26162,7 +26165,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G937" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26188,7 +26191,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G938" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26214,7 +26217,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G939" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26240,7 +26243,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G940" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26266,7 +26269,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G941" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26292,7 +26295,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G942" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -26318,7 +26321,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G943" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26344,7 +26347,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G944" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26370,7 +26373,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G945" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26396,7 +26399,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G946" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26422,7 +26425,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G947" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26448,7 +26451,7 @@
         <v>23</v>
       </c>
       <c r="G948" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26474,7 +26477,7 @@
         <v>23.25</v>
       </c>
       <c r="G949" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26500,7 +26503,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G950" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26526,7 +26529,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G951" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26552,7 +26555,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G952" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26578,7 +26581,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G953" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26604,7 +26607,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G954" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26630,7 +26633,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G955" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -26656,7 +26659,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G956" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -26682,7 +26685,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -26708,7 +26711,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G958" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -26734,7 +26737,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G959" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -26760,7 +26763,7 @@
         <v>24.5</v>
       </c>
       <c r="G960" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -26786,7 +26789,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G961" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -26812,7 +26815,7 @@
         <v>24.5</v>
       </c>
       <c r="G962" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -26838,7 +26841,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G963" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -26864,7 +26867,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G964" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -26890,7 +26893,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G965" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -26916,7 +26919,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G966" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -26942,7 +26945,7 @@
         <v>24</v>
       </c>
       <c r="G967" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -26968,7 +26971,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G968" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -26994,7 +26997,7 @@
         <v>24.25</v>
       </c>
       <c r="G969" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -27020,7 +27023,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G970" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27046,7 +27049,7 @@
         <v>24.5</v>
       </c>
       <c r="G971" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27072,7 +27075,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G972" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27098,7 +27101,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G973" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27124,7 +27127,7 @@
         <v>24.5</v>
       </c>
       <c r="G974" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -27150,7 +27153,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G975" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -27176,7 +27179,7 @@
         <v>23.75</v>
       </c>
       <c r="G976" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -27202,7 +27205,7 @@
         <v>23.5</v>
       </c>
       <c r="G977" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -27228,7 +27231,7 @@
         <v>23.25</v>
       </c>
       <c r="G978" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -27254,7 +27257,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G979" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27280,7 +27283,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G980" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27306,7 +27309,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G981" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27332,7 +27335,7 @@
         <v>23</v>
       </c>
       <c r="G982" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -27358,7 +27361,7 @@
         <v>22.75</v>
       </c>
       <c r="G983" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -27384,7 +27387,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G984" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27410,7 +27413,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G985" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27436,7 +27439,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G986" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -27462,7 +27465,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G987" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -27488,7 +27491,7 @@
         <v>22.5</v>
       </c>
       <c r="G988" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -27514,7 +27517,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G989" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -27540,7 +27543,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G990" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -27566,7 +27569,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G991" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -27592,7 +27595,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G992" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -27618,7 +27621,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G993" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -27644,7 +27647,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G994" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -27670,7 +27673,7 @@
         <v>22</v>
       </c>
       <c r="G995" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -27696,7 +27699,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G996" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -27722,7 +27725,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G997" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -27748,7 +27751,7 @@
         <v>22.75</v>
       </c>
       <c r="G998" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -27774,7 +27777,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G999" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -27800,7 +27803,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1000" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -27826,7 +27829,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1001" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -27852,7 +27855,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1002" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -27878,7 +27881,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1003" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -27904,7 +27907,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1004" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -27930,7 +27933,7 @@
         <v>22.25</v>
       </c>
       <c r="G1005" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -27956,7 +27959,7 @@
         <v>22.25</v>
       </c>
       <c r="G1006" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -27982,7 +27985,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1007" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28008,7 +28011,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1008" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28034,7 +28037,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1009" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28060,7 +28063,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1010" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -28086,7 +28089,7 @@
         <v>23</v>
       </c>
       <c r="G1011" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28112,7 +28115,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1012" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28138,7 +28141,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1013" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28164,7 +28167,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1014" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28190,7 +28193,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1015" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28216,7 +28219,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1016" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28242,7 +28245,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1017" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28268,7 +28271,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1018" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28294,7 +28297,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1019" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28320,7 +28323,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1020" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28346,7 +28349,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1021" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28372,7 +28375,7 @@
         <v>23.25</v>
       </c>
       <c r="G1022" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -28398,7 +28401,7 @@
         <v>23</v>
       </c>
       <c r="G1023" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -28424,7 +28427,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1024" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28450,7 +28453,7 @@
         <v>23.25</v>
       </c>
       <c r="G1025" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28476,7 +28479,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1026" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28502,7 +28505,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1027" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28528,7 +28531,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1028" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28554,7 +28557,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G1029" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28580,7 +28583,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1030" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -28606,7 +28609,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1031" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -28632,7 +28635,7 @@
         <v>23.25</v>
       </c>
       <c r="G1032" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28658,7 +28661,7 @@
         <v>24</v>
       </c>
       <c r="G1033" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -28684,7 +28687,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G1034" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -28710,7 +28713,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1035" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -28736,7 +28739,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1036" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -28762,7 +28765,7 @@
         <v>23.5</v>
       </c>
       <c r="G1037" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28788,7 +28791,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1038" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -28814,7 +28817,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1039" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -28840,7 +28843,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1040" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -28866,7 +28869,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1041" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -28892,7 +28895,7 @@
         <v>23.75</v>
       </c>
       <c r="G1042" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -28918,7 +28921,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1043" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -28944,7 +28947,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1044" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -28970,7 +28973,7 @@
         <v>23.5</v>
       </c>
       <c r="G1045" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -28996,7 +28999,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1046" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29022,7 +29025,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1047" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -29048,7 +29051,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1048" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29074,7 +29077,7 @@
         <v>24.25</v>
       </c>
       <c r="G1049" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -29100,7 +29103,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1050" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29126,7 +29129,7 @@
         <v>24.5</v>
       </c>
       <c r="G1051" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29152,7 +29155,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1052" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -29178,7 +29181,7 @@
         <v>24.25</v>
       </c>
       <c r="G1053" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29204,7 +29207,7 @@
         <v>24.25</v>
       </c>
       <c r="G1054" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29230,7 +29233,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1055" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29256,7 +29259,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1056" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29282,7 +29285,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1057" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29308,7 +29311,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1058" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29334,7 +29337,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1059" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29360,7 +29363,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1060" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29386,7 +29389,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1061" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29412,7 +29415,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1062" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29438,7 +29441,7 @@
         <v>24.25</v>
       </c>
       <c r="G1063" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29464,7 +29467,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29490,7 +29493,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1065" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29516,7 +29519,7 @@
         <v>24.5</v>
       </c>
       <c r="G1066" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29542,7 +29545,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G1067" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29568,7 +29571,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1068" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29594,7 +29597,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1069" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29620,7 +29623,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1070" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29646,7 +29649,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1071" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29672,7 +29675,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1072" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -29698,7 +29701,7 @@
         <v>23.75</v>
       </c>
       <c r="G1073" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -29724,7 +29727,7 @@
         <v>23.75</v>
       </c>
       <c r="G1074" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -29750,7 +29753,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1075" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -29776,7 +29779,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1076" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -29802,7 +29805,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1077" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -29828,7 +29831,7 @@
         <v>23.5</v>
       </c>
       <c r="G1078" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -29854,7 +29857,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1079" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -29880,7 +29883,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1080" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -29906,7 +29909,7 @@
         <v>23.5</v>
       </c>
       <c r="G1081" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -29932,7 +29935,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1082" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -29958,7 +29961,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1083" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -29984,7 +29987,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1084" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30010,7 +30013,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1085" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30036,7 +30039,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1086" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -30062,7 +30065,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1087" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30088,7 +30091,7 @@
         <v>23.25</v>
       </c>
       <c r="G1088" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30114,7 +30117,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1089" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -30140,7 +30143,7 @@
         <v>23</v>
       </c>
       <c r="G1090" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30166,7 +30169,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1091" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30192,7 +30195,7 @@
         <v>23.25</v>
       </c>
       <c r="G1092" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30218,7 +30221,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1093" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30244,7 +30247,7 @@
         <v>23.25</v>
       </c>
       <c r="G1094" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30270,7 +30273,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1095" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30296,7 +30299,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1096" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30322,7 +30325,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1097" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30348,7 +30351,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1098" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30374,7 +30377,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1099" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30400,7 +30403,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1100" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30426,7 +30429,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1101" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30452,7 +30455,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1102" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30478,7 +30481,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1103" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30504,7 +30507,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1104" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -30530,7 +30533,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1105" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30556,7 +30559,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1106" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30582,7 +30585,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1107" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30608,7 +30611,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1108" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30634,7 +30637,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1109" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30660,7 +30663,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1110" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -30686,7 +30689,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1111" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30712,7 +30715,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1112" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -30738,7 +30741,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1113" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30764,7 +30767,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1114" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30790,7 +30793,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1115" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30816,7 +30819,7 @@
         <v>22.75</v>
       </c>
       <c r="G1116" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -30842,7 +30845,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1117" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -30868,7 +30871,7 @@
         <v>23</v>
       </c>
       <c r="G1118" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -30894,7 +30897,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -30920,7 +30923,7 @@
         <v>22.5</v>
       </c>
       <c r="G1120" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -30946,7 +30949,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1121" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -30972,7 +30975,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1122" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -30998,7 +31001,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1123" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31024,7 +31027,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1124" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31050,7 +31053,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1125" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31076,7 +31079,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1126" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31102,7 +31105,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1127" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31128,7 +31131,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31154,7 +31157,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1129" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31180,7 +31183,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1130" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31206,7 +31209,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1131" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31232,7 +31235,7 @@
         <v>22.25</v>
       </c>
       <c r="G1132" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31258,7 +31261,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1133" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31284,7 +31287,7 @@
         <v>21.75</v>
       </c>
       <c r="G1134" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31310,7 +31313,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1135" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31336,7 +31339,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1136" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31362,7 +31365,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1137" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31388,7 +31391,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1138" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31414,7 +31417,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1139" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31440,7 +31443,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1140" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31466,7 +31469,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1141" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31492,7 +31495,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1142" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31518,7 +31521,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1143" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31544,7 +31547,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31570,7 +31573,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1145" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31596,7 +31599,7 @@
         <v>26</v>
       </c>
       <c r="G1146" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31622,7 +31625,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G1147" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31648,7 +31651,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1148" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31674,7 +31677,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1149" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31700,7 +31703,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1150" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -31726,7 +31729,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1151" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31752,7 +31755,7 @@
         <v>25.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31778,7 +31781,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1153" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31804,7 +31807,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1154" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -31830,7 +31833,7 @@
         <v>25.5</v>
       </c>
       <c r="G1155" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -31856,7 +31859,7 @@
         <v>25.5</v>
       </c>
       <c r="G1156" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -31882,7 +31885,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1157" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -31908,7 +31911,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1158" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -31934,7 +31937,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1159" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -31960,7 +31963,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1160" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -31986,7 +31989,7 @@
         <v>25.5</v>
       </c>
       <c r="G1161" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32012,7 +32015,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1162" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32038,7 +32041,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1163" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32064,7 +32067,7 @@
         <v>25.5</v>
       </c>
       <c r="G1164" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32090,7 +32093,7 @@
         <v>25.5</v>
       </c>
       <c r="G1165" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32116,7 +32119,7 @@
         <v>25.5</v>
       </c>
       <c r="G1166" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32142,7 +32145,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1167" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32168,7 +32171,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1168" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32194,7 +32197,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1169" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32220,7 +32223,7 @@
         <v>25.5</v>
       </c>
       <c r="G1170" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32246,7 +32249,7 @@
         <v>25.5</v>
       </c>
       <c r="G1171" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32254,7 +32257,7 @@
     </row>
     <row r="1172">
       <c r="A1172" s="1" t="n">
-        <v>45457.6493981481</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B1172" t="n">
         <v>45421</v>
@@ -32272,9 +32275,35 @@
         <v>25.5</v>
       </c>
       <c r="G1172" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="1" t="n">
+        <v>45460.6493287037</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>8830</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="G1173" t="s">
+        <v>484</v>
+      </c>
+      <c r="H1173" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,28 +47,28 @@
     <t xml:space="preserve">8.33448791503906</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17905139923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13650417327881</t>
+    <t xml:space="preserve">8.17905235290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13650321960449</t>
   </si>
   <si>
     <t xml:space="preserve">8.16342258453369</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10176944732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11045265197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11913585662842</t>
+    <t xml:space="preserve">8.10176753997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11045169830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11913681030273</t>
   </si>
   <si>
     <t xml:space="preserve">8.16255283355713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2407054901123</t>
+    <t xml:space="preserve">8.24070644378662</t>
   </si>
   <si>
     <t xml:space="preserve">8.2493896484375</t>
@@ -80,19 +80,19 @@
     <t xml:space="preserve">8.50989627838135</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51163387298584</t>
+    <t xml:space="preserve">8.51163291931152</t>
   </si>
   <si>
     <t xml:space="preserve">8.48384571075439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38398551940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31017398834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42306137084961</t>
+    <t xml:space="preserve">8.38398456573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3101749420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42306041717529</t>
   </si>
   <si>
     <t xml:space="preserve">8.51858043670654</t>
@@ -104,40 +104,40 @@
     <t xml:space="preserve">8.89892101287842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84681797027588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93886375427246</t>
+    <t xml:space="preserve">8.8468189239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93886470794678</t>
   </si>
   <si>
     <t xml:space="preserve">8.94407558441162</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93539142608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00486087799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97707366943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0291748046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03091049194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98749446868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33483600616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24799919128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.465087890625</t>
+    <t xml:space="preserve">8.93539237976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00485897064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97707271575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02917385101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03091144561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98749351501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33483505249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2480001449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46508884429932</t>
   </si>
   <si>
     <t xml:space="preserve">9.5953426361084</t>
@@ -149,22 +149,22 @@
     <t xml:space="preserve">9.81243324279785</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7255973815918</t>
+    <t xml:space="preserve">9.72559642791748</t>
   </si>
   <si>
     <t xml:space="preserve">9.98610305786133</t>
   </si>
   <si>
-    <t xml:space="preserve">10.02952003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76901531219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89926815032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85585117340088</t>
+    <t xml:space="preserve">10.0295209884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76901435852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89926719665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85585021972656</t>
   </si>
   <si>
     <t xml:space="preserve">9.63876056671143</t>
@@ -176,22 +176,22 @@
     <t xml:space="preserve">9.16116428375244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29141712188721</t>
+    <t xml:space="preserve">9.29141807556152</t>
   </si>
   <si>
     <t xml:space="preserve">9.07432842254639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57936573028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63146686553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85723972320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77040481567383</t>
+    <t xml:space="preserve">8.57936477661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63146591186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85723876953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77040576934814</t>
   </si>
   <si>
     <t xml:space="preserve">9.20458221435547</t>
@@ -200,64 +200,64 @@
     <t xml:space="preserve">8.68356704711914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45779514312744</t>
+    <t xml:space="preserve">8.45779609680176</t>
   </si>
   <si>
     <t xml:space="preserve">8.40569400787354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51996994018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02361679077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72837543487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98888254165649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81521129608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78047657012939</t>
+    <t xml:space="preserve">7.51997041702271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0236177444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72837495803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98888206481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8152117729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78047704696655</t>
   </si>
   <si>
     <t xml:space="preserve">8.09308528900146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38832759857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90065860748291</t>
+    <t xml:space="preserve">8.38832664489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90065670013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1177453994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81382083892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42167091369629</t>
   </si>
   <si>
     <t xml:space="preserve">9.11774635314941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81382179260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42167186737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11774730682373</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.02747058868408</t>
   </si>
   <si>
     <t xml:space="preserve">9.07260990142822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74966907501221</t>
+    <t xml:space="preserve">9.74967002868652</t>
   </si>
   <si>
     <t xml:space="preserve">10.1559066772461</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2913179397583</t>
+    <t xml:space="preserve">10.291316986084</t>
   </si>
   <si>
     <t xml:space="preserve">10.3815927505493</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">10.4718675613403</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6072797775269</t>
+    <t xml:space="preserve">10.6072788238525</t>
   </si>
   <si>
     <t xml:space="preserve">10.5170040130615</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">11.1489276885986</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2843399047852</t>
+    <t xml:space="preserve">11.2843389511108</t>
   </si>
   <si>
     <t xml:space="preserve">10.8329668045044</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">10.9683780670166</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9232416152954</t>
+    <t xml:space="preserve">10.9232425689697</t>
   </si>
   <si>
     <t xml:space="preserve">10.8781032562256</t>
@@ -308,19 +308,19 @@
     <t xml:space="preserve">10.6524171829224</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7426919937134</t>
+    <t xml:space="preserve">10.7426910400391</t>
   </si>
   <si>
     <t xml:space="preserve">10.562141418457</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4267292022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6975545883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3364543914795</t>
+    <t xml:space="preserve">10.4267301559448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6975536346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3364553451538</t>
   </si>
   <si>
     <t xml:space="preserve">10.2461814880371</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">11.4197511672974</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6454391479492</t>
+    <t xml:space="preserve">11.6454381942749</t>
   </si>
   <si>
     <t xml:space="preserve">11.7357139587402</t>
@@ -338,13 +338,13 @@
     <t xml:space="preserve">11.5551643371582</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3746147155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5100259780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2392015457153</t>
+    <t xml:space="preserve">11.3746137619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5100269317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2392024993896</t>
   </si>
   <si>
     <t xml:space="preserve">11.4648885726929</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">11.6905765533447</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7808523178101</t>
+    <t xml:space="preserve">11.7808513641357</t>
   </si>
   <si>
     <t xml:space="preserve">11.8259887695312</t>
@@ -365,13 +365,13 @@
     <t xml:space="preserve">11.8711252212524</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9162616729736</t>
+    <t xml:space="preserve">11.9162626266479</t>
   </si>
   <si>
     <t xml:space="preserve">11.9614000320435</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1419496536255</t>
+    <t xml:space="preserve">12.1419486999512</t>
   </si>
   <si>
     <t xml:space="preserve">12.457911491394</t>
@@ -380,22 +380,22 @@
     <t xml:space="preserve">12.5481853485107</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3676357269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.187087059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.277361869812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5030488967896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6384592056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2322254180908</t>
+    <t xml:space="preserve">12.367636680603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1870861053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2773628234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5030498504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6384601593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2322244644165</t>
   </si>
   <si>
     <t xml:space="preserve">12.3224992752075</t>
@@ -410,25 +410,25 @@
     <t xml:space="preserve">12.5274076461792</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4808378219604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6671190261841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5739784240723</t>
+    <t xml:space="preserve">12.4808368682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6671199798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5739774703979</t>
   </si>
   <si>
     <t xml:space="preserve">12.2945566177368</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3876981735229</t>
+    <t xml:space="preserve">12.3876972198486</t>
   </si>
   <si>
     <t xml:space="preserve">12.4342679977417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9465398788452</t>
+    <t xml:space="preserve">12.9465408325195</t>
   </si>
   <si>
     <t xml:space="preserve">13.1328220367432</t>
@@ -449,22 +449,22 @@
     <t xml:space="preserve">13.5519552230835</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7848072052002</t>
+    <t xml:space="preserve">13.7848062515259</t>
   </si>
   <si>
     <t xml:space="preserve">13.5985250473022</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7382354736328</t>
+    <t xml:space="preserve">13.7382364273071</t>
   </si>
   <si>
     <t xml:space="preserve">13.9710874557495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8779468536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3656740188599</t>
+    <t xml:space="preserve">13.8779458999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3656730651855</t>
   </si>
   <si>
     <t xml:space="preserve">13.5053844451904</t>
@@ -476,16 +476,16 @@
     <t xml:space="preserve">13.645094871521</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8313760757446</t>
+    <t xml:space="preserve">13.8313770294189</t>
   </si>
   <si>
     <t xml:space="preserve">14.0642280578613</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2970790863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7627830505371</t>
+    <t xml:space="preserve">14.297080039978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7627820968628</t>
   </si>
   <si>
     <t xml:space="preserve">15.321626663208</t>
@@ -494,25 +494,25 @@
     <t xml:space="preserve">15.6010475158691</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9270401000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8804683685303</t>
+    <t xml:space="preserve">15.9270391464233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8804693222046</t>
   </si>
   <si>
     <t xml:space="preserve">15.8338994979858</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6941890716553</t>
+    <t xml:space="preserve">15.6941871643066</t>
   </si>
   <si>
     <t xml:space="preserve">15.9736089706421</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4393119812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6721630096436</t>
+    <t xml:space="preserve">16.4393138885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6721649169922</t>
   </si>
   <si>
     <t xml:space="preserve">16.9981555938721</t>
@@ -521,16 +521,16 @@
     <t xml:space="preserve">17.2310066223145</t>
   </si>
   <si>
-    <t xml:space="preserve">16.951587677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4172897338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6501426696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7898502349854</t>
+    <t xml:space="preserve">16.9515857696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4172878265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6501407623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.789852142334</t>
   </si>
   <si>
     <t xml:space="preserve">17.4638595581055</t>
@@ -539,7 +539,7 @@
     <t xml:space="preserve">16.8584461212158</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7187366485596</t>
+    <t xml:space="preserve">16.7187347412109</t>
   </si>
   <si>
     <t xml:space="preserve">17.0447254180908</t>
@@ -557,16 +557,16 @@
     <t xml:space="preserve">16.8118743896484</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2996006011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1133193969727</t>
+    <t xml:space="preserve">16.2996025085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1133213043213</t>
   </si>
   <si>
     <t xml:space="preserve">16.15989112854</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1844387054443</t>
+    <t xml:space="preserve">17.1844367980957</t>
   </si>
   <si>
     <t xml:space="preserve">17.137866973877</t>
@@ -578,25 +578,25 @@
     <t xml:space="preserve">17.976131439209</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1624126434326</t>
+    <t xml:space="preserve">18.1624145507812</t>
   </si>
   <si>
     <t xml:space="preserve">17.8829936981201</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8364219665527</t>
+    <t xml:space="preserve">17.8364200592041</t>
   </si>
   <si>
     <t xml:space="preserve">18.1158447265625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5349769592285</t>
+    <t xml:space="preserve">18.5349750518799</t>
   </si>
   <si>
     <t xml:space="preserve">18.6281147003174</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3486976623535</t>
+    <t xml:space="preserve">18.3486957550049</t>
   </si>
   <si>
     <t xml:space="preserve">18.5815467834473</t>
@@ -605,19 +605,19 @@
     <t xml:space="preserve">18.9075374603271</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4884052276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0938205718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.280101776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2115077972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1183643341064</t>
+    <t xml:space="preserve">18.4884071350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0938186645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2801036834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2115058898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1183662414551</t>
   </si>
   <si>
     <t xml:space="preserve">19.8389434814453</t>
@@ -626,13 +626,13 @@
     <t xml:space="preserve">19.7458038330078</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9320831298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.677209854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0252265930176</t>
+    <t xml:space="preserve">19.9320850372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6772079467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0252246856689</t>
   </si>
   <si>
     <t xml:space="preserve">19.1869602203369</t>
@@ -641,28 +641,28 @@
     <t xml:space="preserve">19.6526622772217</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7017555236816</t>
+    <t xml:space="preserve">21.701753616333</t>
   </si>
   <si>
     <t xml:space="preserve">21.515474319458</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7948970794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4468784332275</t>
+    <t xml:space="preserve">21.7948951721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4468803405762</t>
   </si>
   <si>
     <t xml:space="preserve">22.7263011932373</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5400218963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2851467132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1920032501221</t>
+    <t xml:space="preserve">22.5400238037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2851448059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1920051574707</t>
   </si>
   <si>
     <t xml:space="preserve">23.0057239532471</t>
@@ -677,22 +677,22 @@
     <t xml:space="preserve">22.8194427490234</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3782844543457</t>
+    <t xml:space="preserve">23.3782863616943</t>
   </si>
   <si>
     <t xml:space="preserve">23.5645656585693</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8880367279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.167459487915</t>
+    <t xml:space="preserve">21.8880348205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1674575805664</t>
   </si>
   <si>
     <t xml:space="preserve">22.3537406921387</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2605972290039</t>
+    <t xml:space="preserve">22.2605991363525</t>
   </si>
   <si>
     <t xml:space="preserve">22.6331615447998</t>
@@ -713,19 +713,19 @@
     <t xml:space="preserve">20.5840682983398</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3046436309814</t>
+    <t xml:space="preserve">20.3046455383301</t>
   </si>
   <si>
     <t xml:space="preserve">20.8634910583496</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0006790161133</t>
+    <t xml:space="preserve">19.0006771087646</t>
   </si>
   <si>
     <t xml:space="preserve">21.1429138183594</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3732395172119</t>
+    <t xml:space="preserve">19.3732414245605</t>
   </si>
   <si>
     <t xml:space="preserve">19.5595226287842</t>
@@ -749,7 +749,7 @@
     <t xml:space="preserve">18.0692729949951</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6746845245361</t>
+    <t xml:space="preserve">18.6746864318848</t>
   </si>
   <si>
     <t xml:space="preserve">18.0133895874023</t>
@@ -761,10 +761,10 @@
     <t xml:space="preserve">17.5663146972656</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6594524383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7339668273926</t>
+    <t xml:space="preserve">17.6594543457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7339687347412</t>
   </si>
   <si>
     <t xml:space="preserve">17.9202480316162</t>
@@ -779,25 +779,25 @@
     <t xml:space="preserve">16.6349086761475</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8957023620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.728048324585</t>
+    <t xml:space="preserve">16.8957004547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7280464172363</t>
   </si>
   <si>
     <t xml:space="preserve">16.54176902771</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3554859161377</t>
+    <t xml:space="preserve">16.3554878234863</t>
   </si>
   <si>
     <t xml:space="preserve">15.722128868103</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5544776916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0515184402466</t>
+    <t xml:space="preserve">15.5544786453247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0515174865723</t>
   </si>
   <si>
     <t xml:space="preserve">14.9770059585571</t>
@@ -809,16 +809,16 @@
     <t xml:space="preserve">15.1446590423584</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5231380462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0968570709229</t>
+    <t xml:space="preserve">16.5231399536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0968589782715</t>
   </si>
   <si>
     <t xml:space="preserve">17.5940837860107</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5367126464844</t>
+    <t xml:space="preserve">17.5367107391357</t>
   </si>
   <si>
     <t xml:space="preserve">17.364595413208</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">18.7224006652832</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3781661987305</t>
+    <t xml:space="preserve">18.3781681060791</t>
   </si>
   <si>
     <t xml:space="preserve">18.6459045410156</t>
@@ -887,31 +887,31 @@
     <t xml:space="preserve">16.274528503418</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8920488357544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7199325561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2171535491943</t>
+    <t xml:space="preserve">15.8920469284058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.719931602478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.217155456543</t>
   </si>
   <si>
     <t xml:space="preserve">16.0067901611328</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1215362548828</t>
+    <t xml:space="preserve">16.1215343475342</t>
   </si>
   <si>
     <t xml:space="preserve">15.9111700057983</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8729238510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8346738815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6051864624023</t>
+    <t xml:space="preserve">15.8729248046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8346748352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6051874160767</t>
   </si>
   <si>
     <t xml:space="preserve">15.2992029190063</t>
@@ -923,25 +923,25 @@
     <t xml:space="preserve">16.7335033416748</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1159820556641</t>
+    <t xml:space="preserve">17.1159839630127</t>
   </si>
   <si>
     <t xml:space="preserve">16.752628326416</t>
   </si>
   <si>
-    <t xml:space="preserve">17.00124168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0394878387451</t>
+    <t xml:space="preserve">17.0012397766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0394859313965</t>
   </si>
   <si>
     <t xml:space="preserve">18.1486797332764</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8235702514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6323337554932</t>
+    <t xml:space="preserve">17.8235721588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6323318481445</t>
   </si>
   <si>
     <t xml:space="preserve">17.7088279724121</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">16.9056205749512</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8291244506836</t>
+    <t xml:space="preserve">16.829122543335</t>
   </si>
   <si>
     <t xml:space="preserve">16.88649559021</t>
@@ -986,9 +986,6 @@
     <t xml:space="preserve">16.2554035186768</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5231399536133</t>
-  </si>
-  <si>
     <t xml:space="preserve">16.9247436523438</t>
   </si>
   <si>
@@ -1004,7 +1001,7 @@
     <t xml:space="preserve">15.5860624313354</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6872339248657</t>
+    <t xml:space="preserve">14.68723487854</t>
   </si>
   <si>
     <t xml:space="preserve">14.1900110244751</t>
@@ -1013,7 +1010,7 @@
     <t xml:space="preserve">13.6736631393433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6545391082764</t>
+    <t xml:space="preserve">13.6545381546021</t>
   </si>
   <si>
     <t xml:space="preserve">13.3485546112061</t>
@@ -1025,28 +1022,28 @@
     <t xml:space="preserve">13.0999422073364</t>
   </si>
   <si>
-    <t xml:space="preserve">12.564471244812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4250507354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4768714904785</t>
+    <t xml:space="preserve">12.5644702911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4250497817993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4768705368042</t>
   </si>
   <si>
     <t xml:space="preserve">14.4386234283447</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708860397339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9413986206055</t>
+    <t xml:space="preserve">14.1708869934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9413995742798</t>
   </si>
   <si>
     <t xml:space="preserve">13.9987716674805</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2473831176758</t>
+    <t xml:space="preserve">14.2473821640015</t>
   </si>
   <si>
     <t xml:space="preserve">14.2282590866089</t>
@@ -1055,16 +1052,16 @@
     <t xml:space="preserve">14.8593511581421</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0888385772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4713201522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3948240280151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4521951675415</t>
+    <t xml:space="preserve">15.0888395309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4713191986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3948230743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4521942138672</t>
   </si>
   <si>
     <t xml:space="preserve">15.3183279037476</t>
@@ -1091,28 +1088,28 @@
     <t xml:space="preserve">15.5669393539429</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0832862854004</t>
+    <t xml:space="preserve">16.083288192749</t>
   </si>
   <si>
     <t xml:space="preserve">16.1980323791504</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7908744812012</t>
+    <t xml:space="preserve">16.7908763885498</t>
   </si>
   <si>
     <t xml:space="preserve">16.5805110931396</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1351070404053</t>
+    <t xml:space="preserve">17.1351089477539</t>
   </si>
   <si>
     <t xml:space="preserve">17.0203628540039</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6187572479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5613861083984</t>
+    <t xml:space="preserve">16.6187591552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5613880157471</t>
   </si>
   <si>
     <t xml:space="preserve">16.6761322021484</t>
@@ -1121,7 +1118,7 @@
     <t xml:space="preserve">16.9438667297363</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4657669067383</t>
+    <t xml:space="preserve">16.4657649993896</t>
   </si>
   <si>
     <t xml:space="preserve">16.159782409668</t>
@@ -1133,10 +1130,10 @@
     <t xml:space="preserve">16.3318996429443</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1024112701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9876661300659</t>
+    <t xml:space="preserve">16.1024131774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9876670837402</t>
   </si>
   <si>
     <t xml:space="preserve">16.4466457366943</t>
@@ -1151,13 +1148,13 @@
     <t xml:space="preserve">17.3072242736816</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5175876617432</t>
+    <t xml:space="preserve">17.5175857543945</t>
   </si>
   <si>
     <t xml:space="preserve">17.7661991119385</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0721836090088</t>
+    <t xml:space="preserve">18.0721817016602</t>
   </si>
   <si>
     <t xml:space="preserve">17.7853240966797</t>
@@ -1166,10 +1163,10 @@
     <t xml:space="preserve">17.8618202209473</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3837203979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8044471740723</t>
+    <t xml:space="preserve">17.3837184906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8044490814209</t>
   </si>
   <si>
     <t xml:space="preserve">17.498462677002</t>
@@ -1178,13 +1175,13 @@
     <t xml:space="preserve">17.6897029876709</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4793395996094</t>
+    <t xml:space="preserve">17.479341506958</t>
   </si>
   <si>
     <t xml:space="preserve">17.2307281494141</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0586128234863</t>
+    <t xml:space="preserve">17.0586109161377</t>
   </si>
   <si>
     <t xml:space="preserve">17.2116031646729</t>
@@ -1193,10 +1190,10 @@
     <t xml:space="preserve">17.4219665527344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3590431213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2251758575439</t>
+    <t xml:space="preserve">18.3590450286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2251739501953</t>
   </si>
   <si>
     <t xml:space="preserve">18.9327621459961</t>
@@ -1214,7 +1211,7 @@
     <t xml:space="preserve">20.1758232116699</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4148731231689</t>
+    <t xml:space="preserve">20.4148750305176</t>
   </si>
   <si>
     <t xml:space="preserve">20.5104942321777</t>
@@ -1235,7 +1232,7 @@
     <t xml:space="preserve">20.2236347198486</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7933444976807</t>
+    <t xml:space="preserve">19.7933464050293</t>
   </si>
   <si>
     <t xml:space="preserve">19.6021041870117</t>
@@ -1247,16 +1244,16 @@
     <t xml:space="preserve">20.7495441436768</t>
   </si>
   <si>
-    <t xml:space="preserve">20.653923034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7973556518555</t>
+    <t xml:space="preserve">20.6539249420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7973537445068</t>
   </si>
   <si>
     <t xml:space="preserve">20.7017345428467</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0364055633545</t>
+    <t xml:space="preserve">21.0364036560059</t>
   </si>
   <si>
     <t xml:space="preserve">20.8451633453369</t>
@@ -20497,7 +20494,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G719" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -20523,7 +20520,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G720" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -20601,7 +20598,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G723" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -20627,7 +20624,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G724" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -20653,7 +20650,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G725" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -20705,7 +20702,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G727" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -20757,7 +20754,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G729" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -20783,7 +20780,7 @@
         <v>15.3599996566772</v>
       </c>
       <c r="G730" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -20809,7 +20806,7 @@
         <v>14.8400001525879</v>
       </c>
       <c r="G731" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -20835,7 +20832,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G732" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -20861,7 +20858,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G733" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -20887,7 +20884,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G734" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -20913,7 +20910,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G735" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -20939,7 +20936,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G736" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -20965,7 +20962,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G737" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -20991,7 +20988,7 @@
         <v>14.039999961853</v>
       </c>
       <c r="G738" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21017,7 +21014,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G739" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21043,7 +21040,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G740" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21069,7 +21066,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G741" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21095,7 +21092,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G742" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21121,7 +21118,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G743" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21147,7 +21144,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G744" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21173,7 +21170,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G745" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21199,7 +21196,7 @@
         <v>14.8800001144409</v>
       </c>
       <c r="G746" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21225,7 +21222,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G747" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21251,7 +21248,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G748" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21277,7 +21274,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G749" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21329,7 +21326,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -21355,7 +21352,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G752" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -21381,7 +21378,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G753" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -21407,7 +21404,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G754" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -21433,7 +21430,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G755" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -21485,7 +21482,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G757" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -21511,7 +21508,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G758" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -21537,7 +21534,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G759" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -21563,7 +21560,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G760" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -21589,7 +21586,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G761" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -21615,7 +21612,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G762" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -21641,7 +21638,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G763" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -21693,7 +21690,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G765" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -21719,7 +21716,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G766" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -21745,7 +21742,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G767" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -21849,7 +21846,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G771" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -21901,7 +21898,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G773" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -21953,7 +21950,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G775" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -21979,7 +21976,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G776" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22005,7 +22002,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G777" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22031,7 +22028,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G778" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22083,7 +22080,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G780" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22109,7 +22106,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G781" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22135,7 +22132,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G782" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22187,7 +22184,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G784" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22213,7 +22210,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G785" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22239,7 +22236,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G786" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22265,7 +22262,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G787" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22291,7 +22288,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G788" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22317,7 +22314,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G789" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -22369,7 +22366,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G791" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -22395,7 +22392,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G792" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -22447,7 +22444,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G794" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -22473,7 +22470,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G795" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -22499,7 +22496,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G796" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -22603,7 +22600,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G800" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -22655,7 +22652,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G802" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -22681,7 +22678,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G803" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -22733,7 +22730,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G805" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -22759,7 +22756,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G806" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -22889,7 +22886,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G811" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -22967,7 +22964,7 @@
         <v>18.5799999237061</v>
       </c>
       <c r="G814" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -22993,7 +22990,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G815" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23097,7 +23094,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G819" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23149,7 +23146,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G821" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23175,7 +23172,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G822" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23201,7 +23198,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G823" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23227,7 +23224,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G824" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23253,7 +23250,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G825" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23331,7 +23328,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G828" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -23357,7 +23354,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G829" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -23383,7 +23380,7 @@
         <v>18.5</v>
       </c>
       <c r="G830" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -23409,7 +23406,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G831" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -23461,7 +23458,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G833" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -23487,7 +23484,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G834" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -23513,7 +23510,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G835" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -23565,7 +23562,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G837" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -23669,7 +23666,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G841" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -23721,7 +23718,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G843" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -23747,7 +23744,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G844" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -23799,7 +23796,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G846" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -23825,7 +23822,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G847" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -23877,7 +23874,7 @@
         <v>18</v>
       </c>
       <c r="G849" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -23903,7 +23900,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G850" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -23929,7 +23926,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G851" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -23955,7 +23952,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G852" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -23981,7 +23978,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G853" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24007,7 +24004,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G854" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24059,7 +24056,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G856" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24085,7 +24082,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G857" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24111,7 +24108,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G858" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24137,7 +24134,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G859" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24163,7 +24160,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G860" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24189,7 +24186,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G861" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24215,7 +24212,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G862" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24241,7 +24238,7 @@
         <v>20.75</v>
       </c>
       <c r="G863" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24267,7 +24264,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -24293,7 +24290,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G865" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -24319,7 +24316,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G866" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -24345,7 +24342,7 @@
         <v>21.5</v>
       </c>
       <c r="G867" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -24371,7 +24368,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G868" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -24397,7 +24394,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G869" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -24423,7 +24420,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G870" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -24449,7 +24446,7 @@
         <v>21.5</v>
       </c>
       <c r="G871" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -24475,7 +24472,7 @@
         <v>21</v>
       </c>
       <c r="G872" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -24501,7 +24498,7 @@
         <v>20.75</v>
       </c>
       <c r="G873" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -24527,7 +24524,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G874" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -24553,7 +24550,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G875" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -24579,7 +24576,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G876" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -24605,7 +24602,7 @@
         <v>20.5</v>
       </c>
       <c r="G877" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -24631,7 +24628,7 @@
         <v>21</v>
       </c>
       <c r="G878" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -24657,7 +24654,7 @@
         <v>21</v>
       </c>
       <c r="G879" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -24683,7 +24680,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G880" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -24709,7 +24706,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G881" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -24735,7 +24732,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G882" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -24761,7 +24758,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G883" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -24787,7 +24784,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G884" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -24813,7 +24810,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G885" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -24839,7 +24836,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G886" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -24865,7 +24862,7 @@
         <v>21.75</v>
       </c>
       <c r="G887" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -24891,7 +24888,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G888" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -24917,7 +24914,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G889" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -24943,7 +24940,7 @@
         <v>22</v>
       </c>
       <c r="G890" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -24969,7 +24966,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G891" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -24995,7 +24992,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G892" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25021,7 +25018,7 @@
         <v>21.75</v>
       </c>
       <c r="G893" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25047,7 +25044,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G894" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25073,7 +25070,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25099,7 +25096,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G896" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25125,7 +25122,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G897" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25151,7 +25148,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G898" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25177,7 +25174,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G899" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25203,7 +25200,7 @@
         <v>22.5</v>
       </c>
       <c r="G900" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25229,7 +25226,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G901" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25255,7 +25252,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G902" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -25281,7 +25278,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G903" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -25307,7 +25304,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G904" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -25333,7 +25330,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -25359,7 +25356,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G906" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -25385,7 +25382,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G907" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -25411,7 +25408,7 @@
         <v>22.5</v>
       </c>
       <c r="G908" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -25437,7 +25434,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G909" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -25463,7 +25460,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G910" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -25489,7 +25486,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G911" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -25515,7 +25512,7 @@
         <v>22.75</v>
       </c>
       <c r="G912" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -25541,7 +25538,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G913" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -25567,7 +25564,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G914" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -25593,7 +25590,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G915" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -25619,7 +25616,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G916" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -25645,7 +25642,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G917" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -25671,7 +25668,7 @@
         <v>23</v>
       </c>
       <c r="G918" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -25697,7 +25694,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G919" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -25723,7 +25720,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G920" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -25749,7 +25746,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G921" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -25775,7 +25772,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G922" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -25801,7 +25798,7 @@
         <v>23.25</v>
       </c>
       <c r="G923" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -25827,7 +25824,7 @@
         <v>23.25</v>
       </c>
       <c r="G924" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -25853,7 +25850,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G925" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -25879,7 +25876,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G926" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -25905,7 +25902,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G927" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -25931,7 +25928,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G928" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -25957,7 +25954,7 @@
         <v>23</v>
       </c>
       <c r="G929" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -25983,7 +25980,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G930" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26009,7 +26006,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G931" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26035,7 +26032,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G932" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26061,7 +26058,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G933" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26087,7 +26084,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G934" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26113,7 +26110,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G935" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26139,7 +26136,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G936" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26165,7 +26162,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G937" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26191,7 +26188,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G938" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26217,7 +26214,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G939" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26243,7 +26240,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G940" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26269,7 +26266,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G941" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26295,7 +26292,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G942" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -26321,7 +26318,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G943" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26347,7 +26344,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G944" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26373,7 +26370,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G945" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26399,7 +26396,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G946" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26425,7 +26422,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G947" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26451,7 +26448,7 @@
         <v>23</v>
       </c>
       <c r="G948" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26477,7 +26474,7 @@
         <v>23.25</v>
       </c>
       <c r="G949" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26503,7 +26500,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G950" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26529,7 +26526,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G951" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26555,7 +26552,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G952" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26581,7 +26578,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G953" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26607,7 +26604,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G954" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26633,7 +26630,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G955" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -26659,7 +26656,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G956" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -26685,7 +26682,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -26711,7 +26708,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G958" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -26737,7 +26734,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G959" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -26763,7 +26760,7 @@
         <v>24.5</v>
       </c>
       <c r="G960" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -26789,7 +26786,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G961" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -26815,7 +26812,7 @@
         <v>24.5</v>
       </c>
       <c r="G962" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -26841,7 +26838,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G963" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -26867,7 +26864,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G964" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -26893,7 +26890,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G965" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -26919,7 +26916,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G966" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -26945,7 +26942,7 @@
         <v>24</v>
       </c>
       <c r="G967" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -26971,7 +26968,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G968" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -26997,7 +26994,7 @@
         <v>24.25</v>
       </c>
       <c r="G969" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -27023,7 +27020,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G970" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27049,7 +27046,7 @@
         <v>24.5</v>
       </c>
       <c r="G971" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27075,7 +27072,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G972" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27101,7 +27098,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G973" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27127,7 +27124,7 @@
         <v>24.5</v>
       </c>
       <c r="G974" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -27153,7 +27150,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G975" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -27179,7 +27176,7 @@
         <v>23.75</v>
       </c>
       <c r="G976" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -27205,7 +27202,7 @@
         <v>23.5</v>
       </c>
       <c r="G977" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -27231,7 +27228,7 @@
         <v>23.25</v>
       </c>
       <c r="G978" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -27257,7 +27254,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G979" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27283,7 +27280,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G980" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27309,7 +27306,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G981" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27335,7 +27332,7 @@
         <v>23</v>
       </c>
       <c r="G982" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -27361,7 +27358,7 @@
         <v>22.75</v>
       </c>
       <c r="G983" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -27387,7 +27384,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G984" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27413,7 +27410,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G985" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27439,7 +27436,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G986" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -27465,7 +27462,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G987" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -27491,7 +27488,7 @@
         <v>22.5</v>
       </c>
       <c r="G988" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -27517,7 +27514,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G989" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -27543,7 +27540,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G990" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -27569,7 +27566,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G991" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -27595,7 +27592,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G992" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -27621,7 +27618,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G993" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -27647,7 +27644,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G994" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -27673,7 +27670,7 @@
         <v>22</v>
       </c>
       <c r="G995" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -27699,7 +27696,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G996" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -27725,7 +27722,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G997" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -27751,7 +27748,7 @@
         <v>22.75</v>
       </c>
       <c r="G998" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -27777,7 +27774,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G999" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -27803,7 +27800,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1000" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -27829,7 +27826,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1001" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -27855,7 +27852,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1002" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -27881,7 +27878,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1003" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -27907,7 +27904,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1004" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -27933,7 +27930,7 @@
         <v>22.25</v>
       </c>
       <c r="G1005" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -27959,7 +27956,7 @@
         <v>22.25</v>
       </c>
       <c r="G1006" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -27985,7 +27982,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1007" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28011,7 +28008,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1008" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28037,7 +28034,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1009" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28063,7 +28060,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1010" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -28089,7 +28086,7 @@
         <v>23</v>
       </c>
       <c r="G1011" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28115,7 +28112,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1012" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28141,7 +28138,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1013" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28167,7 +28164,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1014" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28193,7 +28190,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1015" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28219,7 +28216,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1016" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28245,7 +28242,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1017" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28271,7 +28268,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1018" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28297,7 +28294,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1019" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28323,7 +28320,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1020" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28349,7 +28346,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1021" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28375,7 +28372,7 @@
         <v>23.25</v>
       </c>
       <c r="G1022" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -28401,7 +28398,7 @@
         <v>23</v>
       </c>
       <c r="G1023" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -28427,7 +28424,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1024" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28453,7 +28450,7 @@
         <v>23.25</v>
       </c>
       <c r="G1025" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28479,7 +28476,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1026" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28505,7 +28502,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1027" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28531,7 +28528,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1028" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28557,7 +28554,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G1029" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28583,7 +28580,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1030" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -28609,7 +28606,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1031" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -28635,7 +28632,7 @@
         <v>23.25</v>
       </c>
       <c r="G1032" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28661,7 +28658,7 @@
         <v>24</v>
       </c>
       <c r="G1033" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -28687,7 +28684,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G1034" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -28713,7 +28710,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1035" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -28739,7 +28736,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1036" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -28765,7 +28762,7 @@
         <v>23.5</v>
       </c>
       <c r="G1037" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28791,7 +28788,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1038" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -28817,7 +28814,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1039" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -28843,7 +28840,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1040" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -28869,7 +28866,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1041" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -28895,7 +28892,7 @@
         <v>23.75</v>
       </c>
       <c r="G1042" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -28921,7 +28918,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1043" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -28947,7 +28944,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1044" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -28973,7 +28970,7 @@
         <v>23.5</v>
       </c>
       <c r="G1045" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -28999,7 +28996,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1046" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29025,7 +29022,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1047" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -29051,7 +29048,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1048" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29077,7 +29074,7 @@
         <v>24.25</v>
       </c>
       <c r="G1049" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -29103,7 +29100,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1050" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29129,7 +29126,7 @@
         <v>24.5</v>
       </c>
       <c r="G1051" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29155,7 +29152,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1052" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -29181,7 +29178,7 @@
         <v>24.25</v>
       </c>
       <c r="G1053" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29207,7 +29204,7 @@
         <v>24.25</v>
       </c>
       <c r="G1054" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29233,7 +29230,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1055" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29259,7 +29256,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1056" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29285,7 +29282,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1057" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29311,7 +29308,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1058" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29337,7 +29334,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1059" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29363,7 +29360,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1060" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29389,7 +29386,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1061" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29415,7 +29412,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1062" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29441,7 +29438,7 @@
         <v>24.25</v>
       </c>
       <c r="G1063" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29467,7 +29464,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29493,7 +29490,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1065" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29519,7 +29516,7 @@
         <v>24.5</v>
       </c>
       <c r="G1066" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29545,7 +29542,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G1067" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29571,7 +29568,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1068" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29597,7 +29594,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1069" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29623,7 +29620,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1070" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29649,7 +29646,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1071" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29675,7 +29672,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1072" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -29701,7 +29698,7 @@
         <v>23.75</v>
       </c>
       <c r="G1073" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -29727,7 +29724,7 @@
         <v>23.75</v>
       </c>
       <c r="G1074" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -29753,7 +29750,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1075" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -29779,7 +29776,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1076" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -29805,7 +29802,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1077" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -29831,7 +29828,7 @@
         <v>23.5</v>
       </c>
       <c r="G1078" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -29857,7 +29854,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1079" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -29883,7 +29880,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1080" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -29909,7 +29906,7 @@
         <v>23.5</v>
       </c>
       <c r="G1081" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -29935,7 +29932,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1082" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -29961,7 +29958,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1083" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -29987,7 +29984,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1084" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30013,7 +30010,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1085" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30039,7 +30036,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1086" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -30065,7 +30062,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1087" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30091,7 +30088,7 @@
         <v>23.25</v>
       </c>
       <c r="G1088" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30117,7 +30114,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1089" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -30143,7 +30140,7 @@
         <v>23</v>
       </c>
       <c r="G1090" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30169,7 +30166,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1091" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30195,7 +30192,7 @@
         <v>23.25</v>
       </c>
       <c r="G1092" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30221,7 +30218,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1093" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30247,7 +30244,7 @@
         <v>23.25</v>
       </c>
       <c r="G1094" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30273,7 +30270,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1095" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30299,7 +30296,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1096" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30325,7 +30322,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1097" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30351,7 +30348,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1098" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30377,7 +30374,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1099" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30403,7 +30400,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1100" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30429,7 +30426,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1101" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30455,7 +30452,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1102" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30481,7 +30478,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1103" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30507,7 +30504,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1104" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -30533,7 +30530,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1105" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30559,7 +30556,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1106" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30585,7 +30582,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1107" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30611,7 +30608,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1108" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30637,7 +30634,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1109" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30663,7 +30660,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1110" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -30689,7 +30686,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1111" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30715,7 +30712,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1112" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -30741,7 +30738,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1113" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30767,7 +30764,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1114" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30793,7 +30790,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1115" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30819,7 +30816,7 @@
         <v>22.75</v>
       </c>
       <c r="G1116" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -30845,7 +30842,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1117" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -30871,7 +30868,7 @@
         <v>23</v>
       </c>
       <c r="G1118" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -30897,7 +30894,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -30923,7 +30920,7 @@
         <v>22.5</v>
       </c>
       <c r="G1120" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -30949,7 +30946,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1121" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -30975,7 +30972,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1122" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -31001,7 +30998,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1123" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31027,7 +31024,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1124" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31053,7 +31050,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1125" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31079,7 +31076,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1126" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31105,7 +31102,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1127" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31131,7 +31128,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1128" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31157,7 +31154,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1129" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31183,7 +31180,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1130" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31209,7 +31206,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1131" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31235,7 +31232,7 @@
         <v>22.25</v>
       </c>
       <c r="G1132" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31261,7 +31258,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1133" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31287,7 +31284,7 @@
         <v>21.75</v>
       </c>
       <c r="G1134" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31313,7 +31310,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1135" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31339,7 +31336,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1136" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31365,7 +31362,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1137" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31391,7 +31388,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1138" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31417,7 +31414,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1139" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31443,7 +31440,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1140" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31469,7 +31466,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1141" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31495,7 +31492,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1142" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31521,7 +31518,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1143" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31547,7 +31544,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31573,7 +31570,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1145" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31599,7 +31596,7 @@
         <v>26</v>
       </c>
       <c r="G1146" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31625,7 +31622,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G1147" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31651,7 +31648,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1148" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31677,7 +31674,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1149" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31703,7 +31700,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1150" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -31729,7 +31726,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1151" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31755,7 +31752,7 @@
         <v>25.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31781,7 +31778,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1153" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31807,7 +31804,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1154" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -31833,7 +31830,7 @@
         <v>25.5</v>
       </c>
       <c r="G1155" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -31859,7 +31856,7 @@
         <v>25.5</v>
       </c>
       <c r="G1156" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -31885,7 +31882,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1157" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -31911,7 +31908,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1158" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -31937,7 +31934,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1159" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -31963,7 +31960,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1160" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -31989,7 +31986,7 @@
         <v>25.5</v>
       </c>
       <c r="G1161" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32015,7 +32012,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1162" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32041,7 +32038,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1163" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32067,7 +32064,7 @@
         <v>25.5</v>
       </c>
       <c r="G1164" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32093,7 +32090,7 @@
         <v>25.5</v>
       </c>
       <c r="G1165" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32119,7 +32116,7 @@
         <v>25.5</v>
       </c>
       <c r="G1166" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32145,7 +32142,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1167" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32171,7 +32168,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1168" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32197,7 +32194,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1169" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32223,7 +32220,7 @@
         <v>25.5</v>
       </c>
       <c r="G1170" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32249,7 +32246,7 @@
         <v>25.5</v>
       </c>
       <c r="G1171" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32275,7 +32272,7 @@
         <v>25.5</v>
       </c>
       <c r="G1172" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -32283,7 +32280,7 @@
     </row>
     <row r="1173">
       <c r="A1173" s="1" t="n">
-        <v>45460.6493287037</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B1173" t="n">
         <v>8830</v>
@@ -32301,9 +32298,35 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1173" t="s">
+        <v>483</v>
+      </c>
+      <c r="H1173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="1" t="n">
+        <v>45461.6493981481</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>55583</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="G1174" t="s">
         <v>484</v>
       </c>
-      <c r="H1173" t="s">
+      <c r="H1174" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">SCF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33448791503906</t>
+    <t xml:space="preserve">8.33448886871338</t>
   </si>
   <si>
     <t xml:space="preserve">8.17905235290527</t>
@@ -53,34 +53,34 @@
     <t xml:space="preserve">8.13650321960449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16342258453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10176753997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11045169830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11913681030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16255283355713</t>
+    <t xml:space="preserve">8.16342163085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10176944732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11045360565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11913585662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16255378723145</t>
   </si>
   <si>
     <t xml:space="preserve">8.24070644378662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2493896484375</t>
+    <t xml:space="preserve">8.24938869476318</t>
   </si>
   <si>
     <t xml:space="preserve">8.29280757904053</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50989627838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51163291931152</t>
+    <t xml:space="preserve">8.50989818572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51163387298584</t>
   </si>
   <si>
     <t xml:space="preserve">8.48384571075439</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">8.38398456573486</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3101749420166</t>
+    <t xml:space="preserve">8.31017398834229</t>
   </si>
   <si>
     <t xml:space="preserve">8.42306041717529</t>
@@ -104,61 +104,61 @@
     <t xml:space="preserve">8.89892101287842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8468189239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93886470794678</t>
+    <t xml:space="preserve">8.84681987762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93886375427246</t>
   </si>
   <si>
     <t xml:space="preserve">8.94407558441162</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93539237976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00485897064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97707271575928</t>
+    <t xml:space="preserve">8.93539142608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00485992431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97707366943359</t>
   </si>
   <si>
     <t xml:space="preserve">9.02917385101318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03091144561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98749351501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33483505249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2480001449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46508884429932</t>
+    <t xml:space="preserve">9.03090953826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98749256134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33483600616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24800109863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.465087890625</t>
   </si>
   <si>
     <t xml:space="preserve">9.5953426361084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68217754364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81243324279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72559642791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98610305786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0295209884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76901435852051</t>
+    <t xml:space="preserve">9.68217849731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81243228912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7255973815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98610401153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0295219421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76901340484619</t>
   </si>
   <si>
     <t xml:space="preserve">9.89926719665527</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">9.63876056671143</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55192470550537</t>
+    <t xml:space="preserve">9.55192565917969</t>
   </si>
   <si>
     <t xml:space="preserve">9.16116428375244</t>
@@ -179,7 +179,7 @@
     <t xml:space="preserve">9.29141807556152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07432842254639</t>
+    <t xml:space="preserve">9.0743293762207</t>
   </si>
   <si>
     <t xml:space="preserve">8.57936477661133</t>
@@ -191,28 +191,28 @@
     <t xml:space="preserve">8.85723876953125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77040576934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20458221435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68356704711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45779609680176</t>
+    <t xml:space="preserve">8.77040386199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20458316802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68356800079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45779418945312</t>
   </si>
   <si>
     <t xml:space="preserve">8.40569400787354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51997041702271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0236177444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72837495803833</t>
+    <t xml:space="preserve">7.51996994018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02361679077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72837543487549</t>
   </si>
   <si>
     <t xml:space="preserve">7.98888206481934</t>
@@ -221,52 +221,49 @@
     <t xml:space="preserve">7.8152117729187</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78047704696655</t>
+    <t xml:space="preserve">7.78047752380371</t>
   </si>
   <si>
     <t xml:space="preserve">8.09308528900146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38832664489746</t>
+    <t xml:space="preserve">8.38832569122314</t>
   </si>
   <si>
     <t xml:space="preserve">8.90065670013428</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1177453994751</t>
+    <t xml:space="preserve">9.11774730682373</t>
   </si>
   <si>
     <t xml:space="preserve">8.81382083892822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42167091369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11774635314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02747058868408</t>
+    <t xml:space="preserve">9.42167282104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0274715423584</t>
   </si>
   <si>
     <t xml:space="preserve">9.07260990142822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74967002868652</t>
+    <t xml:space="preserve">9.74966907501221</t>
   </si>
   <si>
     <t xml:space="preserve">10.1559066772461</t>
   </si>
   <si>
-    <t xml:space="preserve">10.291316986084</t>
+    <t xml:space="preserve">10.2913179397583</t>
   </si>
   <si>
     <t xml:space="preserve">10.3815927505493</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4718675613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6072788238525</t>
+    <t xml:space="preserve">10.471866607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6072797775269</t>
   </si>
   <si>
     <t xml:space="preserve">10.5170040130615</t>
@@ -284,10 +281,10 @@
     <t xml:space="preserve">11.2843389511108</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8329668045044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7878284454346</t>
+    <t xml:space="preserve">10.8329658508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7878293991089</t>
   </si>
   <si>
     <t xml:space="preserve">11.1037902832031</t>
@@ -299,7 +296,7 @@
     <t xml:space="preserve">10.9683780670166</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9232425689697</t>
+    <t xml:space="preserve">10.9232416152954</t>
   </si>
   <si>
     <t xml:space="preserve">10.8781032562256</t>
@@ -314,13 +311,13 @@
     <t xml:space="preserve">10.562141418457</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4267301559448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6975536346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3364553451538</t>
+    <t xml:space="preserve">10.4267292022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6975545883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3364543914795</t>
   </si>
   <si>
     <t xml:space="preserve">10.2461814880371</t>
@@ -329,25 +326,25 @@
     <t xml:space="preserve">11.4197511672974</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6454381942749</t>
+    <t xml:space="preserve">11.6454391479492</t>
   </si>
   <si>
     <t xml:space="preserve">11.7357139587402</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5551643371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3746137619019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5100269317627</t>
+    <t xml:space="preserve">11.5551633834839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3746147155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5100259780884</t>
   </si>
   <si>
     <t xml:space="preserve">11.2392024993896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4648885726929</t>
+    <t xml:space="preserve">11.4648895263672</t>
   </si>
   <si>
     <t xml:space="preserve">11.6003017425537</t>
@@ -368,31 +365,31 @@
     <t xml:space="preserve">11.9162626266479</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9614000320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1419486999512</t>
+    <t xml:space="preserve">11.9613990783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1419496536255</t>
   </si>
   <si>
     <t xml:space="preserve">12.457911491394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5481853485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.367636680603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1870861053467</t>
+    <t xml:space="preserve">12.5481863021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3676357269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.187087059021</t>
   </si>
   <si>
     <t xml:space="preserve">12.2773628234863</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5030498504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6384601593018</t>
+    <t xml:space="preserve">12.5030488967896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6384592056274</t>
   </si>
   <si>
     <t xml:space="preserve">12.2322244644165</t>
@@ -401,28 +398,28 @@
     <t xml:space="preserve">12.3224992752075</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6205492019653</t>
+    <t xml:space="preserve">12.620548248291</t>
   </si>
   <si>
     <t xml:space="preserve">12.7136898040771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5274076461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4808368682861</t>
+    <t xml:space="preserve">12.5274085998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4808378219604</t>
   </si>
   <si>
     <t xml:space="preserve">12.6671199798584</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5739774703979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2945566177368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3876972198486</t>
+    <t xml:space="preserve">12.5739784240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2945575714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3876981735229</t>
   </si>
   <si>
     <t xml:space="preserve">12.4342679977417</t>
@@ -431,7 +428,7 @@
     <t xml:space="preserve">12.9465408325195</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1328220367432</t>
+    <t xml:space="preserve">13.1328229904175</t>
   </si>
   <si>
     <t xml:space="preserve">13.1793918609619</t>
@@ -443,7 +440,7 @@
     <t xml:space="preserve">13.2725324630737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4588146209717</t>
+    <t xml:space="preserve">13.4588136672974</t>
   </si>
   <si>
     <t xml:space="preserve">13.5519552230835</t>
@@ -455,16 +452,16 @@
     <t xml:space="preserve">13.5985250473022</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7382364273071</t>
+    <t xml:space="preserve">13.7382354736328</t>
   </si>
   <si>
     <t xml:space="preserve">13.9710874557495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8779458999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3656730651855</t>
+    <t xml:space="preserve">13.8779468536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3656740188599</t>
   </si>
   <si>
     <t xml:space="preserve">13.5053844451904</t>
@@ -485,7 +482,7 @@
     <t xml:space="preserve">14.297080039978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7627820968628</t>
+    <t xml:space="preserve">14.7627830505371</t>
   </si>
   <si>
     <t xml:space="preserve">15.321626663208</t>
@@ -494,37 +491,37 @@
     <t xml:space="preserve">15.6010475158691</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9270391464233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8804693222046</t>
+    <t xml:space="preserve">15.9270401000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8804683685303</t>
   </si>
   <si>
     <t xml:space="preserve">15.8338994979858</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6941871643066</t>
+    <t xml:space="preserve">15.6941890716553</t>
   </si>
   <si>
     <t xml:space="preserve">15.9736089706421</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4393138885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6721649169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9981555938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2310066223145</t>
+    <t xml:space="preserve">16.4393119812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6721630096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9981575012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2310085296631</t>
   </si>
   <si>
     <t xml:space="preserve">16.9515857696533</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4172878265381</t>
+    <t xml:space="preserve">17.4172897338867</t>
   </si>
   <si>
     <t xml:space="preserve">17.6501407623291</t>
@@ -560,10 +557,10 @@
     <t xml:space="preserve">16.2996025085449</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1133213043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.15989112854</t>
+    <t xml:space="preserve">16.1133193969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1598930358887</t>
   </si>
   <si>
     <t xml:space="preserve">17.1844367980957</t>
@@ -572,34 +569,34 @@
     <t xml:space="preserve">17.137866973877</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9050159454346</t>
+    <t xml:space="preserve">16.9050140380859</t>
   </si>
   <si>
     <t xml:space="preserve">17.976131439209</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1624145507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8829936981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8364200592041</t>
+    <t xml:space="preserve">18.1624126434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8829917907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8364219665527</t>
   </si>
   <si>
     <t xml:space="preserve">18.1158447265625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5349750518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6281147003174</t>
+    <t xml:space="preserve">18.5349769592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.628116607666</t>
   </si>
   <si>
     <t xml:space="preserve">18.3486957550049</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5815467834473</t>
+    <t xml:space="preserve">18.5815448760986</t>
   </si>
   <si>
     <t xml:space="preserve">18.9075374603271</t>
@@ -608,16 +605,16 @@
     <t xml:space="preserve">18.4884071350098</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0938186645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2801036834717</t>
+    <t xml:space="preserve">19.0938205718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2800998687744</t>
   </si>
   <si>
     <t xml:space="preserve">20.2115058898926</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1183662414551</t>
+    <t xml:space="preserve">20.1183643341064</t>
   </si>
   <si>
     <t xml:space="preserve">19.8389434814453</t>
@@ -626,37 +623,37 @@
     <t xml:space="preserve">19.7458038330078</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9320850372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6772079467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0252246856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1869602203369</t>
+    <t xml:space="preserve">19.9320831298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.677209854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0252265930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1869621276855</t>
   </si>
   <si>
     <t xml:space="preserve">19.6526622772217</t>
   </si>
   <si>
-    <t xml:space="preserve">21.701753616333</t>
+    <t xml:space="preserve">21.7017555236816</t>
   </si>
   <si>
     <t xml:space="preserve">21.515474319458</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7948951721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4468803405762</t>
+    <t xml:space="preserve">21.7948970794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4468784332275</t>
   </si>
   <si>
     <t xml:space="preserve">22.7263011932373</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5400238037109</t>
+    <t xml:space="preserve">22.5400218963623</t>
   </si>
   <si>
     <t xml:space="preserve">23.2851448059082</t>
@@ -683,13 +680,13 @@
     <t xml:space="preserve">23.5645656585693</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8880348205566</t>
+    <t xml:space="preserve">21.8880367279053</t>
   </si>
   <si>
     <t xml:space="preserve">22.1674575805664</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3537406921387</t>
+    <t xml:space="preserve">22.35373878479</t>
   </si>
   <si>
     <t xml:space="preserve">22.2605991363525</t>
@@ -698,7 +695,7 @@
     <t xml:space="preserve">22.6331615447998</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0497722625732</t>
+    <t xml:space="preserve">21.0497703552246</t>
   </si>
   <si>
     <t xml:space="preserve">21.2360515594482</t>
@@ -719,7 +716,7 @@
     <t xml:space="preserve">20.8634910583496</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0006771087646</t>
+    <t xml:space="preserve">19.0006790161133</t>
   </si>
   <si>
     <t xml:space="preserve">21.1429138183594</t>
@@ -737,7 +734,7 @@
     <t xml:space="preserve">18.7212581634521</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5722332000732</t>
+    <t xml:space="preserve">18.5722312927246</t>
   </si>
   <si>
     <t xml:space="preserve">18.3673229217529</t>
@@ -761,10 +758,10 @@
     <t xml:space="preserve">17.5663146972656</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6594543457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7339687347412</t>
+    <t xml:space="preserve">17.6594524383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7339668273926</t>
   </si>
   <si>
     <t xml:space="preserve">17.9202480316162</t>
@@ -782,13 +779,13 @@
     <t xml:space="preserve">16.8957004547119</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7280464172363</t>
+    <t xml:space="preserve">16.728048324585</t>
   </si>
   <si>
     <t xml:space="preserve">16.54176902771</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3554878234863</t>
+    <t xml:space="preserve">16.3554840087891</t>
   </si>
   <si>
     <t xml:space="preserve">15.722128868103</t>
@@ -800,192 +797,195 @@
     <t xml:space="preserve">15.0515174865723</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770059585571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4613380432129</t>
+    <t xml:space="preserve">14.9770050048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4613370895386</t>
   </si>
   <si>
     <t xml:space="preserve">15.1446590423584</t>
   </si>
   <si>
+    <t xml:space="preserve">16.5231380462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0968570709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5940837860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5367126464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.364595413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1542320251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1678047180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9574394226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5502834320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1295547485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.454662322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7224006652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3781661987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6459045410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8426952362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7470741271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4410915374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4602165222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5040149688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0450401306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7964277267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.025915145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6816825866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2362785339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3892707824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.274528503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8920488357544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7199325561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2171535491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0067901611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1215362548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9111700057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8729238510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8346738815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6051864624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2992029190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5095663070679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7335033416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1159820556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.752628326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.00124168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0394878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1486797332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8235702514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6323337554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7088279724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7279510498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8809432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4028434753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7143783569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9629917144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8099994659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9056205749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8291244506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.88649559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1733531951904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9821166992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.637882232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2554035186768</t>
+  </si>
+  <si>
     <t xml:space="preserve">16.5231399536133</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0968589782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5940837860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5367107391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.364595413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1542320251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1678047180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9574394226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5502834320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1295547485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.454662322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7224006652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3781681060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6459045410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8426952362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7470741271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4410915374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4602165222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5040149688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0450401306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7964277267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.025915145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6816825866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2362785339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3892707824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.274528503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8920469284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.719931602478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.217155456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0067901611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1215343475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9111700057983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8729248046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8346748352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6051874160767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2992029190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5095663070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7335033416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1159839630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.752628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0012397766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0394859313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1486797332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8235721588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6323318481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7088279724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7279510498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8809432983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4028434753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7143783569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9629917144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8099994659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9056205749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.829122543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.88649559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1733531951904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9821166992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.637882232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2554035186768</t>
-  </si>
-  <si>
     <t xml:space="preserve">16.9247436523438</t>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">15.5860624313354</t>
   </si>
   <si>
-    <t xml:space="preserve">14.68723487854</t>
+    <t xml:space="preserve">14.6872339248657</t>
   </si>
   <si>
     <t xml:space="preserve">14.1900110244751</t>
@@ -1010,7 +1010,7 @@
     <t xml:space="preserve">13.6736631393433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6545381546021</t>
+    <t xml:space="preserve">13.6545391082764</t>
   </si>
   <si>
     <t xml:space="preserve">13.3485546112061</t>
@@ -1022,28 +1022,28 @@
     <t xml:space="preserve">13.0999422073364</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5644702911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4250497817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4768705368042</t>
+    <t xml:space="preserve">12.564471244812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4250507354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4768714904785</t>
   </si>
   <si>
     <t xml:space="preserve">14.4386234283447</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708869934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9413995742798</t>
+    <t xml:space="preserve">14.1708860397339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9413986206055</t>
   </si>
   <si>
     <t xml:space="preserve">13.9987716674805</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2473821640015</t>
+    <t xml:space="preserve">14.2473831176758</t>
   </si>
   <si>
     <t xml:space="preserve">14.2282590866089</t>
@@ -1052,16 +1052,16 @@
     <t xml:space="preserve">14.8593511581421</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0888395309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4713191986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3948230743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4521942138672</t>
+    <t xml:space="preserve">15.0888385772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4713201522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3948240280151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4521951675415</t>
   </si>
   <si>
     <t xml:space="preserve">15.3183279037476</t>
@@ -1088,28 +1088,28 @@
     <t xml:space="preserve">15.5669393539429</t>
   </si>
   <si>
-    <t xml:space="preserve">16.083288192749</t>
+    <t xml:space="preserve">16.0832862854004</t>
   </si>
   <si>
     <t xml:space="preserve">16.1980323791504</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7908763885498</t>
+    <t xml:space="preserve">16.7908744812012</t>
   </si>
   <si>
     <t xml:space="preserve">16.5805110931396</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1351089477539</t>
+    <t xml:space="preserve">17.1351070404053</t>
   </si>
   <si>
     <t xml:space="preserve">17.0203628540039</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6187591552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5613880157471</t>
+    <t xml:space="preserve">16.6187572479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5613861083984</t>
   </si>
   <si>
     <t xml:space="preserve">16.6761322021484</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">16.9438667297363</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4657649993896</t>
+    <t xml:space="preserve">16.4657669067383</t>
   </si>
   <si>
     <t xml:space="preserve">16.159782409668</t>
@@ -1130,10 +1130,10 @@
     <t xml:space="preserve">16.3318996429443</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1024131774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9876670837402</t>
+    <t xml:space="preserve">16.1024112701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9876661300659</t>
   </si>
   <si>
     <t xml:space="preserve">16.4466457366943</t>
@@ -1148,13 +1148,13 @@
     <t xml:space="preserve">17.3072242736816</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5175857543945</t>
+    <t xml:space="preserve">17.5175876617432</t>
   </si>
   <si>
     <t xml:space="preserve">17.7661991119385</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0721817016602</t>
+    <t xml:space="preserve">18.0721836090088</t>
   </si>
   <si>
     <t xml:space="preserve">17.7853240966797</t>
@@ -1163,10 +1163,10 @@
     <t xml:space="preserve">17.8618202209473</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3837184906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8044490814209</t>
+    <t xml:space="preserve">17.3837203979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8044471740723</t>
   </si>
   <si>
     <t xml:space="preserve">17.498462677002</t>
@@ -1175,13 +1175,13 @@
     <t xml:space="preserve">17.6897029876709</t>
   </si>
   <si>
-    <t xml:space="preserve">17.479341506958</t>
+    <t xml:space="preserve">17.4793395996094</t>
   </si>
   <si>
     <t xml:space="preserve">17.2307281494141</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0586109161377</t>
+    <t xml:space="preserve">17.0586128234863</t>
   </si>
   <si>
     <t xml:space="preserve">17.2116031646729</t>
@@ -1190,10 +1190,10 @@
     <t xml:space="preserve">17.4219665527344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3590450286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2251739501953</t>
+    <t xml:space="preserve">18.3590431213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2251758575439</t>
   </si>
   <si>
     <t xml:space="preserve">18.9327621459961</t>
@@ -1211,7 +1211,7 @@
     <t xml:space="preserve">20.1758232116699</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4148750305176</t>
+    <t xml:space="preserve">20.4148731231689</t>
   </si>
   <si>
     <t xml:space="preserve">20.5104942321777</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">20.2236347198486</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7933464050293</t>
+    <t xml:space="preserve">19.7933444976807</t>
   </si>
   <si>
     <t xml:space="preserve">19.6021041870117</t>
@@ -1244,16 +1244,16 @@
     <t xml:space="preserve">20.7495441436768</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6539249420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7973537445068</t>
+    <t xml:space="preserve">20.653923034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7973556518555</t>
   </si>
   <si>
     <t xml:space="preserve">20.7017345428467</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0364036560059</t>
+    <t xml:space="preserve">21.0364055633545</t>
   </si>
   <si>
     <t xml:space="preserve">20.8451633453369</t>
@@ -5180,7 +5180,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G130" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H130" t="s">
         <v>9</v>
@@ -5206,7 +5206,7 @@
         <v>10</v>
       </c>
       <c r="G131" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -5232,7 +5232,7 @@
         <v>10</v>
       </c>
       <c r="G132" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -5258,7 +5258,7 @@
         <v>10</v>
       </c>
       <c r="G133" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -5284,7 +5284,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G134" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -5310,7 +5310,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G135" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -5336,7 +5336,7 @@
         <v>11.25</v>
       </c>
       <c r="G136" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -5362,7 +5362,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G137" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -5388,7 +5388,7 @@
         <v>11.5</v>
       </c>
       <c r="G138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -5414,7 +5414,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G139" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -5440,7 +5440,7 @@
         <v>11.75</v>
       </c>
       <c r="G140" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -5466,7 +5466,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G141" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -5492,7 +5492,7 @@
         <v>11.5</v>
       </c>
       <c r="G142" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -5518,7 +5518,7 @@
         <v>11.75</v>
       </c>
       <c r="G143" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -5544,7 +5544,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G144" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -5570,7 +5570,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G145" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -5596,7 +5596,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G146" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -5622,7 +5622,7 @@
         <v>12.5</v>
       </c>
       <c r="G147" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -5648,7 +5648,7 @@
         <v>12</v>
       </c>
       <c r="G148" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -5674,7 +5674,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G149" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -5700,7 +5700,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G150" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -5726,7 +5726,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G151" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -5752,7 +5752,7 @@
         <v>12.5</v>
       </c>
       <c r="G152" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -5778,7 +5778,7 @@
         <v>12.25</v>
       </c>
       <c r="G153" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -5804,7 +5804,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G154" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -5830,7 +5830,7 @@
         <v>12.5</v>
       </c>
       <c r="G155" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -5856,7 +5856,7 @@
         <v>12.25</v>
       </c>
       <c r="G156" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -5882,7 +5882,7 @@
         <v>12</v>
       </c>
       <c r="G157" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -5908,7 +5908,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G158" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -5934,7 +5934,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G159" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -5960,7 +5960,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G160" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -5986,7 +5986,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G161" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -6012,7 +6012,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G162" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -6038,7 +6038,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G163" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -6064,7 +6064,7 @@
         <v>12</v>
       </c>
       <c r="G164" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -6090,7 +6090,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G165" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -6116,7 +6116,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G166" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -6142,7 +6142,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G167" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -6168,7 +6168,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G168" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -6194,7 +6194,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G169" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -6220,7 +6220,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G170" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -6246,7 +6246,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G171" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -6272,7 +6272,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G172" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -6298,7 +6298,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G173" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -6324,7 +6324,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G174" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -6350,7 +6350,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G175" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -6376,7 +6376,7 @@
         <v>12</v>
       </c>
       <c r="G176" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -6402,7 +6402,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G177" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -6428,7 +6428,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G178" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -6454,7 +6454,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G179" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -6480,7 +6480,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G180" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -6506,7 +6506,7 @@
         <v>11.75</v>
       </c>
       <c r="G181" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -6532,7 +6532,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G182" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -6558,7 +6558,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G183" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -6584,7 +6584,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G184" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -6610,7 +6610,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G185" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -6636,7 +6636,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G186" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -6662,7 +6662,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G187" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -6688,7 +6688,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G188" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -6714,7 +6714,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G189" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -6740,7 +6740,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G190" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -6766,7 +6766,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G191" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -6792,7 +6792,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G192" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -6818,7 +6818,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G193" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -6844,7 +6844,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G194" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -6870,7 +6870,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G195" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -6896,7 +6896,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G196" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -6922,7 +6922,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G197" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -6948,7 +6948,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G198" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -6974,7 +6974,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G199" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -7000,7 +7000,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G200" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -7026,7 +7026,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G201" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -7052,7 +7052,7 @@
         <v>11.75</v>
       </c>
       <c r="G202" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7078,7 +7078,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G203" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7104,7 +7104,7 @@
         <v>11.75</v>
       </c>
       <c r="G204" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -7130,7 +7130,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G205" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -7156,7 +7156,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G206" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -7182,7 +7182,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G207" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -7208,7 +7208,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G208" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -7234,7 +7234,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G209" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -7260,7 +7260,7 @@
         <v>12.25</v>
       </c>
       <c r="G210" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -7286,7 +7286,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G211" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -7312,7 +7312,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G212" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -7338,7 +7338,7 @@
         <v>12.25</v>
       </c>
       <c r="G213" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -7364,7 +7364,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G214" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -7390,7 +7390,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G215" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -7416,7 +7416,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G216" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -7442,7 +7442,7 @@
         <v>12.5</v>
       </c>
       <c r="G217" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -7468,7 +7468,7 @@
         <v>12.5</v>
       </c>
       <c r="G218" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -7494,7 +7494,7 @@
         <v>12.25</v>
       </c>
       <c r="G219" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -7520,7 +7520,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G220" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -7546,7 +7546,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G221" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -7572,7 +7572,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G222" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -7598,7 +7598,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G223" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -7624,7 +7624,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G224" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -7650,7 +7650,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G225" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -7676,7 +7676,7 @@
         <v>12.25</v>
       </c>
       <c r="G226" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -7702,7 +7702,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G227" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -7728,7 +7728,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G228" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -7754,7 +7754,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G229" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -7780,7 +7780,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G230" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -7806,7 +7806,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G231" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -7832,7 +7832,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G232" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -7858,7 +7858,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G233" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -7884,7 +7884,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G234" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -7910,7 +7910,7 @@
         <v>11.75</v>
       </c>
       <c r="G235" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -7936,7 +7936,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G236" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -7962,7 +7962,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G237" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -7988,7 +7988,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G238" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8014,7 +8014,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G239" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8040,7 +8040,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G240" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8066,7 +8066,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G241" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8092,7 +8092,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G242" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8118,7 +8118,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G243" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -8144,7 +8144,7 @@
         <v>11.75</v>
       </c>
       <c r="G244" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -8170,7 +8170,7 @@
         <v>11.75</v>
       </c>
       <c r="G245" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -8196,7 +8196,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G246" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -8222,7 +8222,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G247" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -8248,7 +8248,7 @@
         <v>11.25</v>
       </c>
       <c r="G248" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -8274,7 +8274,7 @@
         <v>11.75</v>
       </c>
       <c r="G249" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -8300,7 +8300,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G250" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -8326,7 +8326,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G251" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -8352,7 +8352,7 @@
         <v>11.5</v>
       </c>
       <c r="G252" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -8378,7 +8378,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G253" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -8404,7 +8404,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G254" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -8430,7 +8430,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G255" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -8456,7 +8456,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G256" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -8482,7 +8482,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G257" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -8508,7 +8508,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G258" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -8534,7 +8534,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G259" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -8560,7 +8560,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G260" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -8586,7 +8586,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G261" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -8612,7 +8612,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G262" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -8638,7 +8638,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G263" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -8664,7 +8664,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G264" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -8690,7 +8690,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G265" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -8716,7 +8716,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G266" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -8742,7 +8742,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G267" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -8768,7 +8768,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G268" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -8794,7 +8794,7 @@
         <v>12</v>
       </c>
       <c r="G269" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -8820,7 +8820,7 @@
         <v>12</v>
       </c>
       <c r="G270" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -8846,7 +8846,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G271" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -8872,7 +8872,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G272" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -8898,7 +8898,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G273" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -8924,7 +8924,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G274" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -8950,7 +8950,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G275" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -8976,7 +8976,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G276" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9002,7 +9002,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G277" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9028,7 +9028,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G278" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9054,7 +9054,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G279" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9080,7 +9080,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G280" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9106,7 +9106,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G281" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -9132,7 +9132,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G282" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -9158,7 +9158,7 @@
         <v>11.5</v>
       </c>
       <c r="G283" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -9184,7 +9184,7 @@
         <v>11.5</v>
       </c>
       <c r="G284" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -9210,7 +9210,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -9236,7 +9236,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G286" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -9262,7 +9262,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G287" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -9288,7 +9288,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G288" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -9314,7 +9314,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G289" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -9340,7 +9340,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G290" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -9366,7 +9366,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G291" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -9392,7 +9392,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G292" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -9418,7 +9418,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G293" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -9444,7 +9444,7 @@
         <v>11.5</v>
       </c>
       <c r="G294" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -9470,7 +9470,7 @@
         <v>11.5</v>
       </c>
       <c r="G295" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -9496,7 +9496,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G296" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -9522,7 +9522,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G297" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -9548,7 +9548,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G298" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -9574,7 +9574,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G299" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -9600,7 +9600,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G300" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -9626,7 +9626,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G301" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -9652,7 +9652,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G302" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -9678,7 +9678,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G303" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -9704,7 +9704,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G304" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -9730,7 +9730,7 @@
         <v>12</v>
       </c>
       <c r="G305" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -9756,7 +9756,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G306" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -9782,7 +9782,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G307" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -9808,7 +9808,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G308" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -9834,7 +9834,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G309" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -9860,7 +9860,7 @@
         <v>12</v>
       </c>
       <c r="G310" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -9886,7 +9886,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G311" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -9912,7 +9912,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G312" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -9938,7 +9938,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G313" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -9964,7 +9964,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G314" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -9990,7 +9990,7 @@
         <v>12</v>
       </c>
       <c r="G315" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10016,7 +10016,7 @@
         <v>12</v>
       </c>
       <c r="G316" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10042,7 +10042,7 @@
         <v>12</v>
       </c>
       <c r="G317" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10068,7 +10068,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G318" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -10094,7 +10094,7 @@
         <v>12.25</v>
       </c>
       <c r="G319" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10120,7 +10120,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G320" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -10146,7 +10146,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G321" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -10172,7 +10172,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G322" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -10198,7 +10198,7 @@
         <v>13</v>
       </c>
       <c r="G323" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -10224,7 +10224,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G324" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -10250,7 +10250,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G325" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -10276,7 +10276,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G326" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -10302,7 +10302,7 @@
         <v>12.75</v>
       </c>
       <c r="G327" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -10328,7 +10328,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G328" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -10354,7 +10354,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G329" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -10380,7 +10380,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G330" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -10406,7 +10406,7 @@
         <v>12.75</v>
       </c>
       <c r="G331" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -10432,7 +10432,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G332" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -10458,7 +10458,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G333" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -10484,7 +10484,7 @@
         <v>12.5</v>
       </c>
       <c r="G334" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -10510,7 +10510,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G335" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -10536,7 +10536,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G336" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -10562,7 +10562,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G337" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -10588,7 +10588,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G338" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -10614,7 +10614,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G339" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -10640,7 +10640,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G340" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -10666,7 +10666,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G341" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -10692,7 +10692,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G342" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -10718,7 +10718,7 @@
         <v>12.75</v>
       </c>
       <c r="G343" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -10744,7 +10744,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G344" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -10770,7 +10770,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G345" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -10796,7 +10796,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G346" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -10822,7 +10822,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G347" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -10848,7 +10848,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G348" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -10874,7 +10874,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G349" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -10900,7 +10900,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G350" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -10926,7 +10926,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G351" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -10952,7 +10952,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G352" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -10978,7 +10978,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G353" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11004,7 +11004,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G354" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -11030,7 +11030,7 @@
         <v>13</v>
       </c>
       <c r="G355" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11056,7 +11056,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G356" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11082,7 +11082,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G357" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11108,7 +11108,7 @@
         <v>12.75</v>
       </c>
       <c r="G358" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11134,7 +11134,7 @@
         <v>13</v>
       </c>
       <c r="G359" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -11160,7 +11160,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G360" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -11186,7 +11186,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G361" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -11212,7 +11212,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G362" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -11238,7 +11238,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G363" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -11264,7 +11264,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G364" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -11290,7 +11290,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G365" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -11316,7 +11316,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G366" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -11342,7 +11342,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G367" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -11368,7 +11368,7 @@
         <v>13.25</v>
       </c>
       <c r="G368" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -11394,7 +11394,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G369" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -11420,7 +11420,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G370" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -11446,7 +11446,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G371" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -11472,7 +11472,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G372" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -11498,7 +11498,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G373" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -11524,7 +11524,7 @@
         <v>13.5</v>
       </c>
       <c r="G374" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -11550,7 +11550,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G375" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -11576,7 +11576,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G376" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -11602,7 +11602,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G377" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -11628,7 +11628,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G378" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -11654,7 +11654,7 @@
         <v>14</v>
       </c>
       <c r="G379" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -11680,7 +11680,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G380" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -11706,7 +11706,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G381" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -11732,7 +11732,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G382" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -11758,7 +11758,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G383" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -11784,7 +11784,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G384" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -11810,7 +11810,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G385" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -11836,7 +11836,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G386" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -11862,7 +11862,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G387" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -11888,7 +11888,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G388" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -11914,7 +11914,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G389" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -11940,7 +11940,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G390" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -11966,7 +11966,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G391" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -11992,7 +11992,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G392" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12018,7 +12018,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G393" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12044,7 +12044,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G394" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12070,7 +12070,7 @@
         <v>13.5</v>
       </c>
       <c r="G395" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12096,7 +12096,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G396" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12122,7 +12122,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G397" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12148,7 +12148,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G398" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12174,7 +12174,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G399" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -12200,7 +12200,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G400" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -12226,7 +12226,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G401" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -12252,7 +12252,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G402" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -12278,7 +12278,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G403" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -12304,7 +12304,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G404" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -12330,7 +12330,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G405" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -12356,7 +12356,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G406" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -12382,7 +12382,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G407" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -12408,7 +12408,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G408" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -12434,7 +12434,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G409" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -12460,7 +12460,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G410" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -12486,7 +12486,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G411" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -12512,7 +12512,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G412" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -12538,7 +12538,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G413" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -12564,7 +12564,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G414" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -12590,7 +12590,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G415" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -12616,7 +12616,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G416" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -12642,7 +12642,7 @@
         <v>14.25</v>
       </c>
       <c r="G417" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -12668,7 +12668,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G418" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -12694,7 +12694,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G419" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -12720,7 +12720,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G420" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -12746,7 +12746,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G421" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -12772,7 +12772,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G422" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -12798,7 +12798,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G423" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -12824,7 +12824,7 @@
         <v>14.75</v>
       </c>
       <c r="G424" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -12850,7 +12850,7 @@
         <v>15</v>
       </c>
       <c r="G425" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -12876,7 +12876,7 @@
         <v>15</v>
       </c>
       <c r="G426" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -12902,7 +12902,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G427" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -12928,7 +12928,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G428" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -12954,7 +12954,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G429" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -12980,7 +12980,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G430" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13006,7 +13006,7 @@
         <v>14.5</v>
       </c>
       <c r="G431" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13032,7 +13032,7 @@
         <v>14.5</v>
       </c>
       <c r="G432" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13058,7 +13058,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G433" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13084,7 +13084,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G434" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13110,7 +13110,7 @@
         <v>14.6499996185303</v>
       </c>
       <c r="G435" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13136,7 +13136,7 @@
         <v>14.75</v>
       </c>
       <c r="G436" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13162,7 +13162,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G437" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -13188,7 +13188,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G438" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -13214,7 +13214,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G439" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -13240,7 +13240,7 @@
         <v>14.75</v>
       </c>
       <c r="G440" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -13266,7 +13266,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G441" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -13292,7 +13292,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G442" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -13318,7 +13318,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G443" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -13344,7 +13344,7 @@
         <v>15.8500003814697</v>
       </c>
       <c r="G444" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -13370,7 +13370,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G445" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -13396,7 +13396,7 @@
         <v>16.75</v>
       </c>
       <c r="G446" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -13422,7 +13422,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G447" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -13448,7 +13448,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G448" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -13474,7 +13474,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G449" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -13500,7 +13500,7 @@
         <v>17</v>
       </c>
       <c r="G450" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -13526,7 +13526,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G451" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -13552,7 +13552,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G452" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -13578,7 +13578,7 @@
         <v>16.75</v>
       </c>
       <c r="G453" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -13604,7 +13604,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G454" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -13630,7 +13630,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G455" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -13656,7 +13656,7 @@
         <v>17.6499996185303</v>
       </c>
       <c r="G456" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -13682,7 +13682,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G457" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -13708,7 +13708,7 @@
         <v>18.25</v>
       </c>
       <c r="G458" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -13734,7 +13734,7 @@
         <v>18.5</v>
       </c>
       <c r="G459" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -13760,7 +13760,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G460" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -13786,7 +13786,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G461" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -13812,7 +13812,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G462" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -13838,7 +13838,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G463" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -13864,7 +13864,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G464" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -13890,7 +13890,7 @@
         <v>18.75</v>
       </c>
       <c r="G465" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -13916,7 +13916,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G466" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -13942,7 +13942,7 @@
         <v>18.25</v>
       </c>
       <c r="G467" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -13968,7 +13968,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G468" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -13994,7 +13994,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G469" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14020,7 +14020,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G470" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14046,7 +14046,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G471" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14072,7 +14072,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G472" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14098,7 +14098,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G473" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14124,7 +14124,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G474" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14150,7 +14150,7 @@
         <v>18</v>
       </c>
       <c r="G475" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -14176,7 +14176,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G476" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -14202,7 +14202,7 @@
         <v>18</v>
       </c>
       <c r="G477" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -14228,7 +14228,7 @@
         <v>18.25</v>
       </c>
       <c r="G478" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -14254,7 +14254,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G479" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -14280,7 +14280,7 @@
         <v>17.5</v>
       </c>
       <c r="G480" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -14306,7 +14306,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G481" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -14332,7 +14332,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G482" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -14358,7 +14358,7 @@
         <v>18.75</v>
       </c>
       <c r="G483" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -14384,7 +14384,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G484" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -14410,7 +14410,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G485" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -14436,7 +14436,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G486" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -14462,7 +14462,7 @@
         <v>18.75</v>
       </c>
       <c r="G487" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -14488,7 +14488,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G488" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -14514,7 +14514,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G489" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -14540,7 +14540,7 @@
         <v>18.5</v>
       </c>
       <c r="G490" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -14566,7 +14566,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G491" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -14592,7 +14592,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G492" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -14618,7 +14618,7 @@
         <v>19.5</v>
       </c>
       <c r="G493" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -14644,7 +14644,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G494" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -14670,7 +14670,7 @@
         <v>19.1499996185303</v>
       </c>
       <c r="G495" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -14696,7 +14696,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G496" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -14722,7 +14722,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G497" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -14748,7 +14748,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G498" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -14774,7 +14774,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G499" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -14800,7 +14800,7 @@
         <v>20</v>
       </c>
       <c r="G500" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -14826,7 +14826,7 @@
         <v>20</v>
       </c>
       <c r="G501" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -14852,7 +14852,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G502" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -14878,7 +14878,7 @@
         <v>20</v>
       </c>
       <c r="G503" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -14904,7 +14904,7 @@
         <v>19.9500007629395</v>
       </c>
       <c r="G504" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -14930,7 +14930,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G505" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -14956,7 +14956,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G506" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -14982,7 +14982,7 @@
         <v>20.5</v>
       </c>
       <c r="G507" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15008,7 +15008,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G508" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15034,7 +15034,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G509" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15060,7 +15060,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G510" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15086,7 +15086,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G511" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15112,7 +15112,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G512" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15138,7 +15138,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G513" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15164,7 +15164,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G514" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -15190,7 +15190,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G515" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -15216,7 +15216,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G516" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -15242,7 +15242,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G517" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -15268,7 +15268,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G518" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -15294,7 +15294,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G519" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -15320,7 +15320,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G520" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -15346,7 +15346,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G521" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -15372,7 +15372,7 @@
         <v>21.5</v>
       </c>
       <c r="G522" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -15398,7 +15398,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G523" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -15424,7 +15424,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -15450,7 +15450,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G525" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -15476,7 +15476,7 @@
         <v>21.5</v>
       </c>
       <c r="G526" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -15502,7 +15502,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G527" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -15528,7 +15528,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G528" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -15554,7 +15554,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G529" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -15580,7 +15580,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G530" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -15606,7 +15606,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G531" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -15632,7 +15632,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G532" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -15658,7 +15658,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G533" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -15684,7 +15684,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G534" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -15710,7 +15710,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G535" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -15736,7 +15736,7 @@
         <v>25</v>
       </c>
       <c r="G536" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -15762,7 +15762,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G537" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -15788,7 +15788,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G538" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -15814,7 +15814,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G539" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -15840,7 +15840,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G540" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -15866,7 +15866,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G541" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -15892,7 +15892,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G542" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -15918,7 +15918,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G543" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -15944,7 +15944,7 @@
         <v>24.5</v>
       </c>
       <c r="G544" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -15970,7 +15970,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G545" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -15996,7 +15996,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G546" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16022,7 +16022,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G547" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16048,7 +16048,7 @@
         <v>25</v>
       </c>
       <c r="G548" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16074,7 +16074,7 @@
         <v>24.5</v>
       </c>
       <c r="G549" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16100,7 +16100,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G550" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16126,7 +16126,7 @@
         <v>25</v>
       </c>
       <c r="G551" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16152,7 +16152,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G552" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16178,7 +16178,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G553" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -16204,7 +16204,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G554" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -16230,7 +16230,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G555" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -16256,7 +16256,7 @@
         <v>24.5</v>
       </c>
       <c r="G556" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -16282,7 +16282,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G557" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -16308,7 +16308,7 @@
         <v>24.5</v>
       </c>
       <c r="G558" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -16334,7 +16334,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G559" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -16360,7 +16360,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G560" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -16386,7 +16386,7 @@
         <v>25</v>
       </c>
       <c r="G561" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -16412,7 +16412,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G562" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -16438,7 +16438,7 @@
         <v>23.5</v>
       </c>
       <c r="G563" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -16464,7 +16464,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G564" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -16490,7 +16490,7 @@
         <v>24</v>
       </c>
       <c r="G565" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -16516,7 +16516,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G566" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -16542,7 +16542,7 @@
         <v>24</v>
       </c>
       <c r="G567" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -16568,7 +16568,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G568" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -16594,7 +16594,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G569" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -16620,7 +16620,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G570" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -16646,7 +16646,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G571" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -16672,7 +16672,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G572" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -16698,7 +16698,7 @@
         <v>23.5</v>
       </c>
       <c r="G573" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -16724,7 +16724,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G574" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -16750,7 +16750,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G575" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -16776,7 +16776,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G576" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -16802,7 +16802,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G577" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -16828,7 +16828,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G578" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -16854,7 +16854,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G579" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -16880,7 +16880,7 @@
         <v>23</v>
       </c>
       <c r="G580" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -16906,7 +16906,7 @@
         <v>23</v>
       </c>
       <c r="G581" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -16932,7 +16932,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G582" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -16958,7 +16958,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G583" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -16984,7 +16984,7 @@
         <v>21.5</v>
       </c>
       <c r="G584" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17010,7 +17010,7 @@
         <v>20.5</v>
       </c>
       <c r="G585" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17036,7 +17036,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G586" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17062,7 +17062,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G587" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17088,7 +17088,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G588" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17114,7 +17114,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G589" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17140,7 +17140,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G590" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17166,7 +17166,7 @@
         <v>19.5</v>
       </c>
       <c r="G591" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -17192,7 +17192,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G592" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -17218,7 +17218,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G593" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -17244,7 +17244,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G594" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -17270,7 +17270,7 @@
         <v>20</v>
       </c>
       <c r="G595" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -17296,7 +17296,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G596" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -17322,7 +17322,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G597" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -17348,7 +17348,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G598" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -17374,7 +17374,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G599" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -17400,7 +17400,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G600" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -17426,7 +17426,7 @@
         <v>20</v>
       </c>
       <c r="G601" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -17452,7 +17452,7 @@
         <v>21</v>
       </c>
       <c r="G602" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -17478,7 +17478,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G603" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -17504,7 +17504,7 @@
         <v>20.5</v>
       </c>
       <c r="G604" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -17530,7 +17530,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G605" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -17556,7 +17556,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G606" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -17582,7 +17582,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G607" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -17608,7 +17608,7 @@
         <v>20.5</v>
       </c>
       <c r="G608" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -17634,7 +17634,7 @@
         <v>20.5</v>
       </c>
       <c r="G609" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -17660,7 +17660,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G610" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -17686,7 +17686,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G611" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -17712,7 +17712,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G612" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -17738,7 +17738,7 @@
         <v>18.9200000762939</v>
       </c>
       <c r="G613" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -17764,7 +17764,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G614" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -17790,7 +17790,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G615" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -17816,7 +17816,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G616" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -17842,7 +17842,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G617" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -17868,7 +17868,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G618" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -17894,7 +17894,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G619" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -17920,7 +17920,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G620" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -17946,7 +17946,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G621" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -17972,7 +17972,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G622" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -17998,7 +17998,7 @@
         <v>19.2399997711182</v>
       </c>
       <c r="G623" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18024,7 +18024,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G624" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18050,7 +18050,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18076,7 +18076,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G626" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18102,7 +18102,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G627" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18128,7 +18128,7 @@
         <v>18</v>
       </c>
       <c r="G628" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18154,7 +18154,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G629" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18180,7 +18180,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G630" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -18206,7 +18206,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G631" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -18232,7 +18232,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G632" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -18258,7 +18258,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G633" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -18284,7 +18284,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G634" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -18310,7 +18310,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G635" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -18336,7 +18336,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G636" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -18362,7 +18362,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G637" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -18388,7 +18388,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G638" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -18414,7 +18414,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G639" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -18440,7 +18440,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G640" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -18466,7 +18466,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G641" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -18492,7 +18492,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G642" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -18518,7 +18518,7 @@
         <v>18.1599998474121</v>
       </c>
       <c r="G643" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -18544,7 +18544,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G644" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -18570,7 +18570,7 @@
         <v>19</v>
       </c>
       <c r="G645" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -18596,7 +18596,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G646" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -18622,7 +18622,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G647" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -18648,7 +18648,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G648" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -18674,7 +18674,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G649" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -18700,7 +18700,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G650" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -18726,7 +18726,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G651" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -18752,7 +18752,7 @@
         <v>19.2199993133545</v>
       </c>
       <c r="G652" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -18778,7 +18778,7 @@
         <v>19.5</v>
       </c>
       <c r="G653" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -18804,7 +18804,7 @@
         <v>19</v>
       </c>
       <c r="G654" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -18830,7 +18830,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G655" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -18856,7 +18856,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G656" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -18882,7 +18882,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G657" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -18908,7 +18908,7 @@
         <v>18.2600002288818</v>
       </c>
       <c r="G658" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -18934,7 +18934,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G659" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -18960,7 +18960,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G660" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -18986,7 +18986,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G661" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19012,7 +19012,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G662" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19038,7 +19038,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G663" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19064,7 +19064,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G664" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19090,7 +19090,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G665" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19116,7 +19116,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G666" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19142,7 +19142,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G667" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19168,7 +19168,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G668" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -19194,7 +19194,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G669" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19220,7 +19220,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G670" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -19246,7 +19246,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G671" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -19272,7 +19272,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G672" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -19298,7 +19298,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G673" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -19324,7 +19324,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G674" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -19350,7 +19350,7 @@
         <v>16.3199996948242</v>
       </c>
       <c r="G675" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -19376,7 +19376,7 @@
         <v>16</v>
       </c>
       <c r="G676" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -19402,7 +19402,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G677" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -19428,7 +19428,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G678" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -19454,7 +19454,7 @@
         <v>17.5</v>
       </c>
       <c r="G679" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -19480,7 +19480,7 @@
         <v>17.5</v>
       </c>
       <c r="G680" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -19506,7 +19506,7 @@
         <v>17.5</v>
       </c>
       <c r="G681" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -19532,7 +19532,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G682" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -19558,7 +19558,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G683" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -19584,7 +19584,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G684" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -19610,7 +19610,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G685" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -19636,7 +19636,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G686" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -19662,7 +19662,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G687" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -19688,7 +19688,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G688" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -19714,7 +19714,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G689" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -19740,7 +19740,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G690" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -19766,7 +19766,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G691" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -19792,7 +19792,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G692" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -19818,7 +19818,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G693" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -19844,7 +19844,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G694" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -19870,7 +19870,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G695" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -19896,7 +19896,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G696" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -19922,7 +19922,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G697" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -19948,7 +19948,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -19974,7 +19974,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G699" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20000,7 +20000,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G700" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20026,7 +20026,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G701" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20052,7 +20052,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G702" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20078,7 +20078,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G703" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20104,7 +20104,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G704" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20130,7 +20130,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G705" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20156,7 +20156,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G706" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -20182,7 +20182,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G707" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -20208,7 +20208,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G708" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20234,7 +20234,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G709" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20260,7 +20260,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G710" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -20286,7 +20286,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G711" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -20312,7 +20312,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G712" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -20338,7 +20338,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G713" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -20364,7 +20364,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -20390,7 +20390,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G715" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -20416,7 +20416,7 @@
         <v>17.5</v>
       </c>
       <c r="G716" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -20442,7 +20442,7 @@
         <v>17</v>
       </c>
       <c r="G717" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -20468,7 +20468,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G718" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -20494,7 +20494,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G719" t="s">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -20546,7 +20546,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G721" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -20572,7 +20572,7 @@
         <v>17.5</v>
       </c>
       <c r="G722" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -20676,7 +20676,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G726" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -20728,7 +20728,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G728" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21300,7 +21300,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G750" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -21456,7 +21456,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G756" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -21664,7 +21664,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G764" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -21768,7 +21768,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G768" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -21794,7 +21794,7 @@
         <v>17.5</v>
       </c>
       <c r="G769" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -21820,7 +21820,7 @@
         <v>17.5</v>
       </c>
       <c r="G770" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -21872,7 +21872,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G772" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -21924,7 +21924,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G774" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22054,7 +22054,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G779" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22158,7 +22158,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G783" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22340,7 +22340,7 @@
         <v>17</v>
       </c>
       <c r="G790" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -22418,7 +22418,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G793" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -22522,7 +22522,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G797" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -22548,7 +22548,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G798" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -22574,7 +22574,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G799" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -22626,7 +22626,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G801" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -22704,7 +22704,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G804" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -22782,7 +22782,7 @@
         <v>18.1599998474121</v>
       </c>
       <c r="G807" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -22808,7 +22808,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G808" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -22834,7 +22834,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G809" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -22860,7 +22860,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G810" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -22912,7 +22912,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G812" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -22938,7 +22938,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G813" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23016,7 +23016,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G816" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23042,7 +23042,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G817" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23068,7 +23068,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G818" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23120,7 +23120,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G820" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23276,7 +23276,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G826" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -23302,7 +23302,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G827" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -23432,7 +23432,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G832" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -23536,7 +23536,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G836" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -23588,7 +23588,7 @@
         <v>17.5</v>
       </c>
       <c r="G838" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -23614,7 +23614,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G839" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -23640,7 +23640,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G840" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -23692,7 +23692,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G842" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -23770,7 +23770,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G845" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -23848,7 +23848,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G848" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24030,7 +24030,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G855" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -32306,7 +32306,7 @@
     </row>
     <row r="1174">
       <c r="A1174" s="1" t="n">
-        <v>45461.6493981481</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B1174" t="n">
         <v>55583</v>
@@ -32327,6 +32327,32 @@
         <v>484</v>
       </c>
       <c r="H1174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="1" t="n">
+        <v>45462.649375</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>12053</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="G1175" t="s">
+        <v>483</v>
+      </c>
+      <c r="H1175" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -44,19 +44,19 @@
     <t xml:space="preserve">SCF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33448791503906</t>
+    <t xml:space="preserve">8.33448886871338</t>
   </si>
   <si>
     <t xml:space="preserve">8.17905235290527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13650417327881</t>
+    <t xml:space="preserve">8.13650226593018</t>
   </si>
   <si>
     <t xml:space="preserve">8.16342258453369</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10176849365234</t>
+    <t xml:space="preserve">8.10176944732666</t>
   </si>
   <si>
     <t xml:space="preserve">8.11045265197754</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">8.16255378723145</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2407054901123</t>
+    <t xml:space="preserve">8.24070644378662</t>
   </si>
   <si>
     <t xml:space="preserve">8.2493896484375</t>
@@ -77,19 +77,19 @@
     <t xml:space="preserve">8.29280853271484</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50989627838135</t>
+    <t xml:space="preserve">8.50989723205566</t>
   </si>
   <si>
     <t xml:space="preserve">8.51163387298584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48384666442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38398551940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3101749420166</t>
+    <t xml:space="preserve">8.48384571075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38398456573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31017589569092</t>
   </si>
   <si>
     <t xml:space="preserve">8.42306041717529</t>
@@ -98,16 +98,16 @@
     <t xml:space="preserve">8.51858043670654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02222728729248</t>
+    <t xml:space="preserve">9.02222633361816</t>
   </si>
   <si>
     <t xml:space="preserve">8.89892101287842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84681797027588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93886470794678</t>
+    <t xml:space="preserve">8.84681987762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93886566162109</t>
   </si>
   <si>
     <t xml:space="preserve">8.94407558441162</t>
@@ -134,118 +134,118 @@
     <t xml:space="preserve">9.33483600616455</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24799919128418</t>
+    <t xml:space="preserve">9.2480001449585</t>
   </si>
   <si>
     <t xml:space="preserve">9.46508884429932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59534358978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68217754364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81243324279785</t>
+    <t xml:space="preserve">9.5953426361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68217849731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81243228912354</t>
   </si>
   <si>
     <t xml:space="preserve">9.72559642791748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98610305786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0295209884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76901435852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89926815032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85584926605225</t>
+    <t xml:space="preserve">9.98610401153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0295219421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76901340484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89926719665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85585021972656</t>
   </si>
   <si>
     <t xml:space="preserve">9.63876056671143</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55192375183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16116523742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29141712188721</t>
+    <t xml:space="preserve">9.55192470550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16116333007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29141807556152</t>
   </si>
   <si>
     <t xml:space="preserve">9.07432842254639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57936573028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63146686553955</t>
+    <t xml:space="preserve">8.57936477661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63146591186523</t>
   </si>
   <si>
     <t xml:space="preserve">8.85723876953125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77040386199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20458316802979</t>
+    <t xml:space="preserve">8.77040481567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20458221435547</t>
   </si>
   <si>
     <t xml:space="preserve">8.68356800079346</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45779418945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40569400787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51996994018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02361583709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72837543487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98888301849365</t>
+    <t xml:space="preserve">8.45779514312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40569496154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51997041702271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02361679077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7283763885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98888206481934</t>
   </si>
   <si>
     <t xml:space="preserve">7.8152117729187</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78047704696655</t>
+    <t xml:space="preserve">7.78047800064087</t>
   </si>
   <si>
     <t xml:space="preserve">8.09308528900146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38832664489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90065860748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1177453994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81382083892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42167091369629</t>
+    <t xml:space="preserve">8.38832569122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90065670013428</t>
   </si>
   <si>
     <t xml:space="preserve">9.11774635314941</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0274715423584</t>
+    <t xml:space="preserve">8.81382179260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42167186737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11774730682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02747058868408</t>
   </si>
   <si>
     <t xml:space="preserve">9.07260990142822</t>
@@ -266,37 +266,37 @@
     <t xml:space="preserve">10.4718675613403</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6072797775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5170049667358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0135164260864</t>
+    <t xml:space="preserve">10.6072788238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5170040130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0135145187378</t>
   </si>
   <si>
     <t xml:space="preserve">11.1940650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1489267349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2843389511108</t>
+    <t xml:space="preserve">11.1489276885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2843399047852</t>
   </si>
   <si>
     <t xml:space="preserve">10.8329668045044</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7878284454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1037912368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0586519241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9683771133423</t>
+    <t xml:space="preserve">10.7878293991089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1037902832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0586528778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9683780670166</t>
   </si>
   <si>
     <t xml:space="preserve">10.9232416152954</t>
@@ -311,52 +311,52 @@
     <t xml:space="preserve">10.7426910400391</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5621423721313</t>
+    <t xml:space="preserve">10.562141418457</t>
   </si>
   <si>
     <t xml:space="preserve">10.4267301559448</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6975536346436</t>
+    <t xml:space="preserve">10.6975545883179</t>
   </si>
   <si>
     <t xml:space="preserve">10.3364553451538</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2461805343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4197511672974</t>
+    <t xml:space="preserve">10.2461814880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4197521209717</t>
   </si>
   <si>
     <t xml:space="preserve">11.6454381942749</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7357130050659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5551643371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3746137619019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5100259780884</t>
+    <t xml:space="preserve">11.7357139587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5551633834839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3746147155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5100269317627</t>
   </si>
   <si>
     <t xml:space="preserve">11.2392024993896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4648885726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6003017425537</t>
+    <t xml:space="preserve">11.4648895263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6003007888794</t>
   </si>
   <si>
     <t xml:space="preserve">11.6905765533447</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7808513641357</t>
+    <t xml:space="preserve">11.7808504104614</t>
   </si>
   <si>
     <t xml:space="preserve">11.8259887695312</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">11.9162626266479</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9614000320435</t>
+    <t xml:space="preserve">11.9614009857178</t>
   </si>
   <si>
     <t xml:space="preserve">12.1419496536255</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">12.457911491394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5481843948364</t>
+    <t xml:space="preserve">12.5481853485107</t>
   </si>
   <si>
     <t xml:space="preserve">12.367636680603</t>
@@ -386,13 +386,13 @@
     <t xml:space="preserve">12.187087059021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2773628234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5030498504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6384592056274</t>
+    <t xml:space="preserve">12.277361869812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5030488967896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6384601593018</t>
   </si>
   <si>
     <t xml:space="preserve">12.2322244644165</t>
@@ -404,16 +404,16 @@
     <t xml:space="preserve">12.6205492019653</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7136888504028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5274085998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4808368682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6671199798584</t>
+    <t xml:space="preserve">12.7136898040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5274076461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4808378219604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6671190261841</t>
   </si>
   <si>
     <t xml:space="preserve">12.5739784240723</t>
@@ -422,10 +422,10 @@
     <t xml:space="preserve">12.2945566177368</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3876972198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.434268951416</t>
+    <t xml:space="preserve">12.3876981735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4342679977417</t>
   </si>
   <si>
     <t xml:space="preserve">12.9465398788452</t>
@@ -437,22 +437,22 @@
     <t xml:space="preserve">13.1793918609619</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9931116104126</t>
+    <t xml:space="preserve">12.9931106567383</t>
   </si>
   <si>
     <t xml:space="preserve">13.2725324630737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4588136672974</t>
+    <t xml:space="preserve">13.4588146209717</t>
   </si>
   <si>
     <t xml:space="preserve">13.5519552230835</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7848062515259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5985260009766</t>
+    <t xml:space="preserve">13.7848072052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5985250473022</t>
   </si>
   <si>
     <t xml:space="preserve">13.7382354736328</t>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">13.9710874557495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8779458999634</t>
+    <t xml:space="preserve">13.8779468536377</t>
   </si>
   <si>
     <t xml:space="preserve">13.3656740188599</t>
@@ -476,16 +476,16 @@
     <t xml:space="preserve">13.645094871521</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8313770294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0642290115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.297080039978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7627820968628</t>
+    <t xml:space="preserve">13.8313760757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0642280578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2970790863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7627830505371</t>
   </si>
   <si>
     <t xml:space="preserve">15.321626663208</t>
@@ -494,19 +494,19 @@
     <t xml:space="preserve">15.6010475158691</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9270391464233</t>
+    <t xml:space="preserve">15.9270401000977</t>
   </si>
   <si>
     <t xml:space="preserve">15.8804683685303</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8339004516602</t>
+    <t xml:space="preserve">15.8338994979858</t>
   </si>
   <si>
     <t xml:space="preserve">15.6941890716553</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9736099243164</t>
+    <t xml:space="preserve">15.9736089706421</t>
   </si>
   <si>
     <t xml:space="preserve">16.4393119812012</t>
@@ -524,13 +524,13 @@
     <t xml:space="preserve">16.951587677002</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4172878265381</t>
+    <t xml:space="preserve">17.4172897338867</t>
   </si>
   <si>
     <t xml:space="preserve">17.6501426696777</t>
   </si>
   <si>
-    <t xml:space="preserve">17.789852142334</t>
+    <t xml:space="preserve">17.7898502349854</t>
   </si>
   <si>
     <t xml:space="preserve">17.4638595581055</t>
@@ -548,7 +548,7 @@
     <t xml:space="preserve">17.3707180023193</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3241500854492</t>
+    <t xml:space="preserve">17.3241481781006</t>
   </si>
   <si>
     <t xml:space="preserve">16.7653045654297</t>
@@ -557,7 +557,7 @@
     <t xml:space="preserve">16.8118743896484</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2996025085449</t>
+    <t xml:space="preserve">16.2996006011963</t>
   </si>
   <si>
     <t xml:space="preserve">16.1133193969727</t>
@@ -575,13 +575,13 @@
     <t xml:space="preserve">16.9050159454346</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9761333465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1624145507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8829917907715</t>
+    <t xml:space="preserve">17.976131439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1624126434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8829936981201</t>
   </si>
   <si>
     <t xml:space="preserve">17.8364219665527</t>
@@ -590,13 +590,13 @@
     <t xml:space="preserve">18.1158447265625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5349750518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.628116607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3486957550049</t>
+    <t xml:space="preserve">18.5349769592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6281147003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3486976623535</t>
   </si>
   <si>
     <t xml:space="preserve">18.5815467834473</t>
@@ -614,10 +614,10 @@
     <t xml:space="preserve">19.280101776123</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2115058898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1183662414551</t>
+    <t xml:space="preserve">20.2115077972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1183643341064</t>
   </si>
   <si>
     <t xml:space="preserve">19.8389434814453</t>
@@ -629,16 +629,16 @@
     <t xml:space="preserve">19.9320831298828</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6772079467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0252246856689</t>
+    <t xml:space="preserve">20.677209854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0252265930176</t>
   </si>
   <si>
     <t xml:space="preserve">19.1869602203369</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6526641845703</t>
+    <t xml:space="preserve">19.6526622772217</t>
   </si>
   <si>
     <t xml:space="preserve">21.7017555236816</t>
@@ -650,34 +650,34 @@
     <t xml:space="preserve">21.7948970794678</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4468803405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7263031005859</t>
+    <t xml:space="preserve">22.4468784332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7263011932373</t>
   </si>
   <si>
     <t xml:space="preserve">22.5400218963623</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2851448059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1920051574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0057220458984</t>
+    <t xml:space="preserve">23.2851467132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1920032501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0057239532471</t>
   </si>
   <si>
     <t xml:space="preserve">23.0988636016846</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9125843048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8194408416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3782863616943</t>
+    <t xml:space="preserve">22.9125823974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8194427490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3782844543457</t>
   </si>
   <si>
     <t xml:space="preserve">23.5645656585693</t>
@@ -686,22 +686,22 @@
     <t xml:space="preserve">21.8880367279053</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1674575805664</t>
+    <t xml:space="preserve">22.167459487915</t>
   </si>
   <si>
     <t xml:space="preserve">22.3537406921387</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2605991363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6331596374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0497741699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2360534667969</t>
+    <t xml:space="preserve">22.2605972290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6331615447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0497722625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2360515594482</t>
   </si>
   <si>
     <t xml:space="preserve">21.3291931152344</t>
@@ -710,25 +710,25 @@
     <t xml:space="preserve">21.4223346710205</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5840702056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3046455383301</t>
+    <t xml:space="preserve">20.5840682983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3046436309814</t>
   </si>
   <si>
     <t xml:space="preserve">20.8634910583496</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0006771087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1429119110107</t>
+    <t xml:space="preserve">19.0006790161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1429138183594</t>
   </si>
   <si>
     <t xml:space="preserve">19.3732395172119</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5595207214355</t>
+    <t xml:space="preserve">19.5595226287842</t>
   </si>
   <si>
     <t xml:space="preserve">19.466381072998</t>
@@ -737,16 +737,16 @@
     <t xml:space="preserve">18.7212581634521</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5722312927246</t>
+    <t xml:space="preserve">18.5722332000732</t>
   </si>
   <si>
     <t xml:space="preserve">18.3673229217529</t>
   </si>
   <si>
-    <t xml:space="preserve">17.622200012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0692710876465</t>
+    <t xml:space="preserve">17.6221981048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0692729949951</t>
   </si>
   <si>
     <t xml:space="preserve">18.6746845245361</t>
@@ -758,19 +758,19 @@
     <t xml:space="preserve">17.7525939941406</t>
   </si>
   <si>
-    <t xml:space="preserve">17.566312789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6594543457031</t>
+    <t xml:space="preserve">17.5663146972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6594524383545</t>
   </si>
   <si>
     <t xml:space="preserve">17.7339668273926</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9202461242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5104293823242</t>
+    <t xml:space="preserve">17.9202480316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5104274749756</t>
   </si>
   <si>
     <t xml:space="preserve">16.8211879730225</t>
@@ -812,13 +812,13 @@
     <t xml:space="preserve">16.5231380462646</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0968589782715</t>
+    <t xml:space="preserve">17.0968570709229</t>
   </si>
   <si>
     <t xml:space="preserve">17.5940837860107</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5367107391357</t>
+    <t xml:space="preserve">17.5367126464844</t>
   </si>
   <si>
     <t xml:space="preserve">17.364595413208</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">18.7224006652832</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3781681060791</t>
+    <t xml:space="preserve">18.3781661987305</t>
   </si>
   <si>
     <t xml:space="preserve">18.6459045410156</t>
@@ -887,31 +887,31 @@
     <t xml:space="preserve">16.274528503418</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8920469284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.719931602478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.217155456543</t>
+    <t xml:space="preserve">15.8920488357544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7199325561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2171535491943</t>
   </si>
   <si>
     <t xml:space="preserve">16.0067901611328</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1215343475342</t>
+    <t xml:space="preserve">16.1215362548828</t>
   </si>
   <si>
     <t xml:space="preserve">15.9111700057983</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8729248046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8346748352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6051874160767</t>
+    <t xml:space="preserve">15.8729238510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8346738815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6051864624023</t>
   </si>
   <si>
     <t xml:space="preserve">15.2992029190063</t>
@@ -923,25 +923,25 @@
     <t xml:space="preserve">16.7335033416748</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1159839630127</t>
+    <t xml:space="preserve">17.1159820556641</t>
   </si>
   <si>
     <t xml:space="preserve">16.752628326416</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0012397766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0394859313965</t>
+    <t xml:space="preserve">17.00124168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0394878387451</t>
   </si>
   <si>
     <t xml:space="preserve">18.1486797332764</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8235721588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6323318481445</t>
+    <t xml:space="preserve">17.8235702514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6323337554932</t>
   </si>
   <si>
     <t xml:space="preserve">17.7088279724121</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">16.9056205749512</t>
   </si>
   <si>
-    <t xml:space="preserve">16.829122543335</t>
+    <t xml:space="preserve">16.8291244506836</t>
   </si>
   <si>
     <t xml:space="preserve">16.88649559021</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">15.5860624313354</t>
   </si>
   <si>
-    <t xml:space="preserve">14.68723487854</t>
+    <t xml:space="preserve">14.6872339248657</t>
   </si>
   <si>
     <t xml:space="preserve">14.1900110244751</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">13.6736631393433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6545381546021</t>
+    <t xml:space="preserve">13.6545391082764</t>
   </si>
   <si>
     <t xml:space="preserve">13.3485546112061</t>
@@ -1025,28 +1025,28 @@
     <t xml:space="preserve">13.0999422073364</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5644702911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4250497817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4768705368042</t>
+    <t xml:space="preserve">12.564471244812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4250507354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4768714904785</t>
   </si>
   <si>
     <t xml:space="preserve">14.4386234283447</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708869934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9413995742798</t>
+    <t xml:space="preserve">14.1708860397339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9413986206055</t>
   </si>
   <si>
     <t xml:space="preserve">13.9987716674805</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2473821640015</t>
+    <t xml:space="preserve">14.2473831176758</t>
   </si>
   <si>
     <t xml:space="preserve">14.2282590866089</t>
@@ -1055,16 +1055,16 @@
     <t xml:space="preserve">14.8593511581421</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0888395309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4713191986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3948230743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4521942138672</t>
+    <t xml:space="preserve">15.0888385772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4713201522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3948240280151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4521951675415</t>
   </si>
   <si>
     <t xml:space="preserve">15.3183279037476</t>
@@ -1091,28 +1091,28 @@
     <t xml:space="preserve">15.5669393539429</t>
   </si>
   <si>
-    <t xml:space="preserve">16.083288192749</t>
+    <t xml:space="preserve">16.0832862854004</t>
   </si>
   <si>
     <t xml:space="preserve">16.1980323791504</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7908763885498</t>
+    <t xml:space="preserve">16.7908744812012</t>
   </si>
   <si>
     <t xml:space="preserve">16.5805110931396</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1351089477539</t>
+    <t xml:space="preserve">17.1351070404053</t>
   </si>
   <si>
     <t xml:space="preserve">17.0203628540039</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6187591552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5613880157471</t>
+    <t xml:space="preserve">16.6187572479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5613861083984</t>
   </si>
   <si>
     <t xml:space="preserve">16.6761322021484</t>
@@ -1121,7 +1121,7 @@
     <t xml:space="preserve">16.9438667297363</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4657649993896</t>
+    <t xml:space="preserve">16.4657669067383</t>
   </si>
   <si>
     <t xml:space="preserve">16.159782409668</t>
@@ -1133,10 +1133,10 @@
     <t xml:space="preserve">16.3318996429443</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1024131774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9876670837402</t>
+    <t xml:space="preserve">16.1024112701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9876661300659</t>
   </si>
   <si>
     <t xml:space="preserve">16.4466457366943</t>
@@ -1151,13 +1151,13 @@
     <t xml:space="preserve">17.3072242736816</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5175857543945</t>
+    <t xml:space="preserve">17.5175876617432</t>
   </si>
   <si>
     <t xml:space="preserve">17.7661991119385</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0721817016602</t>
+    <t xml:space="preserve">18.0721836090088</t>
   </si>
   <si>
     <t xml:space="preserve">17.7853240966797</t>
@@ -1166,10 +1166,10 @@
     <t xml:space="preserve">17.8618202209473</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3837184906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8044490814209</t>
+    <t xml:space="preserve">17.3837203979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8044471740723</t>
   </si>
   <si>
     <t xml:space="preserve">17.498462677002</t>
@@ -1178,13 +1178,13 @@
     <t xml:space="preserve">17.6897029876709</t>
   </si>
   <si>
-    <t xml:space="preserve">17.479341506958</t>
+    <t xml:space="preserve">17.4793395996094</t>
   </si>
   <si>
     <t xml:space="preserve">17.2307281494141</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0586109161377</t>
+    <t xml:space="preserve">17.0586128234863</t>
   </si>
   <si>
     <t xml:space="preserve">17.2116031646729</t>
@@ -1193,10 +1193,10 @@
     <t xml:space="preserve">17.4219665527344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3590450286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2251739501953</t>
+    <t xml:space="preserve">18.3590431213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2251758575439</t>
   </si>
   <si>
     <t xml:space="preserve">18.9327621459961</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">20.1758232116699</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4148750305176</t>
+    <t xml:space="preserve">20.4148731231689</t>
   </si>
   <si>
     <t xml:space="preserve">20.5104942321777</t>
@@ -1235,7 +1235,7 @@
     <t xml:space="preserve">20.2236347198486</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7933464050293</t>
+    <t xml:space="preserve">19.7933444976807</t>
   </si>
   <si>
     <t xml:space="preserve">19.6021041870117</t>
@@ -1247,16 +1247,16 @@
     <t xml:space="preserve">20.7495441436768</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6539249420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7973537445068</t>
+    <t xml:space="preserve">20.653923034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7973556518555</t>
   </si>
   <si>
     <t xml:space="preserve">20.7017345428467</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0364036560059</t>
+    <t xml:space="preserve">21.0364055633545</t>
   </si>
   <si>
     <t xml:space="preserve">20.8451633453369</t>
@@ -32361,7 +32361,7 @@
     </row>
     <row r="1176">
       <c r="A1176" s="1" t="n">
-        <v>45463.6493634259</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B1176" t="n">
         <v>38929</v>
@@ -32382,6 +32382,32 @@
         <v>483</v>
       </c>
       <c r="H1176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="1" t="n">
+        <v>45464.6509953704</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>33354</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G1177" t="s">
+        <v>483</v>
+      </c>
+      <c r="H1177" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -38,76 +38,76 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37530136108398</t>
+    <t xml:space="preserve">8.3753023147583</t>
   </si>
   <si>
     <t xml:space="preserve">SCF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33448886871338</t>
+    <t xml:space="preserve">8.33448791503906</t>
   </si>
   <si>
     <t xml:space="preserve">8.17905235290527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13650226593018</t>
+    <t xml:space="preserve">8.13650417327881</t>
   </si>
   <si>
     <t xml:space="preserve">8.16342258453369</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10176944732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11045265197754</t>
+    <t xml:space="preserve">8.10176849365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11045169830322</t>
   </si>
   <si>
     <t xml:space="preserve">8.11913585662842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16255378723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24070644378662</t>
+    <t xml:space="preserve">8.16255283355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2407054901123</t>
   </si>
   <si>
     <t xml:space="preserve">8.2493896484375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29280853271484</t>
+    <t xml:space="preserve">8.29280757904053</t>
   </si>
   <si>
     <t xml:space="preserve">8.50989723205566</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51163387298584</t>
+    <t xml:space="preserve">8.51163291931152</t>
   </si>
   <si>
     <t xml:space="preserve">8.48384571075439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38398456573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31017589569092</t>
+    <t xml:space="preserve">8.3839864730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3101749420166</t>
   </si>
   <si>
     <t xml:space="preserve">8.42306041717529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51858043670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02222633361816</t>
+    <t xml:space="preserve">8.51858139038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02222728729248</t>
   </si>
   <si>
     <t xml:space="preserve">8.89892101287842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84681987762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93886566162109</t>
+    <t xml:space="preserve">8.8468189239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93886470794678</t>
   </si>
   <si>
     <t xml:space="preserve">8.94407558441162</t>
@@ -116,37 +116,37 @@
     <t xml:space="preserve">8.93539142608643</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00485992431641</t>
+    <t xml:space="preserve">9.00485897064209</t>
   </si>
   <si>
     <t xml:space="preserve">8.97707271575928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02917385101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03091049194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98749351501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33483600616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2480001449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46508884429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5953426361084</t>
+    <t xml:space="preserve">9.02917289733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03090953826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98749446868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33483505249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24799919128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.465087890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59534358978271</t>
   </si>
   <si>
     <t xml:space="preserve">9.68217849731445</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81243228912354</t>
+    <t xml:space="preserve">9.81243324279785</t>
   </si>
   <si>
     <t xml:space="preserve">9.72559642791748</t>
@@ -155,31 +155,31 @@
     <t xml:space="preserve">9.98610401153564</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0295219421387</t>
+    <t xml:space="preserve">10.0295209884644</t>
   </si>
   <si>
     <t xml:space="preserve">9.76901340484619</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89926719665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85585021972656</t>
+    <t xml:space="preserve">9.89926815032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85584926605225</t>
   </si>
   <si>
     <t xml:space="preserve">9.63876056671143</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55192470550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16116333007812</t>
+    <t xml:space="preserve">9.55192375183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16116428375244</t>
   </si>
   <si>
     <t xml:space="preserve">9.29141807556152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07432842254639</t>
+    <t xml:space="preserve">9.0743293762207</t>
   </si>
   <si>
     <t xml:space="preserve">8.57936477661133</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">8.85723876953125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77040481567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20458221435547</t>
+    <t xml:space="preserve">8.77040386199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20458316802979</t>
   </si>
   <si>
     <t xml:space="preserve">8.68356800079346</t>
@@ -203,58 +203,58 @@
     <t xml:space="preserve">8.45779514312744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40569496154785</t>
+    <t xml:space="preserve">8.40569400787354</t>
   </si>
   <si>
     <t xml:space="preserve">7.51997041702271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02361679077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7283763885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98888206481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8152117729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78047800064087</t>
+    <t xml:space="preserve">8.02361583709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72837495803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98888349533081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81521129608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78047657012939</t>
   </si>
   <si>
     <t xml:space="preserve">8.09308528900146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38832569122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90065670013428</t>
+    <t xml:space="preserve">8.38832664489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90065765380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1177453994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81382083892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42167186737061</t>
   </si>
   <si>
     <t xml:space="preserve">9.11774635314941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81382179260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42167186737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11774730682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02747058868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07260990142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74967002868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1559057235718</t>
+    <t xml:space="preserve">9.0274715423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07260894775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74966907501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1559066772461</t>
   </si>
   <si>
     <t xml:space="preserve">10.2913179397583</t>
@@ -263,16 +263,16 @@
     <t xml:space="preserve">10.3815927505493</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4718675613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6072788238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5170040130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0135145187378</t>
+    <t xml:space="preserve">10.4718685150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6072797775269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5170049667358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0135154724121</t>
   </si>
   <si>
     <t xml:space="preserve">11.1940650939941</t>
@@ -287,16 +287,16 @@
     <t xml:space="preserve">10.8329668045044</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7878293991089</t>
+    <t xml:space="preserve">10.7878284454346</t>
   </si>
   <si>
     <t xml:space="preserve">11.1037902832031</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0586528778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9683780670166</t>
+    <t xml:space="preserve">11.0586519241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9683771133423</t>
   </si>
   <si>
     <t xml:space="preserve">10.9232416152954</t>
@@ -311,58 +311,58 @@
     <t xml:space="preserve">10.7426910400391</t>
   </si>
   <si>
-    <t xml:space="preserve">10.562141418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4267301559448</t>
+    <t xml:space="preserve">10.5621423721313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4267292022705</t>
   </si>
   <si>
     <t xml:space="preserve">10.6975545883179</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3364553451538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2461814880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4197521209717</t>
+    <t xml:space="preserve">10.3364543914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2461805343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4197511672974</t>
   </si>
   <si>
     <t xml:space="preserve">11.6454381942749</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7357139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5551633834839</t>
+    <t xml:space="preserve">11.7357130050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5551643371582</t>
   </si>
   <si>
     <t xml:space="preserve">11.3746147155762</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5100269317627</t>
+    <t xml:space="preserve">11.5100259780884</t>
   </si>
   <si>
     <t xml:space="preserve">11.2392024993896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4648895263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6003007888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6905765533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7808504104614</t>
+    <t xml:space="preserve">11.4648885726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6003017425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6905755996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7808513641357</t>
   </si>
   <si>
     <t xml:space="preserve">11.8259887695312</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8711252212524</t>
+    <t xml:space="preserve">11.8711261749268</t>
   </si>
   <si>
     <t xml:space="preserve">11.9162626266479</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">12.5481853485107</t>
   </si>
   <si>
-    <t xml:space="preserve">12.367636680603</t>
+    <t xml:space="preserve">12.3676357269287</t>
   </si>
   <si>
     <t xml:space="preserve">12.187087059021</t>
@@ -389,7 +389,7 @@
     <t xml:space="preserve">12.277361869812</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5030488967896</t>
+    <t xml:space="preserve">12.5030498504639</t>
   </si>
   <si>
     <t xml:space="preserve">12.6384601593018</t>
@@ -404,16 +404,16 @@
     <t xml:space="preserve">12.6205492019653</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7136898040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5274076461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4808378219604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6671190261841</t>
+    <t xml:space="preserve">12.7136888504028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5274085998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4808368682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6671199798584</t>
   </si>
   <si>
     <t xml:space="preserve">12.5739784240723</t>
@@ -422,10 +422,10 @@
     <t xml:space="preserve">12.2945566177368</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3876981735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4342679977417</t>
+    <t xml:space="preserve">12.3876972198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.434268951416</t>
   </si>
   <si>
     <t xml:space="preserve">12.9465398788452</t>
@@ -437,22 +437,22 @@
     <t xml:space="preserve">13.1793918609619</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9931106567383</t>
+    <t xml:space="preserve">12.9931116104126</t>
   </si>
   <si>
     <t xml:space="preserve">13.2725324630737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4588146209717</t>
+    <t xml:space="preserve">13.4588136672974</t>
   </si>
   <si>
     <t xml:space="preserve">13.5519552230835</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7848072052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5985250473022</t>
+    <t xml:space="preserve">13.7848062515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5985260009766</t>
   </si>
   <si>
     <t xml:space="preserve">13.7382354736328</t>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">13.9710874557495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8779468536377</t>
+    <t xml:space="preserve">13.8779458999634</t>
   </si>
   <si>
     <t xml:space="preserve">13.3656740188599</t>
@@ -476,16 +476,16 @@
     <t xml:space="preserve">13.645094871521</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8313760757446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0642280578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2970790863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7627830505371</t>
+    <t xml:space="preserve">13.8313770294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0642290115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.297080039978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7627820968628</t>
   </si>
   <si>
     <t xml:space="preserve">15.321626663208</t>
@@ -494,19 +494,19 @@
     <t xml:space="preserve">15.6010475158691</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9270401000977</t>
+    <t xml:space="preserve">15.9270391464233</t>
   </si>
   <si>
     <t xml:space="preserve">15.8804683685303</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8338994979858</t>
+    <t xml:space="preserve">15.8339004516602</t>
   </si>
   <si>
     <t xml:space="preserve">15.6941890716553</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9736089706421</t>
+    <t xml:space="preserve">15.9736099243164</t>
   </si>
   <si>
     <t xml:space="preserve">16.4393119812012</t>
@@ -524,13 +524,13 @@
     <t xml:space="preserve">16.951587677002</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4172897338867</t>
+    <t xml:space="preserve">17.4172878265381</t>
   </si>
   <si>
     <t xml:space="preserve">17.6501426696777</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7898502349854</t>
+    <t xml:space="preserve">17.789852142334</t>
   </si>
   <si>
     <t xml:space="preserve">17.4638595581055</t>
@@ -548,7 +548,7 @@
     <t xml:space="preserve">17.3707180023193</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3241481781006</t>
+    <t xml:space="preserve">17.3241500854492</t>
   </si>
   <si>
     <t xml:space="preserve">16.7653045654297</t>
@@ -557,7 +557,7 @@
     <t xml:space="preserve">16.8118743896484</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2996006011963</t>
+    <t xml:space="preserve">16.2996025085449</t>
   </si>
   <si>
     <t xml:space="preserve">16.1133193969727</t>
@@ -575,13 +575,13 @@
     <t xml:space="preserve">16.9050159454346</t>
   </si>
   <si>
-    <t xml:space="preserve">17.976131439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1624126434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8829936981201</t>
+    <t xml:space="preserve">17.9761333465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1624145507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8829917907715</t>
   </si>
   <si>
     <t xml:space="preserve">17.8364219665527</t>
@@ -590,13 +590,13 @@
     <t xml:space="preserve">18.1158447265625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5349769592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6281147003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3486976623535</t>
+    <t xml:space="preserve">18.5349750518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.628116607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3486957550049</t>
   </si>
   <si>
     <t xml:space="preserve">18.5815467834473</t>
@@ -614,10 +614,10 @@
     <t xml:space="preserve">19.280101776123</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2115077972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1183643341064</t>
+    <t xml:space="preserve">20.2115058898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1183662414551</t>
   </si>
   <si>
     <t xml:space="preserve">19.8389434814453</t>
@@ -629,16 +629,16 @@
     <t xml:space="preserve">19.9320831298828</t>
   </si>
   <si>
-    <t xml:space="preserve">20.677209854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0252265930176</t>
+    <t xml:space="preserve">20.6772079467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0252246856689</t>
   </si>
   <si>
     <t xml:space="preserve">19.1869602203369</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6526622772217</t>
+    <t xml:space="preserve">19.6526641845703</t>
   </si>
   <si>
     <t xml:space="preserve">21.7017555236816</t>
@@ -650,34 +650,34 @@
     <t xml:space="preserve">21.7948970794678</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4468784332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7263011932373</t>
+    <t xml:space="preserve">22.4468803405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7263031005859</t>
   </si>
   <si>
     <t xml:space="preserve">22.5400218963623</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2851467132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1920032501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0057239532471</t>
+    <t xml:space="preserve">23.2851448059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1920051574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0057220458984</t>
   </si>
   <si>
     <t xml:space="preserve">23.0988636016846</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9125823974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8194427490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3782844543457</t>
+    <t xml:space="preserve">22.9125843048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8194408416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3782863616943</t>
   </si>
   <si>
     <t xml:space="preserve">23.5645656585693</t>
@@ -686,22 +686,22 @@
     <t xml:space="preserve">21.8880367279053</t>
   </si>
   <si>
-    <t xml:space="preserve">22.167459487915</t>
+    <t xml:space="preserve">22.1674575805664</t>
   </si>
   <si>
     <t xml:space="preserve">22.3537406921387</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2605972290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6331615447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0497722625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2360515594482</t>
+    <t xml:space="preserve">22.2605991363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6331596374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0497741699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2360534667969</t>
   </si>
   <si>
     <t xml:space="preserve">21.3291931152344</t>
@@ -710,25 +710,25 @@
     <t xml:space="preserve">21.4223346710205</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5840682983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3046436309814</t>
+    <t xml:space="preserve">20.5840702056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3046455383301</t>
   </si>
   <si>
     <t xml:space="preserve">20.8634910583496</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0006790161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1429138183594</t>
+    <t xml:space="preserve">19.0006771087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1429119110107</t>
   </si>
   <si>
     <t xml:space="preserve">19.3732395172119</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5595226287842</t>
+    <t xml:space="preserve">19.5595207214355</t>
   </si>
   <si>
     <t xml:space="preserve">19.466381072998</t>
@@ -737,16 +737,16 @@
     <t xml:space="preserve">18.7212581634521</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5722332000732</t>
+    <t xml:space="preserve">18.5722312927246</t>
   </si>
   <si>
     <t xml:space="preserve">18.3673229217529</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6221981048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0692729949951</t>
+    <t xml:space="preserve">17.622200012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0692710876465</t>
   </si>
   <si>
     <t xml:space="preserve">18.6746845245361</t>
@@ -758,19 +758,19 @@
     <t xml:space="preserve">17.7525939941406</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5663146972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6594524383545</t>
+    <t xml:space="preserve">17.566312789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6594543457031</t>
   </si>
   <si>
     <t xml:space="preserve">17.7339668273926</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9202480316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5104274749756</t>
+    <t xml:space="preserve">17.9202461242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5104293823242</t>
   </si>
   <si>
     <t xml:space="preserve">16.8211879730225</t>
@@ -812,13 +812,13 @@
     <t xml:space="preserve">16.5231380462646</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0968570709229</t>
+    <t xml:space="preserve">17.0968589782715</t>
   </si>
   <si>
     <t xml:space="preserve">17.5940837860107</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5367126464844</t>
+    <t xml:space="preserve">17.5367107391357</t>
   </si>
   <si>
     <t xml:space="preserve">17.364595413208</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">18.7224006652832</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3781661987305</t>
+    <t xml:space="preserve">18.3781681060791</t>
   </si>
   <si>
     <t xml:space="preserve">18.6459045410156</t>
@@ -887,31 +887,31 @@
     <t xml:space="preserve">16.274528503418</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8920488357544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7199325561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2171535491943</t>
+    <t xml:space="preserve">15.8920469284058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.719931602478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.217155456543</t>
   </si>
   <si>
     <t xml:space="preserve">16.0067901611328</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1215362548828</t>
+    <t xml:space="preserve">16.1215343475342</t>
   </si>
   <si>
     <t xml:space="preserve">15.9111700057983</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8729238510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8346738815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6051864624023</t>
+    <t xml:space="preserve">15.8729248046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8346748352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6051874160767</t>
   </si>
   <si>
     <t xml:space="preserve">15.2992029190063</t>
@@ -923,25 +923,25 @@
     <t xml:space="preserve">16.7335033416748</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1159820556641</t>
+    <t xml:space="preserve">17.1159839630127</t>
   </si>
   <si>
     <t xml:space="preserve">16.752628326416</t>
   </si>
   <si>
-    <t xml:space="preserve">17.00124168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0394878387451</t>
+    <t xml:space="preserve">17.0012397766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0394859313965</t>
   </si>
   <si>
     <t xml:space="preserve">18.1486797332764</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8235702514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6323337554932</t>
+    <t xml:space="preserve">17.8235721588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6323318481445</t>
   </si>
   <si>
     <t xml:space="preserve">17.7088279724121</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">16.9056205749512</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8291244506836</t>
+    <t xml:space="preserve">16.829122543335</t>
   </si>
   <si>
     <t xml:space="preserve">16.88649559021</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">15.5860624313354</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6872339248657</t>
+    <t xml:space="preserve">14.68723487854</t>
   </si>
   <si>
     <t xml:space="preserve">14.1900110244751</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">13.6736631393433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6545391082764</t>
+    <t xml:space="preserve">13.6545381546021</t>
   </si>
   <si>
     <t xml:space="preserve">13.3485546112061</t>
@@ -1025,28 +1025,28 @@
     <t xml:space="preserve">13.0999422073364</t>
   </si>
   <si>
-    <t xml:space="preserve">12.564471244812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4250507354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4768714904785</t>
+    <t xml:space="preserve">12.5644702911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4250497817993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4768705368042</t>
   </si>
   <si>
     <t xml:space="preserve">14.4386234283447</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708860397339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9413986206055</t>
+    <t xml:space="preserve">14.1708869934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9413995742798</t>
   </si>
   <si>
     <t xml:space="preserve">13.9987716674805</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2473831176758</t>
+    <t xml:space="preserve">14.2473821640015</t>
   </si>
   <si>
     <t xml:space="preserve">14.2282590866089</t>
@@ -1055,16 +1055,16 @@
     <t xml:space="preserve">14.8593511581421</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0888385772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4713201522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3948240280151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4521951675415</t>
+    <t xml:space="preserve">15.0888395309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4713191986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3948230743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4521942138672</t>
   </si>
   <si>
     <t xml:space="preserve">15.3183279037476</t>
@@ -1091,28 +1091,28 @@
     <t xml:space="preserve">15.5669393539429</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0832862854004</t>
+    <t xml:space="preserve">16.083288192749</t>
   </si>
   <si>
     <t xml:space="preserve">16.1980323791504</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7908744812012</t>
+    <t xml:space="preserve">16.7908763885498</t>
   </si>
   <si>
     <t xml:space="preserve">16.5805110931396</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1351070404053</t>
+    <t xml:space="preserve">17.1351089477539</t>
   </si>
   <si>
     <t xml:space="preserve">17.0203628540039</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6187572479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5613861083984</t>
+    <t xml:space="preserve">16.6187591552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5613880157471</t>
   </si>
   <si>
     <t xml:space="preserve">16.6761322021484</t>
@@ -1121,7 +1121,7 @@
     <t xml:space="preserve">16.9438667297363</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4657669067383</t>
+    <t xml:space="preserve">16.4657649993896</t>
   </si>
   <si>
     <t xml:space="preserve">16.159782409668</t>
@@ -1133,10 +1133,10 @@
     <t xml:space="preserve">16.3318996429443</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1024112701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9876661300659</t>
+    <t xml:space="preserve">16.1024131774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9876670837402</t>
   </si>
   <si>
     <t xml:space="preserve">16.4466457366943</t>
@@ -1151,13 +1151,13 @@
     <t xml:space="preserve">17.3072242736816</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5175876617432</t>
+    <t xml:space="preserve">17.5175857543945</t>
   </si>
   <si>
     <t xml:space="preserve">17.7661991119385</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0721836090088</t>
+    <t xml:space="preserve">18.0721817016602</t>
   </si>
   <si>
     <t xml:space="preserve">17.7853240966797</t>
@@ -1166,10 +1166,10 @@
     <t xml:space="preserve">17.8618202209473</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3837203979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8044471740723</t>
+    <t xml:space="preserve">17.3837184906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8044490814209</t>
   </si>
   <si>
     <t xml:space="preserve">17.498462677002</t>
@@ -1178,13 +1178,13 @@
     <t xml:space="preserve">17.6897029876709</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4793395996094</t>
+    <t xml:space="preserve">17.479341506958</t>
   </si>
   <si>
     <t xml:space="preserve">17.2307281494141</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0586128234863</t>
+    <t xml:space="preserve">17.0586109161377</t>
   </si>
   <si>
     <t xml:space="preserve">17.2116031646729</t>
@@ -1193,10 +1193,10 @@
     <t xml:space="preserve">17.4219665527344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3590431213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2251758575439</t>
+    <t xml:space="preserve">18.3590450286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2251739501953</t>
   </si>
   <si>
     <t xml:space="preserve">18.9327621459961</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">20.1758232116699</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4148731231689</t>
+    <t xml:space="preserve">20.4148750305176</t>
   </si>
   <si>
     <t xml:space="preserve">20.5104942321777</t>
@@ -1235,7 +1235,7 @@
     <t xml:space="preserve">20.2236347198486</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7933444976807</t>
+    <t xml:space="preserve">19.7933464050293</t>
   </si>
   <si>
     <t xml:space="preserve">19.6021041870117</t>
@@ -1247,16 +1247,16 @@
     <t xml:space="preserve">20.7495441436768</t>
   </si>
   <si>
-    <t xml:space="preserve">20.653923034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7973556518555</t>
+    <t xml:space="preserve">20.6539249420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7973537445068</t>
   </si>
   <si>
     <t xml:space="preserve">20.7017345428467</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0364055633545</t>
+    <t xml:space="preserve">21.0364036560059</t>
   </si>
   <si>
     <t xml:space="preserve">20.8451633453369</t>
@@ -32387,7 +32387,7 @@
     </row>
     <row r="1177">
       <c r="A1177" s="1" t="n">
-        <v>45464.6509953704</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B1177" t="n">
         <v>33354</v>
@@ -32408,6 +32408,32 @@
         <v>483</v>
       </c>
       <c r="H1177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="1" t="n">
+        <v>45467.6493287037</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>16132</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G1178" t="s">
+        <v>483</v>
+      </c>
+      <c r="H1178" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3753023147583</t>
+    <t xml:space="preserve">8.37530136108398</t>
   </si>
   <si>
     <t xml:space="preserve">SCF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33448791503906</t>
+    <t xml:space="preserve">8.33448696136475</t>
   </si>
   <si>
     <t xml:space="preserve">8.17905235290527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13650417327881</t>
+    <t xml:space="preserve">8.13650321960449</t>
   </si>
   <si>
     <t xml:space="preserve">8.16342258453369</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">8.11045169830322</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11913585662842</t>
+    <t xml:space="preserve">8.1191349029541</t>
   </si>
   <si>
     <t xml:space="preserve">8.16255283355713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2407054901123</t>
+    <t xml:space="preserve">8.24070644378662</t>
   </si>
   <si>
     <t xml:space="preserve">8.2493896484375</t>
@@ -77,16 +77,16 @@
     <t xml:space="preserve">8.29280757904053</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50989723205566</t>
+    <t xml:space="preserve">8.50989627838135</t>
   </si>
   <si>
     <t xml:space="preserve">8.51163291931152</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48384571075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3839864730835</t>
+    <t xml:space="preserve">8.48384666442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38398551940918</t>
   </si>
   <si>
     <t xml:space="preserve">8.3101749420166</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">8.42306041717529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51858139038086</t>
+    <t xml:space="preserve">8.51858043670654</t>
   </si>
   <si>
     <t xml:space="preserve">9.02222728729248</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">8.89892101287842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8468189239502</t>
+    <t xml:space="preserve">8.84681797027588</t>
   </si>
   <si>
     <t xml:space="preserve">8.93886470794678</t>
@@ -116,16 +116,16 @@
     <t xml:space="preserve">8.93539142608643</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00485897064209</t>
+    <t xml:space="preserve">9.00485992431641</t>
   </si>
   <si>
     <t xml:space="preserve">8.97707271575928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02917289733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03090953826904</t>
+    <t xml:space="preserve">9.02917385101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03091049194336</t>
   </si>
   <si>
     <t xml:space="preserve">8.98749446868896</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">9.24799919128418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.465087890625</t>
+    <t xml:space="preserve">9.46508884429932</t>
   </si>
   <si>
     <t xml:space="preserve">9.59534358978271</t>
@@ -152,49 +152,49 @@
     <t xml:space="preserve">9.72559642791748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98610401153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0295209884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76901340484619</t>
+    <t xml:space="preserve">9.98610305786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.02952003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76901531219482</t>
   </si>
   <si>
     <t xml:space="preserve">9.89926815032959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85584926605225</t>
+    <t xml:space="preserve">9.85585021972656</t>
   </si>
   <si>
     <t xml:space="preserve">9.63876056671143</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55192375183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16116428375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29141807556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0743293762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57936477661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63146591186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85723876953125</t>
+    <t xml:space="preserve">9.55192470550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16116523742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29141712188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07432842254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57936573028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63146686553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85723972320557</t>
   </si>
   <si>
     <t xml:space="preserve">8.77040386199951</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20458316802979</t>
+    <t xml:space="preserve">9.20458221435547</t>
   </si>
   <si>
     <t xml:space="preserve">8.68356800079346</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">8.02361583709717</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72837495803833</t>
+    <t xml:space="preserve">7.72837543487549</t>
   </si>
   <si>
     <t xml:space="preserve">7.98888349533081</t>
@@ -224,13 +224,13 @@
     <t xml:space="preserve">7.78047657012939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09308528900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38832664489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90065765380859</t>
+    <t xml:space="preserve">8.09308433532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38832759857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90065860748291</t>
   </si>
   <si>
     <t xml:space="preserve">9.1177453994751</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">8.81382083892822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42167186737061</t>
+    <t xml:space="preserve">9.42167091369629</t>
   </si>
   <si>
     <t xml:space="preserve">9.11774635314941</t>
@@ -32413,7 +32413,7 @@
     </row>
     <row r="1178">
       <c r="A1178" s="1" t="n">
-        <v>45467.6493287037</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B1178" t="n">
         <v>16132</v>
@@ -32434,6 +32434,32 @@
         <v>483</v>
       </c>
       <c r="H1178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="1" t="n">
+        <v>45468.649537037</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>23098</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G1179" t="s">
+        <v>483</v>
+      </c>
+      <c r="H1179" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37530136108398</t>
+    <t xml:space="preserve">8.3753023147583</t>
   </si>
   <si>
     <t xml:space="preserve">SCF.MI</t>
@@ -47,22 +47,22 @@
     <t xml:space="preserve">8.33448791503906</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17905235290527</t>
+    <t xml:space="preserve">8.17905330657959</t>
   </si>
   <si>
     <t xml:space="preserve">8.13650321960449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16342163085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10176944732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11045360565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11913681030273</t>
+    <t xml:space="preserve">8.16342258453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10176849365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11045265197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11913585662842</t>
   </si>
   <si>
     <t xml:space="preserve">8.16255378723145</t>
@@ -77,28 +77,28 @@
     <t xml:space="preserve">8.29280757904053</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50989723205566</t>
+    <t xml:space="preserve">8.50989818572998</t>
   </si>
   <si>
     <t xml:space="preserve">8.51163387298584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48384571075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38398456573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31017398834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42306137084961</t>
+    <t xml:space="preserve">8.48384666442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38398551940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3101749420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42306041717529</t>
   </si>
   <si>
     <t xml:space="preserve">8.51858043670654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02222728729248</t>
+    <t xml:space="preserve">9.0222282409668</t>
   </si>
   <si>
     <t xml:space="preserve">8.89892101287842</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">8.8468189239502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93886375427246</t>
+    <t xml:space="preserve">8.93886470794678</t>
   </si>
   <si>
     <t xml:space="preserve">8.94407653808594</t>
@@ -116,73 +116,73 @@
     <t xml:space="preserve">8.93539142608643</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00485992431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97707366943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02917289733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03090953826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98749351501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33483505249023</t>
+    <t xml:space="preserve">9.00485897064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97707271575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02917385101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03091144561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98749256134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33483600616455</t>
   </si>
   <si>
     <t xml:space="preserve">9.2480001449585</t>
   </si>
   <si>
-    <t xml:space="preserve">9.465087890625</t>
+    <t xml:space="preserve">9.46508979797363</t>
   </si>
   <si>
     <t xml:space="preserve">9.5953426361084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68217754364014</t>
+    <t xml:space="preserve">9.68217849731445</t>
   </si>
   <si>
     <t xml:space="preserve">9.81243228912354</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7255973815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98610305786133</t>
+    <t xml:space="preserve">9.72559642791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98610401153564</t>
   </si>
   <si>
     <t xml:space="preserve">10.0295219421387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76901340484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89926624298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85585021972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63876056671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55192470550537</t>
+    <t xml:space="preserve">9.76901435852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89926815032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85584926605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63876152038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55192565917969</t>
   </si>
   <si>
     <t xml:space="preserve">9.16116428375244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29141807556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0743293762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57936573028564</t>
+    <t xml:space="preserve">9.29141712188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07432842254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57936477661133</t>
   </si>
   <si>
     <t xml:space="preserve">8.63146591186523</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">8.77040481567383</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20458221435547</t>
+    <t xml:space="preserve">9.20458316802979</t>
   </si>
   <si>
     <t xml:space="preserve">8.68356800079346</t>
@@ -209,37 +209,37 @@
     <t xml:space="preserve">7.51996994018555</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02361679077148</t>
+    <t xml:space="preserve">8.02361583709717</t>
   </si>
   <si>
     <t xml:space="preserve">7.72837543487549</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98888301849365</t>
+    <t xml:space="preserve">7.98888254165649</t>
   </si>
   <si>
     <t xml:space="preserve">7.8152117729187</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78047657012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09308528900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38832569122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90065765380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11774730682373</t>
+    <t xml:space="preserve">7.78047704696655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09308624267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38832664489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90065670013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11774635314941</t>
   </si>
   <si>
     <t xml:space="preserve">8.81382179260254</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42167282104492</t>
+    <t xml:space="preserve">9.42167186737061</t>
   </si>
   <si>
     <t xml:space="preserve">9.0274715423584</t>
@@ -248,7 +248,7 @@
     <t xml:space="preserve">9.07260990142822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74967002868652</t>
+    <t xml:space="preserve">9.74966907501221</t>
   </si>
   <si>
     <t xml:space="preserve">10.1559057235718</t>
@@ -257,13 +257,13 @@
     <t xml:space="preserve">10.2913179397583</t>
   </si>
   <si>
-    <t xml:space="preserve">10.381591796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.471866607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6072788238525</t>
+    <t xml:space="preserve">10.3815927505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4718685150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6072797775269</t>
   </si>
   <si>
     <t xml:space="preserve">10.5170040130615</t>
@@ -290,25 +290,25 @@
     <t xml:space="preserve">11.1037902832031</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0586528778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9683771133423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9232406616211</t>
+    <t xml:space="preserve">11.0586519241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9683780670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9232416152954</t>
   </si>
   <si>
     <t xml:space="preserve">10.8781032562256</t>
   </si>
   <si>
-    <t xml:space="preserve">10.652416229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7426910400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.562141418457</t>
+    <t xml:space="preserve">10.6524171829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7426900863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5621423721313</t>
   </si>
   <si>
     <t xml:space="preserve">10.4267292022705</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">10.3364553451538</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2461814880371</t>
+    <t xml:space="preserve">10.2461805343628</t>
   </si>
   <si>
     <t xml:space="preserve">11.4197511672974</t>
@@ -329,31 +329,31 @@
     <t xml:space="preserve">11.6454381942749</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7357139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5551633834839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3746147155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5100269317627</t>
+    <t xml:space="preserve">11.7357130050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5551643371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3746137619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5100259780884</t>
   </si>
   <si>
     <t xml:space="preserve">11.2392024993896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4648885726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6003007888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6905765533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7808504104614</t>
+    <t xml:space="preserve">11.4648895263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.600302696228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6905755996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7808513641357</t>
   </si>
   <si>
     <t xml:space="preserve">11.8259887695312</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">11.9162626266479</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9614000320435</t>
+    <t xml:space="preserve">11.9614009857178</t>
   </si>
   <si>
     <t xml:space="preserve">12.1419496536255</t>
@@ -377,10 +377,10 @@
     <t xml:space="preserve">12.5481853485107</t>
   </si>
   <si>
-    <t xml:space="preserve">12.367636680603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1870880126953</t>
+    <t xml:space="preserve">12.3676347732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.187087059021</t>
   </si>
   <si>
     <t xml:space="preserve">12.277361869812</t>
@@ -395,19 +395,19 @@
     <t xml:space="preserve">12.2322244644165</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3224992752075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.620548248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7136898040771</t>
+    <t xml:space="preserve">12.3224983215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6205492019653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7136888504028</t>
   </si>
   <si>
     <t xml:space="preserve">12.5274085998535</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4808378219604</t>
+    <t xml:space="preserve">12.4808368682861</t>
   </si>
   <si>
     <t xml:space="preserve">12.6671199798584</t>
@@ -416,25 +416,25 @@
     <t xml:space="preserve">12.5739784240723</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2945575714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3876981735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4342679977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9465408325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1328229904175</t>
+    <t xml:space="preserve">12.2945566177368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3876972198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.434268951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9465398788452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1328220367432</t>
   </si>
   <si>
     <t xml:space="preserve">13.1793918609619</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9931106567383</t>
+    <t xml:space="preserve">12.9931116104126</t>
   </si>
   <si>
     <t xml:space="preserve">13.2725324630737</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">13.7848062515259</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5985250473022</t>
+    <t xml:space="preserve">13.5985260009766</t>
   </si>
   <si>
     <t xml:space="preserve">13.7382354736328</t>
@@ -458,7 +458,7 @@
     <t xml:space="preserve">13.9710874557495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8779468536377</t>
+    <t xml:space="preserve">13.8779458999634</t>
   </si>
   <si>
     <t xml:space="preserve">13.3656740188599</t>
@@ -476,13 +476,13 @@
     <t xml:space="preserve">13.8313770294189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0642280578613</t>
+    <t xml:space="preserve">14.0642290115356</t>
   </si>
   <si>
     <t xml:space="preserve">14.297080039978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7627830505371</t>
+    <t xml:space="preserve">14.7627820968628</t>
   </si>
   <si>
     <t xml:space="preserve">15.321626663208</t>
@@ -491,19 +491,19 @@
     <t xml:space="preserve">15.6010475158691</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9270401000977</t>
+    <t xml:space="preserve">15.9270391464233</t>
   </si>
   <si>
     <t xml:space="preserve">15.8804683685303</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8338994979858</t>
+    <t xml:space="preserve">15.8339004516602</t>
   </si>
   <si>
     <t xml:space="preserve">15.6941890716553</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9736089706421</t>
+    <t xml:space="preserve">15.9736099243164</t>
   </si>
   <si>
     <t xml:space="preserve">16.4393119812012</t>
@@ -512,19 +512,19 @@
     <t xml:space="preserve">16.6721630096436</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9981575012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2310085296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9515857696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4172897338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6501407623291</t>
+    <t xml:space="preserve">16.9981555938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2310066223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.951587677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4172878265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6501426696777</t>
   </si>
   <si>
     <t xml:space="preserve">17.789852142334</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">16.8584461212158</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7187347412109</t>
+    <t xml:space="preserve">16.7187366485596</t>
   </si>
   <si>
     <t xml:space="preserve">17.0447254180908</t>
@@ -545,7 +545,7 @@
     <t xml:space="preserve">17.3707180023193</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3241481781006</t>
+    <t xml:space="preserve">17.3241500854492</t>
   </si>
   <si>
     <t xml:space="preserve">16.7653045654297</t>
@@ -560,22 +560,22 @@
     <t xml:space="preserve">16.1133193969727</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1598930358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1844367980957</t>
+    <t xml:space="preserve">16.15989112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1844387054443</t>
   </si>
   <si>
     <t xml:space="preserve">17.137866973877</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9050140380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.976131439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1624126434326</t>
+    <t xml:space="preserve">16.9050159454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9761333465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1624145507812</t>
   </si>
   <si>
     <t xml:space="preserve">17.8829917907715</t>
@@ -587,7 +587,7 @@
     <t xml:space="preserve">18.1158447265625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5349769592285</t>
+    <t xml:space="preserve">18.5349750518799</t>
   </si>
   <si>
     <t xml:space="preserve">18.628116607666</t>
@@ -596,25 +596,25 @@
     <t xml:space="preserve">18.3486957550049</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5815448760986</t>
+    <t xml:space="preserve">18.5815467834473</t>
   </si>
   <si>
     <t xml:space="preserve">18.9075374603271</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4884071350098</t>
+    <t xml:space="preserve">18.4884052276611</t>
   </si>
   <si>
     <t xml:space="preserve">19.0938205718994</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2800998687744</t>
+    <t xml:space="preserve">19.280101776123</t>
   </si>
   <si>
     <t xml:space="preserve">20.2115058898926</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1183643341064</t>
+    <t xml:space="preserve">20.1183662414551</t>
   </si>
   <si>
     <t xml:space="preserve">19.8389434814453</t>
@@ -626,16 +626,16 @@
     <t xml:space="preserve">19.9320831298828</t>
   </si>
   <si>
-    <t xml:space="preserve">20.677209854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0252265930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1869621276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6526622772217</t>
+    <t xml:space="preserve">20.6772079467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0252246856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1869602203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6526641845703</t>
   </si>
   <si>
     <t xml:space="preserve">21.7017555236816</t>
@@ -647,10 +647,10 @@
     <t xml:space="preserve">21.7948970794678</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4468784332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7263011932373</t>
+    <t xml:space="preserve">22.4468803405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7263031005859</t>
   </si>
   <si>
     <t xml:space="preserve">22.5400218963623</t>
@@ -662,16 +662,16 @@
     <t xml:space="preserve">23.1920051574707</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0057239532471</t>
+    <t xml:space="preserve">23.0057220458984</t>
   </si>
   <si>
     <t xml:space="preserve">23.0988636016846</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9125823974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8194427490234</t>
+    <t xml:space="preserve">22.9125843048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8194408416748</t>
   </si>
   <si>
     <t xml:space="preserve">23.3782863616943</t>
@@ -686,19 +686,19 @@
     <t xml:space="preserve">22.1674575805664</t>
   </si>
   <si>
-    <t xml:space="preserve">22.35373878479</t>
+    <t xml:space="preserve">22.3537406921387</t>
   </si>
   <si>
     <t xml:space="preserve">22.2605991363525</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6331615447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0497703552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2360515594482</t>
+    <t xml:space="preserve">22.6331596374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0497741699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2360534667969</t>
   </si>
   <si>
     <t xml:space="preserve">21.3291931152344</t>
@@ -707,7 +707,7 @@
     <t xml:space="preserve">21.4223346710205</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5840682983398</t>
+    <t xml:space="preserve">20.5840702056885</t>
   </si>
   <si>
     <t xml:space="preserve">20.3046455383301</t>
@@ -716,16 +716,16 @@
     <t xml:space="preserve">20.8634910583496</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0006790161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1429138183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3732414245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5595226287842</t>
+    <t xml:space="preserve">19.0006771087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1429119110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3732395172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5595207214355</t>
   </si>
   <si>
     <t xml:space="preserve">19.466381072998</t>
@@ -740,13 +740,13 @@
     <t xml:space="preserve">18.3673229217529</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6221981048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0692729949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6746864318848</t>
+    <t xml:space="preserve">17.622200012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0692710876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6746845245361</t>
   </si>
   <si>
     <t xml:space="preserve">18.0133895874023</t>
@@ -755,19 +755,19 @@
     <t xml:space="preserve">17.7525939941406</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5663146972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6594524383545</t>
+    <t xml:space="preserve">17.566312789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6594543457031</t>
   </si>
   <si>
     <t xml:space="preserve">17.7339668273926</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9202480316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5104274749756</t>
+    <t xml:space="preserve">17.9202461242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5104293823242</t>
   </si>
   <si>
     <t xml:space="preserve">16.8211879730225</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">16.6349086761475</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8957004547119</t>
+    <t xml:space="preserve">16.8957023620605</t>
   </si>
   <si>
     <t xml:space="preserve">16.728048324585</t>
@@ -785,22 +785,22 @@
     <t xml:space="preserve">16.54176902771</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3554840087891</t>
+    <t xml:space="preserve">16.3554859161377</t>
   </si>
   <si>
     <t xml:space="preserve">15.722128868103</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5544786453247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0515174865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9770050048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4613370895386</t>
+    <t xml:space="preserve">15.5544776916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0515184402466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9770059585571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4613380432129</t>
   </si>
   <si>
     <t xml:space="preserve">15.1446590423584</t>
@@ -809,13 +809,13 @@
     <t xml:space="preserve">16.5231380462646</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0968570709229</t>
+    <t xml:space="preserve">17.0968589782715</t>
   </si>
   <si>
     <t xml:space="preserve">17.5940837860107</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5367126464844</t>
+    <t xml:space="preserve">17.5367107391357</t>
   </si>
   <si>
     <t xml:space="preserve">17.364595413208</t>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">18.7224006652832</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3781661987305</t>
+    <t xml:space="preserve">18.3781681060791</t>
   </si>
   <si>
     <t xml:space="preserve">18.6459045410156</t>
@@ -884,31 +884,31 @@
     <t xml:space="preserve">16.274528503418</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8920488357544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7199325561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2171535491943</t>
+    <t xml:space="preserve">15.8920469284058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.719931602478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.217155456543</t>
   </si>
   <si>
     <t xml:space="preserve">16.0067901611328</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1215362548828</t>
+    <t xml:space="preserve">16.1215343475342</t>
   </si>
   <si>
     <t xml:space="preserve">15.9111700057983</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8729238510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8346738815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6051864624023</t>
+    <t xml:space="preserve">15.8729248046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8346748352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6051874160767</t>
   </si>
   <si>
     <t xml:space="preserve">15.2992029190063</t>
@@ -920,25 +920,25 @@
     <t xml:space="preserve">16.7335033416748</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1159820556641</t>
+    <t xml:space="preserve">17.1159839630127</t>
   </si>
   <si>
     <t xml:space="preserve">16.752628326416</t>
   </si>
   <si>
-    <t xml:space="preserve">17.00124168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0394878387451</t>
+    <t xml:space="preserve">17.0012397766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0394859313965</t>
   </si>
   <si>
     <t xml:space="preserve">18.1486797332764</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8235702514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6323337554932</t>
+    <t xml:space="preserve">17.8235721588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6323318481445</t>
   </si>
   <si>
     <t xml:space="preserve">17.7088279724121</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">16.9056205749512</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8291244506836</t>
+    <t xml:space="preserve">16.829122543335</t>
   </si>
   <si>
     <t xml:space="preserve">16.88649559021</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">15.5860624313354</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6872339248657</t>
+    <t xml:space="preserve">14.68723487854</t>
   </si>
   <si>
     <t xml:space="preserve">14.1900110244751</t>
@@ -1010,7 +1010,7 @@
     <t xml:space="preserve">13.6736631393433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6545391082764</t>
+    <t xml:space="preserve">13.6545381546021</t>
   </si>
   <si>
     <t xml:space="preserve">13.3485546112061</t>
@@ -1022,28 +1022,28 @@
     <t xml:space="preserve">13.0999422073364</t>
   </si>
   <si>
-    <t xml:space="preserve">12.564471244812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4250507354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4768714904785</t>
+    <t xml:space="preserve">12.5644702911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4250497817993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4768705368042</t>
   </si>
   <si>
     <t xml:space="preserve">14.4386234283447</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708860397339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9413986206055</t>
+    <t xml:space="preserve">14.1708869934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9413995742798</t>
   </si>
   <si>
     <t xml:space="preserve">13.9987716674805</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2473831176758</t>
+    <t xml:space="preserve">14.2473821640015</t>
   </si>
   <si>
     <t xml:space="preserve">14.2282590866089</t>
@@ -1052,16 +1052,16 @@
     <t xml:space="preserve">14.8593511581421</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0888385772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4713201522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3948240280151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4521951675415</t>
+    <t xml:space="preserve">15.0888395309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4713191986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3948230743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4521942138672</t>
   </si>
   <si>
     <t xml:space="preserve">15.3183279037476</t>
@@ -1088,28 +1088,28 @@
     <t xml:space="preserve">15.5669393539429</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0832862854004</t>
+    <t xml:space="preserve">16.083288192749</t>
   </si>
   <si>
     <t xml:space="preserve">16.1980323791504</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7908744812012</t>
+    <t xml:space="preserve">16.7908763885498</t>
   </si>
   <si>
     <t xml:space="preserve">16.5805110931396</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1351070404053</t>
+    <t xml:space="preserve">17.1351089477539</t>
   </si>
   <si>
     <t xml:space="preserve">17.0203628540039</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6187572479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5613861083984</t>
+    <t xml:space="preserve">16.6187591552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5613880157471</t>
   </si>
   <si>
     <t xml:space="preserve">16.6761322021484</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">16.9438667297363</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4657669067383</t>
+    <t xml:space="preserve">16.4657649993896</t>
   </si>
   <si>
     <t xml:space="preserve">16.159782409668</t>
@@ -1130,10 +1130,10 @@
     <t xml:space="preserve">16.3318996429443</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1024112701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9876661300659</t>
+    <t xml:space="preserve">16.1024131774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9876670837402</t>
   </si>
   <si>
     <t xml:space="preserve">16.4466457366943</t>
@@ -1148,13 +1148,13 @@
     <t xml:space="preserve">17.3072242736816</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5175876617432</t>
+    <t xml:space="preserve">17.5175857543945</t>
   </si>
   <si>
     <t xml:space="preserve">17.7661991119385</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0721836090088</t>
+    <t xml:space="preserve">18.0721817016602</t>
   </si>
   <si>
     <t xml:space="preserve">17.7853240966797</t>
@@ -1163,10 +1163,10 @@
     <t xml:space="preserve">17.8618202209473</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3837203979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8044471740723</t>
+    <t xml:space="preserve">17.3837184906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8044490814209</t>
   </si>
   <si>
     <t xml:space="preserve">17.498462677002</t>
@@ -1175,13 +1175,13 @@
     <t xml:space="preserve">17.6897029876709</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4793395996094</t>
+    <t xml:space="preserve">17.479341506958</t>
   </si>
   <si>
     <t xml:space="preserve">17.2307281494141</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0586128234863</t>
+    <t xml:space="preserve">17.0586109161377</t>
   </si>
   <si>
     <t xml:space="preserve">17.2116031646729</t>
@@ -1190,10 +1190,10 @@
     <t xml:space="preserve">17.4219665527344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3590431213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2251758575439</t>
+    <t xml:space="preserve">18.3590450286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2251739501953</t>
   </si>
   <si>
     <t xml:space="preserve">18.9327621459961</t>
@@ -1211,7 +1211,7 @@
     <t xml:space="preserve">20.1758232116699</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4148731231689</t>
+    <t xml:space="preserve">20.4148750305176</t>
   </si>
   <si>
     <t xml:space="preserve">20.5104942321777</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">20.2236347198486</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7933444976807</t>
+    <t xml:space="preserve">19.7933464050293</t>
   </si>
   <si>
     <t xml:space="preserve">19.6021041870117</t>
@@ -1244,16 +1244,16 @@
     <t xml:space="preserve">20.7495441436768</t>
   </si>
   <si>
-    <t xml:space="preserve">20.653923034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7973556518555</t>
+    <t xml:space="preserve">20.6539249420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7973537445068</t>
   </si>
   <si>
     <t xml:space="preserve">20.7017345428467</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0364055633545</t>
+    <t xml:space="preserve">21.0364036560059</t>
   </si>
   <si>
     <t xml:space="preserve">20.8451633453369</t>
@@ -32462,7 +32462,7 @@
     </row>
     <row r="1180">
       <c r="A1180" s="1" t="n">
-        <v>45469.6494212963</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B1180" t="n">
         <v>11162</v>
@@ -32483,6 +32483,32 @@
         <v>482</v>
       </c>
       <c r="H1180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="1" t="n">
+        <v>45470.6495486111</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>17563</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G1181" t="s">
+        <v>482</v>
+      </c>
+      <c r="H1181" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -53,13 +53,13 @@
     <t xml:space="preserve">8.13650321960449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16342163085938</t>
+    <t xml:space="preserve">8.16342258453369</t>
   </si>
   <si>
     <t xml:space="preserve">8.10176944732666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11045360565186</t>
+    <t xml:space="preserve">8.11045265197754</t>
   </si>
   <si>
     <t xml:space="preserve">8.11913585662842</t>
@@ -71,10 +71,10 @@
     <t xml:space="preserve">8.2407054901123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24938869476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29280757904053</t>
+    <t xml:space="preserve">8.2493896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29280662536621</t>
   </si>
   <si>
     <t xml:space="preserve">8.50989723205566</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">8.48384666442871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38398456573486</t>
+    <t xml:space="preserve">8.38398551940918</t>
   </si>
   <si>
     <t xml:space="preserve">8.31017398834229</t>
@@ -98,19 +98,19 @@
     <t xml:space="preserve">8.51858043670654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02222633361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8989200592041</t>
+    <t xml:space="preserve">9.0222282409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89892101287842</t>
   </si>
   <si>
     <t xml:space="preserve">8.8468189239502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93886470794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94407653808594</t>
+    <t xml:space="preserve">8.93886375427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94407558441162</t>
   </si>
   <si>
     <t xml:space="preserve">8.93539237976074</t>
@@ -119,25 +119,25 @@
     <t xml:space="preserve">9.00485992431641</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97707366943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02917385101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03090953826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98749351501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33483505249023</t>
+    <t xml:space="preserve">8.97707271575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0291748046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03091049194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98749446868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33483600616455</t>
   </si>
   <si>
     <t xml:space="preserve">9.24799919128418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46508884429932</t>
+    <t xml:space="preserve">9.465087890625</t>
   </si>
   <si>
     <t xml:space="preserve">9.5953426361084</t>
@@ -149,40 +149,40 @@
     <t xml:space="preserve">9.81243228912354</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7255973815918</t>
+    <t xml:space="preserve">9.72559642791748</t>
   </si>
   <si>
     <t xml:space="preserve">9.98610305786133</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0295219421387</t>
+    <t xml:space="preserve">10.0295209884644</t>
   </si>
   <si>
     <t xml:space="preserve">9.76901435852051</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89926624298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85585021972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63876056671143</t>
+    <t xml:space="preserve">9.89926719665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85585117340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63876152038574</t>
   </si>
   <si>
     <t xml:space="preserve">9.55192565917969</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16116428375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29141807556152</t>
+    <t xml:space="preserve">9.16116333007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29141712188721</t>
   </si>
   <si>
     <t xml:space="preserve">9.07432842254639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57936668395996</t>
+    <t xml:space="preserve">8.57936477661133</t>
   </si>
   <si>
     <t xml:space="preserve">8.63146686553955</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">9.20458221435547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68356895446777</t>
+    <t xml:space="preserve">8.68356704711914</t>
   </si>
   <si>
     <t xml:space="preserve">8.45779514312744</t>
@@ -209,40 +209,40 @@
     <t xml:space="preserve">7.51996994018555</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02361583709717</t>
+    <t xml:space="preserve">8.02361679077148</t>
   </si>
   <si>
     <t xml:space="preserve">7.72837543487549</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98888301849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8152117729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78047752380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09308433532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38832664489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90065765380859</t>
+    <t xml:space="preserve">7.98888254165649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81521129608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78047609329224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09308528900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38832759857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90065860748291</t>
   </si>
   <si>
     <t xml:space="preserve">9.11774635314941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81382083892822</t>
+    <t xml:space="preserve">8.81382179260254</t>
   </si>
   <si>
     <t xml:space="preserve">9.42167186737061</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0274715423584</t>
+    <t xml:space="preserve">9.02747058868408</t>
   </si>
   <si>
     <t xml:space="preserve">9.07260990142822</t>
@@ -260,13 +260,13 @@
     <t xml:space="preserve">10.3815927505493</t>
   </si>
   <si>
-    <t xml:space="preserve">10.471866607666</t>
+    <t xml:space="preserve">10.4718675613403</t>
   </si>
   <si>
     <t xml:space="preserve">10.6072797775269</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5170040130615</t>
+    <t xml:space="preserve">10.5170049667358</t>
   </si>
   <si>
     <t xml:space="preserve">11.0135154724121</t>
@@ -278,49 +278,49 @@
     <t xml:space="preserve">11.1489276885986</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2843389511108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8329658508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7878284454346</t>
+    <t xml:space="preserve">11.2843399047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8329668045044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7878274917603</t>
   </si>
   <si>
     <t xml:space="preserve">11.1037902832031</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0586519241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9683771133423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9232406616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8781032562256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.652416229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7426910400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.562141418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4267292022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6975545883179</t>
+    <t xml:space="preserve">11.0586528778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9683780670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9232416152954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8781023025513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6524171829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7426919937134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5621423721313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4267301559448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6975536346436</t>
   </si>
   <si>
     <t xml:space="preserve">10.3364553451538</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2461805343628</t>
+    <t xml:space="preserve">10.2461814880371</t>
   </si>
   <si>
     <t xml:space="preserve">11.4197511672974</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">11.7357130050659</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5551633834839</t>
+    <t xml:space="preserve">11.5551643371582</t>
   </si>
   <si>
     <t xml:space="preserve">11.3746147155762</t>
@@ -341,22 +341,22 @@
     <t xml:space="preserve">11.5100259780884</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2392024993896</t>
+    <t xml:space="preserve">11.2392015457153</t>
   </si>
   <si>
     <t xml:space="preserve">11.4648885726929</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6003007888794</t>
+    <t xml:space="preserve">11.600302696228</t>
   </si>
   <si>
     <t xml:space="preserve">11.6905765533447</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7808504104614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8259887695312</t>
+    <t xml:space="preserve">11.7808523178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8259878158569</t>
   </si>
   <si>
     <t xml:space="preserve">11.8711252212524</t>
@@ -365,16 +365,16 @@
     <t xml:space="preserve">11.9162626266479</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9613990783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1419496536255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4579105377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5481853485107</t>
+    <t xml:space="preserve">11.9614000320435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1419486999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.457911491394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5481843948364</t>
   </si>
   <si>
     <t xml:space="preserve">12.3676357269287</t>
@@ -389,7 +389,7 @@
     <t xml:space="preserve">12.5030488967896</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6384592056274</t>
+    <t xml:space="preserve">12.6384601593018</t>
   </si>
   <si>
     <t xml:space="preserve">12.2322244644165</t>
@@ -398,25 +398,25 @@
     <t xml:space="preserve">12.3224992752075</t>
   </si>
   <si>
-    <t xml:space="preserve">12.620548248291</t>
+    <t xml:space="preserve">12.6205492019653</t>
   </si>
   <si>
     <t xml:space="preserve">12.7136898040771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5274085998535</t>
+    <t xml:space="preserve">12.5274076461792</t>
   </si>
   <si>
     <t xml:space="preserve">12.4808378219604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6671199798584</t>
+    <t xml:space="preserve">12.6671190261841</t>
   </si>
   <si>
     <t xml:space="preserve">12.5739784240723</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2945575714111</t>
+    <t xml:space="preserve">12.2945566177368</t>
   </si>
   <si>
     <t xml:space="preserve">12.3876981735229</t>
@@ -425,10 +425,10 @@
     <t xml:space="preserve">12.4342679977417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9465408325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1328229904175</t>
+    <t xml:space="preserve">12.9465398788452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1328220367432</t>
   </si>
   <si>
     <t xml:space="preserve">13.1793918609619</t>
@@ -440,13 +440,13 @@
     <t xml:space="preserve">13.2725324630737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4588136672974</t>
+    <t xml:space="preserve">13.4588146209717</t>
   </si>
   <si>
     <t xml:space="preserve">13.5519552230835</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7848062515259</t>
+    <t xml:space="preserve">13.7848072052002</t>
   </si>
   <si>
     <t xml:space="preserve">13.5985250473022</t>
@@ -473,13 +473,13 @@
     <t xml:space="preserve">13.645094871521</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8313770294189</t>
+    <t xml:space="preserve">13.8313760757446</t>
   </si>
   <si>
     <t xml:space="preserve">14.0642280578613</t>
   </si>
   <si>
-    <t xml:space="preserve">14.297080039978</t>
+    <t xml:space="preserve">14.2970790863037</t>
   </si>
   <si>
     <t xml:space="preserve">14.7627830505371</t>
@@ -512,22 +512,22 @@
     <t xml:space="preserve">16.6721630096436</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9981575012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2310085296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9515857696533</t>
+    <t xml:space="preserve">16.9981555938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2310066223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.951587677002</t>
   </si>
   <si>
     <t xml:space="preserve">17.4172897338867</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6501407623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.789852142334</t>
+    <t xml:space="preserve">17.6501426696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7898502349854</t>
   </si>
   <si>
     <t xml:space="preserve">17.4638595581055</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">16.8584461212158</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7187347412109</t>
+    <t xml:space="preserve">16.7187366485596</t>
   </si>
   <si>
     <t xml:space="preserve">17.0447254180908</t>
@@ -554,22 +554,22 @@
     <t xml:space="preserve">16.8118743896484</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2996025085449</t>
+    <t xml:space="preserve">16.2996006011963</t>
   </si>
   <si>
     <t xml:space="preserve">16.1133193969727</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1598930358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1844367980957</t>
+    <t xml:space="preserve">16.15989112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1844387054443</t>
   </si>
   <si>
     <t xml:space="preserve">17.137866973877</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9050140380859</t>
+    <t xml:space="preserve">16.9050159454346</t>
   </si>
   <si>
     <t xml:space="preserve">17.976131439209</t>
@@ -578,7 +578,7 @@
     <t xml:space="preserve">18.1624126434326</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8829917907715</t>
+    <t xml:space="preserve">17.8829936981201</t>
   </si>
   <si>
     <t xml:space="preserve">17.8364219665527</t>
@@ -590,28 +590,28 @@
     <t xml:space="preserve">18.5349769592285</t>
   </si>
   <si>
-    <t xml:space="preserve">18.628116607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3486957550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5815448760986</t>
+    <t xml:space="preserve">18.6281147003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3486976623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5815467834473</t>
   </si>
   <si>
     <t xml:space="preserve">18.9075374603271</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4884071350098</t>
+    <t xml:space="preserve">18.4884052276611</t>
   </si>
   <si>
     <t xml:space="preserve">19.0938205718994</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2800998687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2115058898926</t>
+    <t xml:space="preserve">19.280101776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2115077972412</t>
   </si>
   <si>
     <t xml:space="preserve">20.1183643341064</t>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">20.0252265930176</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1869621276855</t>
+    <t xml:space="preserve">19.1869602203369</t>
   </si>
   <si>
     <t xml:space="preserve">19.6526622772217</t>
@@ -656,10 +656,10 @@
     <t xml:space="preserve">22.5400218963623</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2851448059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1920051574707</t>
+    <t xml:space="preserve">23.2851467132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1920032501221</t>
   </si>
   <si>
     <t xml:space="preserve">23.0057239532471</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">22.8194427490234</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3782863616943</t>
+    <t xml:space="preserve">23.3782844543457</t>
   </si>
   <si>
     <t xml:space="preserve">23.5645656585693</t>
@@ -683,19 +683,19 @@
     <t xml:space="preserve">21.8880367279053</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1674575805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.35373878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2605991363525</t>
+    <t xml:space="preserve">22.167459487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3537406921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2605972290039</t>
   </si>
   <si>
     <t xml:space="preserve">22.6331615447998</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0497703552246</t>
+    <t xml:space="preserve">21.0497722625732</t>
   </si>
   <si>
     <t xml:space="preserve">21.2360515594482</t>
@@ -710,7 +710,7 @@
     <t xml:space="preserve">20.5840682983398</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3046455383301</t>
+    <t xml:space="preserve">20.3046436309814</t>
   </si>
   <si>
     <t xml:space="preserve">20.8634910583496</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">21.1429138183594</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3732414245605</t>
+    <t xml:space="preserve">19.3732395172119</t>
   </si>
   <si>
     <t xml:space="preserve">19.5595226287842</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">18.7212581634521</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5722312927246</t>
+    <t xml:space="preserve">18.5722332000732</t>
   </si>
   <si>
     <t xml:space="preserve">18.3673229217529</t>
@@ -746,7 +746,7 @@
     <t xml:space="preserve">18.0692729949951</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6746864318848</t>
+    <t xml:space="preserve">18.6746845245361</t>
   </si>
   <si>
     <t xml:space="preserve">18.0133895874023</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">16.6349086761475</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8957004547119</t>
+    <t xml:space="preserve">16.8957023620605</t>
   </si>
   <si>
     <t xml:space="preserve">16.728048324585</t>
@@ -785,22 +785,22 @@
     <t xml:space="preserve">16.54176902771</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3554840087891</t>
+    <t xml:space="preserve">16.3554859161377</t>
   </si>
   <si>
     <t xml:space="preserve">15.722128868103</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5544786453247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0515174865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9770050048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4613370895386</t>
+    <t xml:space="preserve">15.5544776916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0515184402466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9770059585571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4613380432129</t>
   </si>
   <si>
     <t xml:space="preserve">15.1446590423584</t>
@@ -32540,7 +32540,7 @@
     </row>
     <row r="1183">
       <c r="A1183" s="1" t="n">
-        <v>45474.6494328704</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B1183" t="n">
         <v>9395</v>
@@ -32561,6 +32561,32 @@
         <v>482</v>
       </c>
       <c r="H1183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="1" t="n">
+        <v>45475.6495023148</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>16305</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="G1184" t="s">
+        <v>484</v>
+      </c>
+      <c r="H1184" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="484">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">SCF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33448791503906</t>
+    <t xml:space="preserve">8.33448886871338</t>
   </si>
   <si>
     <t xml:space="preserve">8.17905235290527</t>
@@ -53,10 +53,10 @@
     <t xml:space="preserve">8.13650321960449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16342258453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10176944732666</t>
+    <t xml:space="preserve">8.16342163085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10176849365234</t>
   </si>
   <si>
     <t xml:space="preserve">8.11045265197754</t>
@@ -74,19 +74,19 @@
     <t xml:space="preserve">8.2493896484375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29280662536621</t>
+    <t xml:space="preserve">8.29280757904053</t>
   </si>
   <si>
     <t xml:space="preserve">8.50989723205566</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51163387298584</t>
+    <t xml:space="preserve">8.51163291931152</t>
   </si>
   <si>
     <t xml:space="preserve">8.48384666442871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38398551940918</t>
+    <t xml:space="preserve">8.38398456573486</t>
   </si>
   <si>
     <t xml:space="preserve">8.31017398834229</t>
@@ -98,16 +98,16 @@
     <t xml:space="preserve">8.51858043670654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0222282409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89892101287842</t>
+    <t xml:space="preserve">9.02222728729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8989200592041</t>
   </si>
   <si>
     <t xml:space="preserve">8.8468189239502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93886375427246</t>
+    <t xml:space="preserve">8.93886566162109</t>
   </si>
   <si>
     <t xml:space="preserve">8.94407558441162</t>
@@ -122,13 +122,13 @@
     <t xml:space="preserve">8.97707271575928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0291748046875</t>
+    <t xml:space="preserve">9.02917385101318</t>
   </si>
   <si>
     <t xml:space="preserve">9.03091049194336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98749446868896</t>
+    <t xml:space="preserve">8.98749351501465</t>
   </si>
   <si>
     <t xml:space="preserve">9.33483600616455</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">9.24799919128418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.465087890625</t>
+    <t xml:space="preserve">9.46508979797363</t>
   </si>
   <si>
     <t xml:space="preserve">9.5953426361084</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">9.81243228912354</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72559642791748</t>
+    <t xml:space="preserve">9.72559547424316</t>
   </si>
   <si>
     <t xml:space="preserve">9.98610305786133</t>
@@ -164,25 +164,25 @@
     <t xml:space="preserve">9.89926719665527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85585117340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63876152038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55192565917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16116333007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29141712188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07432842254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57936477661133</t>
+    <t xml:space="preserve">9.85584926605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63876056671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55192470550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16116428375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29141807556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0743293762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57936573028564</t>
   </si>
   <si>
     <t xml:space="preserve">8.63146686553955</t>
@@ -191,19 +191,19 @@
     <t xml:space="preserve">8.85723972320557</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77040386199951</t>
+    <t xml:space="preserve">8.77040481567383</t>
   </si>
   <si>
     <t xml:space="preserve">9.20458221435547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68356704711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45779514312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40569496154785</t>
+    <t xml:space="preserve">8.68356800079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45779609680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40569400787354</t>
   </si>
   <si>
     <t xml:space="preserve">7.51996994018555</t>
@@ -212,37 +212,37 @@
     <t xml:space="preserve">8.02361679077148</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72837543487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98888254165649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81521129608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78047609329224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09308528900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38832759857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90065860748291</t>
+    <t xml:space="preserve">7.72837495803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98888206481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8152117729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78047704696655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09308433532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38832664489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90065765380859</t>
   </si>
   <si>
     <t xml:space="preserve">9.11774635314941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81382179260254</t>
+    <t xml:space="preserve">8.81382083892822</t>
   </si>
   <si>
     <t xml:space="preserve">9.42167186737061</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02747058868408</t>
+    <t xml:space="preserve">9.0274715423584</t>
   </si>
   <si>
     <t xml:space="preserve">9.07260990142822</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">9.74966907501221</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1559057235718</t>
+    <t xml:space="preserve">10.1559066772461</t>
   </si>
   <si>
     <t xml:space="preserve">10.291316986084</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">10.5170049667358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0135154724121</t>
+    <t xml:space="preserve">11.0135164260864</t>
   </si>
   <si>
     <t xml:space="preserve">11.1940650939941</t>
@@ -278,13 +278,13 @@
     <t xml:space="preserve">11.1489276885986</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2843399047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8329668045044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7878274917603</t>
+    <t xml:space="preserve">11.2843389511108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8329658508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7878293991089</t>
   </si>
   <si>
     <t xml:space="preserve">11.1037902832031</t>
@@ -299,16 +299,16 @@
     <t xml:space="preserve">10.9232416152954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8781023025513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6524171829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7426919937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5621423721313</t>
+    <t xml:space="preserve">10.8781032562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.652416229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7426910400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.562141418457</t>
   </si>
   <si>
     <t xml:space="preserve">10.4267301559448</t>
@@ -335,13 +335,13 @@
     <t xml:space="preserve">11.5551643371582</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3746147155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5100259780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2392015457153</t>
+    <t xml:space="preserve">11.3746137619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5100269317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2392024993896</t>
   </si>
   <si>
     <t xml:space="preserve">11.4648885726929</t>
@@ -353,10 +353,10 @@
     <t xml:space="preserve">11.6905765533447</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7808523178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8259878158569</t>
+    <t xml:space="preserve">11.7808513641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8259887695312</t>
   </si>
   <si>
     <t xml:space="preserve">11.8711252212524</t>
@@ -365,25 +365,25 @@
     <t xml:space="preserve">11.9162626266479</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9614000320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1419486999512</t>
+    <t xml:space="preserve">11.9613990783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1419496536255</t>
   </si>
   <si>
     <t xml:space="preserve">12.457911491394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5481843948364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3676357269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.187087059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.277361869812</t>
+    <t xml:space="preserve">12.5481853485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.367636680603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1870861053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2773628234863</t>
   </si>
   <si>
     <t xml:space="preserve">12.5030488967896</t>
@@ -392,40 +392,40 @@
     <t xml:space="preserve">12.6384601593018</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2322244644165</t>
+    <t xml:space="preserve">12.2322235107422</t>
   </si>
   <si>
     <t xml:space="preserve">12.3224992752075</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6205492019653</t>
+    <t xml:space="preserve">12.620548248291</t>
   </si>
   <si>
     <t xml:space="preserve">12.7136898040771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5274076461792</t>
+    <t xml:space="preserve">12.5274085998535</t>
   </si>
   <si>
     <t xml:space="preserve">12.4808378219604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6671190261841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5739784240723</t>
+    <t xml:space="preserve">12.6671199798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5739774703979</t>
   </si>
   <si>
     <t xml:space="preserve">12.2945566177368</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3876981735229</t>
+    <t xml:space="preserve">12.3876972198486</t>
   </si>
   <si>
     <t xml:space="preserve">12.4342679977417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9465398788452</t>
+    <t xml:space="preserve">12.9465408325195</t>
   </si>
   <si>
     <t xml:space="preserve">13.1328220367432</t>
@@ -440,22 +440,22 @@
     <t xml:space="preserve">13.2725324630737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4588146209717</t>
+    <t xml:space="preserve">13.4588136672974</t>
   </si>
   <si>
     <t xml:space="preserve">13.5519552230835</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7848072052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5985250473022</t>
+    <t xml:space="preserve">13.7848062515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5985260009766</t>
   </si>
   <si>
     <t xml:space="preserve">13.7382354736328</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9710874557495</t>
+    <t xml:space="preserve">13.9710865020752</t>
   </si>
   <si>
     <t xml:space="preserve">13.8779468536377</t>
@@ -467,34 +467,34 @@
     <t xml:space="preserve">13.5053844451904</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6916656494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.645094871521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8313760757446</t>
+    <t xml:space="preserve">13.6916646957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6450958251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8313770294189</t>
   </si>
   <si>
     <t xml:space="preserve">14.0642280578613</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2970790863037</t>
+    <t xml:space="preserve">14.297080039978</t>
   </si>
   <si>
     <t xml:space="preserve">14.7627830505371</t>
   </si>
   <si>
-    <t xml:space="preserve">15.321626663208</t>
+    <t xml:space="preserve">15.3216276168823</t>
   </si>
   <si>
     <t xml:space="preserve">15.6010475158691</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9270401000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8804683685303</t>
+    <t xml:space="preserve">15.927041053772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.880467414856</t>
   </si>
   <si>
     <t xml:space="preserve">15.8338994979858</t>
@@ -518,16 +518,16 @@
     <t xml:space="preserve">17.2310066223145</t>
   </si>
   <si>
-    <t xml:space="preserve">16.951587677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4172897338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6501426696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7898502349854</t>
+    <t xml:space="preserve">16.9515857696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4172878265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6501407623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.789852142334</t>
   </si>
   <si>
     <t xml:space="preserve">17.4638595581055</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">16.8584461212158</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7187366485596</t>
+    <t xml:space="preserve">16.7187347412109</t>
   </si>
   <si>
     <t xml:space="preserve">17.0447254180908</t>
@@ -554,16 +554,16 @@
     <t xml:space="preserve">16.8118743896484</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2996006011963</t>
+    <t xml:space="preserve">16.2996025085449</t>
   </si>
   <si>
     <t xml:space="preserve">16.1133193969727</t>
   </si>
   <si>
-    <t xml:space="preserve">16.15989112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1844387054443</t>
+    <t xml:space="preserve">16.1598930358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1844367980957</t>
   </si>
   <si>
     <t xml:space="preserve">17.137866973877</t>
@@ -575,43 +575,43 @@
     <t xml:space="preserve">17.976131439209</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1624126434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8829936981201</t>
+    <t xml:space="preserve">18.1624145507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8829917907715</t>
   </si>
   <si>
     <t xml:space="preserve">17.8364219665527</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1158447265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5349769592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6281147003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3486976623535</t>
+    <t xml:space="preserve">18.1158428192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5349750518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.628116607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3486938476562</t>
   </si>
   <si>
     <t xml:space="preserve">18.5815467834473</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9075374603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4884052276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0938205718994</t>
+    <t xml:space="preserve">18.9075355529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4884071350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0938186645508</t>
   </si>
   <si>
     <t xml:space="preserve">19.280101776123</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2115077972412</t>
+    <t xml:space="preserve">20.2115058898926</t>
   </si>
   <si>
     <t xml:space="preserve">20.1183643341064</t>
@@ -623,16 +623,16 @@
     <t xml:space="preserve">19.7458038330078</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9320831298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.677209854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0252265930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1869602203369</t>
+    <t xml:space="preserve">19.9320850372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6772079467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0252246856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1869621276855</t>
   </si>
   <si>
     <t xml:space="preserve">19.6526622772217</t>
@@ -644,22 +644,22 @@
     <t xml:space="preserve">21.515474319458</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7948970794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4468784332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7263011932373</t>
+    <t xml:space="preserve">21.7948951721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4468803405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7263031005859</t>
   </si>
   <si>
     <t xml:space="preserve">22.5400218963623</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2851467132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1920032501221</t>
+    <t xml:space="preserve">23.2851448059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1920051574707</t>
   </si>
   <si>
     <t xml:space="preserve">23.0057239532471</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">22.8194427490234</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3782844543457</t>
+    <t xml:space="preserve">23.3782863616943</t>
   </si>
   <si>
     <t xml:space="preserve">23.5645656585693</t>
@@ -683,13 +683,13 @@
     <t xml:space="preserve">21.8880367279053</t>
   </si>
   <si>
-    <t xml:space="preserve">22.167459487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3537406921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2605972290039</t>
+    <t xml:space="preserve">22.1674575805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.35373878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2606010437012</t>
   </si>
   <si>
     <t xml:space="preserve">22.6331615447998</t>
@@ -710,19 +710,19 @@
     <t xml:space="preserve">20.5840682983398</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3046436309814</t>
+    <t xml:space="preserve">20.3046455383301</t>
   </si>
   <si>
     <t xml:space="preserve">20.8634910583496</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0006790161133</t>
+    <t xml:space="preserve">19.0006771087646</t>
   </si>
   <si>
     <t xml:space="preserve">21.1429138183594</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3732395172119</t>
+    <t xml:space="preserve">19.3732414245605</t>
   </si>
   <si>
     <t xml:space="preserve">19.5595226287842</t>
@@ -734,10 +734,10 @@
     <t xml:space="preserve">18.7212581634521</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5722332000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3673229217529</t>
+    <t xml:space="preserve">18.5722312927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3673210144043</t>
   </si>
   <si>
     <t xml:space="preserve">17.6221981048584</t>
@@ -752,16 +752,16 @@
     <t xml:space="preserve">18.0133895874023</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7525939941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5663146972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6594524383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7339668273926</t>
+    <t xml:space="preserve">17.7525959014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.566312789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6594543457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7339687347412</t>
   </si>
   <si>
     <t xml:space="preserve">17.9202480316162</t>
@@ -776,10 +776,10 @@
     <t xml:space="preserve">16.6349086761475</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8957023620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.728048324585</t>
+    <t xml:space="preserve">16.8957004547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7280464172363</t>
   </si>
   <si>
     <t xml:space="preserve">16.54176902771</t>
@@ -791,7 +791,7 @@
     <t xml:space="preserve">15.722128868103</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5544776916504</t>
+    <t xml:space="preserve">15.5544786453247</t>
   </si>
   <si>
     <t xml:space="preserve">15.0515184402466</t>
@@ -800,13 +800,13 @@
     <t xml:space="preserve">14.9770059585571</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4613380432129</t>
+    <t xml:space="preserve">15.4613370895386</t>
   </si>
   <si>
     <t xml:space="preserve">15.1446590423584</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5231380462646</t>
+    <t xml:space="preserve">16.5231399536133</t>
   </si>
   <si>
     <t xml:space="preserve">17.0968570709229</t>
@@ -981,9 +981,6 @@
   </si>
   <si>
     <t xml:space="preserve">16.2554035186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5231399536133</t>
   </si>
   <si>
     <t xml:space="preserve">16.9247436523438</t>
@@ -20494,7 +20491,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G719" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -20520,7 +20517,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G720" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -20598,7 +20595,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G723" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -20624,7 +20621,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G724" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -20650,7 +20647,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G725" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -20702,7 +20699,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G727" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -20754,7 +20751,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G729" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -20780,7 +20777,7 @@
         <v>15.3599996566772</v>
       </c>
       <c r="G730" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -20806,7 +20803,7 @@
         <v>14.8400001525879</v>
       </c>
       <c r="G731" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -20832,7 +20829,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G732" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -20858,7 +20855,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G733" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -20884,7 +20881,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G734" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -20910,7 +20907,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G735" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -20936,7 +20933,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G736" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -20962,7 +20959,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G737" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -20988,7 +20985,7 @@
         <v>14.039999961853</v>
       </c>
       <c r="G738" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21014,7 +21011,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G739" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21040,7 +21037,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G740" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21066,7 +21063,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G741" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21092,7 +21089,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G742" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21118,7 +21115,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G743" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21144,7 +21141,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G744" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21170,7 +21167,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G745" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21196,7 +21193,7 @@
         <v>14.8800001144409</v>
       </c>
       <c r="G746" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21222,7 +21219,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G747" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21248,7 +21245,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G748" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21274,7 +21271,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G749" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21326,7 +21323,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -21352,7 +21349,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G752" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -21378,7 +21375,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G753" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -21404,7 +21401,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G754" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -21430,7 +21427,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G755" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -21482,7 +21479,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G757" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -21508,7 +21505,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G758" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -21534,7 +21531,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G759" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -21560,7 +21557,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G760" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -21586,7 +21583,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G761" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -21612,7 +21609,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G762" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -21638,7 +21635,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G763" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -21690,7 +21687,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G765" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -21716,7 +21713,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G766" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -21742,7 +21739,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G767" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -21846,7 +21843,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G771" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -21898,7 +21895,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G773" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -21950,7 +21947,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G775" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -21976,7 +21973,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G776" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22002,7 +21999,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G777" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22028,7 +22025,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G778" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22080,7 +22077,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G780" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22106,7 +22103,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G781" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22132,7 +22129,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G782" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22184,7 +22181,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G784" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22210,7 +22207,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G785" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22236,7 +22233,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G786" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22262,7 +22259,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G787" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22288,7 +22285,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G788" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22314,7 +22311,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G789" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -22366,7 +22363,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G791" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -22392,7 +22389,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G792" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -22444,7 +22441,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G794" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -22470,7 +22467,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G795" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -22496,7 +22493,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G796" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -22600,7 +22597,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G800" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -22652,7 +22649,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G802" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -22678,7 +22675,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G803" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -22730,7 +22727,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G805" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -22756,7 +22753,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G806" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -22886,7 +22883,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G811" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -22964,7 +22961,7 @@
         <v>18.5799999237061</v>
       </c>
       <c r="G814" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -22990,7 +22987,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G815" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23094,7 +23091,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G819" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23146,7 +23143,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G821" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23172,7 +23169,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G822" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23198,7 +23195,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G823" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23224,7 +23221,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G824" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23250,7 +23247,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G825" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23328,7 +23325,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G828" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -23354,7 +23351,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G829" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -23380,7 +23377,7 @@
         <v>18.5</v>
       </c>
       <c r="G830" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -23406,7 +23403,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G831" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -23458,7 +23455,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G833" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -23484,7 +23481,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G834" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -23510,7 +23507,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G835" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -23562,7 +23559,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G837" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -23666,7 +23663,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G841" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -23718,7 +23715,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G843" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -23744,7 +23741,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G844" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -23796,7 +23793,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G846" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -23822,7 +23819,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G847" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -23874,7 +23871,7 @@
         <v>18</v>
       </c>
       <c r="G849" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -23900,7 +23897,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G850" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -23926,7 +23923,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G851" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -23952,7 +23949,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G852" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -23978,7 +23975,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G853" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24004,7 +24001,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G854" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24056,7 +24053,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G856" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24082,7 +24079,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G857" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24108,7 +24105,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G858" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24134,7 +24131,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G859" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24160,7 +24157,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G860" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24186,7 +24183,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G861" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24212,7 +24209,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G862" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24238,7 +24235,7 @@
         <v>20.75</v>
       </c>
       <c r="G863" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24264,7 +24261,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -24290,7 +24287,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G865" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -24316,7 +24313,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G866" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -24342,7 +24339,7 @@
         <v>21.5</v>
       </c>
       <c r="G867" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -24368,7 +24365,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G868" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -24394,7 +24391,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G869" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -24420,7 +24417,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G870" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -24446,7 +24443,7 @@
         <v>21.5</v>
       </c>
       <c r="G871" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -24472,7 +24469,7 @@
         <v>21</v>
       </c>
       <c r="G872" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -24498,7 +24495,7 @@
         <v>20.75</v>
       </c>
       <c r="G873" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -24524,7 +24521,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G874" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -24550,7 +24547,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G875" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -24576,7 +24573,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G876" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -24602,7 +24599,7 @@
         <v>20.5</v>
       </c>
       <c r="G877" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -24628,7 +24625,7 @@
         <v>21</v>
       </c>
       <c r="G878" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -24654,7 +24651,7 @@
         <v>21</v>
       </c>
       <c r="G879" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -24680,7 +24677,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G880" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -24706,7 +24703,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G881" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -24732,7 +24729,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G882" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -24758,7 +24755,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G883" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -24784,7 +24781,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G884" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -24810,7 +24807,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G885" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -24836,7 +24833,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G886" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -24862,7 +24859,7 @@
         <v>21.75</v>
       </c>
       <c r="G887" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -24888,7 +24885,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G888" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -24914,7 +24911,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G889" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -24940,7 +24937,7 @@
         <v>22</v>
       </c>
       <c r="G890" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -24966,7 +24963,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G891" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -24992,7 +24989,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G892" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25018,7 +25015,7 @@
         <v>21.75</v>
       </c>
       <c r="G893" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25044,7 +25041,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G894" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25070,7 +25067,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25096,7 +25093,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G896" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25122,7 +25119,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G897" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25148,7 +25145,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G898" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25174,7 +25171,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G899" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25200,7 +25197,7 @@
         <v>22.5</v>
       </c>
       <c r="G900" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25226,7 +25223,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G901" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25252,7 +25249,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G902" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -25278,7 +25275,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G903" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -25304,7 +25301,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G904" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -25330,7 +25327,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -25356,7 +25353,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G906" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -25382,7 +25379,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G907" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -25408,7 +25405,7 @@
         <v>22.5</v>
       </c>
       <c r="G908" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -25434,7 +25431,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G909" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -25460,7 +25457,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G910" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -25486,7 +25483,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G911" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -25512,7 +25509,7 @@
         <v>22.75</v>
       </c>
       <c r="G912" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -25538,7 +25535,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G913" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -25564,7 +25561,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G914" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -25590,7 +25587,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G915" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -25616,7 +25613,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G916" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -25642,7 +25639,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G917" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -25668,7 +25665,7 @@
         <v>23</v>
       </c>
       <c r="G918" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -25694,7 +25691,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G919" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -25720,7 +25717,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G920" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -25746,7 +25743,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G921" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -25772,7 +25769,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G922" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -25798,7 +25795,7 @@
         <v>23.25</v>
       </c>
       <c r="G923" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -25824,7 +25821,7 @@
         <v>23.25</v>
       </c>
       <c r="G924" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -25850,7 +25847,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G925" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -25876,7 +25873,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G926" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -25902,7 +25899,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G927" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -25928,7 +25925,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G928" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -25954,7 +25951,7 @@
         <v>23</v>
       </c>
       <c r="G929" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -25980,7 +25977,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G930" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26006,7 +26003,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G931" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26032,7 +26029,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G932" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26058,7 +26055,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G933" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26084,7 +26081,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G934" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26110,7 +26107,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G935" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26136,7 +26133,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G936" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26162,7 +26159,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G937" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26188,7 +26185,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G938" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26214,7 +26211,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G939" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26240,7 +26237,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G940" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26266,7 +26263,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G941" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26292,7 +26289,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G942" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -26318,7 +26315,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G943" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26344,7 +26341,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G944" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26370,7 +26367,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G945" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26396,7 +26393,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G946" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26422,7 +26419,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G947" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26448,7 +26445,7 @@
         <v>23</v>
       </c>
       <c r="G948" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26474,7 +26471,7 @@
         <v>23.25</v>
       </c>
       <c r="G949" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26500,7 +26497,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G950" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26526,7 +26523,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G951" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26552,7 +26549,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G952" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26578,7 +26575,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G953" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26604,7 +26601,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G954" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26630,7 +26627,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G955" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -26656,7 +26653,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G956" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -26682,7 +26679,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -26708,7 +26705,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G958" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -26734,7 +26731,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G959" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -26760,7 +26757,7 @@
         <v>24.5</v>
       </c>
       <c r="G960" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -26786,7 +26783,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G961" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -26812,7 +26809,7 @@
         <v>24.5</v>
       </c>
       <c r="G962" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -26838,7 +26835,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G963" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -26864,7 +26861,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G964" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -26890,7 +26887,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G965" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -26916,7 +26913,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G966" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -26942,7 +26939,7 @@
         <v>24</v>
       </c>
       <c r="G967" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -26968,7 +26965,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G968" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -26994,7 +26991,7 @@
         <v>24.25</v>
       </c>
       <c r="G969" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -27020,7 +27017,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G970" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27046,7 +27043,7 @@
         <v>24.5</v>
       </c>
       <c r="G971" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27072,7 +27069,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G972" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27098,7 +27095,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G973" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27124,7 +27121,7 @@
         <v>24.5</v>
       </c>
       <c r="G974" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -27150,7 +27147,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G975" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -27176,7 +27173,7 @@
         <v>23.75</v>
       </c>
       <c r="G976" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -27202,7 +27199,7 @@
         <v>23.5</v>
       </c>
       <c r="G977" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -27228,7 +27225,7 @@
         <v>23.25</v>
       </c>
       <c r="G978" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -27254,7 +27251,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G979" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27280,7 +27277,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G980" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27306,7 +27303,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G981" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27332,7 +27329,7 @@
         <v>23</v>
       </c>
       <c r="G982" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -27358,7 +27355,7 @@
         <v>22.75</v>
       </c>
       <c r="G983" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -27384,7 +27381,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G984" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27410,7 +27407,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G985" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27436,7 +27433,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G986" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -27462,7 +27459,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G987" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -27488,7 +27485,7 @@
         <v>22.5</v>
       </c>
       <c r="G988" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -27514,7 +27511,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G989" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -27540,7 +27537,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G990" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -27566,7 +27563,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G991" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -27592,7 +27589,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G992" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -27618,7 +27615,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G993" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -27644,7 +27641,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G994" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -27670,7 +27667,7 @@
         <v>22</v>
       </c>
       <c r="G995" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -27696,7 +27693,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G996" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -27722,7 +27719,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G997" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -27748,7 +27745,7 @@
         <v>22.75</v>
       </c>
       <c r="G998" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -27774,7 +27771,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G999" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -27800,7 +27797,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1000" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -27826,7 +27823,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1001" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -27852,7 +27849,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1002" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -27878,7 +27875,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1003" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -27904,7 +27901,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1004" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -27930,7 +27927,7 @@
         <v>22.25</v>
       </c>
       <c r="G1005" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -27956,7 +27953,7 @@
         <v>22.25</v>
       </c>
       <c r="G1006" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -27982,7 +27979,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1007" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28008,7 +28005,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1008" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28034,7 +28031,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1009" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28060,7 +28057,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1010" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -28086,7 +28083,7 @@
         <v>23</v>
       </c>
       <c r="G1011" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28112,7 +28109,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1012" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28138,7 +28135,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1013" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28164,7 +28161,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1014" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28190,7 +28187,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1015" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28216,7 +28213,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1016" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28242,7 +28239,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1017" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28268,7 +28265,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1018" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28294,7 +28291,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1019" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28320,7 +28317,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1020" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28346,7 +28343,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1021" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28372,7 +28369,7 @@
         <v>23.25</v>
       </c>
       <c r="G1022" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -28398,7 +28395,7 @@
         <v>23</v>
       </c>
       <c r="G1023" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -28424,7 +28421,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1024" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28450,7 +28447,7 @@
         <v>23.25</v>
       </c>
       <c r="G1025" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28476,7 +28473,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1026" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28502,7 +28499,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1027" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28528,7 +28525,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1028" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28554,7 +28551,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G1029" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28580,7 +28577,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1030" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -28606,7 +28603,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1031" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -28632,7 +28629,7 @@
         <v>23.25</v>
       </c>
       <c r="G1032" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28658,7 +28655,7 @@
         <v>24</v>
       </c>
       <c r="G1033" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -28684,7 +28681,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G1034" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -28710,7 +28707,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1035" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -28736,7 +28733,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1036" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -28762,7 +28759,7 @@
         <v>23.5</v>
       </c>
       <c r="G1037" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28788,7 +28785,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1038" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -28814,7 +28811,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1039" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -28840,7 +28837,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1040" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -28866,7 +28863,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1041" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -28892,7 +28889,7 @@
         <v>23.75</v>
       </c>
       <c r="G1042" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -28918,7 +28915,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1043" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -28944,7 +28941,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1044" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -28970,7 +28967,7 @@
         <v>23.5</v>
       </c>
       <c r="G1045" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -28996,7 +28993,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1046" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29022,7 +29019,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1047" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -29048,7 +29045,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1048" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29074,7 +29071,7 @@
         <v>24.25</v>
       </c>
       <c r="G1049" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -29100,7 +29097,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1050" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29126,7 +29123,7 @@
         <v>24.5</v>
       </c>
       <c r="G1051" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29152,7 +29149,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1052" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -29178,7 +29175,7 @@
         <v>24.25</v>
       </c>
       <c r="G1053" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29204,7 +29201,7 @@
         <v>24.25</v>
       </c>
       <c r="G1054" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29230,7 +29227,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1055" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29256,7 +29253,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1056" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29282,7 +29279,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1057" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29308,7 +29305,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1058" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29334,7 +29331,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1059" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29360,7 +29357,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1060" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29386,7 +29383,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1061" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29412,7 +29409,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1062" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29438,7 +29435,7 @@
         <v>24.25</v>
       </c>
       <c r="G1063" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29464,7 +29461,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29490,7 +29487,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1065" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29516,7 +29513,7 @@
         <v>24.5</v>
       </c>
       <c r="G1066" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29542,7 +29539,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G1067" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29568,7 +29565,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1068" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29594,7 +29591,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1069" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29620,7 +29617,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1070" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29646,7 +29643,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1071" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29672,7 +29669,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1072" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -29698,7 +29695,7 @@
         <v>23.75</v>
       </c>
       <c r="G1073" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -29724,7 +29721,7 @@
         <v>23.75</v>
       </c>
       <c r="G1074" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -29750,7 +29747,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1075" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -29776,7 +29773,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1076" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -29802,7 +29799,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1077" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -29828,7 +29825,7 @@
         <v>23.5</v>
       </c>
       <c r="G1078" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -29854,7 +29851,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1079" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -29880,7 +29877,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1080" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -29906,7 +29903,7 @@
         <v>23.5</v>
       </c>
       <c r="G1081" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -29932,7 +29929,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1082" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -29958,7 +29955,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1083" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -29984,7 +29981,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1084" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30010,7 +30007,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1085" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30036,7 +30033,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1086" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -30062,7 +30059,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1087" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30088,7 +30085,7 @@
         <v>23.25</v>
       </c>
       <c r="G1088" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30114,7 +30111,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1089" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -30140,7 +30137,7 @@
         <v>23</v>
       </c>
       <c r="G1090" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30166,7 +30163,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1091" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30192,7 +30189,7 @@
         <v>23.25</v>
       </c>
       <c r="G1092" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30218,7 +30215,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1093" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30244,7 +30241,7 @@
         <v>23.25</v>
       </c>
       <c r="G1094" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30270,7 +30267,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1095" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30296,7 +30293,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1096" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30322,7 +30319,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1097" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30348,7 +30345,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1098" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30374,7 +30371,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1099" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30400,7 +30397,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30426,7 +30423,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1101" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30452,7 +30449,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1102" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30478,7 +30475,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1103" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30504,7 +30501,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1104" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -30530,7 +30527,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1105" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30556,7 +30553,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1106" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30582,7 +30579,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1107" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30608,7 +30605,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1108" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30634,7 +30631,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1109" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30660,7 +30657,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1110" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -30686,7 +30683,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1111" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30712,7 +30709,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1112" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -30738,7 +30735,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1113" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30764,7 +30761,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1114" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30790,7 +30787,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1115" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30816,7 +30813,7 @@
         <v>22.75</v>
       </c>
       <c r="G1116" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -30842,7 +30839,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -30868,7 +30865,7 @@
         <v>23</v>
       </c>
       <c r="G1118" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -30894,7 +30891,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -30920,7 +30917,7 @@
         <v>22.5</v>
       </c>
       <c r="G1120" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -30946,7 +30943,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1121" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -30972,7 +30969,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1122" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -30998,7 +30995,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1123" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31024,7 +31021,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1124" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31050,7 +31047,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1125" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31076,7 +31073,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1126" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31102,7 +31099,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1127" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31128,7 +31125,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1128" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31154,7 +31151,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1129" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31180,7 +31177,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1130" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31206,7 +31203,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1131" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31232,7 +31229,7 @@
         <v>22.25</v>
       </c>
       <c r="G1132" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31258,7 +31255,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1133" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31284,7 +31281,7 @@
         <v>21.75</v>
       </c>
       <c r="G1134" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31310,7 +31307,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1135" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31336,7 +31333,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1136" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31362,7 +31359,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1137" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31388,7 +31385,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1138" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31414,7 +31411,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1139" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31440,7 +31437,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1140" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31466,7 +31463,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1141" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31492,7 +31489,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1142" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31518,7 +31515,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1143" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31544,7 +31541,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31570,7 +31567,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1145" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31596,7 +31593,7 @@
         <v>26</v>
       </c>
       <c r="G1146" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31622,7 +31619,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G1147" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31648,7 +31645,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1148" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31674,7 +31671,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31700,7 +31697,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1150" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -31726,7 +31723,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1151" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31752,7 +31749,7 @@
         <v>25.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31778,7 +31775,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1153" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31804,7 +31801,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1154" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -31830,7 +31827,7 @@
         <v>25.5</v>
       </c>
       <c r="G1155" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -31856,7 +31853,7 @@
         <v>25.5</v>
       </c>
       <c r="G1156" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -31882,7 +31879,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1157" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -31908,7 +31905,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1158" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -31934,7 +31931,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1159" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -31960,7 +31957,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1160" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -31986,7 +31983,7 @@
         <v>25.5</v>
       </c>
       <c r="G1161" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32012,7 +32009,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1162" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32038,7 +32035,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1163" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32064,7 +32061,7 @@
         <v>25.5</v>
       </c>
       <c r="G1164" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32090,7 +32087,7 @@
         <v>25.5</v>
       </c>
       <c r="G1165" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32116,7 +32113,7 @@
         <v>25.5</v>
       </c>
       <c r="G1166" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32142,7 +32139,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1167" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32168,7 +32165,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1168" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32194,7 +32191,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1169" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32220,7 +32217,7 @@
         <v>25.5</v>
       </c>
       <c r="G1170" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32246,7 +32243,7 @@
         <v>25.5</v>
       </c>
       <c r="G1171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32272,7 +32269,7 @@
         <v>25.5</v>
       </c>
       <c r="G1172" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -32298,7 +32295,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1173" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -32324,7 +32321,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1174" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -32350,7 +32347,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1175" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -32376,7 +32373,7 @@
         <v>25.5</v>
       </c>
       <c r="G1176" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -32402,7 +32399,7 @@
         <v>25.5</v>
       </c>
       <c r="G1177" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -32428,7 +32425,7 @@
         <v>25.5</v>
       </c>
       <c r="G1178" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32454,7 +32451,7 @@
         <v>25.5</v>
       </c>
       <c r="G1179" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -32480,7 +32477,7 @@
         <v>25.5</v>
       </c>
       <c r="G1180" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -32506,7 +32503,7 @@
         <v>25.5</v>
       </c>
       <c r="G1181" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -32532,7 +32529,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1182" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -32558,7 +32555,7 @@
         <v>25.5</v>
       </c>
       <c r="G1183" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -32566,7 +32563,7 @@
     </row>
     <row r="1184">
       <c r="A1184" s="1" t="n">
-        <v>45475.6495023148</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B1184" t="n">
         <v>16305</v>
@@ -32584,9 +32581,35 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1184" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="1" t="n">
+        <v>45476.6494444444</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>8506</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="G1185" t="s">
+        <v>482</v>
+      </c>
+      <c r="H1185" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -38,16 +38,16 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37530136108398</t>
+    <t xml:space="preserve">8.3753023147583</t>
   </si>
   <si>
     <t xml:space="preserve">SCF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33448791503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17905235290527</t>
+    <t xml:space="preserve">8.33448886871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17905330657959</t>
   </si>
   <si>
     <t xml:space="preserve">8.13650321960449</t>
@@ -65,40 +65,40 @@
     <t xml:space="preserve">8.11913585662842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16255283355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2407054901123</t>
+    <t xml:space="preserve">8.16255378723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24070644378662</t>
   </si>
   <si>
     <t xml:space="preserve">8.24938869476318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29280757904053</t>
+    <t xml:space="preserve">8.29280662536621</t>
   </si>
   <si>
     <t xml:space="preserve">8.50989723205566</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51163291931152</t>
+    <t xml:space="preserve">8.51163482666016</t>
   </si>
   <si>
     <t xml:space="preserve">8.48384666442871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38398361206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31017398834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42305946350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51858043670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02222728729248</t>
+    <t xml:space="preserve">8.38398456573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3101749420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42306041717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51857948303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0222282409668</t>
   </si>
   <si>
     <t xml:space="preserve">8.89892101287842</t>
@@ -116,31 +116,31 @@
     <t xml:space="preserve">8.93539142608643</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00485992431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97707271575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0291748046875</t>
+    <t xml:space="preserve">9.00486087799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97707366943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02917385101318</t>
   </si>
   <si>
     <t xml:space="preserve">9.03091049194336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98749446868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33483505249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2480001449585</t>
+    <t xml:space="preserve">8.98749256134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33483600616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24799919128418</t>
   </si>
   <si>
     <t xml:space="preserve">9.46508884429932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59534358978271</t>
+    <t xml:space="preserve">9.5953426361084</t>
   </si>
   <si>
     <t xml:space="preserve">9.68217754364014</t>
@@ -155,19 +155,19 @@
     <t xml:space="preserve">9.98610305786133</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0295209884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76901340484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89926815032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85585021972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63876056671143</t>
+    <t xml:space="preserve">10.0295219421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76901435852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89926719665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85584926605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63876152038574</t>
   </si>
   <si>
     <t xml:space="preserve">9.55192470550537</t>
@@ -176,52 +176,52 @@
     <t xml:space="preserve">9.16116333007812</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29141902923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07432746887207</t>
+    <t xml:space="preserve">9.29141712188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07432842254639</t>
   </si>
   <si>
     <t xml:space="preserve">8.57936573028564</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63146686553955</t>
+    <t xml:space="preserve">8.63146591186523</t>
   </si>
   <si>
     <t xml:space="preserve">8.85723876953125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77040386199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20458221435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68356895446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45779514312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40569305419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51996946334839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02361679077148</t>
+    <t xml:space="preserve">8.77040481567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20458316802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68356704711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45779418945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40569400787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51996994018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02361583709717</t>
   </si>
   <si>
     <t xml:space="preserve">7.72837543487549</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98888254165649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81521129608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78047752380371</t>
+    <t xml:space="preserve">7.98888206481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8152117729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78047704696655</t>
   </si>
   <si>
     <t xml:space="preserve">8.09308528900146</t>
@@ -233,34 +233,31 @@
     <t xml:space="preserve">8.90065765380859</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1177453994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81382179260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42167186737061</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.11774635314941</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02747249603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07260894775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74966907501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1559047698975</t>
+    <t xml:space="preserve">8.81382083892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42167091369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0274715423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07260990142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74967002868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1559057235718</t>
   </si>
   <si>
     <t xml:space="preserve">10.2913179397583</t>
   </si>
   <si>
-    <t xml:space="preserve">10.381591796875</t>
+    <t xml:space="preserve">10.3815927505493</t>
   </si>
   <si>
     <t xml:space="preserve">10.4718675613403</t>
@@ -272,16 +269,16 @@
     <t xml:space="preserve">10.5170049667358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0135145187378</t>
+    <t xml:space="preserve">11.0135164260864</t>
   </si>
   <si>
     <t xml:space="preserve">11.1940650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1489286422729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2843408584595</t>
+    <t xml:space="preserve">11.1489267349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2843389511108</t>
   </si>
   <si>
     <t xml:space="preserve">10.8329668045044</t>
@@ -290,13 +287,13 @@
     <t xml:space="preserve">10.7878284454346</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1037902832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0586528778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9683780670166</t>
+    <t xml:space="preserve">11.1037912368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0586519241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9683771133423</t>
   </si>
   <si>
     <t xml:space="preserve">10.9232416152954</t>
@@ -320,7 +317,7 @@
     <t xml:space="preserve">10.6975536346436</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3364543914795</t>
+    <t xml:space="preserve">10.3364553451538</t>
   </si>
   <si>
     <t xml:space="preserve">10.2461805343628</t>
@@ -329,7 +326,7 @@
     <t xml:space="preserve">11.4197511672974</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6454372406006</t>
+    <t xml:space="preserve">11.6454381942749</t>
   </si>
   <si>
     <t xml:space="preserve">11.7357130050659</t>
@@ -338,34 +335,34 @@
     <t xml:space="preserve">11.5551643371582</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3746147155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5100269317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.239203453064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4648895263672</t>
+    <t xml:space="preserve">11.3746137619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5100259780884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2392024993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4648885726929</t>
   </si>
   <si>
     <t xml:space="preserve">11.6003017425537</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6905755996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7808504104614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8259878158569</t>
+    <t xml:space="preserve">11.6905765533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7808513641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8259887695312</t>
   </si>
   <si>
     <t xml:space="preserve">11.8711252212524</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9162635803223</t>
+    <t xml:space="preserve">11.9162626266479</t>
   </si>
   <si>
     <t xml:space="preserve">11.9614000320435</t>
@@ -377,22 +374,22 @@
     <t xml:space="preserve">12.457911491394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5481853485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3676357269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1870880126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2773609161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5030488967896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6384601593018</t>
+    <t xml:space="preserve">12.5481843948364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.367636680603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.187087059021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2773628234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5030498504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6384592056274</t>
   </si>
   <si>
     <t xml:space="preserve">12.2322244644165</t>
@@ -404,10 +401,10 @@
     <t xml:space="preserve">12.6205492019653</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7136898040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5274076461792</t>
+    <t xml:space="preserve">12.7136888504028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5274085998535</t>
   </si>
   <si>
     <t xml:space="preserve">12.4808368682861</t>
@@ -416,7 +413,7 @@
     <t xml:space="preserve">12.6671199798584</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5739774703979</t>
+    <t xml:space="preserve">12.5739784240723</t>
   </si>
   <si>
     <t xml:space="preserve">12.2945566177368</t>
@@ -425,10 +422,10 @@
     <t xml:space="preserve">12.3876972198486</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4342679977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9465408325195</t>
+    <t xml:space="preserve">12.434268951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9465398788452</t>
   </si>
   <si>
     <t xml:space="preserve">13.1328220367432</t>
@@ -437,13 +434,13 @@
     <t xml:space="preserve">13.1793918609619</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9931106567383</t>
+    <t xml:space="preserve">12.9931116104126</t>
   </si>
   <si>
     <t xml:space="preserve">13.2725324630737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4588146209717</t>
+    <t xml:space="preserve">13.4588136672974</t>
   </si>
   <si>
     <t xml:space="preserve">13.5519552230835</t>
@@ -452,10 +449,10 @@
     <t xml:space="preserve">13.7848062515259</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5985250473022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7382364273071</t>
+    <t xml:space="preserve">13.5985260009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7382354736328</t>
   </si>
   <si>
     <t xml:space="preserve">13.9710874557495</t>
@@ -464,7 +461,7 @@
     <t xml:space="preserve">13.8779458999634</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3656730651855</t>
+    <t xml:space="preserve">13.3656740188599</t>
   </si>
   <si>
     <t xml:space="preserve">13.5053844451904</t>
@@ -479,7 +476,7 @@
     <t xml:space="preserve">13.8313770294189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0642280578613</t>
+    <t xml:space="preserve">14.0642290115356</t>
   </si>
   <si>
     <t xml:space="preserve">14.297080039978</t>
@@ -497,22 +494,22 @@
     <t xml:space="preserve">15.9270391464233</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8804693222046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8338994979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6941871643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9736089706421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4393138885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6721649169922</t>
+    <t xml:space="preserve">15.8804683685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8339004516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6941890716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9736099243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4393119812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6721630096436</t>
   </si>
   <si>
     <t xml:space="preserve">16.9981555938721</t>
@@ -521,13 +518,13 @@
     <t xml:space="preserve">17.2310066223145</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9515857696533</t>
+    <t xml:space="preserve">16.951587677002</t>
   </si>
   <si>
     <t xml:space="preserve">17.4172878265381</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6501407623291</t>
+    <t xml:space="preserve">17.6501426696777</t>
   </si>
   <si>
     <t xml:space="preserve">17.789852142334</t>
@@ -539,7 +536,7 @@
     <t xml:space="preserve">16.8584461212158</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7187347412109</t>
+    <t xml:space="preserve">16.7187366485596</t>
   </si>
   <si>
     <t xml:space="preserve">17.0447254180908</t>
@@ -548,7 +545,7 @@
     <t xml:space="preserve">17.3707180023193</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3241481781006</t>
+    <t xml:space="preserve">17.3241500854492</t>
   </si>
   <si>
     <t xml:space="preserve">16.7653045654297</t>
@@ -560,13 +557,13 @@
     <t xml:space="preserve">16.2996025085449</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1133213043213</t>
+    <t xml:space="preserve">16.1133193969727</t>
   </si>
   <si>
     <t xml:space="preserve">16.15989112854</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1844367980957</t>
+    <t xml:space="preserve">17.1844387054443</t>
   </si>
   <si>
     <t xml:space="preserve">17.137866973877</t>
@@ -575,16 +572,16 @@
     <t xml:space="preserve">16.9050159454346</t>
   </si>
   <si>
-    <t xml:space="preserve">17.976131439209</t>
+    <t xml:space="preserve">17.9761333465576</t>
   </si>
   <si>
     <t xml:space="preserve">18.1624145507812</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8829936981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8364200592041</t>
+    <t xml:space="preserve">17.8829917907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8364219665527</t>
   </si>
   <si>
     <t xml:space="preserve">18.1158447265625</t>
@@ -593,7 +590,7 @@
     <t xml:space="preserve">18.5349750518799</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6281147003174</t>
+    <t xml:space="preserve">18.628116607666</t>
   </si>
   <si>
     <t xml:space="preserve">18.3486957550049</t>
@@ -605,13 +602,13 @@
     <t xml:space="preserve">18.9075374603271</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4884071350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0938186645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2801036834717</t>
+    <t xml:space="preserve">18.4884052276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0938205718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.280101776123</t>
   </si>
   <si>
     <t xml:space="preserve">20.2115058898926</t>
@@ -626,7 +623,7 @@
     <t xml:space="preserve">19.7458038330078</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9320850372314</t>
+    <t xml:space="preserve">19.9320831298828</t>
   </si>
   <si>
     <t xml:space="preserve">20.6772079467773</t>
@@ -638,25 +635,25 @@
     <t xml:space="preserve">19.1869602203369</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6526622772217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.701753616333</t>
+    <t xml:space="preserve">19.6526641845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7017555236816</t>
   </si>
   <si>
     <t xml:space="preserve">21.515474319458</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7948951721191</t>
+    <t xml:space="preserve">21.7948970794678</t>
   </si>
   <si>
     <t xml:space="preserve">22.4468803405762</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7263011932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5400238037109</t>
+    <t xml:space="preserve">22.7263031005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5400218963623</t>
   </si>
   <si>
     <t xml:space="preserve">23.2851448059082</t>
@@ -665,16 +662,16 @@
     <t xml:space="preserve">23.1920051574707</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0057239532471</t>
+    <t xml:space="preserve">23.0057220458984</t>
   </si>
   <si>
     <t xml:space="preserve">23.0988636016846</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9125823974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8194427490234</t>
+    <t xml:space="preserve">22.9125843048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8194408416748</t>
   </si>
   <si>
     <t xml:space="preserve">23.3782863616943</t>
@@ -683,7 +680,7 @@
     <t xml:space="preserve">23.5645656585693</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8880348205566</t>
+    <t xml:space="preserve">21.8880367279053</t>
   </si>
   <si>
     <t xml:space="preserve">22.1674575805664</t>
@@ -695,13 +692,13 @@
     <t xml:space="preserve">22.2605991363525</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6331615447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0497722625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2360515594482</t>
+    <t xml:space="preserve">22.6331596374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0497741699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2360534667969</t>
   </si>
   <si>
     <t xml:space="preserve">21.3291931152344</t>
@@ -710,7 +707,7 @@
     <t xml:space="preserve">21.4223346710205</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5840682983398</t>
+    <t xml:space="preserve">20.5840702056885</t>
   </si>
   <si>
     <t xml:space="preserve">20.3046455383301</t>
@@ -722,13 +719,13 @@
     <t xml:space="preserve">19.0006771087646</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1429138183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3732414245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5595226287842</t>
+    <t xml:space="preserve">21.1429119110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3732395172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5595207214355</t>
   </si>
   <si>
     <t xml:space="preserve">19.466381072998</t>
@@ -737,19 +734,19 @@
     <t xml:space="preserve">18.7212581634521</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5722332000732</t>
+    <t xml:space="preserve">18.5722312927246</t>
   </si>
   <si>
     <t xml:space="preserve">18.3673229217529</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6221981048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0692729949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6746864318848</t>
+    <t xml:space="preserve">17.622200012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0692710876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6746845245361</t>
   </si>
   <si>
     <t xml:space="preserve">18.0133895874023</t>
@@ -758,19 +755,19 @@
     <t xml:space="preserve">17.7525939941406</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5663146972656</t>
+    <t xml:space="preserve">17.566312789917</t>
   </si>
   <si>
     <t xml:space="preserve">17.6594543457031</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7339687347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9202480316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5104274749756</t>
+    <t xml:space="preserve">17.7339668273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9202461242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5104293823242</t>
   </si>
   <si>
     <t xml:space="preserve">16.8211879730225</t>
@@ -779,25 +776,25 @@
     <t xml:space="preserve">16.6349086761475</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8957004547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7280464172363</t>
+    <t xml:space="preserve">16.8957023620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.728048324585</t>
   </si>
   <si>
     <t xml:space="preserve">16.54176902771</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3554878234863</t>
+    <t xml:space="preserve">16.3554859161377</t>
   </si>
   <si>
     <t xml:space="preserve">15.722128868103</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5544786453247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0515174865723</t>
+    <t xml:space="preserve">15.5544776916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0515184402466</t>
   </si>
   <si>
     <t xml:space="preserve">14.9770059585571</t>
@@ -809,181 +806,184 @@
     <t xml:space="preserve">15.1446590423584</t>
   </si>
   <si>
+    <t xml:space="preserve">16.5231380462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0968589782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5940837860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5367107391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.364595413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1542320251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1678047180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9574394226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5502834320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1295547485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.454662322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7224006652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3781681060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6459045410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8426952362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7470741271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4410915374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4602165222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5040149688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0450401306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7964277267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.025915145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6816825866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2362785339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3892707824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.274528503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8920469284058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.719931602478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.217155456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0067901611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1215343475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9111700057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8729248046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8346748352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6051874160767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2992029190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5095663070679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7335033416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1159839630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.752628326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0012397766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0394859313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1486797332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8235721588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6323318481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7088279724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7279510498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8809432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4028434753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7143783569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9629917144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8099994659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9056205749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.829122543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.88649559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1733531951904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9821166992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.637882232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2554035186768</t>
+  </si>
+  <si>
     <t xml:space="preserve">16.5231399536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0968589782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5940837860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5367107391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.364595413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1542320251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1678047180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9574394226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5502834320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1295547485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.454662322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7224006652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3781681060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6459045410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8426952362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7470741271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4410915374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4602165222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5040149688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0450401306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7964277267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.025915145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6816825866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2362785339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3892707824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.274528503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8920469284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.719931602478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.217155456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0067901611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1215343475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9111700057983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8729248046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8346748352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6051874160767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2992029190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5095663070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7335033416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1159839630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.752628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0012397766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0394859313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1486797332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8235721588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6323318481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7088279724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7279510498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8809432983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4028434753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7143783569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9629917144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8099994659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9056205749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.829122543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.88649559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1733531951904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9821166992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.637882232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2554035186768</t>
   </si>
   <si>
     <t xml:space="preserve">16.9247436523438</t>
@@ -5180,7 +5180,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G130" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H130" t="s">
         <v>9</v>
@@ -5206,7 +5206,7 @@
         <v>10</v>
       </c>
       <c r="G131" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -5232,7 +5232,7 @@
         <v>10</v>
       </c>
       <c r="G132" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -5258,7 +5258,7 @@
         <v>10</v>
       </c>
       <c r="G133" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -5284,7 +5284,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G134" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -5310,7 +5310,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G135" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -5336,7 +5336,7 @@
         <v>11.25</v>
       </c>
       <c r="G136" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -5362,7 +5362,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G137" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -5388,7 +5388,7 @@
         <v>11.5</v>
       </c>
       <c r="G138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -5414,7 +5414,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G139" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -5440,7 +5440,7 @@
         <v>11.75</v>
       </c>
       <c r="G140" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -5466,7 +5466,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G141" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -5492,7 +5492,7 @@
         <v>11.5</v>
       </c>
       <c r="G142" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -5518,7 +5518,7 @@
         <v>11.75</v>
       </c>
       <c r="G143" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -5544,7 +5544,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G144" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -5570,7 +5570,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G145" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -5596,7 +5596,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G146" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -5622,7 +5622,7 @@
         <v>12.5</v>
       </c>
       <c r="G147" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -5648,7 +5648,7 @@
         <v>12</v>
       </c>
       <c r="G148" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -5674,7 +5674,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G149" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -5700,7 +5700,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G150" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -5726,7 +5726,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G151" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -5752,7 +5752,7 @@
         <v>12.5</v>
       </c>
       <c r="G152" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -5778,7 +5778,7 @@
         <v>12.25</v>
       </c>
       <c r="G153" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -5804,7 +5804,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G154" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -5830,7 +5830,7 @@
         <v>12.5</v>
       </c>
       <c r="G155" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -5856,7 +5856,7 @@
         <v>12.25</v>
       </c>
       <c r="G156" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -5882,7 +5882,7 @@
         <v>12</v>
       </c>
       <c r="G157" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -5908,7 +5908,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G158" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -5934,7 +5934,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G159" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -5960,7 +5960,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G160" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -5986,7 +5986,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G161" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -6012,7 +6012,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G162" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -6038,7 +6038,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G163" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -6064,7 +6064,7 @@
         <v>12</v>
       </c>
       <c r="G164" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -6090,7 +6090,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G165" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -6116,7 +6116,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G166" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -6142,7 +6142,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G167" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -6168,7 +6168,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G168" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -6194,7 +6194,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G169" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -6220,7 +6220,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G170" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -6246,7 +6246,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G171" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -6272,7 +6272,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G172" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -6298,7 +6298,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G173" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -6324,7 +6324,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G174" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -6350,7 +6350,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G175" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -6376,7 +6376,7 @@
         <v>12</v>
       </c>
       <c r="G176" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -6402,7 +6402,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G177" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -6428,7 +6428,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G178" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -6454,7 +6454,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G179" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -6480,7 +6480,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G180" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -6506,7 +6506,7 @@
         <v>11.75</v>
       </c>
       <c r="G181" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -6532,7 +6532,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G182" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -6558,7 +6558,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G183" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -6584,7 +6584,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G184" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -6610,7 +6610,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G185" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -6636,7 +6636,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G186" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -6662,7 +6662,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G187" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -6688,7 +6688,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G188" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -6714,7 +6714,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G189" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -6740,7 +6740,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G190" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -6766,7 +6766,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G191" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -6792,7 +6792,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G192" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -6818,7 +6818,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G193" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -6844,7 +6844,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G194" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -6870,7 +6870,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G195" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -6896,7 +6896,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G196" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -6922,7 +6922,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G197" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -6948,7 +6948,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G198" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -6974,7 +6974,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G199" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -7000,7 +7000,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G200" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -7026,7 +7026,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G201" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -7052,7 +7052,7 @@
         <v>11.75</v>
       </c>
       <c r="G202" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7078,7 +7078,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G203" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7104,7 +7104,7 @@
         <v>11.75</v>
       </c>
       <c r="G204" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -7130,7 +7130,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G205" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -7156,7 +7156,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G206" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -7182,7 +7182,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G207" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -7208,7 +7208,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G208" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -7234,7 +7234,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G209" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -7260,7 +7260,7 @@
         <v>12.25</v>
       </c>
       <c r="G210" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -7286,7 +7286,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G211" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -7312,7 +7312,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G212" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -7338,7 +7338,7 @@
         <v>12.25</v>
       </c>
       <c r="G213" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -7364,7 +7364,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G214" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -7390,7 +7390,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G215" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -7416,7 +7416,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G216" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -7442,7 +7442,7 @@
         <v>12.5</v>
       </c>
       <c r="G217" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -7468,7 +7468,7 @@
         <v>12.5</v>
       </c>
       <c r="G218" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -7494,7 +7494,7 @@
         <v>12.25</v>
       </c>
       <c r="G219" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -7520,7 +7520,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G220" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -7546,7 +7546,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G221" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -7572,7 +7572,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G222" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -7598,7 +7598,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G223" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -7624,7 +7624,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G224" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -7650,7 +7650,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G225" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -7676,7 +7676,7 @@
         <v>12.25</v>
       </c>
       <c r="G226" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -7702,7 +7702,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G227" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -7728,7 +7728,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G228" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -7754,7 +7754,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G229" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -7780,7 +7780,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G230" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -7806,7 +7806,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G231" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -7832,7 +7832,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G232" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -7858,7 +7858,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G233" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -7884,7 +7884,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G234" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -7910,7 +7910,7 @@
         <v>11.75</v>
       </c>
       <c r="G235" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -7936,7 +7936,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G236" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -7962,7 +7962,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G237" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -7988,7 +7988,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G238" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8014,7 +8014,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G239" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8040,7 +8040,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G240" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8066,7 +8066,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G241" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8092,7 +8092,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G242" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8118,7 +8118,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G243" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -8144,7 +8144,7 @@
         <v>11.75</v>
       </c>
       <c r="G244" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -8170,7 +8170,7 @@
         <v>11.75</v>
       </c>
       <c r="G245" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -8196,7 +8196,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G246" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -8222,7 +8222,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G247" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -8248,7 +8248,7 @@
         <v>11.25</v>
       </c>
       <c r="G248" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -8274,7 +8274,7 @@
         <v>11.75</v>
       </c>
       <c r="G249" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -8300,7 +8300,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G250" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -8326,7 +8326,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G251" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -8352,7 +8352,7 @@
         <v>11.5</v>
       </c>
       <c r="G252" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -8378,7 +8378,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G253" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -8404,7 +8404,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G254" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -8430,7 +8430,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G255" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -8456,7 +8456,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G256" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -8482,7 +8482,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G257" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -8508,7 +8508,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G258" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -8534,7 +8534,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G259" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -8560,7 +8560,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G260" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -8586,7 +8586,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G261" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -8612,7 +8612,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G262" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -8638,7 +8638,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G263" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -8664,7 +8664,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G264" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -8690,7 +8690,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G265" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -8716,7 +8716,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G266" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -8742,7 +8742,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G267" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -8768,7 +8768,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G268" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -8794,7 +8794,7 @@
         <v>12</v>
       </c>
       <c r="G269" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -8820,7 +8820,7 @@
         <v>12</v>
       </c>
       <c r="G270" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -8846,7 +8846,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G271" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -8872,7 +8872,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G272" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -8898,7 +8898,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G273" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -8924,7 +8924,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G274" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -8950,7 +8950,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G275" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -8976,7 +8976,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G276" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9002,7 +9002,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G277" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9028,7 +9028,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G278" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9054,7 +9054,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G279" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9080,7 +9080,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G280" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9106,7 +9106,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G281" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -9132,7 +9132,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G282" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -9158,7 +9158,7 @@
         <v>11.5</v>
       </c>
       <c r="G283" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -9184,7 +9184,7 @@
         <v>11.5</v>
       </c>
       <c r="G284" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -9210,7 +9210,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -9236,7 +9236,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G286" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -9262,7 +9262,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G287" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -9288,7 +9288,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G288" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -9314,7 +9314,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G289" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -9340,7 +9340,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G290" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -9366,7 +9366,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G291" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -9392,7 +9392,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G292" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -9418,7 +9418,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G293" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -9444,7 +9444,7 @@
         <v>11.5</v>
       </c>
       <c r="G294" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -9470,7 +9470,7 @@
         <v>11.5</v>
       </c>
       <c r="G295" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -9496,7 +9496,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G296" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -9522,7 +9522,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G297" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -9548,7 +9548,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G298" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -9574,7 +9574,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G299" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -9600,7 +9600,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G300" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -9626,7 +9626,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G301" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -9652,7 +9652,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G302" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -9678,7 +9678,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G303" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -9704,7 +9704,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G304" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -9730,7 +9730,7 @@
         <v>12</v>
       </c>
       <c r="G305" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -9756,7 +9756,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G306" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -9782,7 +9782,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G307" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -9808,7 +9808,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G308" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -9834,7 +9834,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G309" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -9860,7 +9860,7 @@
         <v>12</v>
       </c>
       <c r="G310" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -9886,7 +9886,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G311" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -9912,7 +9912,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G312" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -9938,7 +9938,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G313" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -9964,7 +9964,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G314" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -9990,7 +9990,7 @@
         <v>12</v>
       </c>
       <c r="G315" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10016,7 +10016,7 @@
         <v>12</v>
       </c>
       <c r="G316" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10042,7 +10042,7 @@
         <v>12</v>
       </c>
       <c r="G317" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10068,7 +10068,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G318" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -10094,7 +10094,7 @@
         <v>12.25</v>
       </c>
       <c r="G319" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10120,7 +10120,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G320" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -10146,7 +10146,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G321" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -10172,7 +10172,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G322" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -10198,7 +10198,7 @@
         <v>13</v>
       </c>
       <c r="G323" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -10224,7 +10224,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G324" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -10250,7 +10250,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G325" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -10276,7 +10276,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G326" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -10302,7 +10302,7 @@
         <v>12.75</v>
       </c>
       <c r="G327" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -10328,7 +10328,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G328" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -10354,7 +10354,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G329" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -10380,7 +10380,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G330" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -10406,7 +10406,7 @@
         <v>12.75</v>
       </c>
       <c r="G331" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -10432,7 +10432,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G332" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -10458,7 +10458,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G333" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -10484,7 +10484,7 @@
         <v>12.5</v>
       </c>
       <c r="G334" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -10510,7 +10510,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G335" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -10536,7 +10536,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G336" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -10562,7 +10562,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G337" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -10588,7 +10588,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G338" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -10614,7 +10614,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G339" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -10640,7 +10640,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G340" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -10666,7 +10666,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G341" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -10692,7 +10692,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G342" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -10718,7 +10718,7 @@
         <v>12.75</v>
       </c>
       <c r="G343" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -10744,7 +10744,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G344" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -10770,7 +10770,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G345" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -10796,7 +10796,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G346" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -10822,7 +10822,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G347" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -10848,7 +10848,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G348" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -10874,7 +10874,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G349" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -10900,7 +10900,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G350" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -10926,7 +10926,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G351" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -10952,7 +10952,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G352" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -10978,7 +10978,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G353" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11004,7 +11004,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G354" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -11030,7 +11030,7 @@
         <v>13</v>
       </c>
       <c r="G355" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11056,7 +11056,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G356" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11082,7 +11082,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G357" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11108,7 +11108,7 @@
         <v>12.75</v>
       </c>
       <c r="G358" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11134,7 +11134,7 @@
         <v>13</v>
       </c>
       <c r="G359" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -11160,7 +11160,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G360" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -11186,7 +11186,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G361" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -11212,7 +11212,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G362" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -11238,7 +11238,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G363" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -11264,7 +11264,7 @@
         <v>13.0500001907349</v>
       </c>
       <c r="G364" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -11290,7 +11290,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G365" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -11316,7 +11316,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G366" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -11342,7 +11342,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G367" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -11368,7 +11368,7 @@
         <v>13.25</v>
       </c>
       <c r="G368" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -11394,7 +11394,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G369" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -11420,7 +11420,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G370" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -11446,7 +11446,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G371" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -11472,7 +11472,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G372" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -11498,7 +11498,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G373" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -11524,7 +11524,7 @@
         <v>13.5</v>
       </c>
       <c r="G374" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -11550,7 +11550,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G375" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -11576,7 +11576,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G376" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -11602,7 +11602,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G377" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -11628,7 +11628,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G378" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -11654,7 +11654,7 @@
         <v>14</v>
       </c>
       <c r="G379" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -11680,7 +11680,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G380" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -11706,7 +11706,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G381" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -11732,7 +11732,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G382" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -11758,7 +11758,7 @@
         <v>13.8500003814697</v>
       </c>
       <c r="G383" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -11784,7 +11784,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G384" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -11810,7 +11810,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G385" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -11836,7 +11836,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G386" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -11862,7 +11862,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G387" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -11888,7 +11888,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G388" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -11914,7 +11914,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G389" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -11940,7 +11940,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G390" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -11966,7 +11966,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G391" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -11992,7 +11992,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G392" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12018,7 +12018,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G393" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12044,7 +12044,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G394" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12070,7 +12070,7 @@
         <v>13.5</v>
       </c>
       <c r="G395" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12096,7 +12096,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G396" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12122,7 +12122,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G397" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12148,7 +12148,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G398" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12174,7 +12174,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G399" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -12200,7 +12200,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G400" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -12226,7 +12226,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G401" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -12252,7 +12252,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G402" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -12278,7 +12278,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G403" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -12304,7 +12304,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G404" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -12330,7 +12330,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G405" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -12356,7 +12356,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G406" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -12382,7 +12382,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G407" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -12408,7 +12408,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G408" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -12434,7 +12434,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G409" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -12460,7 +12460,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G410" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -12486,7 +12486,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G411" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -12512,7 +12512,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G412" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -12538,7 +12538,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G413" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -12564,7 +12564,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G414" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -12590,7 +12590,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G415" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -12616,7 +12616,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G416" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -12642,7 +12642,7 @@
         <v>14.25</v>
       </c>
       <c r="G417" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -12668,7 +12668,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G418" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -12694,7 +12694,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G419" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -12720,7 +12720,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G420" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -12746,7 +12746,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G421" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -12772,7 +12772,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G422" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -12798,7 +12798,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G423" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -12824,7 +12824,7 @@
         <v>14.75</v>
       </c>
       <c r="G424" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -12850,7 +12850,7 @@
         <v>15</v>
       </c>
       <c r="G425" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -12876,7 +12876,7 @@
         <v>15</v>
       </c>
       <c r="G426" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -12902,7 +12902,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G427" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -12928,7 +12928,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G428" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -12954,7 +12954,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G429" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -12980,7 +12980,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G430" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13006,7 +13006,7 @@
         <v>14.5</v>
       </c>
       <c r="G431" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13032,7 +13032,7 @@
         <v>14.5</v>
       </c>
       <c r="G432" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13058,7 +13058,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G433" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13084,7 +13084,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G434" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13110,7 +13110,7 @@
         <v>14.6499996185303</v>
       </c>
       <c r="G435" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13136,7 +13136,7 @@
         <v>14.75</v>
       </c>
       <c r="G436" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13162,7 +13162,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G437" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -13188,7 +13188,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G438" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -13214,7 +13214,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G439" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -13240,7 +13240,7 @@
         <v>14.75</v>
       </c>
       <c r="G440" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -13266,7 +13266,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G441" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -13292,7 +13292,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G442" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -13318,7 +13318,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G443" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -13344,7 +13344,7 @@
         <v>15.8500003814697</v>
       </c>
       <c r="G444" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -13370,7 +13370,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G445" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -13396,7 +13396,7 @@
         <v>16.75</v>
       </c>
       <c r="G446" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -13422,7 +13422,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G447" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -13448,7 +13448,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G448" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -13474,7 +13474,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G449" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -13500,7 +13500,7 @@
         <v>17</v>
       </c>
       <c r="G450" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -13526,7 +13526,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G451" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -13552,7 +13552,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G452" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -13578,7 +13578,7 @@
         <v>16.75</v>
       </c>
       <c r="G453" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -13604,7 +13604,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G454" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -13630,7 +13630,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G455" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -13656,7 +13656,7 @@
         <v>17.6499996185303</v>
       </c>
       <c r="G456" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -13682,7 +13682,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G457" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -13708,7 +13708,7 @@
         <v>18.25</v>
       </c>
       <c r="G458" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -13734,7 +13734,7 @@
         <v>18.5</v>
       </c>
       <c r="G459" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -13760,7 +13760,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G460" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -13786,7 +13786,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G461" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -13812,7 +13812,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G462" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -13838,7 +13838,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G463" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -13864,7 +13864,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G464" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -13890,7 +13890,7 @@
         <v>18.75</v>
       </c>
       <c r="G465" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -13916,7 +13916,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G466" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -13942,7 +13942,7 @@
         <v>18.25</v>
       </c>
       <c r="G467" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -13968,7 +13968,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G468" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -13994,7 +13994,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G469" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14020,7 +14020,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G470" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14046,7 +14046,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G471" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14072,7 +14072,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G472" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14098,7 +14098,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G473" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14124,7 +14124,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G474" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14150,7 +14150,7 @@
         <v>18</v>
       </c>
       <c r="G475" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -14176,7 +14176,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G476" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -14202,7 +14202,7 @@
         <v>18</v>
       </c>
       <c r="G477" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -14228,7 +14228,7 @@
         <v>18.25</v>
       </c>
       <c r="G478" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -14254,7 +14254,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G479" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -14280,7 +14280,7 @@
         <v>17.5</v>
       </c>
       <c r="G480" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -14306,7 +14306,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G481" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -14332,7 +14332,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G482" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -14358,7 +14358,7 @@
         <v>18.75</v>
       </c>
       <c r="G483" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -14384,7 +14384,7 @@
         <v>18.4500007629395</v>
       </c>
       <c r="G484" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -14410,7 +14410,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G485" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -14436,7 +14436,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G486" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -14462,7 +14462,7 @@
         <v>18.75</v>
       </c>
       <c r="G487" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -14488,7 +14488,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G488" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -14514,7 +14514,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G489" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -14540,7 +14540,7 @@
         <v>18.5</v>
       </c>
       <c r="G490" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -14566,7 +14566,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G491" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -14592,7 +14592,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G492" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -14618,7 +14618,7 @@
         <v>19.5</v>
       </c>
       <c r="G493" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -14644,7 +14644,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G494" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -14670,7 +14670,7 @@
         <v>19.1499996185303</v>
       </c>
       <c r="G495" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -14696,7 +14696,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G496" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -14722,7 +14722,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G497" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -14748,7 +14748,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G498" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -14774,7 +14774,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G499" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -14800,7 +14800,7 @@
         <v>20</v>
       </c>
       <c r="G500" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -14826,7 +14826,7 @@
         <v>20</v>
       </c>
       <c r="G501" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -14852,7 +14852,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G502" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -14878,7 +14878,7 @@
         <v>20</v>
       </c>
       <c r="G503" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -14904,7 +14904,7 @@
         <v>19.9500007629395</v>
       </c>
       <c r="G504" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -14930,7 +14930,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G505" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -14956,7 +14956,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G506" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -14982,7 +14982,7 @@
         <v>20.5</v>
       </c>
       <c r="G507" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15008,7 +15008,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G508" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15034,7 +15034,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G509" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15060,7 +15060,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G510" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15086,7 +15086,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G511" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15112,7 +15112,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G512" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15138,7 +15138,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G513" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15164,7 +15164,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G514" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -15190,7 +15190,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G515" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -15216,7 +15216,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G516" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -15242,7 +15242,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G517" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -15268,7 +15268,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G518" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -15294,7 +15294,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G519" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -15320,7 +15320,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G520" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -15346,7 +15346,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G521" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -15372,7 +15372,7 @@
         <v>21.5</v>
       </c>
       <c r="G522" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -15398,7 +15398,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G523" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -15424,7 +15424,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -15450,7 +15450,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G525" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -15476,7 +15476,7 @@
         <v>21.5</v>
       </c>
       <c r="G526" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -15502,7 +15502,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G527" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -15528,7 +15528,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G528" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -15554,7 +15554,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G529" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -15580,7 +15580,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G530" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -15606,7 +15606,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G531" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -15632,7 +15632,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G532" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -15658,7 +15658,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G533" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -15684,7 +15684,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G534" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -15710,7 +15710,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G535" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -15736,7 +15736,7 @@
         <v>25</v>
       </c>
       <c r="G536" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -15762,7 +15762,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G537" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -15788,7 +15788,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G538" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -15814,7 +15814,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G539" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -15840,7 +15840,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G540" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -15866,7 +15866,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G541" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -15892,7 +15892,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G542" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -15918,7 +15918,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G543" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -15944,7 +15944,7 @@
         <v>24.5</v>
       </c>
       <c r="G544" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -15970,7 +15970,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G545" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -15996,7 +15996,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G546" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16022,7 +16022,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G547" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16048,7 +16048,7 @@
         <v>25</v>
       </c>
       <c r="G548" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16074,7 +16074,7 @@
         <v>24.5</v>
       </c>
       <c r="G549" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16100,7 +16100,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G550" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16126,7 +16126,7 @@
         <v>25</v>
       </c>
       <c r="G551" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16152,7 +16152,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G552" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16178,7 +16178,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G553" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -16204,7 +16204,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G554" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -16230,7 +16230,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G555" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -16256,7 +16256,7 @@
         <v>24.5</v>
       </c>
       <c r="G556" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -16282,7 +16282,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G557" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -16308,7 +16308,7 @@
         <v>24.5</v>
       </c>
       <c r="G558" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -16334,7 +16334,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G559" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -16360,7 +16360,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G560" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -16386,7 +16386,7 @@
         <v>25</v>
       </c>
       <c r="G561" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -16412,7 +16412,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G562" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -16438,7 +16438,7 @@
         <v>23.5</v>
       </c>
       <c r="G563" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -16464,7 +16464,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G564" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -16490,7 +16490,7 @@
         <v>24</v>
       </c>
       <c r="G565" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -16516,7 +16516,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G566" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -16542,7 +16542,7 @@
         <v>24</v>
       </c>
       <c r="G567" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -16568,7 +16568,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G568" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -16594,7 +16594,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G569" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -16620,7 +16620,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G570" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -16646,7 +16646,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G571" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -16672,7 +16672,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G572" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -16698,7 +16698,7 @@
         <v>23.5</v>
       </c>
       <c r="G573" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -16724,7 +16724,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G574" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -16750,7 +16750,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G575" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -16776,7 +16776,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G576" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -16802,7 +16802,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G577" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -16828,7 +16828,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G578" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -16854,7 +16854,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G579" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -16880,7 +16880,7 @@
         <v>23</v>
       </c>
       <c r="G580" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -16906,7 +16906,7 @@
         <v>23</v>
       </c>
       <c r="G581" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -16932,7 +16932,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G582" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -16958,7 +16958,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G583" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -16984,7 +16984,7 @@
         <v>21.5</v>
       </c>
       <c r="G584" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17010,7 +17010,7 @@
         <v>20.5</v>
       </c>
       <c r="G585" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17036,7 +17036,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G586" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17062,7 +17062,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G587" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17088,7 +17088,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G588" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17114,7 +17114,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G589" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17140,7 +17140,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G590" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17166,7 +17166,7 @@
         <v>19.5</v>
       </c>
       <c r="G591" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -17192,7 +17192,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G592" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -17218,7 +17218,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G593" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -17244,7 +17244,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G594" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -17270,7 +17270,7 @@
         <v>20</v>
       </c>
       <c r="G595" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -17296,7 +17296,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G596" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -17322,7 +17322,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G597" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -17348,7 +17348,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G598" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -17374,7 +17374,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G599" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -17400,7 +17400,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G600" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -17426,7 +17426,7 @@
         <v>20</v>
       </c>
       <c r="G601" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -17452,7 +17452,7 @@
         <v>21</v>
       </c>
       <c r="G602" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -17478,7 +17478,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G603" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -17504,7 +17504,7 @@
         <v>20.5</v>
       </c>
       <c r="G604" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -17530,7 +17530,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G605" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -17556,7 +17556,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G606" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -17582,7 +17582,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G607" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -17608,7 +17608,7 @@
         <v>20.5</v>
       </c>
       <c r="G608" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -17634,7 +17634,7 @@
         <v>20.5</v>
       </c>
       <c r="G609" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -17660,7 +17660,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G610" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -17686,7 +17686,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G611" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -17712,7 +17712,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G612" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -17738,7 +17738,7 @@
         <v>18.9200000762939</v>
       </c>
       <c r="G613" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -17764,7 +17764,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G614" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -17790,7 +17790,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G615" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -17816,7 +17816,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G616" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -17842,7 +17842,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G617" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -17868,7 +17868,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G618" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -17894,7 +17894,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G619" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -17920,7 +17920,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G620" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -17946,7 +17946,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G621" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -17972,7 +17972,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G622" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -17998,7 +17998,7 @@
         <v>19.2399997711182</v>
       </c>
       <c r="G623" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18024,7 +18024,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G624" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18050,7 +18050,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18076,7 +18076,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G626" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18102,7 +18102,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G627" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18128,7 +18128,7 @@
         <v>18</v>
       </c>
       <c r="G628" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18154,7 +18154,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G629" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18180,7 +18180,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G630" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -18206,7 +18206,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G631" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -18232,7 +18232,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G632" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -18258,7 +18258,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G633" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -18284,7 +18284,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G634" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -18310,7 +18310,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G635" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -18336,7 +18336,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G636" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -18362,7 +18362,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G637" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -18388,7 +18388,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G638" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -18414,7 +18414,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G639" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -18440,7 +18440,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G640" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -18466,7 +18466,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G641" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -18492,7 +18492,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G642" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -18518,7 +18518,7 @@
         <v>18.1599998474121</v>
       </c>
       <c r="G643" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -18544,7 +18544,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G644" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -18570,7 +18570,7 @@
         <v>19</v>
       </c>
       <c r="G645" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -18596,7 +18596,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G646" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -18622,7 +18622,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G647" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -18648,7 +18648,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G648" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -18674,7 +18674,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G649" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -18700,7 +18700,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G650" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -18726,7 +18726,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G651" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -18752,7 +18752,7 @@
         <v>19.2199993133545</v>
       </c>
       <c r="G652" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -18778,7 +18778,7 @@
         <v>19.5</v>
       </c>
       <c r="G653" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -18804,7 +18804,7 @@
         <v>19</v>
       </c>
       <c r="G654" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -18830,7 +18830,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G655" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -18856,7 +18856,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G656" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -18882,7 +18882,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G657" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -18908,7 +18908,7 @@
         <v>18.2600002288818</v>
       </c>
       <c r="G658" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -18934,7 +18934,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G659" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -18960,7 +18960,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G660" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -18986,7 +18986,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G661" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19012,7 +19012,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G662" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19038,7 +19038,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G663" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19064,7 +19064,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G664" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19090,7 +19090,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G665" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19116,7 +19116,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G666" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19142,7 +19142,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G667" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19168,7 +19168,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G668" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -19194,7 +19194,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G669" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19220,7 +19220,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G670" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -19246,7 +19246,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G671" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -19272,7 +19272,7 @@
         <v>16.6399993896484</v>
       </c>
       <c r="G672" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -19298,7 +19298,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G673" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -19324,7 +19324,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G674" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -19350,7 +19350,7 @@
         <v>16.3199996948242</v>
       </c>
       <c r="G675" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -19376,7 +19376,7 @@
         <v>16</v>
       </c>
       <c r="G676" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -19402,7 +19402,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G677" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -19428,7 +19428,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G678" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -19454,7 +19454,7 @@
         <v>17.5</v>
       </c>
       <c r="G679" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -19480,7 +19480,7 @@
         <v>17.5</v>
       </c>
       <c r="G680" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -19506,7 +19506,7 @@
         <v>17.5</v>
       </c>
       <c r="G681" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -19532,7 +19532,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G682" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -19558,7 +19558,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G683" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -19584,7 +19584,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G684" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -19610,7 +19610,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G685" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -19636,7 +19636,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G686" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -19662,7 +19662,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G687" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -19688,7 +19688,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G688" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -19714,7 +19714,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G689" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -19740,7 +19740,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G690" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -19766,7 +19766,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G691" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -19792,7 +19792,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G692" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -19818,7 +19818,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G693" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -19844,7 +19844,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G694" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -19870,7 +19870,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G695" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -19896,7 +19896,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G696" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -19922,7 +19922,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G697" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -19948,7 +19948,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -19974,7 +19974,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G699" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20000,7 +20000,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G700" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20026,7 +20026,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G701" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20052,7 +20052,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G702" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20078,7 +20078,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G703" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20104,7 +20104,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G704" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20130,7 +20130,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G705" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20156,7 +20156,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G706" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -20182,7 +20182,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G707" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -20208,7 +20208,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G708" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20234,7 +20234,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G709" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20260,7 +20260,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G710" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -20286,7 +20286,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G711" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -20312,7 +20312,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G712" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -20338,7 +20338,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G713" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -20364,7 +20364,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -20390,7 +20390,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G715" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -20416,7 +20416,7 @@
         <v>17.5</v>
       </c>
       <c r="G716" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -20442,7 +20442,7 @@
         <v>17</v>
       </c>
       <c r="G717" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -20468,7 +20468,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G718" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -20494,7 +20494,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G719" t="s">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -20546,7 +20546,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G721" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -20572,7 +20572,7 @@
         <v>17.5</v>
       </c>
       <c r="G722" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -20676,7 +20676,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G726" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -20728,7 +20728,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G728" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21300,7 +21300,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G750" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -21456,7 +21456,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G756" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -21664,7 +21664,7 @@
         <v>16.2199993133545</v>
       </c>
       <c r="G764" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -21768,7 +21768,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G768" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -21794,7 +21794,7 @@
         <v>17.5</v>
       </c>
       <c r="G769" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -21820,7 +21820,7 @@
         <v>17.5</v>
       </c>
       <c r="G770" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -21872,7 +21872,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G772" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -21924,7 +21924,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G774" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22054,7 +22054,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G779" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22158,7 +22158,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G783" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22340,7 +22340,7 @@
         <v>17</v>
       </c>
       <c r="G790" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -22418,7 +22418,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G793" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -22522,7 +22522,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G797" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -22548,7 +22548,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G798" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -22574,7 +22574,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G799" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -22626,7 +22626,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G801" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -22704,7 +22704,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G804" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -22782,7 +22782,7 @@
         <v>18.1599998474121</v>
       </c>
       <c r="G807" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -22808,7 +22808,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G808" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -22834,7 +22834,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G809" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -22860,7 +22860,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G810" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -22912,7 +22912,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G812" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -22938,7 +22938,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G813" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23016,7 +23016,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G816" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23042,7 +23042,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G817" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23068,7 +23068,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G818" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23120,7 +23120,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G820" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23276,7 +23276,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G826" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -23302,7 +23302,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G827" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -23432,7 +23432,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G832" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -23536,7 +23536,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G836" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -23588,7 +23588,7 @@
         <v>17.5</v>
       </c>
       <c r="G838" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -23614,7 +23614,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G839" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -23640,7 +23640,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G840" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -23692,7 +23692,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G842" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -23770,7 +23770,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G845" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -23848,7 +23848,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G848" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24030,7 +24030,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G855" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -32618,7 +32618,7 @@
     </row>
     <row r="1186">
       <c r="A1186" s="1" t="n">
-        <v>45477.6495949074</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B1186" t="n">
         <v>11545</v>
@@ -32639,6 +32639,32 @@
         <v>482</v>
       </c>
       <c r="H1186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="1" t="n">
+        <v>45478.6493287037</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>8564</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G1187" t="s">
+        <v>482</v>
+      </c>
+      <c r="H1187" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">8.33448791503906</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17905330657959</t>
+    <t xml:space="preserve">8.17905235290527</t>
   </si>
   <si>
     <t xml:space="preserve">8.13650321960449</t>
@@ -59,31 +59,31 @@
     <t xml:space="preserve">8.10176849365234</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11045265197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11913776397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16255474090576</t>
+    <t xml:space="preserve">8.11045169830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11913681030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16255378723145</t>
   </si>
   <si>
     <t xml:space="preserve">8.2407054901123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2493896484375</t>
+    <t xml:space="preserve">8.24938869476318</t>
   </si>
   <si>
     <t xml:space="preserve">8.29280757904053</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50989627838135</t>
+    <t xml:space="preserve">8.50989723205566</t>
   </si>
   <si>
     <t xml:space="preserve">8.51163387298584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48384571075439</t>
+    <t xml:space="preserve">8.48384666442871</t>
   </si>
   <si>
     <t xml:space="preserve">8.38398456573486</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">8.94407558441162</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93539142608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00486087799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97707271575928</t>
+    <t xml:space="preserve">8.93539237976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00485992431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97707366943359</t>
   </si>
   <si>
     <t xml:space="preserve">9.02917385101318</t>
@@ -128,16 +128,16 @@
     <t xml:space="preserve">9.03091049194336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98749351501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33483505249023</t>
+    <t xml:space="preserve">8.98749446868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33483600616455</t>
   </si>
   <si>
     <t xml:space="preserve">9.24799919128418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46508884429932</t>
+    <t xml:space="preserve">9.465087890625</t>
   </si>
   <si>
     <t xml:space="preserve">9.59534358978271</t>
@@ -152,19 +152,19 @@
     <t xml:space="preserve">9.72559642791748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98610210418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0295209884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76901340484619</t>
+    <t xml:space="preserve">9.98610401153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0295219421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76901435852051</t>
   </si>
   <si>
     <t xml:space="preserve">9.89926719665527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85585021972656</t>
+    <t xml:space="preserve">9.85584926605225</t>
   </si>
   <si>
     <t xml:space="preserve">9.63876152038574</t>
@@ -179,16 +179,16 @@
     <t xml:space="preserve">9.29141807556152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07432842254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57936573028564</t>
+    <t xml:space="preserve">9.0743293762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57936477661133</t>
   </si>
   <si>
     <t xml:space="preserve">8.63146591186523</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85723972320557</t>
+    <t xml:space="preserve">8.85723876953125</t>
   </si>
   <si>
     <t xml:space="preserve">8.77040386199951</t>
@@ -200,34 +200,34 @@
     <t xml:space="preserve">8.68356800079346</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45779514312744</t>
+    <t xml:space="preserve">8.45779609680176</t>
   </si>
   <si>
     <t xml:space="preserve">8.40569400787354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51996946334839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02361679077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72837591171265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98888254165649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81521129608154</t>
+    <t xml:space="preserve">7.51997041702271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02361583709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72837543487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98888301849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8152117729187</t>
   </si>
   <si>
     <t xml:space="preserve">7.78047704696655</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09308528900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38832759857178</t>
+    <t xml:space="preserve">8.09308433532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38832664489746</t>
   </si>
   <si>
     <t xml:space="preserve">8.90065765380859</t>
@@ -236,52 +236,52 @@
     <t xml:space="preserve">9.11774635314941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81382179260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42167186737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02747249603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07260894775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74966907501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1559047698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2913179397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.381591796875</t>
+    <t xml:space="preserve">8.81382083892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42167091369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0274715423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07260990142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74967002868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1559057235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.291316986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3815927505493</t>
   </si>
   <si>
     <t xml:space="preserve">10.4718675613403</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6072797775269</t>
+    <t xml:space="preserve">10.6072788238525</t>
   </si>
   <si>
     <t xml:space="preserve">10.5170049667358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0135145187378</t>
+    <t xml:space="preserve">11.0135164260864</t>
   </si>
   <si>
     <t xml:space="preserve">11.1940650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1489286422729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2843408584595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8329668045044</t>
+    <t xml:space="preserve">11.1489267349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2843389511108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8329658508301</t>
   </si>
   <si>
     <t xml:space="preserve">10.7878284454346</t>
@@ -311,13 +311,13 @@
     <t xml:space="preserve">10.5621423721313</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4267301559448</t>
+    <t xml:space="preserve">10.4267311096191</t>
   </si>
   <si>
     <t xml:space="preserve">10.6975536346436</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3364543914795</t>
+    <t xml:space="preserve">10.3364553451538</t>
   </si>
   <si>
     <t xml:space="preserve">10.2461805343628</t>
@@ -335,13 +335,13 @@
     <t xml:space="preserve">11.5551643371582</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3746147155762</t>
+    <t xml:space="preserve">11.3746137619019</t>
   </si>
   <si>
     <t xml:space="preserve">11.5100269317627</t>
   </si>
   <si>
-    <t xml:space="preserve">11.239203453064</t>
+    <t xml:space="preserve">11.2392024993896</t>
   </si>
   <si>
     <t xml:space="preserve">11.4648895263672</t>
@@ -350,25 +350,25 @@
     <t xml:space="preserve">11.6003017425537</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6905755996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7808504104614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8259878158569</t>
+    <t xml:space="preserve">11.6905765533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7808513641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8259887695312</t>
   </si>
   <si>
     <t xml:space="preserve">11.8711252212524</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9162635803223</t>
+    <t xml:space="preserve">11.9162626266479</t>
   </si>
   <si>
     <t xml:space="preserve">11.9614000320435</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1419496536255</t>
+    <t xml:space="preserve">12.1419486999512</t>
   </si>
   <si>
     <t xml:space="preserve">12.457911491394</t>
@@ -377,16 +377,16 @@
     <t xml:space="preserve">12.5481853485107</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3676357269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1870880126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2773609161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5030488967896</t>
+    <t xml:space="preserve">12.367636680603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1870861053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2773628234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5030498504639</t>
   </si>
   <si>
     <t xml:space="preserve">12.6384601593018</t>
@@ -401,13 +401,13 @@
     <t xml:space="preserve">12.6205492019653</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7136898040771</t>
+    <t xml:space="preserve">12.7136888504028</t>
   </si>
   <si>
     <t xml:space="preserve">12.5274076461792</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4808368682861</t>
+    <t xml:space="preserve">12.4808378219604</t>
   </si>
   <si>
     <t xml:space="preserve">12.6671199798584</t>
@@ -419,10 +419,10 @@
     <t xml:space="preserve">12.2945566177368</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3876972198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4342679977417</t>
+    <t xml:space="preserve">12.3876981735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.434268951416</t>
   </si>
   <si>
     <t xml:space="preserve">12.9465408325195</t>
@@ -434,7 +434,7 @@
     <t xml:space="preserve">13.1793918609619</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9931106567383</t>
+    <t xml:space="preserve">12.9931116104126</t>
   </si>
   <si>
     <t xml:space="preserve">13.2725324630737</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">13.5985250473022</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7382364273071</t>
+    <t xml:space="preserve">13.7382354736328</t>
   </si>
   <si>
     <t xml:space="preserve">13.9710874557495</t>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">13.8779458999634</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3656730651855</t>
+    <t xml:space="preserve">13.3656740188599</t>
   </si>
   <si>
     <t xml:space="preserve">13.5053844451904</t>
@@ -470,13 +470,13 @@
     <t xml:space="preserve">13.6916656494141</t>
   </si>
   <si>
-    <t xml:space="preserve">13.645094871521</t>
+    <t xml:space="preserve">13.6450939178467</t>
   </si>
   <si>
     <t xml:space="preserve">13.8313770294189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0642280578613</t>
+    <t xml:space="preserve">14.0642290115356</t>
   </si>
   <si>
     <t xml:space="preserve">14.297080039978</t>
@@ -494,34 +494,34 @@
     <t xml:space="preserve">15.9270391464233</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8804693222046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8338994979858</t>
+    <t xml:space="preserve">15.8804683685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8338985443115</t>
   </si>
   <si>
     <t xml:space="preserve">15.6941871643066</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9736089706421</t>
+    <t xml:space="preserve">15.9736099243164</t>
   </si>
   <si>
     <t xml:space="preserve">16.4393138885498</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6721649169922</t>
+    <t xml:space="preserve">16.6721630096436</t>
   </si>
   <si>
     <t xml:space="preserve">16.9981555938721</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2310066223145</t>
+    <t xml:space="preserve">17.2310085296631</t>
   </si>
   <si>
     <t xml:space="preserve">16.9515857696533</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4172878265381</t>
+    <t xml:space="preserve">17.4172897338867</t>
   </si>
   <si>
     <t xml:space="preserve">17.6501407623291</t>
@@ -542,10 +542,10 @@
     <t xml:space="preserve">17.0447254180908</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3707180023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3241481781006</t>
+    <t xml:space="preserve">17.370719909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3241500854492</t>
   </si>
   <si>
     <t xml:space="preserve">16.7653045654297</t>
@@ -563,7 +563,7 @@
     <t xml:space="preserve">16.15989112854</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1844367980957</t>
+    <t xml:space="preserve">17.1844387054443</t>
   </si>
   <si>
     <t xml:space="preserve">17.137866973877</t>
@@ -578,7 +578,7 @@
     <t xml:space="preserve">18.1624145507812</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8829936981201</t>
+    <t xml:space="preserve">17.8829917907715</t>
   </si>
   <si>
     <t xml:space="preserve">17.8364200592041</t>
@@ -590,13 +590,13 @@
     <t xml:space="preserve">18.5349750518799</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6281147003174</t>
+    <t xml:space="preserve">18.628116607666</t>
   </si>
   <si>
     <t xml:space="preserve">18.3486957550049</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5815467834473</t>
+    <t xml:space="preserve">18.5815486907959</t>
   </si>
   <si>
     <t xml:space="preserve">18.9075374603271</t>
@@ -608,7 +608,7 @@
     <t xml:space="preserve">19.0938186645508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2801036834717</t>
+    <t xml:space="preserve">19.280101776123</t>
   </si>
   <si>
     <t xml:space="preserve">20.2115058898926</t>
@@ -620,13 +620,13 @@
     <t xml:space="preserve">19.8389434814453</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7458038330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9320850372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6772079467773</t>
+    <t xml:space="preserve">19.7458019256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9320831298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.677209854126</t>
   </si>
   <si>
     <t xml:space="preserve">20.0252246856689</t>
@@ -635,25 +635,25 @@
     <t xml:space="preserve">19.1869602203369</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6526622772217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.701753616333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.515474319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7948951721191</t>
+    <t xml:space="preserve">19.6526641845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7017555236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5154762268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7948970794678</t>
   </si>
   <si>
     <t xml:space="preserve">22.4468803405762</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7263011932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5400238037109</t>
+    <t xml:space="preserve">22.7263031005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5400218963623</t>
   </si>
   <si>
     <t xml:space="preserve">23.2851448059082</t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">23.1920051574707</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0057239532471</t>
+    <t xml:space="preserve">23.0057220458984</t>
   </si>
   <si>
     <t xml:space="preserve">23.0988636016846</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">22.1674575805664</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3537406921387</t>
+    <t xml:space="preserve">22.35373878479</t>
   </si>
   <si>
     <t xml:space="preserve">22.2605991363525</t>
@@ -707,7 +707,7 @@
     <t xml:space="preserve">21.4223346710205</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5840682983398</t>
+    <t xml:space="preserve">20.5840702056885</t>
   </si>
   <si>
     <t xml:space="preserve">20.3046455383301</t>
@@ -719,7 +719,7 @@
     <t xml:space="preserve">19.0006771087646</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1429138183594</t>
+    <t xml:space="preserve">21.1429119110107</t>
   </si>
   <si>
     <t xml:space="preserve">19.3732414245605</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">18.7212581634521</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5722332000732</t>
+    <t xml:space="preserve">18.5722312927246</t>
   </si>
   <si>
     <t xml:space="preserve">18.3673229217529</t>
@@ -743,16 +743,16 @@
     <t xml:space="preserve">17.6221981048584</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0692729949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6746864318848</t>
+    <t xml:space="preserve">18.0692710876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6746845245361</t>
   </si>
   <si>
     <t xml:space="preserve">18.0133895874023</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7525939941406</t>
+    <t xml:space="preserve">17.7525959014893</t>
   </si>
   <si>
     <t xml:space="preserve">17.5663146972656</t>
@@ -761,31 +761,31 @@
     <t xml:space="preserve">17.6594543457031</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7339687347412</t>
+    <t xml:space="preserve">17.7339668273926</t>
   </si>
   <si>
     <t xml:space="preserve">17.9202480316162</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5104274749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8211879730225</t>
+    <t xml:space="preserve">17.5104293823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8211860656738</t>
   </si>
   <si>
     <t xml:space="preserve">16.6349086761475</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8957004547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7280464172363</t>
+    <t xml:space="preserve">16.8957023620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.728048324585</t>
   </si>
   <si>
     <t xml:space="preserve">16.54176902771</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3554878234863</t>
+    <t xml:space="preserve">16.3554859161377</t>
   </si>
   <si>
     <t xml:space="preserve">15.722128868103</t>
@@ -806,181 +806,184 @@
     <t xml:space="preserve">15.1446590423584</t>
   </si>
   <si>
+    <t xml:space="preserve">16.5231380462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0968589782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5940837860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5367107391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.364595413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1542320251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1678047180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9574394226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5502834320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1295547485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.454662322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7224006652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3781681060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6459045410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8426952362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7470741271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4410915374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4602165222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5040149688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0450401306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7964277267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.025915145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6816825866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2362785339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3892707824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.274528503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8920469284058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.719931602478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.217155456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0067901611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1215343475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9111700057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8729248046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8346748352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6051874160767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2992029190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5095663070679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7335033416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1159839630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.752628326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0012397766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0394859313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1486797332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8235721588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6323318481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7088279724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7279510498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8809432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4028434753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7143783569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9629917144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8099994659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9056205749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.829122543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.88649559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1733531951904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9821166992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.637882232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2554035186768</t>
+  </si>
+  <si>
     <t xml:space="preserve">16.5231399536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0968589782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5940837860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5367107391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.364595413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1542320251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1678047180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9574394226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5502834320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1295547485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.454662322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7224006652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3781681060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6459045410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8426952362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7470741271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4410915374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4602165222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5040149688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0450401306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7964277267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.025915145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6816825866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2362785339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3892707824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.274528503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8920469284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.719931602478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.217155456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0067901611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1215343475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9111700057983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8729248046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8346748352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6051874160767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2992029190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5095663070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7335033416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1159839630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.752628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0012397766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0394859313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1486797332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8235721588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6323318481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7088279724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7279510498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8809432983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4028434753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7143783569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9629917144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8099994659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9056205749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.829122543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.88649559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1733531951904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9821166992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.637882232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2554035186768</t>
   </si>
   <si>
     <t xml:space="preserve">16.9247436523438</t>
@@ -20491,7 +20494,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G719" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -20517,7 +20520,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G720" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -20595,7 +20598,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G723" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -20621,7 +20624,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G724" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -20647,7 +20650,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G725" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -20699,7 +20702,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G727" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -20751,7 +20754,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G729" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -20777,7 +20780,7 @@
         <v>15.3599996566772</v>
       </c>
       <c r="G730" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -20803,7 +20806,7 @@
         <v>14.8400001525879</v>
       </c>
       <c r="G731" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -20829,7 +20832,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G732" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -20855,7 +20858,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G733" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -20881,7 +20884,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G734" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -20907,7 +20910,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G735" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -20933,7 +20936,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G736" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -20959,7 +20962,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G737" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -20985,7 +20988,7 @@
         <v>14.039999961853</v>
       </c>
       <c r="G738" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21011,7 +21014,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G739" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21037,7 +21040,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G740" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21063,7 +21066,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G741" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21089,7 +21092,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G742" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21115,7 +21118,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G743" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21141,7 +21144,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G744" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21167,7 +21170,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G745" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21193,7 +21196,7 @@
         <v>14.8800001144409</v>
       </c>
       <c r="G746" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21219,7 +21222,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G747" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21245,7 +21248,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G748" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21271,7 +21274,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G749" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21323,7 +21326,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -21349,7 +21352,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G752" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -21375,7 +21378,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G753" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -21401,7 +21404,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G754" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -21427,7 +21430,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G755" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -21479,7 +21482,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G757" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -21505,7 +21508,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G758" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -21531,7 +21534,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G759" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -21557,7 +21560,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G760" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -21583,7 +21586,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G761" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -21609,7 +21612,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G762" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -21635,7 +21638,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G763" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -21687,7 +21690,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G765" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -21713,7 +21716,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G766" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -21739,7 +21742,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G767" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -21843,7 +21846,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G771" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -21895,7 +21898,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G773" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -21947,7 +21950,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G775" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -21973,7 +21976,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G776" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -21999,7 +22002,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G777" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22025,7 +22028,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G778" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22077,7 +22080,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G780" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22103,7 +22106,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G781" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22129,7 +22132,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G782" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22181,7 +22184,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G784" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22207,7 +22210,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G785" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22233,7 +22236,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G786" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22259,7 +22262,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G787" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22285,7 +22288,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G788" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22311,7 +22314,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G789" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -22363,7 +22366,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G791" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -22389,7 +22392,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G792" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -22441,7 +22444,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G794" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -22467,7 +22470,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G795" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -22493,7 +22496,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G796" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -22597,7 +22600,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G800" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -22649,7 +22652,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G802" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -22675,7 +22678,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G803" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -22727,7 +22730,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G805" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -22753,7 +22756,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G806" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -22883,7 +22886,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G811" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -22961,7 +22964,7 @@
         <v>18.5799999237061</v>
       </c>
       <c r="G814" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -22987,7 +22990,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G815" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23091,7 +23094,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G819" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23143,7 +23146,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G821" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23169,7 +23172,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G822" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23195,7 +23198,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G823" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23221,7 +23224,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G824" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23247,7 +23250,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G825" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23325,7 +23328,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G828" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -23351,7 +23354,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G829" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -23377,7 +23380,7 @@
         <v>18.5</v>
       </c>
       <c r="G830" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -23403,7 +23406,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G831" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -23455,7 +23458,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G833" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -23481,7 +23484,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G834" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -23507,7 +23510,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G835" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -23559,7 +23562,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G837" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -23663,7 +23666,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G841" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -23715,7 +23718,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G843" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -23741,7 +23744,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G844" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -23793,7 +23796,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G846" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -23819,7 +23822,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G847" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -23871,7 +23874,7 @@
         <v>18</v>
       </c>
       <c r="G849" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -23897,7 +23900,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G850" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -23923,7 +23926,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G851" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -23949,7 +23952,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G852" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -23975,7 +23978,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G853" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24001,7 +24004,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G854" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24053,7 +24056,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G856" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24079,7 +24082,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G857" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24105,7 +24108,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G858" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24131,7 +24134,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G859" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24157,7 +24160,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G860" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24183,7 +24186,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G861" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24209,7 +24212,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G862" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24235,7 +24238,7 @@
         <v>20.75</v>
       </c>
       <c r="G863" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24261,7 +24264,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -24287,7 +24290,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G865" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -24313,7 +24316,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G866" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -24339,7 +24342,7 @@
         <v>21.5</v>
       </c>
       <c r="G867" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -24365,7 +24368,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G868" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -24391,7 +24394,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G869" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -24417,7 +24420,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G870" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -24443,7 +24446,7 @@
         <v>21.5</v>
       </c>
       <c r="G871" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -24469,7 +24472,7 @@
         <v>21</v>
       </c>
       <c r="G872" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -24495,7 +24498,7 @@
         <v>20.75</v>
       </c>
       <c r="G873" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -24521,7 +24524,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G874" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -24547,7 +24550,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G875" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -24573,7 +24576,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G876" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -24599,7 +24602,7 @@
         <v>20.5</v>
       </c>
       <c r="G877" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -24625,7 +24628,7 @@
         <v>21</v>
       </c>
       <c r="G878" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -24651,7 +24654,7 @@
         <v>21</v>
       </c>
       <c r="G879" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -24677,7 +24680,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G880" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -24703,7 +24706,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G881" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -24729,7 +24732,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G882" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -24755,7 +24758,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G883" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -24781,7 +24784,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G884" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -24807,7 +24810,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G885" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -24833,7 +24836,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G886" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -24859,7 +24862,7 @@
         <v>21.75</v>
       </c>
       <c r="G887" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -24885,7 +24888,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G888" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -24911,7 +24914,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G889" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -24937,7 +24940,7 @@
         <v>22</v>
       </c>
       <c r="G890" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -24963,7 +24966,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G891" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -24989,7 +24992,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G892" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25015,7 +25018,7 @@
         <v>21.75</v>
       </c>
       <c r="G893" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25041,7 +25044,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G894" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25067,7 +25070,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25093,7 +25096,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G896" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25119,7 +25122,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G897" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25145,7 +25148,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G898" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25171,7 +25174,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G899" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25197,7 +25200,7 @@
         <v>22.5</v>
       </c>
       <c r="G900" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25223,7 +25226,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G901" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25249,7 +25252,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G902" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -25275,7 +25278,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G903" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -25301,7 +25304,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G904" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -25327,7 +25330,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -25353,7 +25356,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G906" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -25379,7 +25382,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G907" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -25405,7 +25408,7 @@
         <v>22.5</v>
       </c>
       <c r="G908" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -25431,7 +25434,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G909" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -25457,7 +25460,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G910" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -25483,7 +25486,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G911" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -25509,7 +25512,7 @@
         <v>22.75</v>
       </c>
       <c r="G912" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -25535,7 +25538,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G913" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -25561,7 +25564,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G914" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -25587,7 +25590,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G915" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -25613,7 +25616,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G916" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -25639,7 +25642,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G917" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -25665,7 +25668,7 @@
         <v>23</v>
       </c>
       <c r="G918" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -25691,7 +25694,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G919" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -25717,7 +25720,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G920" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -25743,7 +25746,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G921" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -25769,7 +25772,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G922" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -25795,7 +25798,7 @@
         <v>23.25</v>
       </c>
       <c r="G923" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -25821,7 +25824,7 @@
         <v>23.25</v>
       </c>
       <c r="G924" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -25847,7 +25850,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G925" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -25873,7 +25876,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G926" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -25899,7 +25902,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G927" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -25925,7 +25928,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G928" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -25951,7 +25954,7 @@
         <v>23</v>
       </c>
       <c r="G929" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -25977,7 +25980,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G930" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26003,7 +26006,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G931" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26029,7 +26032,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G932" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26055,7 +26058,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G933" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26081,7 +26084,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G934" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26107,7 +26110,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G935" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26133,7 +26136,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G936" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26159,7 +26162,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G937" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26185,7 +26188,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G938" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26211,7 +26214,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G939" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26237,7 +26240,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G940" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26263,7 +26266,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G941" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26289,7 +26292,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G942" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -26315,7 +26318,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G943" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26341,7 +26344,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G944" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26367,7 +26370,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G945" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26393,7 +26396,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G946" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26419,7 +26422,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G947" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26445,7 +26448,7 @@
         <v>23</v>
       </c>
       <c r="G948" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26471,7 +26474,7 @@
         <v>23.25</v>
       </c>
       <c r="G949" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26497,7 +26500,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G950" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26523,7 +26526,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G951" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26549,7 +26552,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G952" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26575,7 +26578,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G953" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26601,7 +26604,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G954" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26627,7 +26630,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G955" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -26653,7 +26656,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G956" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -26679,7 +26682,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -26705,7 +26708,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G958" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -26731,7 +26734,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G959" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -26757,7 +26760,7 @@
         <v>24.5</v>
       </c>
       <c r="G960" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -26783,7 +26786,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G961" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -26809,7 +26812,7 @@
         <v>24.5</v>
       </c>
       <c r="G962" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -26835,7 +26838,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G963" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -26861,7 +26864,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G964" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -26887,7 +26890,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G965" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -26913,7 +26916,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G966" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -26939,7 +26942,7 @@
         <v>24</v>
       </c>
       <c r="G967" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -26965,7 +26968,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G968" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -26991,7 +26994,7 @@
         <v>24.25</v>
       </c>
       <c r="G969" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -27017,7 +27020,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G970" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27043,7 +27046,7 @@
         <v>24.5</v>
       </c>
       <c r="G971" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27069,7 +27072,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G972" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27095,7 +27098,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G973" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27121,7 +27124,7 @@
         <v>24.5</v>
       </c>
       <c r="G974" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -27147,7 +27150,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G975" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -27173,7 +27176,7 @@
         <v>23.75</v>
       </c>
       <c r="G976" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -27199,7 +27202,7 @@
         <v>23.5</v>
       </c>
       <c r="G977" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -27225,7 +27228,7 @@
         <v>23.25</v>
       </c>
       <c r="G978" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -27251,7 +27254,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G979" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27277,7 +27280,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G980" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27303,7 +27306,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G981" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27329,7 +27332,7 @@
         <v>23</v>
       </c>
       <c r="G982" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -27355,7 +27358,7 @@
         <v>22.75</v>
       </c>
       <c r="G983" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -27381,7 +27384,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G984" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27407,7 +27410,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G985" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27433,7 +27436,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G986" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -27459,7 +27462,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G987" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -27485,7 +27488,7 @@
         <v>22.5</v>
       </c>
       <c r="G988" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -27511,7 +27514,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G989" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -27537,7 +27540,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G990" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -27563,7 +27566,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G991" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -27589,7 +27592,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G992" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -27615,7 +27618,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G993" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -27641,7 +27644,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G994" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -27667,7 +27670,7 @@
         <v>22</v>
       </c>
       <c r="G995" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -27693,7 +27696,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G996" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -27719,7 +27722,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G997" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -27745,7 +27748,7 @@
         <v>22.75</v>
       </c>
       <c r="G998" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -27771,7 +27774,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G999" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -27797,7 +27800,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1000" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -27823,7 +27826,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1001" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -27849,7 +27852,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1002" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -27875,7 +27878,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1003" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -27901,7 +27904,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1004" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -27927,7 +27930,7 @@
         <v>22.25</v>
       </c>
       <c r="G1005" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -27953,7 +27956,7 @@
         <v>22.25</v>
       </c>
       <c r="G1006" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -27979,7 +27982,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1007" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28005,7 +28008,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1008" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28031,7 +28034,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1009" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28057,7 +28060,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1010" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -28083,7 +28086,7 @@
         <v>23</v>
       </c>
       <c r="G1011" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28109,7 +28112,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1012" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28135,7 +28138,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1013" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28161,7 +28164,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1014" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28187,7 +28190,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1015" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28213,7 +28216,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1016" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28239,7 +28242,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1017" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28265,7 +28268,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1018" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28291,7 +28294,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1019" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28317,7 +28320,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1020" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28343,7 +28346,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1021" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28369,7 +28372,7 @@
         <v>23.25</v>
       </c>
       <c r="G1022" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -28395,7 +28398,7 @@
         <v>23</v>
       </c>
       <c r="G1023" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -28421,7 +28424,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1024" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28447,7 +28450,7 @@
         <v>23.25</v>
       </c>
       <c r="G1025" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28473,7 +28476,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1026" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28499,7 +28502,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1027" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28525,7 +28528,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1028" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28551,7 +28554,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G1029" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28577,7 +28580,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1030" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -28603,7 +28606,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1031" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -28629,7 +28632,7 @@
         <v>23.25</v>
       </c>
       <c r="G1032" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28655,7 +28658,7 @@
         <v>24</v>
       </c>
       <c r="G1033" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -28681,7 +28684,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G1034" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -28707,7 +28710,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1035" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -28733,7 +28736,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1036" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -28759,7 +28762,7 @@
         <v>23.5</v>
       </c>
       <c r="G1037" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28785,7 +28788,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1038" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -28811,7 +28814,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1039" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -28837,7 +28840,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1040" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -28863,7 +28866,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1041" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -28889,7 +28892,7 @@
         <v>23.75</v>
       </c>
       <c r="G1042" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -28915,7 +28918,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1043" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -28941,7 +28944,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1044" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -28967,7 +28970,7 @@
         <v>23.5</v>
       </c>
       <c r="G1045" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -28993,7 +28996,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1046" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29019,7 +29022,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1047" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -29045,7 +29048,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1048" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29071,7 +29074,7 @@
         <v>24.25</v>
       </c>
       <c r="G1049" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -29097,7 +29100,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1050" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29123,7 +29126,7 @@
         <v>24.5</v>
       </c>
       <c r="G1051" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29149,7 +29152,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1052" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -29175,7 +29178,7 @@
         <v>24.25</v>
       </c>
       <c r="G1053" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29201,7 +29204,7 @@
         <v>24.25</v>
       </c>
       <c r="G1054" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29227,7 +29230,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1055" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29253,7 +29256,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1056" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29279,7 +29282,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1057" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29305,7 +29308,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1058" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29331,7 +29334,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1059" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29357,7 +29360,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1060" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29383,7 +29386,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1061" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29409,7 +29412,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1062" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29435,7 +29438,7 @@
         <v>24.25</v>
       </c>
       <c r="G1063" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29461,7 +29464,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29487,7 +29490,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1065" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29513,7 +29516,7 @@
         <v>24.5</v>
       </c>
       <c r="G1066" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29539,7 +29542,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G1067" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29565,7 +29568,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1068" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29591,7 +29594,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1069" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29617,7 +29620,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1070" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29643,7 +29646,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1071" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29669,7 +29672,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1072" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -29695,7 +29698,7 @@
         <v>23.75</v>
       </c>
       <c r="G1073" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -29721,7 +29724,7 @@
         <v>23.75</v>
       </c>
       <c r="G1074" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -29747,7 +29750,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1075" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -29773,7 +29776,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1076" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -29799,7 +29802,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1077" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -29825,7 +29828,7 @@
         <v>23.5</v>
       </c>
       <c r="G1078" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -29851,7 +29854,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1079" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -29877,7 +29880,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1080" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -29903,7 +29906,7 @@
         <v>23.5</v>
       </c>
       <c r="G1081" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -29929,7 +29932,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1082" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -29955,7 +29958,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1083" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -29981,7 +29984,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1084" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30007,7 +30010,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1085" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30033,7 +30036,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1086" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -30059,7 +30062,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1087" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30085,7 +30088,7 @@
         <v>23.25</v>
       </c>
       <c r="G1088" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30111,7 +30114,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1089" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -30137,7 +30140,7 @@
         <v>23</v>
       </c>
       <c r="G1090" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30163,7 +30166,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1091" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30189,7 +30192,7 @@
         <v>23.25</v>
       </c>
       <c r="G1092" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30215,7 +30218,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1093" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30241,7 +30244,7 @@
         <v>23.25</v>
       </c>
       <c r="G1094" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30267,7 +30270,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1095" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30293,7 +30296,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1096" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30319,7 +30322,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1097" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30345,7 +30348,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1098" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30371,7 +30374,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1099" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30397,7 +30400,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1100" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30423,7 +30426,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1101" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30449,7 +30452,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1102" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30475,7 +30478,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1103" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30501,7 +30504,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1104" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -30527,7 +30530,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1105" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30553,7 +30556,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1106" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30579,7 +30582,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1107" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30605,7 +30608,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1108" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30631,7 +30634,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1109" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30657,7 +30660,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1110" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -30683,7 +30686,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1111" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30709,7 +30712,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1112" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -30735,7 +30738,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1113" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30761,7 +30764,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1114" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30787,7 +30790,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1115" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30813,7 +30816,7 @@
         <v>22.75</v>
       </c>
       <c r="G1116" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -30839,7 +30842,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1117" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -30865,7 +30868,7 @@
         <v>23</v>
       </c>
       <c r="G1118" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -30891,7 +30894,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -30917,7 +30920,7 @@
         <v>22.5</v>
       </c>
       <c r="G1120" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -30943,7 +30946,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1121" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -30969,7 +30972,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1122" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -30995,7 +30998,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1123" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31021,7 +31024,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1124" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31047,7 +31050,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1125" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31073,7 +31076,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1126" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31099,7 +31102,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1127" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31125,7 +31128,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1128" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31151,7 +31154,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1129" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31177,7 +31180,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1130" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31203,7 +31206,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1131" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31229,7 +31232,7 @@
         <v>22.25</v>
       </c>
       <c r="G1132" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31255,7 +31258,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1133" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31281,7 +31284,7 @@
         <v>21.75</v>
       </c>
       <c r="G1134" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31307,7 +31310,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1135" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31333,7 +31336,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1136" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31359,7 +31362,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1137" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31385,7 +31388,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1138" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31411,7 +31414,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1139" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31437,7 +31440,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1140" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31463,7 +31466,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1141" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31489,7 +31492,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1142" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31515,7 +31518,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1143" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31541,7 +31544,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31567,7 +31570,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1145" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31593,7 +31596,7 @@
         <v>26</v>
       </c>
       <c r="G1146" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31619,7 +31622,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G1147" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31645,7 +31648,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1148" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31671,7 +31674,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1149" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31697,7 +31700,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1150" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -31723,7 +31726,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1151" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31749,7 +31752,7 @@
         <v>25.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31775,7 +31778,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1153" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31801,7 +31804,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1154" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -31827,7 +31830,7 @@
         <v>25.5</v>
       </c>
       <c r="G1155" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -31853,7 +31856,7 @@
         <v>25.5</v>
       </c>
       <c r="G1156" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -31879,7 +31882,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1157" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -31905,7 +31908,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1158" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -31931,7 +31934,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1159" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -31957,7 +31960,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1160" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -31983,7 +31986,7 @@
         <v>25.5</v>
       </c>
       <c r="G1161" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32009,7 +32012,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1162" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32035,7 +32038,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1163" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32061,7 +32064,7 @@
         <v>25.5</v>
       </c>
       <c r="G1164" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32087,7 +32090,7 @@
         <v>25.5</v>
       </c>
       <c r="G1165" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32113,7 +32116,7 @@
         <v>25.5</v>
       </c>
       <c r="G1166" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32139,7 +32142,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1167" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32165,7 +32168,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1168" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32191,7 +32194,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1169" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32217,7 +32220,7 @@
         <v>25.5</v>
       </c>
       <c r="G1170" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32243,7 +32246,7 @@
         <v>25.5</v>
       </c>
       <c r="G1171" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32269,7 +32272,7 @@
         <v>25.5</v>
       </c>
       <c r="G1172" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -32295,7 +32298,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1173" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -32321,7 +32324,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1174" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -32347,7 +32350,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1175" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -32373,7 +32376,7 @@
         <v>25.5</v>
       </c>
       <c r="G1176" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -32399,7 +32402,7 @@
         <v>25.5</v>
       </c>
       <c r="G1177" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -32425,7 +32428,7 @@
         <v>25.5</v>
       </c>
       <c r="G1178" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32451,7 +32454,7 @@
         <v>25.5</v>
       </c>
       <c r="G1179" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -32477,7 +32480,7 @@
         <v>25.5</v>
       </c>
       <c r="G1180" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -32503,7 +32506,7 @@
         <v>25.5</v>
       </c>
       <c r="G1181" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -32529,7 +32532,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1182" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -32555,7 +32558,7 @@
         <v>25.5</v>
       </c>
       <c r="G1183" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -32581,7 +32584,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1184" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -32607,7 +32610,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1185" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -32633,7 +32636,7 @@
         <v>25.5</v>
       </c>
       <c r="G1186" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -32659,7 +32662,7 @@
         <v>25.5</v>
       </c>
       <c r="G1187" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -32685,7 +32688,7 @@
         <v>25.5</v>
       </c>
       <c r="G1188" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -32693,7 +32696,7 @@
     </row>
     <row r="1189">
       <c r="A1189" s="1" t="n">
-        <v>45482.6495023148</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B1189" t="n">
         <v>149111</v>
@@ -32711,9 +32714,35 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1189" t="s">
+        <v>484</v>
+      </c>
+      <c r="H1189" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="1" t="n">
+        <v>45483.6495023148</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>18210</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="G1190" t="s">
         <v>483</v>
       </c>
-      <c r="H1189" t="s">
+      <c r="H1190" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="484">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3753023147583</t>
+    <t xml:space="preserve">8.37530136108398</t>
   </si>
   <si>
     <t xml:space="preserve">SCF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33448791503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17905235290527</t>
+    <t xml:space="preserve">8.33448886871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17905330657959</t>
   </si>
   <si>
     <t xml:space="preserve">8.13650321960449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16342163085938</t>
+    <t xml:space="preserve">8.16342258453369</t>
   </si>
   <si>
     <t xml:space="preserve">8.10176849365234</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11045169830322</t>
+    <t xml:space="preserve">8.11045265197754</t>
   </si>
   <si>
     <t xml:space="preserve">8.11913681030273</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16255378723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2407054901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24938869476318</t>
+    <t xml:space="preserve">8.16255283355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24070644378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2493896484375</t>
   </si>
   <si>
     <t xml:space="preserve">8.29280757904053</t>
@@ -83,13 +83,13 @@
     <t xml:space="preserve">8.51163387298584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48384666442871</t>
+    <t xml:space="preserve">8.48384571075439</t>
   </si>
   <si>
     <t xml:space="preserve">8.38398456573486</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3101749420166</t>
+    <t xml:space="preserve">8.31017398834229</t>
   </si>
   <si>
     <t xml:space="preserve">8.42306041717529</t>
@@ -107,19 +107,19 @@
     <t xml:space="preserve">8.8468189239502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93886470794678</t>
+    <t xml:space="preserve">8.93886375427246</t>
   </si>
   <si>
     <t xml:space="preserve">8.94407558441162</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93539237976074</t>
+    <t xml:space="preserve">8.93539142608643</t>
   </si>
   <si>
     <t xml:space="preserve">9.00485992431641</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97707366943359</t>
+    <t xml:space="preserve">8.97707271575928</t>
   </si>
   <si>
     <t xml:space="preserve">9.02917385101318</t>
@@ -128,19 +128,19 @@
     <t xml:space="preserve">9.03091049194336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98749446868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33483600616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24799919128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.465087890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59534358978271</t>
+    <t xml:space="preserve">8.98749351501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33483505249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2480001449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46508884429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5953426361084</t>
   </si>
   <si>
     <t xml:space="preserve">9.68217849731445</t>
@@ -152,22 +152,22 @@
     <t xml:space="preserve">9.72559642791748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98610401153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0295219421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76901435852051</t>
+    <t xml:space="preserve">9.98610305786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0295209884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76901340484619</t>
   </si>
   <si>
     <t xml:space="preserve">9.89926719665527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85584926605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63876152038574</t>
+    <t xml:space="preserve">9.85585021972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63876056671143</t>
   </si>
   <si>
     <t xml:space="preserve">9.55192470550537</t>
@@ -179,7 +179,7 @@
     <t xml:space="preserve">9.29141807556152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0743293762207</t>
+    <t xml:space="preserve">9.07432842254639</t>
   </si>
   <si>
     <t xml:space="preserve">8.57936477661133</t>
@@ -191,16 +191,16 @@
     <t xml:space="preserve">8.85723876953125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77040386199951</t>
+    <t xml:space="preserve">8.77040481567383</t>
   </si>
   <si>
     <t xml:space="preserve">9.20458221435547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68356800079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45779609680176</t>
+    <t xml:space="preserve">8.68356704711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45779514312744</t>
   </si>
   <si>
     <t xml:space="preserve">8.40569400787354</t>
@@ -209,13 +209,13 @@
     <t xml:space="preserve">7.51997041702271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02361583709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72837543487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98888301849365</t>
+    <t xml:space="preserve">8.02361679077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72837495803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98888206481934</t>
   </si>
   <si>
     <t xml:space="preserve">7.8152117729187</t>
@@ -224,25 +224,25 @@
     <t xml:space="preserve">7.78047704696655</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09308433532715</t>
+    <t xml:space="preserve">8.09308528900146</t>
   </si>
   <si>
     <t xml:space="preserve">8.38832664489746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90065765380859</t>
+    <t xml:space="preserve">8.90065670013428</t>
   </si>
   <si>
     <t xml:space="preserve">9.11774635314941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81382083892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42167091369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0274715423584</t>
+    <t xml:space="preserve">8.81382179260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42167186737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02747058868408</t>
   </si>
   <si>
     <t xml:space="preserve">9.07260990142822</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">9.74967002868652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1559057235718</t>
+    <t xml:space="preserve">10.1559066772461</t>
   </si>
   <si>
     <t xml:space="preserve">10.291316986084</t>
@@ -266,22 +266,22 @@
     <t xml:space="preserve">10.6072788238525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5170049667358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0135164260864</t>
+    <t xml:space="preserve">10.5170040130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0135154724121</t>
   </si>
   <si>
     <t xml:space="preserve">11.1940650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1489267349243</t>
+    <t xml:space="preserve">11.1489276885986</t>
   </si>
   <si>
     <t xml:space="preserve">11.2843389511108</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8329658508301</t>
+    <t xml:space="preserve">10.8329668045044</t>
   </si>
   <si>
     <t xml:space="preserve">10.7878284454346</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">10.9683780670166</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9232416152954</t>
+    <t xml:space="preserve">10.9232425689697</t>
   </si>
   <si>
     <t xml:space="preserve">10.8781032562256</t>
@@ -308,10 +308,10 @@
     <t xml:space="preserve">10.7426910400391</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5621423721313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4267311096191</t>
+    <t xml:space="preserve">10.562141418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4267301559448</t>
   </si>
   <si>
     <t xml:space="preserve">10.6975536346436</t>
@@ -320,16 +320,16 @@
     <t xml:space="preserve">10.3364553451538</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2461805343628</t>
+    <t xml:space="preserve">10.2461814880371</t>
   </si>
   <si>
     <t xml:space="preserve">11.4197511672974</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6454372406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7357130050659</t>
+    <t xml:space="preserve">11.6454381942749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7357139587402</t>
   </si>
   <si>
     <t xml:space="preserve">11.5551643371582</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">11.2392024993896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4648895263672</t>
+    <t xml:space="preserve">11.4648885726929</t>
   </si>
   <si>
     <t xml:space="preserve">11.6003017425537</t>
@@ -395,19 +395,19 @@
     <t xml:space="preserve">12.2322244644165</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3224983215332</t>
+    <t xml:space="preserve">12.3224992752075</t>
   </si>
   <si>
     <t xml:space="preserve">12.6205492019653</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7136888504028</t>
+    <t xml:space="preserve">12.7136898040771</t>
   </si>
   <si>
     <t xml:space="preserve">12.5274076461792</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4808378219604</t>
+    <t xml:space="preserve">12.4808368682861</t>
   </si>
   <si>
     <t xml:space="preserve">12.6671199798584</t>
@@ -419,10 +419,10 @@
     <t xml:space="preserve">12.2945566177368</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3876981735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.434268951416</t>
+    <t xml:space="preserve">12.3876972198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4342679977417</t>
   </si>
   <si>
     <t xml:space="preserve">12.9465408325195</t>
@@ -434,7 +434,7 @@
     <t xml:space="preserve">13.1793918609619</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9931116104126</t>
+    <t xml:space="preserve">12.9931106567383</t>
   </si>
   <si>
     <t xml:space="preserve">13.2725324630737</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">13.5985250473022</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7382354736328</t>
+    <t xml:space="preserve">13.7382364273071</t>
   </si>
   <si>
     <t xml:space="preserve">13.9710874557495</t>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">13.8779458999634</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3656740188599</t>
+    <t xml:space="preserve">13.3656730651855</t>
   </si>
   <si>
     <t xml:space="preserve">13.5053844451904</t>
@@ -470,13 +470,13 @@
     <t xml:space="preserve">13.6916656494141</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6450939178467</t>
+    <t xml:space="preserve">13.645094871521</t>
   </si>
   <si>
     <t xml:space="preserve">13.8313770294189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0642290115356</t>
+    <t xml:space="preserve">14.0642280578613</t>
   </si>
   <si>
     <t xml:space="preserve">14.297080039978</t>
@@ -494,34 +494,34 @@
     <t xml:space="preserve">15.9270391464233</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8804683685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8338985443115</t>
+    <t xml:space="preserve">15.8804693222046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8338994979858</t>
   </si>
   <si>
     <t xml:space="preserve">15.6941871643066</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9736099243164</t>
+    <t xml:space="preserve">15.9736089706421</t>
   </si>
   <si>
     <t xml:space="preserve">16.4393138885498</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6721630096436</t>
+    <t xml:space="preserve">16.6721649169922</t>
   </si>
   <si>
     <t xml:space="preserve">16.9981555938721</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2310085296631</t>
+    <t xml:space="preserve">17.2310066223145</t>
   </si>
   <si>
     <t xml:space="preserve">16.9515857696533</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4172897338867</t>
+    <t xml:space="preserve">17.4172878265381</t>
   </si>
   <si>
     <t xml:space="preserve">17.6501407623291</t>
@@ -542,10 +542,10 @@
     <t xml:space="preserve">17.0447254180908</t>
   </si>
   <si>
-    <t xml:space="preserve">17.370719909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3241500854492</t>
+    <t xml:space="preserve">17.3707180023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3241481781006</t>
   </si>
   <si>
     <t xml:space="preserve">16.7653045654297</t>
@@ -563,7 +563,7 @@
     <t xml:space="preserve">16.15989112854</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1844387054443</t>
+    <t xml:space="preserve">17.1844367980957</t>
   </si>
   <si>
     <t xml:space="preserve">17.137866973877</t>
@@ -578,7 +578,7 @@
     <t xml:space="preserve">18.1624145507812</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8829917907715</t>
+    <t xml:space="preserve">17.8829936981201</t>
   </si>
   <si>
     <t xml:space="preserve">17.8364200592041</t>
@@ -590,13 +590,13 @@
     <t xml:space="preserve">18.5349750518799</t>
   </si>
   <si>
-    <t xml:space="preserve">18.628116607666</t>
+    <t xml:space="preserve">18.6281147003174</t>
   </si>
   <si>
     <t xml:space="preserve">18.3486957550049</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5815486907959</t>
+    <t xml:space="preserve">18.5815467834473</t>
   </si>
   <si>
     <t xml:space="preserve">18.9075374603271</t>
@@ -608,7 +608,7 @@
     <t xml:space="preserve">19.0938186645508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.280101776123</t>
+    <t xml:space="preserve">19.2801036834717</t>
   </si>
   <si>
     <t xml:space="preserve">20.2115058898926</t>
@@ -620,13 +620,13 @@
     <t xml:space="preserve">19.8389434814453</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7458019256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9320831298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.677209854126</t>
+    <t xml:space="preserve">19.7458038330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9320850372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6772079467773</t>
   </si>
   <si>
     <t xml:space="preserve">20.0252246856689</t>
@@ -635,25 +635,25 @@
     <t xml:space="preserve">19.1869602203369</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6526641845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7017555236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5154762268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7948970794678</t>
+    <t xml:space="preserve">19.6526622772217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.701753616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.515474319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7948951721191</t>
   </si>
   <si>
     <t xml:space="preserve">22.4468803405762</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7263031005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5400218963623</t>
+    <t xml:space="preserve">22.7263011932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5400238037109</t>
   </si>
   <si>
     <t xml:space="preserve">23.2851448059082</t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">23.1920051574707</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0057220458984</t>
+    <t xml:space="preserve">23.0057239532471</t>
   </si>
   <si>
     <t xml:space="preserve">23.0988636016846</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">22.1674575805664</t>
   </si>
   <si>
-    <t xml:space="preserve">22.35373878479</t>
+    <t xml:space="preserve">22.3537406921387</t>
   </si>
   <si>
     <t xml:space="preserve">22.2605991363525</t>
@@ -707,7 +707,7 @@
     <t xml:space="preserve">21.4223346710205</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5840702056885</t>
+    <t xml:space="preserve">20.5840682983398</t>
   </si>
   <si>
     <t xml:space="preserve">20.3046455383301</t>
@@ -719,7 +719,7 @@
     <t xml:space="preserve">19.0006771087646</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1429119110107</t>
+    <t xml:space="preserve">21.1429138183594</t>
   </si>
   <si>
     <t xml:space="preserve">19.3732414245605</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">18.7212581634521</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5722312927246</t>
+    <t xml:space="preserve">18.5722332000732</t>
   </si>
   <si>
     <t xml:space="preserve">18.3673229217529</t>
@@ -743,16 +743,16 @@
     <t xml:space="preserve">17.6221981048584</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0692710876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6746845245361</t>
+    <t xml:space="preserve">18.0692729949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6746864318848</t>
   </si>
   <si>
     <t xml:space="preserve">18.0133895874023</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7525959014893</t>
+    <t xml:space="preserve">17.7525939941406</t>
   </si>
   <si>
     <t xml:space="preserve">17.5663146972656</t>
@@ -761,31 +761,31 @@
     <t xml:space="preserve">17.6594543457031</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7339668273926</t>
+    <t xml:space="preserve">17.7339687347412</t>
   </si>
   <si>
     <t xml:space="preserve">17.9202480316162</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5104293823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8211860656738</t>
+    <t xml:space="preserve">17.5104274749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8211879730225</t>
   </si>
   <si>
     <t xml:space="preserve">16.6349086761475</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8957023620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.728048324585</t>
+    <t xml:space="preserve">16.8957004547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7280464172363</t>
   </si>
   <si>
     <t xml:space="preserve">16.54176902771</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3554859161377</t>
+    <t xml:space="preserve">16.3554878234863</t>
   </si>
   <si>
     <t xml:space="preserve">15.722128868103</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">15.1446590423584</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5231380462646</t>
+    <t xml:space="preserve">16.5231399536133</t>
   </si>
   <si>
     <t xml:space="preserve">17.0968589782715</t>
@@ -981,9 +981,6 @@
   </si>
   <si>
     <t xml:space="preserve">16.2554035186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5231399536133</t>
   </si>
   <si>
     <t xml:space="preserve">16.9247436523438</t>
@@ -20494,7 +20491,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G719" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -20520,7 +20517,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G720" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -20598,7 +20595,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G723" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -20624,7 +20621,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G724" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -20650,7 +20647,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G725" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -20702,7 +20699,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G727" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -20754,7 +20751,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G729" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -20780,7 +20777,7 @@
         <v>15.3599996566772</v>
       </c>
       <c r="G730" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -20806,7 +20803,7 @@
         <v>14.8400001525879</v>
       </c>
       <c r="G731" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -20832,7 +20829,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G732" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -20858,7 +20855,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G733" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -20884,7 +20881,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G734" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -20910,7 +20907,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G735" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -20936,7 +20933,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G736" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -20962,7 +20959,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G737" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -20988,7 +20985,7 @@
         <v>14.039999961853</v>
       </c>
       <c r="G738" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21014,7 +21011,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G739" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21040,7 +21037,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G740" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21066,7 +21063,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G741" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21092,7 +21089,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G742" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21118,7 +21115,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G743" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21144,7 +21141,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G744" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21170,7 +21167,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G745" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21196,7 +21193,7 @@
         <v>14.8800001144409</v>
       </c>
       <c r="G746" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21222,7 +21219,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G747" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21248,7 +21245,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G748" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21274,7 +21271,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G749" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21326,7 +21323,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -21352,7 +21349,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G752" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -21378,7 +21375,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G753" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -21404,7 +21401,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G754" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -21430,7 +21427,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G755" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -21482,7 +21479,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G757" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -21508,7 +21505,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G758" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -21534,7 +21531,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G759" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -21560,7 +21557,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G760" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -21586,7 +21583,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G761" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -21612,7 +21609,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G762" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -21638,7 +21635,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G763" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -21690,7 +21687,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G765" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -21716,7 +21713,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G766" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -21742,7 +21739,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G767" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -21846,7 +21843,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G771" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -21898,7 +21895,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G773" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -21950,7 +21947,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G775" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -21976,7 +21973,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G776" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22002,7 +21999,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G777" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22028,7 +22025,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G778" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22080,7 +22077,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G780" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22106,7 +22103,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G781" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22132,7 +22129,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G782" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22184,7 +22181,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G784" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22210,7 +22207,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G785" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22236,7 +22233,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G786" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22262,7 +22259,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G787" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22288,7 +22285,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G788" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22314,7 +22311,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G789" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -22366,7 +22363,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G791" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -22392,7 +22389,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G792" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -22444,7 +22441,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G794" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -22470,7 +22467,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G795" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -22496,7 +22493,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G796" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -22600,7 +22597,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G800" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -22652,7 +22649,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G802" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -22678,7 +22675,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G803" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -22730,7 +22727,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G805" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -22756,7 +22753,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G806" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -22886,7 +22883,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G811" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -22964,7 +22961,7 @@
         <v>18.5799999237061</v>
       </c>
       <c r="G814" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -22990,7 +22987,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G815" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23094,7 +23091,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G819" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23146,7 +23143,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G821" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23172,7 +23169,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G822" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23198,7 +23195,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G823" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23224,7 +23221,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G824" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23250,7 +23247,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G825" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23328,7 +23325,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G828" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -23354,7 +23351,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G829" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -23380,7 +23377,7 @@
         <v>18.5</v>
       </c>
       <c r="G830" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -23406,7 +23403,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G831" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -23458,7 +23455,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G833" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -23484,7 +23481,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G834" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -23510,7 +23507,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G835" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -23562,7 +23559,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G837" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -23666,7 +23663,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G841" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -23718,7 +23715,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G843" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -23744,7 +23741,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G844" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -23796,7 +23793,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G846" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -23822,7 +23819,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G847" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -23874,7 +23871,7 @@
         <v>18</v>
       </c>
       <c r="G849" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -23900,7 +23897,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G850" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -23926,7 +23923,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G851" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -23952,7 +23949,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G852" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -23978,7 +23975,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G853" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24004,7 +24001,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G854" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24056,7 +24053,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G856" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24082,7 +24079,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G857" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24108,7 +24105,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G858" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24134,7 +24131,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G859" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24160,7 +24157,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G860" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24186,7 +24183,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G861" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24212,7 +24209,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G862" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24238,7 +24235,7 @@
         <v>20.75</v>
       </c>
       <c r="G863" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24264,7 +24261,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -24290,7 +24287,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G865" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -24316,7 +24313,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G866" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -24342,7 +24339,7 @@
         <v>21.5</v>
       </c>
       <c r="G867" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -24368,7 +24365,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G868" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -24394,7 +24391,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G869" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -24420,7 +24417,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G870" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -24446,7 +24443,7 @@
         <v>21.5</v>
       </c>
       <c r="G871" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -24472,7 +24469,7 @@
         <v>21</v>
       </c>
       <c r="G872" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -24498,7 +24495,7 @@
         <v>20.75</v>
       </c>
       <c r="G873" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -24524,7 +24521,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G874" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -24550,7 +24547,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G875" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -24576,7 +24573,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G876" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -24602,7 +24599,7 @@
         <v>20.5</v>
       </c>
       <c r="G877" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -24628,7 +24625,7 @@
         <v>21</v>
       </c>
       <c r="G878" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -24654,7 +24651,7 @@
         <v>21</v>
       </c>
       <c r="G879" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -24680,7 +24677,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G880" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -24706,7 +24703,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G881" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -24732,7 +24729,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G882" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -24758,7 +24755,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G883" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -24784,7 +24781,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G884" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -24810,7 +24807,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G885" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -24836,7 +24833,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G886" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -24862,7 +24859,7 @@
         <v>21.75</v>
       </c>
       <c r="G887" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -24888,7 +24885,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G888" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -24914,7 +24911,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G889" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -24940,7 +24937,7 @@
         <v>22</v>
       </c>
       <c r="G890" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -24966,7 +24963,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G891" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -24992,7 +24989,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G892" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25018,7 +25015,7 @@
         <v>21.75</v>
       </c>
       <c r="G893" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25044,7 +25041,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G894" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25070,7 +25067,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25096,7 +25093,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G896" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25122,7 +25119,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G897" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25148,7 +25145,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G898" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25174,7 +25171,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G899" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25200,7 +25197,7 @@
         <v>22.5</v>
       </c>
       <c r="G900" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25226,7 +25223,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G901" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25252,7 +25249,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G902" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -25278,7 +25275,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G903" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -25304,7 +25301,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G904" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -25330,7 +25327,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -25356,7 +25353,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G906" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -25382,7 +25379,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G907" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -25408,7 +25405,7 @@
         <v>22.5</v>
       </c>
       <c r="G908" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -25434,7 +25431,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G909" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -25460,7 +25457,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G910" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -25486,7 +25483,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G911" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -25512,7 +25509,7 @@
         <v>22.75</v>
       </c>
       <c r="G912" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -25538,7 +25535,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G913" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -25564,7 +25561,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G914" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -25590,7 +25587,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G915" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -25616,7 +25613,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G916" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -25642,7 +25639,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G917" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -25668,7 +25665,7 @@
         <v>23</v>
       </c>
       <c r="G918" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -25694,7 +25691,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G919" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -25720,7 +25717,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G920" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -25746,7 +25743,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G921" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -25772,7 +25769,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G922" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -25798,7 +25795,7 @@
         <v>23.25</v>
       </c>
       <c r="G923" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -25824,7 +25821,7 @@
         <v>23.25</v>
       </c>
       <c r="G924" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -25850,7 +25847,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G925" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -25876,7 +25873,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G926" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -25902,7 +25899,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G927" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -25928,7 +25925,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G928" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -25954,7 +25951,7 @@
         <v>23</v>
       </c>
       <c r="G929" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -25980,7 +25977,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G930" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26006,7 +26003,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G931" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26032,7 +26029,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G932" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26058,7 +26055,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G933" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26084,7 +26081,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G934" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26110,7 +26107,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G935" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26136,7 +26133,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G936" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26162,7 +26159,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G937" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26188,7 +26185,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G938" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26214,7 +26211,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G939" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26240,7 +26237,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G940" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26266,7 +26263,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G941" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26292,7 +26289,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G942" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -26318,7 +26315,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G943" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26344,7 +26341,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G944" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26370,7 +26367,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G945" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26396,7 +26393,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G946" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26422,7 +26419,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G947" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26448,7 +26445,7 @@
         <v>23</v>
       </c>
       <c r="G948" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26474,7 +26471,7 @@
         <v>23.25</v>
       </c>
       <c r="G949" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26500,7 +26497,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G950" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26526,7 +26523,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G951" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26552,7 +26549,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G952" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26578,7 +26575,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G953" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26604,7 +26601,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G954" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26630,7 +26627,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G955" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -26656,7 +26653,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G956" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -26682,7 +26679,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -26708,7 +26705,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G958" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -26734,7 +26731,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G959" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -26760,7 +26757,7 @@
         <v>24.5</v>
       </c>
       <c r="G960" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -26786,7 +26783,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G961" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -26812,7 +26809,7 @@
         <v>24.5</v>
       </c>
       <c r="G962" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -26838,7 +26835,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G963" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -26864,7 +26861,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G964" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -26890,7 +26887,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G965" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -26916,7 +26913,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G966" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -26942,7 +26939,7 @@
         <v>24</v>
       </c>
       <c r="G967" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -26968,7 +26965,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G968" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -26994,7 +26991,7 @@
         <v>24.25</v>
       </c>
       <c r="G969" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -27020,7 +27017,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G970" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27046,7 +27043,7 @@
         <v>24.5</v>
       </c>
       <c r="G971" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27072,7 +27069,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G972" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27098,7 +27095,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G973" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27124,7 +27121,7 @@
         <v>24.5</v>
       </c>
       <c r="G974" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -27150,7 +27147,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G975" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -27176,7 +27173,7 @@
         <v>23.75</v>
       </c>
       <c r="G976" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -27202,7 +27199,7 @@
         <v>23.5</v>
       </c>
       <c r="G977" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -27228,7 +27225,7 @@
         <v>23.25</v>
       </c>
       <c r="G978" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -27254,7 +27251,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G979" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27280,7 +27277,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G980" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27306,7 +27303,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G981" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27332,7 +27329,7 @@
         <v>23</v>
       </c>
       <c r="G982" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -27358,7 +27355,7 @@
         <v>22.75</v>
       </c>
       <c r="G983" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -27384,7 +27381,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G984" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27410,7 +27407,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G985" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27436,7 +27433,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G986" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -27462,7 +27459,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G987" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -27488,7 +27485,7 @@
         <v>22.5</v>
       </c>
       <c r="G988" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -27514,7 +27511,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G989" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -27540,7 +27537,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G990" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -27566,7 +27563,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G991" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -27592,7 +27589,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G992" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -27618,7 +27615,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G993" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -27644,7 +27641,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G994" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -27670,7 +27667,7 @@
         <v>22</v>
       </c>
       <c r="G995" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -27696,7 +27693,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G996" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -27722,7 +27719,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G997" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -27748,7 +27745,7 @@
         <v>22.75</v>
       </c>
       <c r="G998" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -27774,7 +27771,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G999" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -27800,7 +27797,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1000" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -27826,7 +27823,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1001" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -27852,7 +27849,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1002" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -27878,7 +27875,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1003" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -27904,7 +27901,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1004" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -27930,7 +27927,7 @@
         <v>22.25</v>
       </c>
       <c r="G1005" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -27956,7 +27953,7 @@
         <v>22.25</v>
       </c>
       <c r="G1006" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -27982,7 +27979,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1007" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28008,7 +28005,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1008" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28034,7 +28031,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1009" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28060,7 +28057,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1010" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -28086,7 +28083,7 @@
         <v>23</v>
       </c>
       <c r="G1011" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28112,7 +28109,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1012" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28138,7 +28135,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1013" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28164,7 +28161,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1014" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28190,7 +28187,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1015" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28216,7 +28213,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1016" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28242,7 +28239,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1017" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28268,7 +28265,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1018" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28294,7 +28291,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1019" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28320,7 +28317,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1020" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28346,7 +28343,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1021" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28372,7 +28369,7 @@
         <v>23.25</v>
       </c>
       <c r="G1022" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -28398,7 +28395,7 @@
         <v>23</v>
       </c>
       <c r="G1023" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -28424,7 +28421,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1024" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28450,7 +28447,7 @@
         <v>23.25</v>
       </c>
       <c r="G1025" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28476,7 +28473,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1026" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28502,7 +28499,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1027" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28528,7 +28525,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1028" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28554,7 +28551,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G1029" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28580,7 +28577,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1030" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -28606,7 +28603,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1031" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -28632,7 +28629,7 @@
         <v>23.25</v>
       </c>
       <c r="G1032" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28658,7 +28655,7 @@
         <v>24</v>
       </c>
       <c r="G1033" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -28684,7 +28681,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G1034" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -28710,7 +28707,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1035" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -28736,7 +28733,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1036" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -28762,7 +28759,7 @@
         <v>23.5</v>
       </c>
       <c r="G1037" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28788,7 +28785,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1038" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -28814,7 +28811,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1039" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -28840,7 +28837,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1040" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -28866,7 +28863,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1041" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -28892,7 +28889,7 @@
         <v>23.75</v>
       </c>
       <c r="G1042" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -28918,7 +28915,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1043" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -28944,7 +28941,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1044" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -28970,7 +28967,7 @@
         <v>23.5</v>
       </c>
       <c r="G1045" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -28996,7 +28993,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1046" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29022,7 +29019,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1047" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -29048,7 +29045,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1048" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29074,7 +29071,7 @@
         <v>24.25</v>
       </c>
       <c r="G1049" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -29100,7 +29097,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1050" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29126,7 +29123,7 @@
         <v>24.5</v>
       </c>
       <c r="G1051" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29152,7 +29149,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1052" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -29178,7 +29175,7 @@
         <v>24.25</v>
       </c>
       <c r="G1053" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29204,7 +29201,7 @@
         <v>24.25</v>
       </c>
       <c r="G1054" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29230,7 +29227,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1055" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29256,7 +29253,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1056" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29282,7 +29279,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1057" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29308,7 +29305,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1058" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29334,7 +29331,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1059" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29360,7 +29357,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1060" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29386,7 +29383,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1061" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29412,7 +29409,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1062" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29438,7 +29435,7 @@
         <v>24.25</v>
       </c>
       <c r="G1063" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29464,7 +29461,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29490,7 +29487,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1065" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29516,7 +29513,7 @@
         <v>24.5</v>
       </c>
       <c r="G1066" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29542,7 +29539,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G1067" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29568,7 +29565,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1068" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29594,7 +29591,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1069" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29620,7 +29617,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1070" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29646,7 +29643,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1071" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29672,7 +29669,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1072" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -29698,7 +29695,7 @@
         <v>23.75</v>
       </c>
       <c r="G1073" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -29724,7 +29721,7 @@
         <v>23.75</v>
       </c>
       <c r="G1074" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -29750,7 +29747,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1075" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -29776,7 +29773,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1076" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -29802,7 +29799,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1077" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -29828,7 +29825,7 @@
         <v>23.5</v>
       </c>
       <c r="G1078" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -29854,7 +29851,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1079" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -29880,7 +29877,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1080" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -29906,7 +29903,7 @@
         <v>23.5</v>
       </c>
       <c r="G1081" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -29932,7 +29929,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1082" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -29958,7 +29955,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1083" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -29984,7 +29981,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1084" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30010,7 +30007,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1085" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30036,7 +30033,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1086" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -30062,7 +30059,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1087" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30088,7 +30085,7 @@
         <v>23.25</v>
       </c>
       <c r="G1088" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30114,7 +30111,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1089" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -30140,7 +30137,7 @@
         <v>23</v>
       </c>
       <c r="G1090" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30166,7 +30163,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1091" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30192,7 +30189,7 @@
         <v>23.25</v>
       </c>
       <c r="G1092" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30218,7 +30215,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1093" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30244,7 +30241,7 @@
         <v>23.25</v>
       </c>
       <c r="G1094" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30270,7 +30267,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1095" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30296,7 +30293,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1096" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30322,7 +30319,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1097" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30348,7 +30345,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1098" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30374,7 +30371,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1099" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30400,7 +30397,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30426,7 +30423,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1101" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30452,7 +30449,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1102" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30478,7 +30475,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1103" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30504,7 +30501,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1104" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -30530,7 +30527,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1105" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30556,7 +30553,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1106" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30582,7 +30579,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1107" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30608,7 +30605,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1108" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30634,7 +30631,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1109" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30660,7 +30657,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1110" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -30686,7 +30683,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1111" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30712,7 +30709,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1112" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -30738,7 +30735,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1113" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30764,7 +30761,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1114" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30790,7 +30787,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1115" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30816,7 +30813,7 @@
         <v>22.75</v>
       </c>
       <c r="G1116" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -30842,7 +30839,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -30868,7 +30865,7 @@
         <v>23</v>
       </c>
       <c r="G1118" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -30894,7 +30891,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -30920,7 +30917,7 @@
         <v>22.5</v>
       </c>
       <c r="G1120" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -30946,7 +30943,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1121" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -30972,7 +30969,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1122" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -30998,7 +30995,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1123" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31024,7 +31021,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1124" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31050,7 +31047,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1125" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31076,7 +31073,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1126" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31102,7 +31099,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1127" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31128,7 +31125,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1128" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31154,7 +31151,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1129" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31180,7 +31177,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1130" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31206,7 +31203,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1131" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31232,7 +31229,7 @@
         <v>22.25</v>
       </c>
       <c r="G1132" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31258,7 +31255,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1133" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31284,7 +31281,7 @@
         <v>21.75</v>
       </c>
       <c r="G1134" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31310,7 +31307,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1135" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31336,7 +31333,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1136" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31362,7 +31359,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1137" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31388,7 +31385,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1138" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31414,7 +31411,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1139" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31440,7 +31437,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1140" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31466,7 +31463,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1141" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31492,7 +31489,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1142" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31518,7 +31515,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1143" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31544,7 +31541,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31570,7 +31567,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1145" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31596,7 +31593,7 @@
         <v>26</v>
       </c>
       <c r="G1146" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31622,7 +31619,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G1147" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31648,7 +31645,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1148" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31674,7 +31671,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1149" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31700,7 +31697,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1150" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -31726,7 +31723,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1151" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31752,7 +31749,7 @@
         <v>25.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31778,7 +31775,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1153" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31804,7 +31801,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1154" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -31830,7 +31827,7 @@
         <v>25.5</v>
       </c>
       <c r="G1155" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -31856,7 +31853,7 @@
         <v>25.5</v>
       </c>
       <c r="G1156" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -31882,7 +31879,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1157" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -31908,7 +31905,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1158" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -31934,7 +31931,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1159" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -31960,7 +31957,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1160" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -31986,7 +31983,7 @@
         <v>25.5</v>
       </c>
       <c r="G1161" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32012,7 +32009,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1162" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32038,7 +32035,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1163" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32064,7 +32061,7 @@
         <v>25.5</v>
       </c>
       <c r="G1164" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32090,7 +32087,7 @@
         <v>25.5</v>
       </c>
       <c r="G1165" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32116,7 +32113,7 @@
         <v>25.5</v>
       </c>
       <c r="G1166" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32142,7 +32139,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1167" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32168,7 +32165,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1168" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32194,7 +32191,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1169" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32220,7 +32217,7 @@
         <v>25.5</v>
       </c>
       <c r="G1170" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32246,7 +32243,7 @@
         <v>25.5</v>
       </c>
       <c r="G1171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32272,7 +32269,7 @@
         <v>25.5</v>
       </c>
       <c r="G1172" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -32298,7 +32295,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1173" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -32324,7 +32321,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1174" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -32350,7 +32347,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1175" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -32376,7 +32373,7 @@
         <v>25.5</v>
       </c>
       <c r="G1176" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -32402,7 +32399,7 @@
         <v>25.5</v>
       </c>
       <c r="G1177" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -32428,7 +32425,7 @@
         <v>25.5</v>
       </c>
       <c r="G1178" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32454,7 +32451,7 @@
         <v>25.5</v>
       </c>
       <c r="G1179" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -32480,7 +32477,7 @@
         <v>25.5</v>
       </c>
       <c r="G1180" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -32506,7 +32503,7 @@
         <v>25.5</v>
       </c>
       <c r="G1181" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -32532,7 +32529,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1182" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -32558,7 +32555,7 @@
         <v>25.5</v>
       </c>
       <c r="G1183" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -32584,7 +32581,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1184" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -32610,7 +32607,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1185" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -32636,7 +32633,7 @@
         <v>25.5</v>
       </c>
       <c r="G1186" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -32662,7 +32659,7 @@
         <v>25.5</v>
       </c>
       <c r="G1187" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -32688,7 +32685,7 @@
         <v>25.5</v>
       </c>
       <c r="G1188" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -32714,7 +32711,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1189" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -32722,7 +32719,7 @@
     </row>
     <row r="1190">
       <c r="A1190" s="1" t="n">
-        <v>45483.6495023148</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B1190" t="n">
         <v>18210</v>
@@ -32740,9 +32737,35 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1190" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="1" t="n">
+        <v>45484.6493634259</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>27139</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>25.6499996185303</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="G1191" t="s">
+        <v>482</v>
+      </c>
+      <c r="H1191" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37530136108398</t>
+    <t xml:space="preserve">8.3753023147583</t>
   </si>
   <si>
     <t xml:space="preserve">SCF.MI</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">8.13650321960449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16342258453369</t>
+    <t xml:space="preserve">8.16342163085938</t>
   </si>
   <si>
     <t xml:space="preserve">8.10176849365234</t>
@@ -62,43 +62,43 @@
     <t xml:space="preserve">8.11045265197754</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11913681030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16255283355713</t>
+    <t xml:space="preserve">8.11913585662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16255378723145</t>
   </si>
   <si>
     <t xml:space="preserve">8.24070644378662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2493896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29280757904053</t>
+    <t xml:space="preserve">8.24938869476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29280662536621</t>
   </si>
   <si>
     <t xml:space="preserve">8.50989723205566</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51163387298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48384571075439</t>
+    <t xml:space="preserve">8.51163482666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48384666442871</t>
   </si>
   <si>
     <t xml:space="preserve">8.38398456573486</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31017398834229</t>
+    <t xml:space="preserve">8.3101749420166</t>
   </si>
   <si>
     <t xml:space="preserve">8.42306041717529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51858043670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02222728729248</t>
+    <t xml:space="preserve">8.51857948303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0222282409668</t>
   </si>
   <si>
     <t xml:space="preserve">8.89892101287842</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">8.8468189239502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93886375427246</t>
+    <t xml:space="preserve">8.93886470794678</t>
   </si>
   <si>
     <t xml:space="preserve">8.94407558441162</t>
@@ -116,10 +116,10 @@
     <t xml:space="preserve">8.93539142608643</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00485992431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97707271575928</t>
+    <t xml:space="preserve">9.00486087799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97707366943359</t>
   </si>
   <si>
     <t xml:space="preserve">9.02917385101318</t>
@@ -128,13 +128,13 @@
     <t xml:space="preserve">9.03091049194336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98749351501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33483505249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2480001449585</t>
+    <t xml:space="preserve">8.98749256134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33483600616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24799919128418</t>
   </si>
   <si>
     <t xml:space="preserve">9.46508884429932</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">9.5953426361084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68217849731445</t>
+    <t xml:space="preserve">9.68217754364014</t>
   </si>
   <si>
     <t xml:space="preserve">9.81243228912354</t>
@@ -155,34 +155,34 @@
     <t xml:space="preserve">9.98610305786133</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0295209884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76901340484619</t>
+    <t xml:space="preserve">10.0295219421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76901435852051</t>
   </si>
   <si>
     <t xml:space="preserve">9.89926719665527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85585021972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63876056671143</t>
+    <t xml:space="preserve">9.85584926605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63876152038574</t>
   </si>
   <si>
     <t xml:space="preserve">9.55192470550537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16116428375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29141807556152</t>
+    <t xml:space="preserve">9.16116333007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29141712188721</t>
   </si>
   <si>
     <t xml:space="preserve">9.07432842254639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57936477661133</t>
+    <t xml:space="preserve">8.57936573028564</t>
   </si>
   <si>
     <t xml:space="preserve">8.63146591186523</t>
@@ -194,25 +194,25 @@
     <t xml:space="preserve">8.77040481567383</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20458221435547</t>
+    <t xml:space="preserve">9.20458316802979</t>
   </si>
   <si>
     <t xml:space="preserve">8.68356704711914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45779514312744</t>
+    <t xml:space="preserve">8.45779418945312</t>
   </si>
   <si>
     <t xml:space="preserve">8.40569400787354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51997041702271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02361679077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72837495803833</t>
+    <t xml:space="preserve">7.51996994018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02361583709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72837543487549</t>
   </si>
   <si>
     <t xml:space="preserve">7.98888206481934</t>
@@ -230,19 +230,19 @@
     <t xml:space="preserve">8.38832664489746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90065670013428</t>
+    <t xml:space="preserve">8.90065765380859</t>
   </si>
   <si>
     <t xml:space="preserve">9.11774635314941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81382179260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42167186737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02747058868408</t>
+    <t xml:space="preserve">8.81382083892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42167091369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0274715423584</t>
   </si>
   <si>
     <t xml:space="preserve">9.07260990142822</t>
@@ -251,10 +251,10 @@
     <t xml:space="preserve">9.74967002868652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1559066772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.291316986084</t>
+    <t xml:space="preserve">10.1559057235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2913179397583</t>
   </si>
   <si>
     <t xml:space="preserve">10.3815927505493</t>
@@ -263,19 +263,19 @@
     <t xml:space="preserve">10.4718675613403</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6072788238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5170040130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0135154724121</t>
+    <t xml:space="preserve">10.6072797775269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5170049667358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0135164260864</t>
   </si>
   <si>
     <t xml:space="preserve">11.1940650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1489276885986</t>
+    <t xml:space="preserve">11.1489267349243</t>
   </si>
   <si>
     <t xml:space="preserve">11.2843389511108</t>
@@ -287,16 +287,16 @@
     <t xml:space="preserve">10.7878284454346</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1037902832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0586528778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9683780670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9232425689697</t>
+    <t xml:space="preserve">11.1037912368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0586519241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9683771133423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9232416152954</t>
   </si>
   <si>
     <t xml:space="preserve">10.8781032562256</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">10.7426910400391</t>
   </si>
   <si>
-    <t xml:space="preserve">10.562141418457</t>
+    <t xml:space="preserve">10.5621423721313</t>
   </si>
   <si>
     <t xml:space="preserve">10.4267301559448</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">10.3364553451538</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2461814880371</t>
+    <t xml:space="preserve">10.2461805343628</t>
   </si>
   <si>
     <t xml:space="preserve">11.4197511672974</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">11.6454381942749</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7357139587402</t>
+    <t xml:space="preserve">11.7357130050659</t>
   </si>
   <si>
     <t xml:space="preserve">11.5551643371582</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">11.3746137619019</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5100269317627</t>
+    <t xml:space="preserve">11.5100259780884</t>
   </si>
   <si>
     <t xml:space="preserve">11.2392024993896</t>
@@ -368,19 +368,19 @@
     <t xml:space="preserve">11.9614000320435</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1419486999512</t>
+    <t xml:space="preserve">12.1419496536255</t>
   </si>
   <si>
     <t xml:space="preserve">12.457911491394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5481853485107</t>
+    <t xml:space="preserve">12.5481843948364</t>
   </si>
   <si>
     <t xml:space="preserve">12.367636680603</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1870861053467</t>
+    <t xml:space="preserve">12.187087059021</t>
   </si>
   <si>
     <t xml:space="preserve">12.2773628234863</t>
@@ -389,22 +389,22 @@
     <t xml:space="preserve">12.5030498504639</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6384601593018</t>
+    <t xml:space="preserve">12.6384592056274</t>
   </si>
   <si>
     <t xml:space="preserve">12.2322244644165</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3224992752075</t>
+    <t xml:space="preserve">12.3224983215332</t>
   </si>
   <si>
     <t xml:space="preserve">12.6205492019653</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7136898040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5274076461792</t>
+    <t xml:space="preserve">12.7136888504028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5274085998535</t>
   </si>
   <si>
     <t xml:space="preserve">12.4808368682861</t>
@@ -413,7 +413,7 @@
     <t xml:space="preserve">12.6671199798584</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5739774703979</t>
+    <t xml:space="preserve">12.5739784240723</t>
   </si>
   <si>
     <t xml:space="preserve">12.2945566177368</t>
@@ -422,10 +422,10 @@
     <t xml:space="preserve">12.3876972198486</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4342679977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9465408325195</t>
+    <t xml:space="preserve">12.434268951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9465398788452</t>
   </si>
   <si>
     <t xml:space="preserve">13.1328220367432</t>
@@ -434,13 +434,13 @@
     <t xml:space="preserve">13.1793918609619</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9931106567383</t>
+    <t xml:space="preserve">12.9931116104126</t>
   </si>
   <si>
     <t xml:space="preserve">13.2725324630737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4588146209717</t>
+    <t xml:space="preserve">13.4588136672974</t>
   </si>
   <si>
     <t xml:space="preserve">13.5519552230835</t>
@@ -449,10 +449,10 @@
     <t xml:space="preserve">13.7848062515259</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5985250473022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7382364273071</t>
+    <t xml:space="preserve">13.5985260009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7382354736328</t>
   </si>
   <si>
     <t xml:space="preserve">13.9710874557495</t>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">13.8779458999634</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3656730651855</t>
+    <t xml:space="preserve">13.3656740188599</t>
   </si>
   <si>
     <t xml:space="preserve">13.5053844451904</t>
@@ -476,7 +476,7 @@
     <t xml:space="preserve">13.8313770294189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0642280578613</t>
+    <t xml:space="preserve">14.0642290115356</t>
   </si>
   <si>
     <t xml:space="preserve">14.297080039978</t>
@@ -494,22 +494,22 @@
     <t xml:space="preserve">15.9270391464233</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8804693222046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8338994979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6941871643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9736089706421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4393138885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6721649169922</t>
+    <t xml:space="preserve">15.8804683685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8339004516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6941890716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9736099243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4393119812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6721630096436</t>
   </si>
   <si>
     <t xml:space="preserve">16.9981555938721</t>
@@ -518,13 +518,13 @@
     <t xml:space="preserve">17.2310066223145</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9515857696533</t>
+    <t xml:space="preserve">16.951587677002</t>
   </si>
   <si>
     <t xml:space="preserve">17.4172878265381</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6501407623291</t>
+    <t xml:space="preserve">17.6501426696777</t>
   </si>
   <si>
     <t xml:space="preserve">17.789852142334</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">16.8584461212158</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7187347412109</t>
+    <t xml:space="preserve">16.7187366485596</t>
   </si>
   <si>
     <t xml:space="preserve">17.0447254180908</t>
@@ -545,7 +545,7 @@
     <t xml:space="preserve">17.3707180023193</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3241481781006</t>
+    <t xml:space="preserve">17.3241500854492</t>
   </si>
   <si>
     <t xml:space="preserve">16.7653045654297</t>
@@ -557,13 +557,13 @@
     <t xml:space="preserve">16.2996025085449</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1133213043213</t>
+    <t xml:space="preserve">16.1133193969727</t>
   </si>
   <si>
     <t xml:space="preserve">16.15989112854</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1844367980957</t>
+    <t xml:space="preserve">17.1844387054443</t>
   </si>
   <si>
     <t xml:space="preserve">17.137866973877</t>
@@ -572,16 +572,16 @@
     <t xml:space="preserve">16.9050159454346</t>
   </si>
   <si>
-    <t xml:space="preserve">17.976131439209</t>
+    <t xml:space="preserve">17.9761333465576</t>
   </si>
   <si>
     <t xml:space="preserve">18.1624145507812</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8829936981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8364200592041</t>
+    <t xml:space="preserve">17.8829917907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8364219665527</t>
   </si>
   <si>
     <t xml:space="preserve">18.1158447265625</t>
@@ -590,7 +590,7 @@
     <t xml:space="preserve">18.5349750518799</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6281147003174</t>
+    <t xml:space="preserve">18.628116607666</t>
   </si>
   <si>
     <t xml:space="preserve">18.3486957550049</t>
@@ -602,13 +602,13 @@
     <t xml:space="preserve">18.9075374603271</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4884071350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0938186645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2801036834717</t>
+    <t xml:space="preserve">18.4884052276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0938205718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.280101776123</t>
   </si>
   <si>
     <t xml:space="preserve">20.2115058898926</t>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">19.7458038330078</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9320850372314</t>
+    <t xml:space="preserve">19.9320831298828</t>
   </si>
   <si>
     <t xml:space="preserve">20.6772079467773</t>
@@ -635,25 +635,25 @@
     <t xml:space="preserve">19.1869602203369</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6526622772217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.701753616333</t>
+    <t xml:space="preserve">19.6526641845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7017555236816</t>
   </si>
   <si>
     <t xml:space="preserve">21.515474319458</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7948951721191</t>
+    <t xml:space="preserve">21.7948970794678</t>
   </si>
   <si>
     <t xml:space="preserve">22.4468803405762</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7263011932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5400238037109</t>
+    <t xml:space="preserve">22.7263031005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5400218963623</t>
   </si>
   <si>
     <t xml:space="preserve">23.2851448059082</t>
@@ -662,16 +662,16 @@
     <t xml:space="preserve">23.1920051574707</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0057239532471</t>
+    <t xml:space="preserve">23.0057220458984</t>
   </si>
   <si>
     <t xml:space="preserve">23.0988636016846</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9125823974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8194427490234</t>
+    <t xml:space="preserve">22.9125843048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8194408416748</t>
   </si>
   <si>
     <t xml:space="preserve">23.3782863616943</t>
@@ -680,7 +680,7 @@
     <t xml:space="preserve">23.5645656585693</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8880348205566</t>
+    <t xml:space="preserve">21.8880367279053</t>
   </si>
   <si>
     <t xml:space="preserve">22.1674575805664</t>
@@ -692,13 +692,13 @@
     <t xml:space="preserve">22.2605991363525</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6331615447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0497722625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2360515594482</t>
+    <t xml:space="preserve">22.6331596374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0497741699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2360534667969</t>
   </si>
   <si>
     <t xml:space="preserve">21.3291931152344</t>
@@ -707,7 +707,7 @@
     <t xml:space="preserve">21.4223346710205</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5840682983398</t>
+    <t xml:space="preserve">20.5840702056885</t>
   </si>
   <si>
     <t xml:space="preserve">20.3046455383301</t>
@@ -719,13 +719,13 @@
     <t xml:space="preserve">19.0006771087646</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1429138183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3732414245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5595226287842</t>
+    <t xml:space="preserve">21.1429119110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3732395172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5595207214355</t>
   </si>
   <si>
     <t xml:space="preserve">19.466381072998</t>
@@ -734,19 +734,19 @@
     <t xml:space="preserve">18.7212581634521</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5722332000732</t>
+    <t xml:space="preserve">18.5722312927246</t>
   </si>
   <si>
     <t xml:space="preserve">18.3673229217529</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6221981048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0692729949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6746864318848</t>
+    <t xml:space="preserve">17.622200012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0692710876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6746845245361</t>
   </si>
   <si>
     <t xml:space="preserve">18.0133895874023</t>
@@ -755,19 +755,19 @@
     <t xml:space="preserve">17.7525939941406</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5663146972656</t>
+    <t xml:space="preserve">17.566312789917</t>
   </si>
   <si>
     <t xml:space="preserve">17.6594543457031</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7339687347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9202480316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5104274749756</t>
+    <t xml:space="preserve">17.7339668273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9202461242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5104293823242</t>
   </si>
   <si>
     <t xml:space="preserve">16.8211879730225</t>
@@ -776,25 +776,25 @@
     <t xml:space="preserve">16.6349086761475</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8957004547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7280464172363</t>
+    <t xml:space="preserve">16.8957023620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.728048324585</t>
   </si>
   <si>
     <t xml:space="preserve">16.54176902771</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3554878234863</t>
+    <t xml:space="preserve">16.3554859161377</t>
   </si>
   <si>
     <t xml:space="preserve">15.722128868103</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5544786453247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0515174865723</t>
+    <t xml:space="preserve">15.5544776916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0515184402466</t>
   </si>
   <si>
     <t xml:space="preserve">14.9770059585571</t>
@@ -806,181 +806,184 @@
     <t xml:space="preserve">15.1446590423584</t>
   </si>
   <si>
+    <t xml:space="preserve">16.5231380462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0968589782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5940837860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5367107391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.364595413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1542320251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1678047180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9574394226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5502834320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1295547485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.454662322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7224006652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3781681060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6459045410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8426952362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7470741271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4410915374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4602165222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5040149688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0450401306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7964277267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.025915145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6816825866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2362785339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3892707824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.274528503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8920469284058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.719931602478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.217155456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0067901611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1215343475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9111700057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8729248046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8346748352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6051874160767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2992029190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5095663070679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7335033416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1159839630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.752628326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0012397766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0394859313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1486797332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8235721588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6323318481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7088279724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7279510498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8809432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4028434753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7143783569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9629917144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8099994659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9056205749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.829122543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.88649559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1733531951904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9821166992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.637882232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2554035186768</t>
+  </si>
+  <si>
     <t xml:space="preserve">16.5231399536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0968589782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5940837860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5367107391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.364595413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1542320251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1678047180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9574394226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5502834320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1295547485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.454662322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7224006652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3781681060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6459045410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8426952362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7470741271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4410915374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4602165222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5040149688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0450401306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7964277267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.025915145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6816825866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2362785339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3892707824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.274528503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8920469284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.719931602478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.217155456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0067901611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1215343475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9111700057983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8729248046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8346748352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6051874160767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2992029190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5095663070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7335033416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1159839630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.752628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0012397766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0394859313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1486797332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8235721588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6323318481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7088279724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7279510498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8809432983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4028434753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7143783569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9629917144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8099994659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9056205749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.829122543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.88649559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1733531951904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9821166992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.637882232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2554035186768</t>
   </si>
   <si>
     <t xml:space="preserve">16.9247436523438</t>
@@ -20491,7 +20494,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G719" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -20517,7 +20520,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G720" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -20595,7 +20598,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G723" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -20621,7 +20624,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G724" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -20647,7 +20650,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G725" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -20699,7 +20702,7 @@
         <v>17.4599990844727</v>
       </c>
       <c r="G727" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -20751,7 +20754,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G729" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -20777,7 +20780,7 @@
         <v>15.3599996566772</v>
       </c>
       <c r="G730" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -20803,7 +20806,7 @@
         <v>14.8400001525879</v>
       </c>
       <c r="G731" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -20829,7 +20832,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G732" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -20855,7 +20858,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G733" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -20881,7 +20884,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G734" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -20907,7 +20910,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G735" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -20933,7 +20936,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G736" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -20959,7 +20962,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G737" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -20985,7 +20988,7 @@
         <v>14.039999961853</v>
       </c>
       <c r="G738" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21011,7 +21014,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G739" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21037,7 +21040,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G740" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21063,7 +21066,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G741" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21089,7 +21092,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G742" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21115,7 +21118,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G743" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21141,7 +21144,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G744" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21167,7 +21170,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G745" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21193,7 +21196,7 @@
         <v>14.8800001144409</v>
       </c>
       <c r="G746" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21219,7 +21222,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G747" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21245,7 +21248,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G748" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21271,7 +21274,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G749" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21323,7 +21326,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -21349,7 +21352,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G752" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -21375,7 +21378,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G753" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -21401,7 +21404,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G754" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -21427,7 +21430,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G755" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -21479,7 +21482,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G757" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -21505,7 +21508,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G758" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -21531,7 +21534,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G759" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -21557,7 +21560,7 @@
         <v>15.9799995422363</v>
       </c>
       <c r="G760" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -21583,7 +21586,7 @@
         <v>15.8199996948242</v>
       </c>
       <c r="G761" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -21609,7 +21612,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G762" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -21635,7 +21638,7 @@
         <v>16.2800006866455</v>
       </c>
       <c r="G763" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -21687,7 +21690,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G765" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -21713,7 +21716,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G766" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -21739,7 +21742,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G767" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -21843,7 +21846,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G771" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -21895,7 +21898,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G773" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -21947,7 +21950,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G775" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -21973,7 +21976,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G776" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -21999,7 +22002,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G777" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22025,7 +22028,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G778" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22077,7 +22080,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G780" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22103,7 +22106,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G781" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22129,7 +22132,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G782" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22181,7 +22184,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G784" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22207,7 +22210,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G785" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22233,7 +22236,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G786" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22259,7 +22262,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G787" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22285,7 +22288,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G788" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22311,7 +22314,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G789" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -22363,7 +22366,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G791" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -22389,7 +22392,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G792" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -22441,7 +22444,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G794" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -22467,7 +22470,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G795" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -22493,7 +22496,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G796" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -22597,7 +22600,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G800" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -22649,7 +22652,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G802" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -22675,7 +22678,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G803" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -22727,7 +22730,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G805" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -22753,7 +22756,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G806" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -22883,7 +22886,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G811" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -22961,7 +22964,7 @@
         <v>18.5799999237061</v>
       </c>
       <c r="G814" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -22987,7 +22990,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G815" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23091,7 +23094,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G819" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23143,7 +23146,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G821" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23169,7 +23172,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G822" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23195,7 +23198,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G823" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23221,7 +23224,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G824" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23247,7 +23250,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G825" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23325,7 +23328,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G828" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -23351,7 +23354,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G829" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -23377,7 +23380,7 @@
         <v>18.5</v>
       </c>
       <c r="G830" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -23403,7 +23406,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G831" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -23455,7 +23458,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G833" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -23481,7 +23484,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G834" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -23507,7 +23510,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G835" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -23559,7 +23562,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G837" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -23663,7 +23666,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G841" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -23715,7 +23718,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G843" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -23741,7 +23744,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G844" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -23793,7 +23796,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G846" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -23819,7 +23822,7 @@
         <v>17.8600006103516</v>
       </c>
       <c r="G847" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -23871,7 +23874,7 @@
         <v>18</v>
       </c>
       <c r="G849" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -23897,7 +23900,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G850" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -23923,7 +23926,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G851" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -23949,7 +23952,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G852" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -23975,7 +23978,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G853" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24001,7 +24004,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G854" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24053,7 +24056,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G856" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24079,7 +24082,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G857" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24105,7 +24108,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G858" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24131,7 +24134,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G859" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24157,7 +24160,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G860" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24183,7 +24186,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G861" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24209,7 +24212,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G862" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24235,7 +24238,7 @@
         <v>20.75</v>
       </c>
       <c r="G863" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24261,7 +24264,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G864" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -24287,7 +24290,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G865" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -24313,7 +24316,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G866" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -24339,7 +24342,7 @@
         <v>21.5</v>
       </c>
       <c r="G867" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -24365,7 +24368,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G868" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -24391,7 +24394,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G869" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -24417,7 +24420,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G870" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -24443,7 +24446,7 @@
         <v>21.5</v>
       </c>
       <c r="G871" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -24469,7 +24472,7 @@
         <v>21</v>
       </c>
       <c r="G872" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -24495,7 +24498,7 @@
         <v>20.75</v>
       </c>
       <c r="G873" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -24521,7 +24524,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G874" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -24547,7 +24550,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G875" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -24573,7 +24576,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G876" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -24599,7 +24602,7 @@
         <v>20.5</v>
       </c>
       <c r="G877" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -24625,7 +24628,7 @@
         <v>21</v>
       </c>
       <c r="G878" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -24651,7 +24654,7 @@
         <v>21</v>
       </c>
       <c r="G879" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -24677,7 +24680,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G880" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -24703,7 +24706,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G881" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -24729,7 +24732,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G882" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -24755,7 +24758,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G883" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -24781,7 +24784,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G884" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -24807,7 +24810,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G885" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -24833,7 +24836,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G886" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -24859,7 +24862,7 @@
         <v>21.75</v>
       </c>
       <c r="G887" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -24885,7 +24888,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G888" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -24911,7 +24914,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G889" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -24937,7 +24940,7 @@
         <v>22</v>
       </c>
       <c r="G890" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -24963,7 +24966,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G891" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -24989,7 +24992,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G892" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25015,7 +25018,7 @@
         <v>21.75</v>
       </c>
       <c r="G893" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25041,7 +25044,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G894" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25067,7 +25070,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25093,7 +25096,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G896" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25119,7 +25122,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G897" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25145,7 +25148,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G898" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25171,7 +25174,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G899" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25197,7 +25200,7 @@
         <v>22.5</v>
       </c>
       <c r="G900" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25223,7 +25226,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G901" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25249,7 +25252,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G902" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -25275,7 +25278,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G903" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -25301,7 +25304,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G904" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -25327,7 +25330,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -25353,7 +25356,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G906" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -25379,7 +25382,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G907" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -25405,7 +25408,7 @@
         <v>22.5</v>
       </c>
       <c r="G908" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -25431,7 +25434,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G909" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -25457,7 +25460,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G910" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -25483,7 +25486,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G911" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -25509,7 +25512,7 @@
         <v>22.75</v>
       </c>
       <c r="G912" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -25535,7 +25538,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G913" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -25561,7 +25564,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G914" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -25587,7 +25590,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G915" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -25613,7 +25616,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G916" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -25639,7 +25642,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G917" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -25665,7 +25668,7 @@
         <v>23</v>
       </c>
       <c r="G918" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -25691,7 +25694,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G919" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -25717,7 +25720,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G920" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -25743,7 +25746,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G921" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -25769,7 +25772,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G922" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -25795,7 +25798,7 @@
         <v>23.25</v>
       </c>
       <c r="G923" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -25821,7 +25824,7 @@
         <v>23.25</v>
       </c>
       <c r="G924" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -25847,7 +25850,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G925" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -25873,7 +25876,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G926" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -25899,7 +25902,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G927" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -25925,7 +25928,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G928" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -25951,7 +25954,7 @@
         <v>23</v>
       </c>
       <c r="G929" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -25977,7 +25980,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G930" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26003,7 +26006,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G931" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26029,7 +26032,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G932" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26055,7 +26058,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G933" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26081,7 +26084,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G934" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26107,7 +26110,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G935" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26133,7 +26136,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G936" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26159,7 +26162,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G937" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26185,7 +26188,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G938" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26211,7 +26214,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G939" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26237,7 +26240,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G940" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26263,7 +26266,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G941" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26289,7 +26292,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G942" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -26315,7 +26318,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G943" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26341,7 +26344,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G944" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26367,7 +26370,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G945" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26393,7 +26396,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G946" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26419,7 +26422,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G947" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26445,7 +26448,7 @@
         <v>23</v>
       </c>
       <c r="G948" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26471,7 +26474,7 @@
         <v>23.25</v>
       </c>
       <c r="G949" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26497,7 +26500,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G950" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26523,7 +26526,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G951" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26549,7 +26552,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G952" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26575,7 +26578,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G953" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26601,7 +26604,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G954" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26627,7 +26630,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G955" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -26653,7 +26656,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G956" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -26679,7 +26682,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -26705,7 +26708,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G958" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -26731,7 +26734,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G959" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -26757,7 +26760,7 @@
         <v>24.5</v>
       </c>
       <c r="G960" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -26783,7 +26786,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G961" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -26809,7 +26812,7 @@
         <v>24.5</v>
       </c>
       <c r="G962" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -26835,7 +26838,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G963" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -26861,7 +26864,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G964" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -26887,7 +26890,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G965" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -26913,7 +26916,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G966" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -26939,7 +26942,7 @@
         <v>24</v>
       </c>
       <c r="G967" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -26965,7 +26968,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G968" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -26991,7 +26994,7 @@
         <v>24.25</v>
       </c>
       <c r="G969" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -27017,7 +27020,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G970" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27043,7 +27046,7 @@
         <v>24.5</v>
       </c>
       <c r="G971" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27069,7 +27072,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G972" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27095,7 +27098,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G973" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27121,7 +27124,7 @@
         <v>24.5</v>
       </c>
       <c r="G974" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -27147,7 +27150,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G975" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -27173,7 +27176,7 @@
         <v>23.75</v>
       </c>
       <c r="G976" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -27199,7 +27202,7 @@
         <v>23.5</v>
       </c>
       <c r="G977" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -27225,7 +27228,7 @@
         <v>23.25</v>
       </c>
       <c r="G978" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -27251,7 +27254,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G979" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27277,7 +27280,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G980" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27303,7 +27306,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G981" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27329,7 +27332,7 @@
         <v>23</v>
       </c>
       <c r="G982" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -27355,7 +27358,7 @@
         <v>22.75</v>
       </c>
       <c r="G983" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -27381,7 +27384,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G984" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27407,7 +27410,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G985" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27433,7 +27436,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G986" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -27459,7 +27462,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G987" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -27485,7 +27488,7 @@
         <v>22.5</v>
       </c>
       <c r="G988" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -27511,7 +27514,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G989" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -27537,7 +27540,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G990" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -27563,7 +27566,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G991" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -27589,7 +27592,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G992" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -27615,7 +27618,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G993" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -27641,7 +27644,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G994" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -27667,7 +27670,7 @@
         <v>22</v>
       </c>
       <c r="G995" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -27693,7 +27696,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G996" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -27719,7 +27722,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G997" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -27745,7 +27748,7 @@
         <v>22.75</v>
       </c>
       <c r="G998" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -27771,7 +27774,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G999" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -27797,7 +27800,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1000" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -27823,7 +27826,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1001" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -27849,7 +27852,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1002" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -27875,7 +27878,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1003" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -27901,7 +27904,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1004" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -27927,7 +27930,7 @@
         <v>22.25</v>
       </c>
       <c r="G1005" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -27953,7 +27956,7 @@
         <v>22.25</v>
       </c>
       <c r="G1006" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -27979,7 +27982,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1007" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28005,7 +28008,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1008" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28031,7 +28034,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1009" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28057,7 +28060,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1010" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -28083,7 +28086,7 @@
         <v>23</v>
       </c>
       <c r="G1011" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28109,7 +28112,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1012" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28135,7 +28138,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1013" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28161,7 +28164,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1014" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28187,7 +28190,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1015" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28213,7 +28216,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1016" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28239,7 +28242,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1017" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28265,7 +28268,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1018" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28291,7 +28294,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1019" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28317,7 +28320,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1020" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28343,7 +28346,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1021" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28369,7 +28372,7 @@
         <v>23.25</v>
       </c>
       <c r="G1022" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -28395,7 +28398,7 @@
         <v>23</v>
       </c>
       <c r="G1023" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -28421,7 +28424,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1024" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28447,7 +28450,7 @@
         <v>23.25</v>
       </c>
       <c r="G1025" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28473,7 +28476,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1026" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28499,7 +28502,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1027" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28525,7 +28528,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1028" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28551,7 +28554,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G1029" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28577,7 +28580,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1030" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -28603,7 +28606,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1031" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -28629,7 +28632,7 @@
         <v>23.25</v>
       </c>
       <c r="G1032" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28655,7 +28658,7 @@
         <v>24</v>
       </c>
       <c r="G1033" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -28681,7 +28684,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G1034" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -28707,7 +28710,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1035" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -28733,7 +28736,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1036" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -28759,7 +28762,7 @@
         <v>23.5</v>
       </c>
       <c r="G1037" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28785,7 +28788,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1038" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -28811,7 +28814,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1039" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -28837,7 +28840,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1040" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -28863,7 +28866,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1041" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -28889,7 +28892,7 @@
         <v>23.75</v>
       </c>
       <c r="G1042" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -28915,7 +28918,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1043" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -28941,7 +28944,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1044" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -28967,7 +28970,7 @@
         <v>23.5</v>
       </c>
       <c r="G1045" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -28993,7 +28996,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1046" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29019,7 +29022,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1047" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -29045,7 +29048,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1048" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29071,7 +29074,7 @@
         <v>24.25</v>
       </c>
       <c r="G1049" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -29097,7 +29100,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1050" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29123,7 +29126,7 @@
         <v>24.5</v>
       </c>
       <c r="G1051" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29149,7 +29152,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1052" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -29175,7 +29178,7 @@
         <v>24.25</v>
       </c>
       <c r="G1053" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29201,7 +29204,7 @@
         <v>24.25</v>
       </c>
       <c r="G1054" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29227,7 +29230,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1055" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29253,7 +29256,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1056" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29279,7 +29282,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1057" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29305,7 +29308,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1058" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29331,7 +29334,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1059" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29357,7 +29360,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1060" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29383,7 +29386,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1061" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29409,7 +29412,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1062" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29435,7 +29438,7 @@
         <v>24.25</v>
       </c>
       <c r="G1063" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29461,7 +29464,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29487,7 +29490,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1065" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29513,7 +29516,7 @@
         <v>24.5</v>
       </c>
       <c r="G1066" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29539,7 +29542,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G1067" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29565,7 +29568,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1068" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29591,7 +29594,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1069" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29617,7 +29620,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1070" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29643,7 +29646,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1071" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29669,7 +29672,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1072" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -29695,7 +29698,7 @@
         <v>23.75</v>
       </c>
       <c r="G1073" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -29721,7 +29724,7 @@
         <v>23.75</v>
       </c>
       <c r="G1074" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -29747,7 +29750,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1075" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -29773,7 +29776,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1076" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -29799,7 +29802,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1077" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -29825,7 +29828,7 @@
         <v>23.5</v>
       </c>
       <c r="G1078" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -29851,7 +29854,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1079" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -29877,7 +29880,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1080" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -29903,7 +29906,7 @@
         <v>23.5</v>
       </c>
       <c r="G1081" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -29929,7 +29932,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1082" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -29955,7 +29958,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1083" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -29981,7 +29984,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1084" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30007,7 +30010,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1085" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30033,7 +30036,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1086" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -30059,7 +30062,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1087" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30085,7 +30088,7 @@
         <v>23.25</v>
       </c>
       <c r="G1088" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30111,7 +30114,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1089" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -30137,7 +30140,7 @@
         <v>23</v>
       </c>
       <c r="G1090" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30163,7 +30166,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1091" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30189,7 +30192,7 @@
         <v>23.25</v>
       </c>
       <c r="G1092" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30215,7 +30218,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1093" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30241,7 +30244,7 @@
         <v>23.25</v>
       </c>
       <c r="G1094" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30267,7 +30270,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1095" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30293,7 +30296,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1096" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30319,7 +30322,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1097" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30345,7 +30348,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1098" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30371,7 +30374,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1099" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30397,7 +30400,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1100" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30423,7 +30426,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1101" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30449,7 +30452,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1102" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30475,7 +30478,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1103" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30501,7 +30504,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1104" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -30527,7 +30530,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1105" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30553,7 +30556,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1106" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30579,7 +30582,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1107" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30605,7 +30608,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1108" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30631,7 +30634,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1109" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30657,7 +30660,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1110" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -30683,7 +30686,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1111" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30709,7 +30712,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1112" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -30735,7 +30738,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1113" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30761,7 +30764,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1114" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30787,7 +30790,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1115" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30813,7 +30816,7 @@
         <v>22.75</v>
       </c>
       <c r="G1116" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -30839,7 +30842,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1117" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -30865,7 +30868,7 @@
         <v>23</v>
       </c>
       <c r="G1118" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -30891,7 +30894,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -30917,7 +30920,7 @@
         <v>22.5</v>
       </c>
       <c r="G1120" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -30943,7 +30946,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1121" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -30969,7 +30972,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1122" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -30995,7 +30998,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1123" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31021,7 +31024,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1124" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31047,7 +31050,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1125" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31073,7 +31076,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1126" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31099,7 +31102,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1127" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31125,7 +31128,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1128" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31151,7 +31154,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1129" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31177,7 +31180,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1130" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31203,7 +31206,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1131" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31229,7 +31232,7 @@
         <v>22.25</v>
       </c>
       <c r="G1132" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31255,7 +31258,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1133" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31281,7 +31284,7 @@
         <v>21.75</v>
       </c>
       <c r="G1134" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31307,7 +31310,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1135" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31333,7 +31336,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1136" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31359,7 +31362,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1137" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31385,7 +31388,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1138" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31411,7 +31414,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1139" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31437,7 +31440,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1140" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31463,7 +31466,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1141" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31489,7 +31492,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1142" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31515,7 +31518,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1143" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31541,7 +31544,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31567,7 +31570,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1145" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31593,7 +31596,7 @@
         <v>26</v>
       </c>
       <c r="G1146" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31619,7 +31622,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G1147" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31645,7 +31648,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1148" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31671,7 +31674,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1149" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31697,7 +31700,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1150" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -31723,7 +31726,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1151" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31749,7 +31752,7 @@
         <v>25.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31775,7 +31778,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1153" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31801,7 +31804,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1154" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -31827,7 +31830,7 @@
         <v>25.5</v>
       </c>
       <c r="G1155" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -31853,7 +31856,7 @@
         <v>25.5</v>
       </c>
       <c r="G1156" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -31879,7 +31882,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1157" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -31905,7 +31908,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1158" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -31931,7 +31934,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1159" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -31957,7 +31960,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1160" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -31983,7 +31986,7 @@
         <v>25.5</v>
       </c>
       <c r="G1161" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32009,7 +32012,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1162" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32035,7 +32038,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1163" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32061,7 +32064,7 @@
         <v>25.5</v>
       </c>
       <c r="G1164" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32087,7 +32090,7 @@
         <v>25.5</v>
       </c>
       <c r="G1165" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32113,7 +32116,7 @@
         <v>25.5</v>
       </c>
       <c r="G1166" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32139,7 +32142,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1167" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32165,7 +32168,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1168" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32191,7 +32194,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1169" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32217,7 +32220,7 @@
         <v>25.5</v>
       </c>
       <c r="G1170" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32243,7 +32246,7 @@
         <v>25.5</v>
       </c>
       <c r="G1171" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32269,7 +32272,7 @@
         <v>25.5</v>
       </c>
       <c r="G1172" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -32295,7 +32298,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1173" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -32321,7 +32324,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1174" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -32347,7 +32350,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1175" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -32373,7 +32376,7 @@
         <v>25.5</v>
       </c>
       <c r="G1176" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -32399,7 +32402,7 @@
         <v>25.5</v>
       </c>
       <c r="G1177" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -32425,7 +32428,7 @@
         <v>25.5</v>
       </c>
       <c r="G1178" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32451,7 +32454,7 @@
         <v>25.5</v>
       </c>
       <c r="G1179" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -32477,7 +32480,7 @@
         <v>25.5</v>
       </c>
       <c r="G1180" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -32503,7 +32506,7 @@
         <v>25.5</v>
       </c>
       <c r="G1181" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -32529,7 +32532,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1182" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -32555,7 +32558,7 @@
         <v>25.5</v>
       </c>
       <c r="G1183" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -32581,7 +32584,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1184" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -32607,7 +32610,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1185" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -32633,7 +32636,7 @@
         <v>25.5</v>
       </c>
       <c r="G1186" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -32659,7 +32662,7 @@
         <v>25.5</v>
       </c>
       <c r="G1187" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -32685,7 +32688,7 @@
         <v>25.5</v>
       </c>
       <c r="G1188" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -32711,7 +32714,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1189" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -32737,7 +32740,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1190" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -32745,7 +32748,7 @@
     </row>
     <row r="1191">
       <c r="A1191" s="1" t="n">
-        <v>45484.6493634259</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B1191" t="n">
         <v>27139</v>
@@ -32763,9 +32766,35 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1191" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="1" t="n">
+        <v>45485.6495138889</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>66755</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="G1192" t="s">
+        <v>484</v>
+      </c>
+      <c r="H1192" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -44,22 +44,22 @@
     <t xml:space="preserve">SCF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33448886871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17905330657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13650321960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16342163085938</t>
+    <t xml:space="preserve">8.33448791503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17905235290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13650417327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16342353820801</t>
   </si>
   <si>
     <t xml:space="preserve">8.10176849365234</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11045265197754</t>
+    <t xml:space="preserve">8.11045169830322</t>
   </si>
   <si>
     <t xml:space="preserve">8.11913585662842</t>
@@ -71,31 +71,31 @@
     <t xml:space="preserve">8.24070644378662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24938869476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29280662536621</t>
+    <t xml:space="preserve">8.2493896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29280757904053</t>
   </si>
   <si>
     <t xml:space="preserve">8.50989723205566</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51163482666016</t>
+    <t xml:space="preserve">8.51163387298584</t>
   </si>
   <si>
     <t xml:space="preserve">8.48384666442871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38398456573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3101749420166</t>
+    <t xml:space="preserve">8.38398551940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31017589569092</t>
   </si>
   <si>
     <t xml:space="preserve">8.42306041717529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51857948303223</t>
+    <t xml:space="preserve">8.51858043670654</t>
   </si>
   <si>
     <t xml:space="preserve">9.0222282409668</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">8.89892101287842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8468189239502</t>
+    <t xml:space="preserve">8.84681797027588</t>
   </si>
   <si>
     <t xml:space="preserve">8.93886470794678</t>
@@ -113,55 +113,55 @@
     <t xml:space="preserve">8.94407558441162</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93539142608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00486087799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97707366943359</t>
+    <t xml:space="preserve">8.93539237976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00485897064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97707271575928</t>
   </si>
   <si>
     <t xml:space="preserve">9.02917385101318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03091049194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98749256134033</t>
+    <t xml:space="preserve">9.03091144561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98749351501465</t>
   </si>
   <si>
     <t xml:space="preserve">9.33483600616455</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24799919128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46508884429932</t>
+    <t xml:space="preserve">9.2480001449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46508979797363</t>
   </si>
   <si>
     <t xml:space="preserve">9.5953426361084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68217754364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81243228912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72559642791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98610305786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0295219421387</t>
+    <t xml:space="preserve">9.68217849731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81243324279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7255973815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98610496520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0295209884644</t>
   </si>
   <si>
     <t xml:space="preserve">9.76901435852051</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89926719665527</t>
+    <t xml:space="preserve">9.89926910400391</t>
   </si>
   <si>
     <t xml:space="preserve">9.85584926605225</t>
@@ -170,19 +170,19 @@
     <t xml:space="preserve">9.63876152038574</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55192470550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16116333007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29141712188721</t>
+    <t xml:space="preserve">9.55192565917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16116428375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29141807556152</t>
   </si>
   <si>
     <t xml:space="preserve">9.07432842254639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57936573028564</t>
+    <t xml:space="preserve">8.57936477661133</t>
   </si>
   <si>
     <t xml:space="preserve">8.63146591186523</t>
@@ -191,19 +191,19 @@
     <t xml:space="preserve">8.85723876953125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77040481567383</t>
+    <t xml:space="preserve">8.77040386199951</t>
   </si>
   <si>
     <t xml:space="preserve">9.20458316802979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68356704711914</t>
+    <t xml:space="preserve">8.68356800079346</t>
   </si>
   <si>
     <t xml:space="preserve">8.45779418945312</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40569400787354</t>
+    <t xml:space="preserve">8.40569496154785</t>
   </si>
   <si>
     <t xml:space="preserve">7.51996994018555</t>
@@ -215,7 +215,7 @@
     <t xml:space="preserve">7.72837543487549</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98888206481934</t>
+    <t xml:space="preserve">7.98888254165649</t>
   </si>
   <si>
     <t xml:space="preserve">7.8152117729187</t>
@@ -227,19 +227,19 @@
     <t xml:space="preserve">8.09308528900146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38832664489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90065765380859</t>
+    <t xml:space="preserve">8.38832759857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90065670013428</t>
   </si>
   <si>
     <t xml:space="preserve">9.11774635314941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81382083892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42167091369629</t>
+    <t xml:space="preserve">8.81382179260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42167186737061</t>
   </si>
   <si>
     <t xml:space="preserve">9.0274715423584</t>
@@ -248,7 +248,7 @@
     <t xml:space="preserve">9.07260990142822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74967002868652</t>
+    <t xml:space="preserve">9.74966907501221</t>
   </si>
   <si>
     <t xml:space="preserve">10.1559057235718</t>
@@ -260,25 +260,25 @@
     <t xml:space="preserve">10.3815927505493</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4718675613403</t>
+    <t xml:space="preserve">10.4718685150146</t>
   </si>
   <si>
     <t xml:space="preserve">10.6072797775269</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5170049667358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0135164260864</t>
+    <t xml:space="preserve">10.5170040130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0135154724121</t>
   </si>
   <si>
     <t xml:space="preserve">11.1940650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1489267349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2843389511108</t>
+    <t xml:space="preserve">11.1489276885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2843399047852</t>
   </si>
   <si>
     <t xml:space="preserve">10.8329668045044</t>
@@ -287,13 +287,13 @@
     <t xml:space="preserve">10.7878284454346</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1037912368774</t>
+    <t xml:space="preserve">11.1037902832031</t>
   </si>
   <si>
     <t xml:space="preserve">11.0586519241333</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9683771133423</t>
+    <t xml:space="preserve">10.9683780670166</t>
   </si>
   <si>
     <t xml:space="preserve">10.9232416152954</t>
@@ -305,16 +305,16 @@
     <t xml:space="preserve">10.6524171829224</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7426910400391</t>
+    <t xml:space="preserve">10.7426900863647</t>
   </si>
   <si>
     <t xml:space="preserve">10.5621423721313</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4267301559448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6975536346436</t>
+    <t xml:space="preserve">10.4267292022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6975545883179</t>
   </si>
   <si>
     <t xml:space="preserve">10.3364553451538</t>
@@ -344,13 +344,13 @@
     <t xml:space="preserve">11.2392024993896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4648885726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6003017425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6905765533447</t>
+    <t xml:space="preserve">11.4648895263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.600302696228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6905755996704</t>
   </si>
   <si>
     <t xml:space="preserve">11.7808513641357</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">11.9162626266479</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9614000320435</t>
+    <t xml:space="preserve">11.9614009857178</t>
   </si>
   <si>
     <t xml:space="preserve">12.1419496536255</t>
@@ -374,22 +374,22 @@
     <t xml:space="preserve">12.457911491394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5481843948364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.367636680603</t>
+    <t xml:space="preserve">12.5481853485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3676347732544</t>
   </si>
   <si>
     <t xml:space="preserve">12.187087059021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2773628234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5030498504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6384592056274</t>
+    <t xml:space="preserve">12.277361869812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5030488967896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6384601593018</t>
   </si>
   <si>
     <t xml:space="preserve">12.2322244644165</t>
@@ -32774,7 +32774,7 @@
     </row>
     <row r="1192">
       <c r="A1192" s="1" t="n">
-        <v>45485.6495138889</v>
+        <v>45485.2916666667</v>
       </c>
       <c r="B1192" t="n">
         <v>66755</v>
@@ -32795,6 +32795,32 @@
         <v>484</v>
       </c>
       <c r="H1192" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="1" t="n">
+        <v>45488.6496412037</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>16828</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>25.6499996185303</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>25.5499992370605</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="G1193" t="s">
+        <v>484</v>
+      </c>
+      <c r="H1193" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3753023147583</t>
+    <t xml:space="preserve">8.37530136108398</t>
   </si>
   <si>
     <t xml:space="preserve">SCF.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33448791503906</t>
+    <t xml:space="preserve">8.33448886871338</t>
   </si>
   <si>
     <t xml:space="preserve">8.17905235290527</t>
@@ -53,19 +53,19 @@
     <t xml:space="preserve">8.13650417327881</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16342353820801</t>
+    <t xml:space="preserve">8.16342258453369</t>
   </si>
   <si>
     <t xml:space="preserve">8.10176849365234</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11045169830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11913585662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16255378723145</t>
+    <t xml:space="preserve">8.11045265197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11913681030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16255283355713</t>
   </si>
   <si>
     <t xml:space="preserve">8.24070644378662</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">8.29280757904053</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50989723205566</t>
+    <t xml:space="preserve">8.50989627838135</t>
   </si>
   <si>
     <t xml:space="preserve">8.51163387298584</t>
@@ -89,25 +89,25 @@
     <t xml:space="preserve">8.38398551940918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31017589569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42306041717529</t>
+    <t xml:space="preserve">8.3101749420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42306137084961</t>
   </si>
   <si>
     <t xml:space="preserve">8.51858043670654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0222282409668</t>
+    <t xml:space="preserve">9.02222728729248</t>
   </si>
   <si>
     <t xml:space="preserve">8.89892101287842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84681797027588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93886470794678</t>
+    <t xml:space="preserve">8.8468189239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93886375427246</t>
   </si>
   <si>
     <t xml:space="preserve">8.94407558441162</t>
@@ -116,16 +116,16 @@
     <t xml:space="preserve">8.93539237976074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00485897064209</t>
+    <t xml:space="preserve">9.00486087799072</t>
   </si>
   <si>
     <t xml:space="preserve">8.97707271575928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02917385101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03091144561768</t>
+    <t xml:space="preserve">9.0291748046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03090953826904</t>
   </si>
   <si>
     <t xml:space="preserve">8.98749351501465</t>
@@ -134,43 +134,43 @@
     <t xml:space="preserve">9.33483600616455</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2480001449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46508979797363</t>
+    <t xml:space="preserve">9.24799919128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46508884429932</t>
   </si>
   <si>
     <t xml:space="preserve">9.5953426361084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68217849731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81243324279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7255973815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98610496520996</t>
+    <t xml:space="preserve">9.68217754364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81243228912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72559642791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98610305786133</t>
   </si>
   <si>
     <t xml:space="preserve">10.0295209884644</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76901435852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89926910400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85584926605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63876152038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55192565917969</t>
+    <t xml:space="preserve">9.76901531219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89926719665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85585021972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63876056671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55192470550537</t>
   </si>
   <si>
     <t xml:space="preserve">9.16116428375244</t>
@@ -179,25 +179,25 @@
     <t xml:space="preserve">9.29141807556152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07432842254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57936477661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63146591186523</t>
+    <t xml:space="preserve">9.0743293762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57936573028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63146686553955</t>
   </si>
   <si>
     <t xml:space="preserve">8.85723876953125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77040386199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20458316802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68356800079346</t>
+    <t xml:space="preserve">8.77040481567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20458221435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68356704711914</t>
   </si>
   <si>
     <t xml:space="preserve">8.45779418945312</t>
@@ -209,40 +209,40 @@
     <t xml:space="preserve">7.51996994018555</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02361583709717</t>
+    <t xml:space="preserve">8.02361679077148</t>
   </si>
   <si>
     <t xml:space="preserve">7.72837543487549</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98888254165649</t>
+    <t xml:space="preserve">7.98888206481934</t>
   </si>
   <si>
     <t xml:space="preserve">7.8152117729187</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78047704696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09308528900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38832759857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90065670013428</t>
+    <t xml:space="preserve">7.78047609329224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09308433532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38832664489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90065860748291</t>
   </si>
   <si>
     <t xml:space="preserve">9.11774635314941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81382179260254</t>
+    <t xml:space="preserve">8.81382083892822</t>
   </si>
   <si>
     <t xml:space="preserve">9.42167186737061</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0274715423584</t>
+    <t xml:space="preserve">9.02747058868408</t>
   </si>
   <si>
     <t xml:space="preserve">9.07260990142822</t>
@@ -254,19 +254,19 @@
     <t xml:space="preserve">10.1559057235718</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2913179397583</t>
+    <t xml:space="preserve">10.291316986084</t>
   </si>
   <si>
     <t xml:space="preserve">10.3815927505493</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4718685150146</t>
+    <t xml:space="preserve">10.4718675613403</t>
   </si>
   <si>
     <t xml:space="preserve">10.6072797775269</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5170040130615</t>
+    <t xml:space="preserve">10.5170049667358</t>
   </si>
   <si>
     <t xml:space="preserve">11.0135154724121</t>
@@ -284,13 +284,13 @@
     <t xml:space="preserve">10.8329668045044</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7878284454346</t>
+    <t xml:space="preserve">10.7878274917603</t>
   </si>
   <si>
     <t xml:space="preserve">11.1037902832031</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0586519241333</t>
+    <t xml:space="preserve">11.0586528778076</t>
   </si>
   <si>
     <t xml:space="preserve">10.9683780670166</t>
@@ -299,28 +299,28 @@
     <t xml:space="preserve">10.9232416152954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8781032562256</t>
+    <t xml:space="preserve">10.8781023025513</t>
   </si>
   <si>
     <t xml:space="preserve">10.6524171829224</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7426900863647</t>
+    <t xml:space="preserve">10.7426919937134</t>
   </si>
   <si>
     <t xml:space="preserve">10.5621423721313</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4267292022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6975545883179</t>
+    <t xml:space="preserve">10.4267301559448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6975536346436</t>
   </si>
   <si>
     <t xml:space="preserve">10.3364553451538</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2461805343628</t>
+    <t xml:space="preserve">10.2461814880371</t>
   </si>
   <si>
     <t xml:space="preserve">11.4197511672974</t>
@@ -335,28 +335,28 @@
     <t xml:space="preserve">11.5551643371582</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3746137619019</t>
+    <t xml:space="preserve">11.3746147155762</t>
   </si>
   <si>
     <t xml:space="preserve">11.5100259780884</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2392024993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4648895263672</t>
+    <t xml:space="preserve">11.2392015457153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4648885726929</t>
   </si>
   <si>
     <t xml:space="preserve">11.600302696228</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6905755996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7808513641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8259887695312</t>
+    <t xml:space="preserve">11.6905765533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7808523178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8259878158569</t>
   </si>
   <si>
     <t xml:space="preserve">11.8711252212524</t>
@@ -365,19 +365,19 @@
     <t xml:space="preserve">11.9162626266479</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9614009857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1419496536255</t>
+    <t xml:space="preserve">11.9614000320435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1419486999512</t>
   </si>
   <si>
     <t xml:space="preserve">12.457911491394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5481853485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3676347732544</t>
+    <t xml:space="preserve">12.5481843948364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3676357269287</t>
   </si>
   <si>
     <t xml:space="preserve">12.187087059021</t>
@@ -395,22 +395,22 @@
     <t xml:space="preserve">12.2322244644165</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3224983215332</t>
+    <t xml:space="preserve">12.3224992752075</t>
   </si>
   <si>
     <t xml:space="preserve">12.6205492019653</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7136888504028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5274085998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4808368682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6671199798584</t>
+    <t xml:space="preserve">12.7136898040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5274076461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4808378219604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6671190261841</t>
   </si>
   <si>
     <t xml:space="preserve">12.5739784240723</t>
@@ -419,10 +419,10 @@
     <t xml:space="preserve">12.2945566177368</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3876972198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.434268951416</t>
+    <t xml:space="preserve">12.3876981735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4342679977417</t>
   </si>
   <si>
     <t xml:space="preserve">12.9465398788452</t>
@@ -434,22 +434,22 @@
     <t xml:space="preserve">13.1793918609619</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9931116104126</t>
+    <t xml:space="preserve">12.9931106567383</t>
   </si>
   <si>
     <t xml:space="preserve">13.2725324630737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4588136672974</t>
+    <t xml:space="preserve">13.4588146209717</t>
   </si>
   <si>
     <t xml:space="preserve">13.5519552230835</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7848062515259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5985260009766</t>
+    <t xml:space="preserve">13.7848072052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5985250473022</t>
   </si>
   <si>
     <t xml:space="preserve">13.7382354736328</t>
@@ -458,7 +458,7 @@
     <t xml:space="preserve">13.9710874557495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8779458999634</t>
+    <t xml:space="preserve">13.8779468536377</t>
   </si>
   <si>
     <t xml:space="preserve">13.3656740188599</t>
@@ -473,16 +473,16 @@
     <t xml:space="preserve">13.645094871521</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8313770294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0642290115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.297080039978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7627820968628</t>
+    <t xml:space="preserve">13.8313760757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0642280578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2970790863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7627830505371</t>
   </si>
   <si>
     <t xml:space="preserve">15.321626663208</t>
@@ -491,19 +491,19 @@
     <t xml:space="preserve">15.6010475158691</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9270391464233</t>
+    <t xml:space="preserve">15.9270401000977</t>
   </si>
   <si>
     <t xml:space="preserve">15.8804683685303</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8339004516602</t>
+    <t xml:space="preserve">15.8338994979858</t>
   </si>
   <si>
     <t xml:space="preserve">15.6941890716553</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9736099243164</t>
+    <t xml:space="preserve">15.9736089706421</t>
   </si>
   <si>
     <t xml:space="preserve">16.4393119812012</t>
@@ -521,13 +521,13 @@
     <t xml:space="preserve">16.951587677002</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4172878265381</t>
+    <t xml:space="preserve">17.4172897338867</t>
   </si>
   <si>
     <t xml:space="preserve">17.6501426696777</t>
   </si>
   <si>
-    <t xml:space="preserve">17.789852142334</t>
+    <t xml:space="preserve">17.7898502349854</t>
   </si>
   <si>
     <t xml:space="preserve">17.4638595581055</t>
@@ -545,7 +545,7 @@
     <t xml:space="preserve">17.3707180023193</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3241500854492</t>
+    <t xml:space="preserve">17.3241481781006</t>
   </si>
   <si>
     <t xml:space="preserve">16.7653045654297</t>
@@ -554,7 +554,7 @@
     <t xml:space="preserve">16.8118743896484</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2996025085449</t>
+    <t xml:space="preserve">16.2996006011963</t>
   </si>
   <si>
     <t xml:space="preserve">16.1133193969727</t>
@@ -572,13 +572,13 @@
     <t xml:space="preserve">16.9050159454346</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9761333465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1624145507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8829917907715</t>
+    <t xml:space="preserve">17.976131439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1624126434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8829936981201</t>
   </si>
   <si>
     <t xml:space="preserve">17.8364219665527</t>
@@ -587,13 +587,13 @@
     <t xml:space="preserve">18.1158447265625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5349750518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.628116607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3486957550049</t>
+    <t xml:space="preserve">18.5349769592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6281147003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3486976623535</t>
   </si>
   <si>
     <t xml:space="preserve">18.5815467834473</t>
@@ -611,10 +611,10 @@
     <t xml:space="preserve">19.280101776123</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2115058898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1183662414551</t>
+    <t xml:space="preserve">20.2115077972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1183643341064</t>
   </si>
   <si>
     <t xml:space="preserve">19.8389434814453</t>
@@ -626,16 +626,16 @@
     <t xml:space="preserve">19.9320831298828</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6772079467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0252246856689</t>
+    <t xml:space="preserve">20.677209854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0252265930176</t>
   </si>
   <si>
     <t xml:space="preserve">19.1869602203369</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6526641845703</t>
+    <t xml:space="preserve">19.6526622772217</t>
   </si>
   <si>
     <t xml:space="preserve">21.7017555236816</t>
@@ -647,34 +647,34 @@
     <t xml:space="preserve">21.7948970794678</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4468803405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7263031005859</t>
+    <t xml:space="preserve">22.4468784332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7263011932373</t>
   </si>
   <si>
     <t xml:space="preserve">22.5400218963623</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2851448059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1920051574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0057220458984</t>
+    <t xml:space="preserve">23.2851467132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1920032501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0057239532471</t>
   </si>
   <si>
     <t xml:space="preserve">23.0988636016846</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9125843048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8194408416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3782863616943</t>
+    <t xml:space="preserve">22.9125823974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8194427490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3782844543457</t>
   </si>
   <si>
     <t xml:space="preserve">23.5645656585693</t>
@@ -683,22 +683,22 @@
     <t xml:space="preserve">21.8880367279053</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1674575805664</t>
+    <t xml:space="preserve">22.167459487915</t>
   </si>
   <si>
     <t xml:space="preserve">22.3537406921387</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2605991363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6331596374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0497741699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2360534667969</t>
+    <t xml:space="preserve">22.2605972290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6331615447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0497722625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2360515594482</t>
   </si>
   <si>
     <t xml:space="preserve">21.3291931152344</t>
@@ -707,25 +707,25 @@
     <t xml:space="preserve">21.4223346710205</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5840702056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3046455383301</t>
+    <t xml:space="preserve">20.5840682983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3046436309814</t>
   </si>
   <si>
     <t xml:space="preserve">20.8634910583496</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0006771087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1429119110107</t>
+    <t xml:space="preserve">19.0006790161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1429138183594</t>
   </si>
   <si>
     <t xml:space="preserve">19.3732395172119</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5595207214355</t>
+    <t xml:space="preserve">19.5595226287842</t>
   </si>
   <si>
     <t xml:space="preserve">19.466381072998</t>
@@ -734,16 +734,16 @@
     <t xml:space="preserve">18.7212581634521</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5722312927246</t>
+    <t xml:space="preserve">18.5722332000732</t>
   </si>
   <si>
     <t xml:space="preserve">18.3673229217529</t>
   </si>
   <si>
-    <t xml:space="preserve">17.622200012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0692710876465</t>
+    <t xml:space="preserve">17.6221981048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0692729949951</t>
   </si>
   <si>
     <t xml:space="preserve">18.6746845245361</t>
@@ -755,19 +755,19 @@
     <t xml:space="preserve">17.7525939941406</t>
   </si>
   <si>
-    <t xml:space="preserve">17.566312789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6594543457031</t>
+    <t xml:space="preserve">17.5663146972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6594524383545</t>
   </si>
   <si>
     <t xml:space="preserve">17.7339668273926</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9202461242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5104293823242</t>
+    <t xml:space="preserve">17.9202480316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5104274749756</t>
   </si>
   <si>
     <t xml:space="preserve">16.8211879730225</t>
@@ -809,13 +809,13 @@
     <t xml:space="preserve">16.5231380462646</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0968589782715</t>
+    <t xml:space="preserve">17.0968570709229</t>
   </si>
   <si>
     <t xml:space="preserve">17.5940837860107</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5367107391357</t>
+    <t xml:space="preserve">17.5367126464844</t>
   </si>
   <si>
     <t xml:space="preserve">17.364595413208</t>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">18.7224006652832</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3781681060791</t>
+    <t xml:space="preserve">18.3781661987305</t>
   </si>
   <si>
     <t xml:space="preserve">18.6459045410156</t>
@@ -884,31 +884,31 @@
     <t xml:space="preserve">16.274528503418</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8920469284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.719931602478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.217155456543</t>
+    <t xml:space="preserve">15.8920488357544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7199325561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2171535491943</t>
   </si>
   <si>
     <t xml:space="preserve">16.0067901611328</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1215343475342</t>
+    <t xml:space="preserve">16.1215362548828</t>
   </si>
   <si>
     <t xml:space="preserve">15.9111700057983</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8729248046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8346748352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6051874160767</t>
+    <t xml:space="preserve">15.8729238510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8346738815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6051864624023</t>
   </si>
   <si>
     <t xml:space="preserve">15.2992029190063</t>
@@ -920,25 +920,25 @@
     <t xml:space="preserve">16.7335033416748</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1159839630127</t>
+    <t xml:space="preserve">17.1159820556641</t>
   </si>
   <si>
     <t xml:space="preserve">16.752628326416</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0012397766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0394859313965</t>
+    <t xml:space="preserve">17.00124168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0394878387451</t>
   </si>
   <si>
     <t xml:space="preserve">18.1486797332764</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8235721588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6323318481445</t>
+    <t xml:space="preserve">17.8235702514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6323337554932</t>
   </si>
   <si>
     <t xml:space="preserve">17.7088279724121</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">16.9056205749512</t>
   </si>
   <si>
-    <t xml:space="preserve">16.829122543335</t>
+    <t xml:space="preserve">16.8291244506836</t>
   </si>
   <si>
     <t xml:space="preserve">16.88649559021</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">15.5860624313354</t>
   </si>
   <si>
-    <t xml:space="preserve">14.68723487854</t>
+    <t xml:space="preserve">14.6872339248657</t>
   </si>
   <si>
     <t xml:space="preserve">14.1900110244751</t>
@@ -1010,7 +1010,7 @@
     <t xml:space="preserve">13.6736631393433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6545381546021</t>
+    <t xml:space="preserve">13.6545391082764</t>
   </si>
   <si>
     <t xml:space="preserve">13.3485546112061</t>
@@ -1022,28 +1022,28 @@
     <t xml:space="preserve">13.0999422073364</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5644702911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4250497817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4768705368042</t>
+    <t xml:space="preserve">12.564471244812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4250507354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4768714904785</t>
   </si>
   <si>
     <t xml:space="preserve">14.4386234283447</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708869934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9413995742798</t>
+    <t xml:space="preserve">14.1708860397339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9413986206055</t>
   </si>
   <si>
     <t xml:space="preserve">13.9987716674805</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2473821640015</t>
+    <t xml:space="preserve">14.2473831176758</t>
   </si>
   <si>
     <t xml:space="preserve">14.2282590866089</t>
@@ -1052,16 +1052,16 @@
     <t xml:space="preserve">14.8593511581421</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0888395309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4713191986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3948230743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4521942138672</t>
+    <t xml:space="preserve">15.0888385772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4713201522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3948240280151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4521951675415</t>
   </si>
   <si>
     <t xml:space="preserve">15.3183279037476</t>
@@ -1088,28 +1088,28 @@
     <t xml:space="preserve">15.5669393539429</t>
   </si>
   <si>
-    <t xml:space="preserve">16.083288192749</t>
+    <t xml:space="preserve">16.0832862854004</t>
   </si>
   <si>
     <t xml:space="preserve">16.1980323791504</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7908763885498</t>
+    <t xml:space="preserve">16.7908744812012</t>
   </si>
   <si>
     <t xml:space="preserve">16.5805110931396</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1351089477539</t>
+    <t xml:space="preserve">17.1351070404053</t>
   </si>
   <si>
     <t xml:space="preserve">17.0203628540039</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6187591552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5613880157471</t>
+    <t xml:space="preserve">16.6187572479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5613861083984</t>
   </si>
   <si>
     <t xml:space="preserve">16.6761322021484</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">16.9438667297363</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4657649993896</t>
+    <t xml:space="preserve">16.4657669067383</t>
   </si>
   <si>
     <t xml:space="preserve">16.159782409668</t>
@@ -1130,10 +1130,10 @@
     <t xml:space="preserve">16.3318996429443</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1024131774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9876670837402</t>
+    <t xml:space="preserve">16.1024112701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9876661300659</t>
   </si>
   <si>
     <t xml:space="preserve">16.4466457366943</t>
@@ -1148,13 +1148,13 @@
     <t xml:space="preserve">17.3072242736816</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5175857543945</t>
+    <t xml:space="preserve">17.5175876617432</t>
   </si>
   <si>
     <t xml:space="preserve">17.7661991119385</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0721817016602</t>
+    <t xml:space="preserve">18.0721836090088</t>
   </si>
   <si>
     <t xml:space="preserve">17.7853240966797</t>
@@ -1163,10 +1163,10 @@
     <t xml:space="preserve">17.8618202209473</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3837184906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8044490814209</t>
+    <t xml:space="preserve">17.3837203979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8044471740723</t>
   </si>
   <si>
     <t xml:space="preserve">17.498462677002</t>
@@ -1175,13 +1175,13 @@
     <t xml:space="preserve">17.6897029876709</t>
   </si>
   <si>
-    <t xml:space="preserve">17.479341506958</t>
+    <t xml:space="preserve">17.4793395996094</t>
   </si>
   <si>
     <t xml:space="preserve">17.2307281494141</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0586109161377</t>
+    <t xml:space="preserve">17.0586128234863</t>
   </si>
   <si>
     <t xml:space="preserve">17.2116031646729</t>
@@ -1190,10 +1190,10 @@
     <t xml:space="preserve">17.4219665527344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3590450286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2251739501953</t>
+    <t xml:space="preserve">18.3590431213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2251758575439</t>
   </si>
   <si>
     <t xml:space="preserve">18.9327621459961</t>
@@ -1211,7 +1211,7 @@
     <t xml:space="preserve">20.1758232116699</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4148750305176</t>
+    <t xml:space="preserve">20.4148731231689</t>
   </si>
   <si>
     <t xml:space="preserve">20.5104942321777</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">20.2236347198486</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7933464050293</t>
+    <t xml:space="preserve">19.7933444976807</t>
   </si>
   <si>
     <t xml:space="preserve">19.6021041870117</t>
@@ -1244,16 +1244,16 @@
     <t xml:space="preserve">20.7495441436768</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6539249420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7973537445068</t>
+    <t xml:space="preserve">20.653923034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7973556518555</t>
   </si>
   <si>
     <t xml:space="preserve">20.7017345428467</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0364036560059</t>
+    <t xml:space="preserve">21.0364055633545</t>
   </si>
   <si>
     <t xml:space="preserve">20.8451633453369</t>
@@ -32800,7 +32800,7 @@
     </row>
     <row r="1193">
       <c r="A1193" s="1" t="n">
-        <v>45488.6496412037</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B1193" t="n">
         <v>16828</v>
@@ -32821,6 +32821,32 @@
         <v>484</v>
       </c>
       <c r="H1193" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="1" t="n">
+        <v>45489.6493171296</v>
+      </c>
+      <c r="B1194" t="n">
+        <v>8296</v>
+      </c>
+      <c r="C1194" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="D1194" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>25.6000003814697</v>
+      </c>
+      <c r="G1194" t="s">
+        <v>484</v>
+      </c>
+      <c r="H1194" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SCF.MI.xlsx
+++ b/data/SCF.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/20